--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEA31C0-DEAF-4FF1-89A9-BFC1431C8219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F09E0C-4FFF-4FFD-ACC9-3E57E4F28184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
   <si>
     <t>trial_id</t>
   </si>
@@ -79,9 +79,6 @@
 Fisher's exact test</t>
   </si>
   <si>
-    <t>NCT03000348(CARE-CF-1)</t>
-  </si>
-  <si>
     <t>Oral cysteamine as an adjunct treatment in cystic fibrosis pulmonary exacerbations: An exploratory randomized clinical trial</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
   </si>
   <si>
     <t>https://peerj.com/articles/10709/</t>
-  </si>
-  <si>
-    <t>countinuous</t>
   </si>
   <si>
     <t>No, primary outcomes not significantly different</t>
@@ -153,13 +147,173 @@
   </si>
   <si>
     <t># of arm</t>
+  </si>
+  <si>
+    <t>Village-wide prophylaxis arm:
+Significant reduction in attack rate compared to the control arm
+Household prophylaxis arm:
+No significant difference from the control arm</t>
+  </si>
+  <si>
+    <t>Cluster-level t-tests (log-transformed ARs)
+Poisson regression with overdispersion adjustment for adjusted AR ratios
+Mixed-effects logistic regression for individual-level effectiveness
+Linear regression with generalized estimating equations (GEE) for resistance sub-study</t>
+  </si>
+  <si>
+    <t>UMIN000004490</t>
+  </si>
+  <si>
+    <t>The Effect of Sitagliptin on Carotid Artery Atherosclerosis in Type 2 Diabetes: The PROLOGUE Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pmed.1002051</t>
+  </si>
+  <si>
+    <t>No. The difference in IMT change was not statistically significant</t>
+  </si>
+  <si>
+    <t>ANCOVA
+Mixed-effects model for repeated measures (as sensitivity analysis)</t>
+  </si>
+  <si>
+    <t>NCT03000348</t>
+  </si>
+  <si>
+    <t>Exploratory data on the clinical efficacy of monoclonal antibodies against SARS-CoV-2 Omicron variant of concern</t>
+  </si>
+  <si>
+    <t>https://elifesciences.org/articles/79639</t>
+  </si>
+  <si>
+    <t>NCT05205759</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Composite binary outcome</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No, the trial did not succeed in demonstrating a significant difference in the primary outcome (COVID-19 progression through day 14) between treatment arms
+Additionally, the trial was </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>underpowered</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> due to early discontinuation (only ~25% of target sample enrolled), which limited its ability to detect non-inferiority or superiority.</t>
+    </r>
+  </si>
+  <si>
+    <t>Kaplan-Meier estimator and Cox proportional hazard model
+Log-rank tests
+Wilcoxon and Fisher’s exact tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paired t-tests (main comparisons between DDD-60 and DDD-80)
+Wilcoxon signed-rank test (nonparametric sensitivity)
+Two-way repeated measures ANOVA
+</t>
+  </si>
+  <si>
+    <t>MSNA burst incidence significantly decreased at 80 bpm (mean: 51 vs 64 bursts/100 RR, p &lt; 0.05)
+NT-proBNP: no significant difference (p = 0.3 by paired t-test; p = 0.44 by ANOVA)</t>
+  </si>
+  <si>
+    <t>Optimal Cardiac Resynchronization Therapy Pacing Rate in Non-Ischemic Heart Failure Patients: A Randomized Crossover Pilot Trial</t>
+  </si>
+  <si>
+    <t>NCT02258061</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0138124</t>
+  </si>
+  <si>
+    <t>NCT04379336</t>
+  </si>
+  <si>
+    <t>No,HR = 2.0 (95% CI 0.69–5.9), p = 0.20</t>
+  </si>
+  <si>
+    <t>Safety and efficacy of BCG re-vaccination in relation to
+COVID-19 morbidity in healthcare workers: A doubleblind, randomised, controlled, phase 3 trial</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.
+eclinm.2022.101414</t>
+  </si>
+  <si>
+    <t>Cox proportional hazards model
+time-to-event analyses
+post hoc Markovian analysis</t>
+  </si>
+  <si>
+    <t>Binary time-to-event</t>
+  </si>
+  <si>
+    <t>NCT02050360</t>
+  </si>
+  <si>
+    <t>On-Demand Sildenafil as a Treatment for Raynaud Phenomenon
+A Series of n-of-1 Trials</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.7326/M18-0517</t>
+  </si>
+  <si>
+    <t>2/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No (at population level):
+High individual-level probability of sildenafil &gt; placebo (≥90%)
+But aggregated effect size was not clinically relevant
+ Yes (for select individuals):
+Some participants showed clinically meaningful improvement
+</t>
+  </si>
+  <si>
+    <t>Bayesian mixed-effects models
+Outcomes estimated using adjusted relative variation (aRV)
+Model covariates included sex, age, temperature, humidity, RP type, and CCB use
+Aggregated and individual probabilities of superiority calculated</t>
+  </si>
+  <si>
+    <t>https://bmjopen.bmj.com/content/11/12/e050271</t>
+  </si>
+  <si>
+    <t>NCT02252588</t>
+  </si>
+  <si>
+    <t>Chlorhexidine oral rinses for symptomatic COPD: a randomised, blind, placebo-controlled preliminary study</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No, the trial did not meet its primary outcome. There was no statistically significant difference in oral or sputum microbiota biomass between the chlorhexidine and placebo groups (oral microbiota p=0.665; sputum microbiota p=0.096 without imputation, p=0.078 with imputation)</t>
+  </si>
+  <si>
+    <t>Primary analysis: Two-sample t-test on log10-transformed biomass data, with multiple imputation for missing sputum weights
+Secondary analyses: Linear regression models for biodiversity indices, BCSS, SGRQ and inflammatory markers, with each model adjusted for the baseline value of the measure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +356,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -238,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -262,8 +423,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,14 +715,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -557,7 +730,7 @@
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
@@ -574,7 +747,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>4</v>
@@ -583,7 +756,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>6</v>
@@ -656,18 +829,18 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
     </row>
-    <row r="3" spans="1:26" ht="240">
+    <row r="3" spans="1:26" ht="150">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="E3" s="3">
         <v>2</v>
@@ -679,13 +852,13 @@
         <v>400</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -708,14 +881,14 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="E4" s="3">
         <v>6</v>
@@ -730,10 +903,10 @@
         <v>11</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -757,13 +930,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="E5" s="3">
         <v>2</v>
@@ -775,13 +948,13 @@
         <v>75</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -800,25 +973,37 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
     </row>
-    <row r="6" spans="1:26" ht="75">
+    <row r="6" spans="1:26" ht="180">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3">
+        <v>297</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -836,19 +1021,37 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" ht="60">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3">
+        <v>463</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -866,19 +1069,37 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" ht="165">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="B8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="3">
+        <v>311</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -896,19 +1117,37 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" ht="120">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="B9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>12</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -926,19 +1165,37 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="75">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="B10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -956,19 +1213,37 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" ht="165">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="3">
+        <v>38</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -986,19 +1261,37 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" ht="135">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>44</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F09E0C-4FFF-4FFD-ACC9-3E57E4F28184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067506DB-77E5-439A-A46F-505E7ADC4B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,31 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
-  <si>
-    <t>trial_id</t>
-  </si>
-  <si>
-    <t>trial name</t>
-  </si>
-  <si>
-    <t>paper name</t>
-  </si>
-  <si>
-    <t>paper link</t>
-  </si>
-  <si>
-    <t>phase</t>
-  </si>
-  <si>
-    <t>sample size</t>
-  </si>
-  <si>
-    <t>trial success</t>
-  </si>
-  <si>
-    <t>statistical model</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="90">
   <si>
     <t>NCT02491333</t>
   </si>
@@ -66,9 +42,6 @@
   </si>
   <si>
     <t>https://doi.org/10.1093/humrep/deab272</t>
-  </si>
-  <si>
-    <t>continuous</t>
   </si>
   <si>
     <t>No, the primary outcome is not signicantly better</t>
@@ -107,9 +80,6 @@
     <t xml:space="preserve">independent t-test
 quantile regression
 </t>
-  </si>
-  <si>
-    <t>primary outcome type</t>
   </si>
   <si>
     <t>NCT04523831</t>
@@ -144,9 +114,6 @@
   </si>
   <si>
     <t>https://doi.org/10.1371/journal.pmed.1002593</t>
-  </si>
-  <si>
-    <t># of arm</t>
   </si>
   <si>
     <t>Village-wide prophylaxis arm:
@@ -305,8 +272,108 @@
     <t xml:space="preserve"> No, the trial did not meet its primary outcome. There was no statistically significant difference in oral or sputum microbiota biomass between the chlorhexidine and placebo groups (oral microbiota p=0.665; sputum microbiota p=0.096 without imputation, p=0.078 with imputation)</t>
   </si>
   <si>
+    <t>PACTR201105000289276</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0114602</t>
+  </si>
+  <si>
     <t>Primary analysis: Two-sample t-test on log10-transformed biomass data, with multiple imputation for missing sputum weights
 Secondary analyses: Linear regression models for biodiversity indices, BCSS, SGRQ and inflammatory markers, with each model adjusted for the baseline value of the measure</t>
+  </si>
+  <si>
+    <t>Wilcoxon rank-sum test (between arms)
+Wilcoxon signed-rank test (within-person change)
+Linear regression for slope of CD4 and viral load change</t>
+  </si>
+  <si>
+    <t>NCT02954068</t>
+  </si>
+  <si>
+    <t>Does route matter? Impact of route of oxytocin administration on postpartum bleeding: A double-blind, randomized controlled trial</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0222981</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Binary (proportion with blood loss ≥ 500 ml)
+Continuous (mean blood loss in ml)</t>
+  </si>
+  <si>
+    <t>Categorical variables: Pearson χ² or Fisher’s exact tests
+Continuous variables: Independent t-tests or Mann-Whitney U tests (depending on normality)</t>
+  </si>
+  <si>
+    <t>Safety and Immunogenicity of H1/IC31H,
+an Adjuvanted TB Subunit Vaccine, in HIV-Infected Adults with CD4+ Lymphocyte
+Counts Greater than 350 cells/mm3: A
+Phase II, Multi-Centre, Double-Blind,
+Randomized, Placebo-Controlled Trial</t>
+  </si>
+  <si>
+    <t>ChiCTR2000031834</t>
+  </si>
+  <si>
+    <t>A telerehabilitation programme in post-discharge
+COVID-19 patients (TERECO): a randomised
+controlled trial</t>
+  </si>
+  <si>
+    <t>https://thorax.bmj.com/content/77/7/697</t>
+  </si>
+  <si>
+    <t>Control Group</t>
+  </si>
+  <si>
+    <t>Trial_ID</t>
+  </si>
+  <si>
+    <t>trial Registration Number</t>
+  </si>
+  <si>
+    <t>Paper Name</t>
+  </si>
+  <si>
+    <t>Paper Link</t>
+  </si>
+  <si>
+    <t># of Arm</t>
+  </si>
+  <si>
+    <t>Study Phase</t>
+  </si>
+  <si>
+    <t>Sample Size</t>
+  </si>
+  <si>
+    <t>Primary Outcome Type</t>
+  </si>
+  <si>
+    <t>Trial Success</t>
+  </si>
+  <si>
+    <t>Statistical Model</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>No Active Rehabilitation</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>Priamry Outcome</t>
+  </si>
+  <si>
+    <t>6-minute walking distance (6MWD) in meters at 6 weeks (post-treatment) and at follow-up (~28 weeks)</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -399,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -429,14 +496,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -713,59 +786,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z23"/>
+  <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" customWidth="1"/>
+    <col min="10" max="10" width="40.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="44.42578125" style="14" customWidth="1"/>
+    <col min="12" max="12" width="38.7109375" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" customHeight="1">
+    <row r="1" spans="1:28" ht="18" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>4</v>
+        <v>78</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>23</v>
+        <v>79</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -780,40 +859,42 @@
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
-    </row>
-    <row r="2" spans="1:26" ht="60">
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+    </row>
+    <row r="2" spans="1:28" ht="60">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E2" s="3">
         <v>3</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3">
         <v>3</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>342</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -828,40 +909,42 @@
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
-    </row>
-    <row r="3" spans="1:26" ht="150">
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+    </row>
+    <row r="3" spans="1:28" ht="150">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3">
         <v>2</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3">
         <v>3</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>400</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="I3" s="3"/>
       <c r="J3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -876,40 +959,42 @@
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
-    </row>
-    <row r="4" spans="1:26" ht="45">
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+    </row>
+    <row r="4" spans="1:28" ht="45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E4" s="3">
         <v>6</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
         <v>2</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>89</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -924,40 +1009,42 @@
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
-    </row>
-    <row r="5" spans="1:26" ht="60">
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+    </row>
+    <row r="5" spans="1:28" ht="60">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3">
         <v>2</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>75</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -972,40 +1059,42 @@
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
-    </row>
-    <row r="6" spans="1:26" ht="180">
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+    </row>
+    <row r="6" spans="1:28" ht="180">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3">
         <v>3</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
         <v>4</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>297</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -1020,40 +1109,42 @@
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
-    </row>
-    <row r="7" spans="1:26" ht="60">
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+    </row>
+    <row r="7" spans="1:28" ht="60">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>37</v>
+        <v>25</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E7" s="3">
         <v>2</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
         <v>4</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>463</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -1068,40 +1159,42 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
-    </row>
-    <row r="8" spans="1:26" ht="165">
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+    </row>
+    <row r="8" spans="1:28" ht="135">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="F8" s="3"/>
+      <c r="G8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="3">
         <v>311</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="I8" s="3"/>
       <c r="J8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -1116,40 +1209,42 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
-    </row>
-    <row r="9" spans="1:26" ht="120">
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+    </row>
+    <row r="9" spans="1:28" ht="120">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>51</v>
+        <v>41</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E9" s="3">
         <v>2</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
         <v>1</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -1164,40 +1259,42 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
-    </row>
-    <row r="10" spans="1:26" ht="75">
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+    </row>
+    <row r="10" spans="1:28" ht="75">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>56</v>
+        <v>43</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3">
         <v>2</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="F10" s="3"/>
+      <c r="G10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="3">
         <v>1000</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="I10" s="3"/>
       <c r="J10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -1212,40 +1309,42 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
-    </row>
-    <row r="11" spans="1:26" ht="165">
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+    </row>
+    <row r="11" spans="1:28" ht="165">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>62</v>
+        <v>49</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E11" s="3">
         <v>3</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="F11" s="3"/>
+      <c r="G11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="3">
         <v>38</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1260,40 +1359,42 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
-    </row>
-    <row r="12" spans="1:26" ht="135">
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+    </row>
+    <row r="12" spans="1:28" ht="150">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>66</v>
+        <v>56</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E12" s="3">
         <v>2</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3">
         <v>2</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>44</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1308,22 +1409,42 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+    </row>
+    <row r="13" spans="1:28" ht="105">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="G13" s="3">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3">
+        <v>48</v>
+      </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="J13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -1338,22 +1459,42 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+    </row>
+    <row r="14" spans="1:28" ht="90">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2</v>
+      </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="G14" s="3">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>543</v>
+      </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="J14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>68</v>
+      </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -1368,23 +1509,47 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+    </row>
+    <row r="15" spans="1:28" ht="60">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="3">
+        <v>119</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -1398,8 +1563,10 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1412,8 +1579,8 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -1428,13 +1595,15 @@
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1442,8 +1611,8 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -1458,13 +1627,15 @@
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1472,8 +1643,8 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -1488,13 +1659,15 @@
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1502,8 +1675,8 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -1518,13 +1691,15 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1532,8 +1707,8 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -1548,13 +1723,15 @@
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1562,8 +1739,8 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
@@ -1578,13 +1755,15 @@
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1592,8 +1771,8 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -1608,13 +1787,15 @@
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1622,8 +1803,8 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
@@ -1638,6 +1819,8 @@
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067506DB-77E5-439A-A46F-505E7ADC4B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5FBEEB-1D3E-4A99-B82E-AD6C3B284C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="116">
   <si>
     <t>NCT02491333</t>
   </si>
@@ -299,10 +299,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Binary (proportion with blood loss ≥ 500 ml)
-Continuous (mean blood loss in ml)</t>
-  </si>
-  <si>
     <t>Categorical variables: Pearson χ² or Fisher’s exact tests
 Continuous variables: Independent t-tests or Mann-Whitney U tests (depending on normality)</t>
   </si>
@@ -331,9 +327,6 @@
     <t>Trial_ID</t>
   </si>
   <si>
-    <t>trial Registration Number</t>
-  </si>
-  <si>
     <t>Paper Name</t>
   </si>
   <si>
@@ -352,9 +345,6 @@
     <t>Primary Outcome Type</t>
   </si>
   <si>
-    <t>Trial Success</t>
-  </si>
-  <si>
     <t>Statistical Model</t>
   </si>
   <si>
@@ -374,18 +364,130 @@
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>For primary outcome and most secondary continuous outcomes: Constrained longitudinal data analysis (linear mixed effects model with equality constraint on baseline means), adjusted for center (fixed effect) with random intercept for participants
+For mMRC-dyspnoea: Generalized linear model of the Poisson family with a log link, adjusted for center and using natural logarithm of the number of observed occasions as offset, with cluster robust standard errors</t>
+  </si>
+  <si>
+    <t>Conventional Only</t>
+  </si>
+  <si>
+    <t>Proportion with Blood Loss ≥ 500: Binary
+Mean Blood Loss: Continuous</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ctim.2025.103139</t>
+  </si>
+  <si>
+    <t>The effect of Snoezelen intervention on problem behaviors in children with cerebral palsy: A randomized controlled trial</t>
+  </si>
+  <si>
+    <t>KCT0002794</t>
+  </si>
+  <si>
+    <t>Trial Number</t>
+  </si>
+  <si>
+    <t>Change in Child Behavior Checklist (CBCL 1.5–5) scores (pre- vs. post-intervention)</t>
+  </si>
+  <si>
+    <t>Trial Success(Primary Outcome Significant)</t>
+  </si>
+  <si>
+    <t>Within-group: Wilcoxon signed-rank test
+Between-group: Mann-Whitney U test
+Correlation: Spearman’s rank correlation (ρ)
+Association: Linear regression (R² for GMFCS vs. change in emotional reactivity)</t>
+  </si>
+  <si>
+    <t>Waitlist</t>
+  </si>
+  <si>
+    <t>NCT01573130</t>
+  </si>
+  <si>
+    <t>Internet-delivered therapist-guided
+physical activity for mild to moderate
+depression: a randomized controlled trial</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.7717/peerj.178</t>
+  </si>
+  <si>
+    <t>Reduction in depressive symptoms as measured by the Beck Depression Inventory-II (BDI-II)</t>
+  </si>
+  <si>
+    <t>Two-way mixed ANOVA (group × time)</t>
+  </si>
+  <si>
+    <t>The Effectiveness and Safety of Intensive Lipid-Lowering with
+Different Rosuvastatin-Based Regimens in Patients at High
+Cardiovascular Disease Risk: A Nonblind, Randomized, Controlled
+Trial</t>
+  </si>
+  <si>
+    <t>ChiCTR2200058389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://doi.org/10.31083/j.rcm2408222</t>
+  </si>
+  <si>
+    <t>Statin</t>
+  </si>
+  <si>
+    <t>Change in lipid levels (total cholesterol and LDL-C) from baseline at 24 weeks</t>
+  </si>
+  <si>
+    <t>Within-group changes: Wilcoxon signed-rank test with rank-biserial correlation
+Between-group comparisons: Kruskal–Wallis one-way ANOVA with Dunn’s post-hoc test
+Target-achievement analysis: Multivariate logistic regression (adjusting for covariates)</t>
+  </si>
+  <si>
+    <t>Disengagement: Time-to-event
+Time in care: Continuous proportion</t>
+  </si>
+  <si>
+    <t>NCT02474992</t>
+  </si>
+  <si>
+    <t>The Kanyakla study: Randomized controlled trial of a microclinic social network intervention for promoting engagement and retention in HIV care in rural western Kenya</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0255945</t>
+  </si>
+  <si>
+    <t>Usual Care</t>
+  </si>
+  <si>
+    <t>Time to disengagement: first ≥90-day absence from any HIV care visit in 12 months
+Time in care: proportion of time adherent to appointments over 12 months</t>
+  </si>
+  <si>
+    <t>Disengagement: Cox proportional hazards
+Time in Care: linear regression with bootstrapping
+Continuous outcomes (social support, stigma): linear regression with 10,000-replication bootstrap, adjusting for baseline.
+Disclosure counts: Poisson regression, adjusting for baseline, with robust SE for clustering</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -466,50 +568,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -788,62 +891,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" style="13" customWidth="1"/>
     <col min="4" max="4" width="16.140625" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.5703125" customWidth="1"/>
-    <col min="10" max="10" width="40.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="44.42578125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="38.7109375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.42578125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="38.7109375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="18" customHeight="1">
       <c r="A1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="K1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -869,7 +972,7 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -887,12 +990,12 @@
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="M2" s="4"/>
@@ -919,7 +1022,7 @@
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -939,10 +1042,10 @@
       <c r="J3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="12" t="s">
         <v>19</v>
       </c>
       <c r="M3" s="4"/>
@@ -969,7 +1072,7 @@
       <c r="B4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -987,12 +1090,12 @@
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K4" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="11" t="s">
         <v>8</v>
       </c>
       <c r="M4" s="4"/>
@@ -1012,14 +1115,14 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
     </row>
-    <row r="5" spans="1:28" ht="60">
+    <row r="5" spans="1:28" ht="45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1037,12 +1140,12 @@
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="M5" s="4"/>
@@ -1069,7 +1172,7 @@
       <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1087,12 +1190,12 @@
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K6" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="11" t="s">
         <v>24</v>
       </c>
       <c r="M6" s="4"/>
@@ -1119,7 +1222,7 @@
       <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1137,12 +1240,12 @@
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="11" t="s">
         <v>29</v>
       </c>
       <c r="M7" s="4"/>
@@ -1169,7 +1272,7 @@
       <c r="B8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1189,10 +1292,10 @@
       <c r="J8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="12" t="s">
         <v>37</v>
       </c>
       <c r="M8" s="4"/>
@@ -1219,10 +1322,10 @@
       <c r="B9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="3">
@@ -1237,12 +1340,12 @@
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K9" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="12" t="s">
         <v>38</v>
       </c>
       <c r="M9" s="4"/>
@@ -1269,7 +1372,7 @@
       <c r="B10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>45</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1289,10 +1392,10 @@
       <c r="J10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="12" t="s">
         <v>47</v>
       </c>
       <c r="M10" s="4"/>
@@ -1319,7 +1422,7 @@
       <c r="B11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1329,7 +1432,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>52</v>
       </c>
       <c r="H11" s="3">
@@ -1337,12 +1440,12 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K11" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="11" t="s">
         <v>54</v>
       </c>
       <c r="M11" s="4"/>
@@ -1369,7 +1472,7 @@
       <c r="B12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>57</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1387,12 +1490,12 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K12" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="11" t="s">
         <v>61</v>
       </c>
       <c r="M12" s="4"/>
@@ -1419,8 +1522,8 @@
       <c r="B13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>69</v>
+      <c r="C13" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>60</v>
@@ -1437,12 +1540,12 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K13" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="L13" s="11" t="s">
         <v>62</v>
       </c>
       <c r="M13" s="4"/>
@@ -1469,7 +1572,7 @@
       <c r="B14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="11" t="s">
         <v>64</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1487,13 +1590,13 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="12" t="s">
         <v>67</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>68</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -1512,43 +1615,45 @@
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
     </row>
-    <row r="15" spans="1:28" ht="60">
+    <row r="15" spans="1:28" ht="210">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="D15" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>72</v>
       </c>
       <c r="E15" s="3">
         <v>2</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H15" s="3">
         <v>119</v>
       </c>
-      <c r="I15" s="12" t="s">
-        <v>88</v>
+      <c r="I15" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="J15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="M15" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -1566,22 +1671,46 @@
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" ht="150">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="4"/>
+      <c r="B16" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="3">
+        <v>28</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>86</v>
+      </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -1598,22 +1727,46 @@
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" ht="60">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="3">
+        <v>48</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
@@ -1630,22 +1783,46 @@
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" ht="150">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="3">
+        <v>294</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
@@ -1662,22 +1839,46 @@
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" ht="210">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="3">
+        <v>295</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
@@ -1699,7 +1900,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="12"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1707,8 +1908,8 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -1731,7 +1932,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="12"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1739,8 +1940,8 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
@@ -1763,7 +1964,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="12"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1771,8 +1972,8 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -1795,7 +1996,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="12"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1803,8 +2004,8 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5FBEEB-1D3E-4A99-B82E-AD6C3B284C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D92FE6F-0679-42A9-9E3D-C79E289049E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-101" yWindow="-101" windowWidth="29002" windowHeight="15682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="139">
   <si>
     <t>NCT02491333</t>
   </si>
@@ -469,6 +469,88 @@
 Time in Care: linear regression with bootstrapping
 Continuous outcomes (social support, stigma): linear regression with 10,000-replication bootstrap, adjusting for baseline.
 Disclosure counts: Poisson regression, adjusting for baseline, with robust SE for clustering</t>
+  </si>
+  <si>
+    <t>Prospective Randomized Trial Comparing
+Hepatic Venous Outflow and Renal Function
+after Conventional versus Piggyback Liver
+Transplantation</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0129923</t>
+  </si>
+  <si>
+    <t>NCT01707810</t>
+  </si>
+  <si>
+    <t>Conventional</t>
+  </si>
+  <si>
+    <t>Hepatic venous outflow drainage, quantified by the free hepatic venous pressure (FHVP) to central venous pressure (CVP) gradient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary outcome: Student’s t-test / ANOVA (or Mann–Whitney if non-normal), plus χ² or Fisher’s exact for categorical comparisons
+Secondary outcomes: Generalized Estimating Equations (GEE) for longitudinal serum creatinine and for binary severe ARF; Kaplan–Meier curves with log-rank test for survival analysis </t>
+  </si>
+  <si>
+    <t>NCT02089477</t>
+  </si>
+  <si>
+    <t>Effect of ecological momentary assessment,
+goal-setting and personalized phone-calls on
+adherence to interval walking training using
+the InterWalk application among patients with
+type 2 diabetes—A pilot randomized
+controlled trial</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0208181</t>
+  </si>
+  <si>
+    <t>Primary outcome: Mixed effects model with fixed effects for group, age, and sex
+Secondary outcomes: Mixed linear models with same fixed factors as for primary outcome, additionally adjusted for respective baseline values</t>
+  </si>
+  <si>
+    <t>No(ITT analysis)</t>
+  </si>
+  <si>
+    <t>Adherence to interval walking training (IWT) measured as total accumulated minutes of IWT during the 12-week intervention period</t>
+  </si>
+  <si>
+    <t>IWT only</t>
+  </si>
+  <si>
+    <t>SOC</t>
+  </si>
+  <si>
+    <t>NCT03519425</t>
+  </si>
+  <si>
+    <t>Time in days (up to day 56) to TB treatment initiation</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pmed.1003752</t>
+  </si>
+  <si>
+    <t>Computer-aided X-ray screening for tuberculosis and HIV testing among adults with cough in Malawi (the PROSPECT study): A randomised trial and cost-effectiveness analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes
+Compared to SOC, the HIV-TB screening arm significantly shortened time to TB treatment (HR 2.86; 95% CI 1.04–7.87; p = 0.04). The HIV-only arm did not differ significantly (HR 1.51; 95% CI 0.49–4.62) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary outcome: log-rank test and unadjusted Cox proportional-hazards models
+Secondary binary outcomes: binomial regression with log link (risk ratios)
+</t>
+  </si>
+  <si>
+    <t>A feasibility randomized controlled superiority trial of fluticasone-vilanterol once daily use for the treatment of mild asthma in adults</t>
+  </si>
+  <si>
+    <t>NCT04265105</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.12688/f1000research.136628.1</t>
   </si>
 </sst>
 </file>
@@ -541,7 +623,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -564,11 +646,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -613,6 +708,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -889,26 +1000,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB23"/>
+  <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.65"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.5703125" customWidth="1"/>
-    <col min="10" max="10" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.42578125" style="13" customWidth="1"/>
-    <col min="12" max="12" width="38.7109375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="7.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.69921875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="16.09765625" customWidth="1"/>
+    <col min="5" max="5" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.59765625" customWidth="1"/>
+    <col min="10" max="10" width="38.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.3984375" style="13" customWidth="1"/>
+    <col min="12" max="12" width="38.69921875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="18" customHeight="1">
@@ -965,7 +1076,7 @@
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
     </row>
-    <row r="2" spans="1:28" ht="60">
+    <row r="2" spans="1:28" ht="43.9">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1015,7 +1126,7 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
     </row>
-    <row r="3" spans="1:28" ht="150">
+    <row r="3" spans="1:28" ht="146.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1065,7 +1176,7 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
     </row>
-    <row r="4" spans="1:28" ht="45">
+    <row r="4" spans="1:28" ht="43.9">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1115,7 +1226,7 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
     </row>
-    <row r="5" spans="1:28" ht="45">
+    <row r="5" spans="1:28" ht="43.9">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1165,7 +1276,7 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
     </row>
-    <row r="6" spans="1:28" ht="180">
+    <row r="6" spans="1:28" ht="160.9">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1215,7 +1326,7 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
     </row>
-    <row r="7" spans="1:28" ht="60">
+    <row r="7" spans="1:28" ht="58.5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1265,7 +1376,7 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
     </row>
-    <row r="8" spans="1:28" ht="135">
+    <row r="8" spans="1:28" ht="131.65">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1315,7 +1426,7 @@
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
     </row>
-    <row r="9" spans="1:28" ht="120">
+    <row r="9" spans="1:28" ht="117">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1365,7 +1476,7 @@
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
     </row>
-    <row r="10" spans="1:28" ht="75">
+    <row r="10" spans="1:28" ht="73.150000000000006">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1415,7 +1526,7 @@
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
     </row>
-    <row r="11" spans="1:28" ht="165">
+    <row r="11" spans="1:28" ht="160.9">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1465,7 +1576,7 @@
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
     </row>
-    <row r="12" spans="1:28" ht="150">
+    <row r="12" spans="1:28" ht="146.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1515,7 +1626,7 @@
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
     </row>
-    <row r="13" spans="1:28" ht="105">
+    <row r="13" spans="1:28" ht="102.4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1565,7 +1676,7 @@
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
     </row>
-    <row r="14" spans="1:28" ht="90">
+    <row r="14" spans="1:28" ht="87.75">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1615,7 +1726,7 @@
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
     </row>
-    <row r="15" spans="1:28" ht="210">
+    <row r="15" spans="1:28" ht="204.75">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1671,7 +1782,7 @@
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
     </row>
-    <row r="16" spans="1:28" ht="150">
+    <row r="16" spans="1:28" ht="117">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1727,7 +1838,7 @@
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
     </row>
-    <row r="17" spans="1:28" ht="60">
+    <row r="17" spans="1:28" ht="58.5">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1783,7 +1894,7 @@
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
     </row>
-    <row r="18" spans="1:28" ht="150">
+    <row r="18" spans="1:28" ht="117">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1839,7 +1950,7 @@
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
     </row>
-    <row r="19" spans="1:28" ht="210">
+    <row r="19" spans="1:28" ht="190.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1849,7 +1960,7 @@
       <c r="C19" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="2" t="s">
         <v>112</v>
       </c>
       <c r="E19" s="3">
@@ -1895,22 +2006,46 @@
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" ht="131.65">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="4"/>
+      <c r="B20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="3">
+        <v>32</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
@@ -1927,22 +2062,46 @@
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" ht="87.75">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="3">
+        <v>37</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -1959,22 +2118,46 @@
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" ht="102.4">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="4"/>
+      <c r="B22" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1462</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>86</v>
+      </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
@@ -1991,13 +2174,19 @@
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" ht="43.9">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="3"/>
+      <c r="B23" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>138</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -2006,7 +2195,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
-      <c r="M23" s="4"/>
+      <c r="M23" s="18"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
@@ -2023,6 +2212,134 @@
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
     </row>
+    <row r="24" spans="1:28">
+      <c r="A24" s="16">
+        <v>23</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" s="16">
+        <v>24</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="A28" s="16">
+        <v>27</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="A29" s="16">
+        <v>28</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+    </row>
+    <row r="30" spans="1:28">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+    </row>
+    <row r="31" spans="1:28">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D92FE6F-0679-42A9-9E3D-C79E289049E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D3EDF8-E342-457B-AFD8-EF3F50033F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-101" yWindow="-101" windowWidth="29002" windowHeight="15682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="202">
   <si>
     <t>NCT02491333</t>
   </si>
@@ -44,27 +44,6 @@
     <t>https://doi.org/10.1093/humrep/deab272</t>
   </si>
   <si>
-    <t>No, the primary outcome is not signicantly better</t>
-  </si>
-  <si>
-    <t>Mann–Whitney U test 
-Kolmogorov-Smirnov test
-Fisher's exact test</t>
-  </si>
-  <si>
-    <t>Oral cysteamine as an adjunct treatment in cystic fibrosis pulmonary exacerbations: An exploratory randomized clinical trial</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pone.0242945</t>
-  </si>
-  <si>
-    <t>No. "There were no statistically significant differences between any of the cysteamine treatment groups and placebo."</t>
-  </si>
-  <si>
-    <t>MMRM
-ANCOVA</t>
-  </si>
-  <si>
     <t>TCTR20171206003</t>
   </si>
   <si>
@@ -72,14 +51,6 @@
   </si>
   <si>
     <t>https://peerj.com/articles/10709/</t>
-  </si>
-  <si>
-    <t>No, primary outcomes not significantly different</t>
-  </si>
-  <si>
-    <t xml:space="preserve">independent t-test
-quantile regression
-</t>
   </si>
   <si>
     <t>NCT04523831</t>
@@ -98,36 +69,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Kaplan–Meier survival analysis with log-rank test for primary outcome
-Cox regression for hazard ratios
-Logistic regression for categorical secondary outcomes
-Subgroup analysis with adjustment for age, sex, symptoms, comorbidities</t>
-  </si>
-  <si>
-    <t>Single-dose oral ciprofloxacin prophylaxis as a
-response to a meningococcal meningitis
-epidemic in the African meningitis belt: A 3-
-arm, open-label, cluster-randomized trial</t>
-  </si>
-  <si>
-    <t>NCT02724046</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1371/journal.pmed.1002593</t>
-  </si>
-  <si>
-    <t>Village-wide prophylaxis arm:
-Significant reduction in attack rate compared to the control arm
-Household prophylaxis arm:
-No significant difference from the control arm</t>
-  </si>
-  <si>
-    <t>Cluster-level t-tests (log-transformed ARs)
-Poisson regression with overdispersion adjustment for adjusted AR ratios
-Mixed-effects logistic regression for individual-level effectiveness
-Linear regression with generalized estimating equations (GEE) for resistance sub-study</t>
-  </si>
-  <si>
     <t>UMIN000004490</t>
   </si>
   <si>
@@ -135,16 +76,6 @@
   </si>
   <si>
     <t>https://doi.org/10.1371/journal.pmed.1002051</t>
-  </si>
-  <si>
-    <t>No. The difference in IMT change was not statistically significant</t>
-  </si>
-  <si>
-    <t>ANCOVA
-Mixed-effects model for repeated measures (as sensitivity analysis)</t>
-  </si>
-  <si>
-    <t>NCT03000348</t>
   </si>
   <si>
     <t>Exploratory data on the clinical efficacy of monoclonal antibodies against SARS-CoV-2 Omicron variant of concern</t>
@@ -187,11 +118,6 @@
     </r>
   </si>
   <si>
-    <t>Kaplan-Meier estimator and Cox proportional hazard model
-Log-rank tests
-Wilcoxon and Fisher’s exact tests</t>
-  </si>
-  <si>
     <t xml:space="preserve">Paired t-tests (main comparisons between DDD-60 and DDD-80)
 Wilcoxon signed-rank test (nonparametric sensitivity)
 Two-way repeated measures ANOVA
@@ -544,25 +470,367 @@
 </t>
   </si>
   <si>
-    <t>A feasibility randomized controlled superiority trial of fluticasone-vilanterol once daily use for the treatment of mild asthma in adults</t>
-  </si>
-  <si>
-    <t>NCT04265105</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.12688/f1000research.136628.1</t>
+    <t>Adjunctive use of modified Yunu-Jian in the non-surgical treatment of male smokers with chronic periodontitis: a randomized double-blind, placebo-controlled clinical trial</t>
+  </si>
+  <si>
+    <t>HKCTR-1848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+Placebo</t>
+  </si>
+  <si>
+    <t>DOI 10.1186/s13020-016-0111-z</t>
+  </si>
+  <si>
+    <t>Changes in CADIA (Computer-Assisted Densitometric Image Analysis) values - measuring radiographic alveolar bone density changes.</t>
+  </si>
+  <si>
+    <t>Primary outcome: repeated‐measures ANOVA with Dunnett’s post-test for within- and between-group comparisons
+Clinical parameters: same repeated-measures ANOVA approach</t>
+  </si>
+  <si>
+    <t>UMIN000008339</t>
+  </si>
+  <si>
+    <t>Can recombinant human
+thrombomodulin increase survival
+among patients with severe septicinduced disseminated intravascular
+coagulation: a single-centre, open-label,
+randomised controlled trial</t>
+  </si>
+  <si>
+    <t>https://bmjopen.bmj.com/content/6/12/e012850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No rhTM </t>
+  </si>
+  <si>
+    <t>28-day and 90-day survival rates</t>
+  </si>
+  <si>
+    <t>Kaplan–Meier curves with log-rank tests
+Mann-Whitney test
+Fisher’s exact test</t>
+  </si>
+  <si>
+    <t>NCT02290054</t>
+  </si>
+  <si>
+    <t>Sham Comparator</t>
+  </si>
+  <si>
+    <t>Auriculotherapy in the prevention of postoperative urinary retention in patients with thoracotomy and thoracic epidural analgesia
+A randomized, double-blinded trial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requirement for bladder catheterization during the day and the first night following surgery </t>
+  </si>
+  <si>
+    <t>Binary</t>
+  </si>
+  <si>
+    <t>Primary outcome: Fisher exact test for proportion comparison; Kaplan–Meier survival analysis with log-rank test for time to catheterization.
+Secondary analyses: Univariate tests including Chi-square/Fisher exact for categorical variables, Student’s t-test or Mann–Whitney for continuous variables, Hodges–Lehmann estimator and Cohen’s d for effect sizes, and Mann–Whitney for anxiety/comfort scores.</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1097/MD.0000000000015958</t>
+  </si>
+  <si>
+    <t>NCT04451096</t>
+  </si>
+  <si>
+    <t>Multi-strain probiotics (Hexbio) containing
+MCP BCMC strains improved constipation and
+gut motility in Parkinson’s disease: A
+randomised controlled trial</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0244680</t>
+  </si>
+  <si>
+    <t>Placebo</t>
+  </si>
+  <si>
+    <t>Change in constipation symptoms assessed by the 9-item Garrigues Questionnaire (GQ)
+Bowel opening frequency (BOF) per week (mean weekly bowel movements)
+Whole gut transit time (GTT) in hours</t>
+  </si>
+  <si>
+    <t>GQ items: Ordinal
+BOF (BM/week): Continuous
+GTT: Continuous</t>
+  </si>
+  <si>
+    <t>Between-group comparisons: univariate tests (t-test or Mann–Whitney U for continuous/count data; χ² or Fisher’s exact for categorical outcomes)
+Regression analyses: generalized linear models—ordinal logistic regression for GQ items, binary logistic for BOF categories, linear regression for BM/week and GTT
+Within-group analyses: paired t-tests or Wilcoxon signed-rank tests</t>
+  </si>
+  <si>
+    <t>NCT02677675</t>
+  </si>
+  <si>
+    <t>Mobile phone reminders and peer counseling
+improve adherence and treatment outcomes
+of patients on ART in Malaysia: A randomized
+clinical trial</t>
+  </si>
+  <si>
+    <t>Standard Care</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0177698</t>
+  </si>
+  <si>
+    <t>Adherence (improved scheduled clinic attendance and medication adherence self-report)</t>
+  </si>
+  <si>
+    <t>Parametric tests: Student’s t-test, two-way repeated-measures ANOVA for adherence, CD4, viral load, and weight
+Nonparametric tests: Chi-square/Fisher’s exact tests for categorical comparisons; Friedman’s ANOVA for within-group non-normal data
+Multivariate models: mixed repeated-measures ANCOVA adjusting for baseline covariates (age, ethnicity, education, income)</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>NCT01891838</t>
+  </si>
+  <si>
+    <t>Impact of the modality of mechanical ventilation
+on bleeding during pituitary surgery
+A single blinded randomized trial</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1097/MD.0000000000017254</t>
+  </si>
+  <si>
+    <t>VCV</t>
+  </si>
+  <si>
+    <t>Intraoperative bleeding during transsphenoidal pituitary surgery, scored using a 7-level bleeding scale.</t>
+  </si>
+  <si>
+    <t>Ordinal, Categorical</t>
+  </si>
+  <si>
+    <t>Primary outcome: ordinal logistic regression (proportional cumulative odds)
+Secondary outcomes: Student’s t-test or Mann–Whitney for continuous variables; Chi-square or Fisher’s exact for categorical variables</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0258406</t>
+  </si>
+  <si>
+    <t>NCT02981251</t>
+  </si>
+  <si>
+    <t>Effectiveness of community-based health education and home support program to reduce blood pressure among patients with uncontrolled hypertension in Nepal: A cluster-randomized trial</t>
+  </si>
+  <si>
+    <t>Proportion of participants with controlled systolic blood pressure (SBP &lt; 140 mmHg) at six months</t>
+  </si>
+  <si>
+    <t>Comparisons: independent t-tests for continuous variables; χ² or Fisher’s exact for categorical
+Primary/secondary binary outcomes: binary logistic regression (adjusted for covariates &amp; clustering)
+Knowledge score: linear regression of follow-up score on baseline score and intervention</t>
+  </si>
+  <si>
+    <t>PACTR201710002683810</t>
+  </si>
+  <si>
+    <t>Evaluation of a community health worker home visit intervention to improve child development in South Africa: A cluster-randomized controlled trial</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pmed.1004222</t>
+  </si>
+  <si>
+    <t>Anthropometry:
+Height-for-age z-score: Continuous
+Stunting (HAZ &lt; −2): Binary
+gross motor, fine motor, language, social-emotional z-scores: Continuous
+Absolute EEG gamma power &amp; total EEG power : Continuous
+Relative gamma power: Continuous
+Saccadic reaction time: Continuous</t>
+  </si>
+  <si>
+    <t>Height-for-age z-score
+Stunting (HAZ &lt; −2)
+Child development skills (MDAT): gross motor, fine motor, language, social-emotional z-scores
+Absolute EEG gamma power &amp; total EEG power
+Relative gamma power
+Saccadic reaction time</t>
+  </si>
+  <si>
+    <t>HAZ, stunting, or MDAT domain scores, RGP: No
+SRT, EEG: Yes</t>
+  </si>
+  <si>
+    <t>Continuous outcomes: linear mixed-effects models with cluster random effects (and individual random effects + month fixed effects for EEG/SRT)
+Binary outcomes (stunting): mixed-effects logistic regression with cluster random effects</t>
+  </si>
+  <si>
+    <t>NCT03899090</t>
+  </si>
+  <si>
+    <t>A randomized controlled safety and feasibility
+trial of floatation-REST in anxious and
+depressed individuals</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0286899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+Chair-REST</t>
+  </si>
+  <si>
+    <t>Feasibility, assessed by adherence to six sessions of the assigned intervention (target ≥ 80%).</t>
+  </si>
+  <si>
+    <t>Continuous proportion</t>
+  </si>
+  <si>
+    <t>Adherence met the ≥80% feasibility threshold for Pool-REST (85%) and Pool-REST Preferred (89%).
+Chair-REST did not meet the threshold (74%).</t>
+  </si>
+  <si>
+    <t>Feasibility (credibility/expectancy): One-way ANOVA
+Tolerability (dropout): Kaplan–Meier survival analysis with log-rank tests
+Session duration &amp; event ratings: Linear mixed‐effects models (REML, AR1 covariance), with fixed effects of condition, visit (and event for safety), and their interactions, random intercepts for subject ID</t>
+  </si>
+  <si>
+    <t>Change in HOMA-IR from baseline to 4 months after baseline visit</t>
+  </si>
+  <si>
+    <t>Mann–Whitney U test
+Kolmogorov-Smirnov test
+Fisher's exact test</t>
+  </si>
+  <si>
+    <t>Sham acupuncture + placebo</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Primary: Kaplan–Meier survival curves + log-rank test; Cox proportional hazards regression for hazard ratios
+Secondary: Logistic regression for categorical recovery time and disease progression</t>
+  </si>
+  <si>
+    <t>Time (days) from treatment initiation (day 1) to clinical recovery</t>
+  </si>
+  <si>
+    <t>NCT02753751</t>
+  </si>
+  <si>
+    <t>Electronic health record alerts for acute kidney injury:
+multicenter, randomized clinical trial</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1136/bmj.m4786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Composite of AKI progression (to a higher KDIGO stage), receipt of dialysis, or death within 14 days of randomization </t>
+  </si>
+  <si>
+    <t>Composite binary outcome, Time to event</t>
+  </si>
+  <si>
+    <t>Primary analysis: Mantel–Haenszel test (stratified by hospital) for relative risks; Cox proportional hazards regression (stratified by hospital) for time-to-event
+Sensitivity: modified Poisson generalized estimating equations with robust variance
+Continuous/process measures: Van Elteren test (stratified); Kaplan–Meier curves and log-rank tests for site-specific time-to-event analyses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change from baseline to week 6 in serum fibrogenesis markers:
+ TGF-β1, TIMP-1, MMP-9, P3NP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary: independent two-sample t-tests comparing mean change from baseline between arms
+Sensitivity: median quantile regression of change scores
+Baseline balance: t-tests or chi-square/Fisher’s exact tests </t>
+  </si>
+  <si>
+    <t>NCT02771977</t>
+  </si>
+  <si>
+    <t>A randomized clinical trial assessing the effect of automated medication-targeted alerts on acute kidney injury outcomes</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41467-023-38532-3</t>
+  </si>
+  <si>
+    <t>Composite of AKI progression (to a higher KDIGO stage), receipt of dialysis, or death within 14 days of randomization or hospital discharge</t>
+  </si>
+  <si>
+    <t>Primary: Cochran–Mantel–Haenszel χ² test stratified by hospital for relative risks
+Continuous/process: Van Elteren test (stratified by hospital)
+Subgroup interactions: binomial regression model adjusted for hospital (interaction p-values)
+Mediation: product-of-coefficients method with bootstrapped 95% CIs, adjusting for key baseline covariates</t>
+  </si>
+  <si>
+    <t>Percentage change in mean common carotid artery intima-media thickness (CCA IMT) at 24 months after randomization</t>
+  </si>
+  <si>
+    <t>Primary &amp; secondary: baseline-adjusted ANCOVA
+Sensitivity: mixed-effects model for repeated measures
+Baseline comparisons: unpaired t-tests and Fisher’s exact tests</t>
+  </si>
+  <si>
+    <t>Casirivimab/Imdevimab</t>
+  </si>
+  <si>
+    <t>Composite COVID-19 progression through day 14 (hospitalization, need for supplemental oxygen, or death)</t>
+  </si>
+  <si>
+    <t>Continuous variables: Wilcoxon–Mann–Whitney test
+Categorical variables: Fisher’s exact test
+Time-to-event analyses (time to symptom resolution): Kaplan–Meier estimator + Log-rank test; Cox proportional hazards model for predictor associations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -623,7 +891,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -659,71 +927,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1000,66 +1314,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB31"/>
+  <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.65"/>
   <cols>
     <col min="1" max="1" width="7.69921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.69921875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="53.69921875" style="12" customWidth="1"/>
     <col min="4" max="4" width="16.09765625" customWidth="1"/>
     <col min="5" max="5" width="8.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.69921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.59765625" customWidth="1"/>
-    <col min="10" max="10" width="38.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.3984375" style="13" customWidth="1"/>
-    <col min="12" max="12" width="38.69921875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="11.69921875" customWidth="1"/>
+    <col min="9" max="9" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.59765625" customWidth="1"/>
+    <col min="11" max="11" width="38.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="44.3984375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="38.69921875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18" customHeight="1">
+    <row r="1" spans="1:29" ht="18" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -1075,15 +1392,16 @@
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
-    </row>
-    <row r="2" spans="1:28" ht="43.9">
+      <c r="AC1" s="4"/>
+    </row>
+    <row r="2" spans="1:29" ht="73.150000000000006">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1092,25 +1410,33 @@
       <c r="E2" s="3">
         <v>3</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="G2" s="3">
         <v>3</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="3">
         <v>342</v>
       </c>
-      <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
+        <v>178</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -1125,42 +1451,51 @@
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
-    </row>
-    <row r="3" spans="1:28" ht="146.25">
+      <c r="AC2" s="4"/>
+    </row>
+    <row r="3" spans="1:29" ht="102.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>8</v>
       </c>
       <c r="E3" s="3">
         <v>2</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="G3" s="3">
         <v>3</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="3">
         <v>400</v>
       </c>
-      <c r="I3" s="3"/>
       <c r="J3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
+        <v>183</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>68</v>
+      </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -1175,42 +1510,51 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
-    </row>
-    <row r="4" spans="1:28" ht="43.9">
+      <c r="AC3" s="4"/>
+    </row>
+    <row r="4" spans="1:29" ht="175.5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>185</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>186</v>
       </c>
       <c r="E4" s="3">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3">
         <v>2</v>
       </c>
-      <c r="H4" s="3">
-        <v>89</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>7</v>
+      <c r="F4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="3">
+        <v>6030</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="N4" s="34" t="s">
+        <v>68</v>
+      </c>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -1225,42 +1569,51 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
-    </row>
-    <row r="5" spans="1:28" ht="43.9">
+      <c r="AC4" s="4"/>
+    </row>
+    <row r="5" spans="1:29" ht="131.65">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="G5" s="3">
         <v>2</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="3">
         <v>75</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>12</v>
+      <c r="J5" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N5" s="34" t="s">
+        <v>68</v>
+      </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -1275,42 +1628,51 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
-    </row>
-    <row r="6" spans="1:28" ht="160.9">
+      <c r="AC5" s="4"/>
+    </row>
+    <row r="6" spans="1:29" ht="190.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>192</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>194</v>
       </c>
       <c r="E6" s="3">
-        <v>3</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3">
-        <v>4</v>
-      </c>
-      <c r="H6" s="3">
-        <v>297</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="3">
+        <v>5060</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="N6" s="34" t="s">
+        <v>68</v>
+      </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -1325,42 +1687,51 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
-    </row>
-    <row r="7" spans="1:28" ht="58.5">
+      <c r="AC6" s="4"/>
+    </row>
+    <row r="7" spans="1:29" ht="117">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E7" s="3">
         <v>2</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="G7" s="3">
         <v>4</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="3">
         <v>463</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>28</v>
+      <c r="J7" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="N7" s="34" t="s">
+        <v>68</v>
+      </c>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -1375,42 +1746,51 @@
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
-    </row>
-    <row r="8" spans="1:28" ht="131.65">
+      <c r="AC7" s="4"/>
+    </row>
+    <row r="8" spans="1:29" ht="131.65">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>31</v>
+        <v>16</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="F8" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="3">
         <v>311</v>
       </c>
-      <c r="I8" s="3"/>
       <c r="J8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+        <v>200</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>68</v>
+      </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -1425,19 +1805,20 @@
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
-    </row>
-    <row r="9" spans="1:28" ht="117">
+      <c r="AC8" s="4"/>
+    </row>
+    <row r="9" spans="1:29" ht="117">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>40</v>
+        <v>23</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E9" s="3">
         <v>2</v>
@@ -1446,20 +1827,20 @@
       <c r="G9" s="3">
         <v>1</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3">
         <v>12</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" s="4"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -1475,41 +1856,42 @@
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
-    </row>
-    <row r="10" spans="1:28" ht="73.150000000000006">
+      <c r="AC9" s="4"/>
+    </row>
+    <row r="10" spans="1:29" ht="73.150000000000006">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>45</v>
+        <v>25</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E10" s="3">
         <v>2</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="G10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="3">
         <v>1000</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="M10" s="4"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -1525,41 +1907,42 @@
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
-    </row>
-    <row r="11" spans="1:28" ht="160.9">
+      <c r="AC10" s="4"/>
+    </row>
+    <row r="11" spans="1:29" ht="160.9">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>50</v>
+        <v>31</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3">
         <v>3</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="G11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="3">
         <v>38</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" s="4"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -1575,19 +1958,20 @@
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
-    </row>
-    <row r="12" spans="1:28" ht="146.25">
+      <c r="AC11" s="4"/>
+    </row>
+    <row r="12" spans="1:29" ht="146.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>57</v>
+        <v>38</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E12" s="3">
         <v>2</v>
@@ -1596,20 +1980,20 @@
       <c r="G12" s="3">
         <v>2</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3">
         <v>44</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="M12" s="4"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -1625,19 +2009,20 @@
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
-    </row>
-    <row r="13" spans="1:28" ht="102.4">
+      <c r="AC12" s="4"/>
+    </row>
+    <row r="13" spans="1:29" ht="102.4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>68</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
@@ -1646,20 +2031,20 @@
       <c r="G13" s="3">
         <v>2</v>
       </c>
-      <c r="H13" s="3">
-        <v>48</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="M13" s="4"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3">
+        <v>48</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -1675,19 +2060,20 @@
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
-    </row>
-    <row r="14" spans="1:28" ht="87.75">
+      <c r="AC13" s="4"/>
+    </row>
+    <row r="14" spans="1:29" ht="87.75">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>64</v>
+        <v>45</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E14" s="3">
         <v>2</v>
@@ -1696,20 +2082,22 @@
       <c r="G14" s="3">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="3">
         <v>543</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="M14" s="4"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -1725,48 +2113,51 @@
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
-    </row>
-    <row r="15" spans="1:28" ht="204.75">
+      <c r="AC14" s="4"/>
+    </row>
+    <row r="15" spans="1:29" ht="204.75">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>70</v>
+        <v>51</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E15" s="3">
         <v>2</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="3">
+        <v>63</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="3">
         <v>119</v>
       </c>
-      <c r="I15" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="N15" s="4"/>
+      <c r="J15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
@@ -1781,48 +2172,51 @@
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
-    </row>
-    <row r="16" spans="1:28" ht="117">
+      <c r="AC15" s="4"/>
+    </row>
+    <row r="16" spans="1:29" ht="117">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>91</v>
+        <v>74</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E16" s="3">
         <v>2</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" s="3">
+        <v>63</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="3">
         <v>28</v>
       </c>
-      <c r="I16" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="N16" s="4"/>
+      <c r="J16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>68</v>
+      </c>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -1837,48 +2231,51 @@
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
-    </row>
-    <row r="17" spans="1:28" ht="58.5">
+      <c r="AC16" s="4"/>
+    </row>
+    <row r="17" spans="1:29" ht="58.5">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>100</v>
+        <v>80</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="E17" s="3">
         <v>2</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="3">
-        <v>48</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="J17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="3">
+        <v>48</v>
+      </c>
+      <c r="J17" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="K17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="N17" s="4"/>
+      <c r="K17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
@@ -1893,48 +2290,51 @@
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
-    </row>
-    <row r="18" spans="1:28" ht="117">
+      <c r="AC17" s="4"/>
+    </row>
+    <row r="18" spans="1:29" ht="117">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>103</v>
+        <v>86</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="E18" s="3">
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="3">
+        <v>63</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="3">
         <v>294</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="J18" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="N18" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
@@ -1949,48 +2349,51 @@
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
-    </row>
-    <row r="19" spans="1:28" ht="190.15">
+      <c r="AC18" s="4"/>
+    </row>
+    <row r="19" spans="1:29" ht="190.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>111</v>
+        <v>92</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E19" s="3">
         <v>2</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" s="3">
+        <v>63</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="3">
         <v>295</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="J19" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="L19" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="N19" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
@@ -2005,48 +2408,51 @@
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
-    </row>
-    <row r="20" spans="1:28" ht="131.65">
+      <c r="AC19" s="4"/>
+    </row>
+    <row r="20" spans="1:29" ht="131.65">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>117</v>
+        <v>100</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="E20" s="3">
         <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H20" s="3">
+        <v>63</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="3">
         <v>32</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="J20" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="N20" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
@@ -2061,48 +2467,51 @@
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
-    </row>
-    <row r="21" spans="1:28" ht="87.75">
+      <c r="AC20" s="4"/>
+    </row>
+    <row r="21" spans="1:29" ht="87.75">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>124</v>
+        <v>104</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="E21" s="3">
         <v>2</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="3">
+        <v>63</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="3">
         <v>37</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="J21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K21" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="N21" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
@@ -2117,48 +2526,51 @@
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
-    </row>
-    <row r="22" spans="1:28" ht="102.4">
+      <c r="AC21" s="4"/>
+    </row>
+    <row r="22" spans="1:29" ht="102.4">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>132</v>
+        <v>112</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="E22" s="3">
         <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H22" s="3">
+        <v>63</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="3">
         <v>1462</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="J22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="L22" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="M22" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="N22" s="4"/>
+        <v>113</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>68</v>
+      </c>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
@@ -2173,30 +2585,51 @@
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
-    </row>
-    <row r="23" spans="1:28" ht="43.9">
+      <c r="AC22" s="4"/>
+    </row>
+    <row r="23" spans="1:29" ht="87.75">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>136</v>
+        <v>119</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="3">
+        <v>25</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="N23" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
@@ -2211,134 +2644,374 @@
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
-    </row>
-    <row r="24" spans="1:28">
-      <c r="A24" s="16">
+      <c r="AC23" s="4"/>
+    </row>
+    <row r="24" spans="1:29" ht="87.75">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-    </row>
-    <row r="25" spans="1:28">
-      <c r="A25" s="16">
+      <c r="B24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" s="2">
+        <v>92</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K24" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="M24" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="N24" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="175.5">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-    </row>
-    <row r="26" spans="1:28">
+      <c r="B25" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" s="2">
+        <v>50</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K25" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="L25" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="N25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="175.5">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-    </row>
-    <row r="27" spans="1:28">
+      <c r="B26" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="26">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26" s="2">
+        <v>3</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="2">
+        <v>55</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K26" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="N26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="190.15">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-    </row>
-    <row r="28" spans="1:28">
-      <c r="A28" s="16">
+      <c r="B27" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="2">
+        <v>242</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K27" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="L27" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="N27" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="102.4">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-    </row>
-    <row r="29" spans="1:28">
-      <c r="A29" s="16">
+      <c r="B28" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="2">
+        <v>101</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="K28" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="L28" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="M28" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="N28" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="146.25">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-    </row>
-    <row r="30" spans="1:28">
+      <c r="B29" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" s="2">
+        <v>120</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="L29" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="N29" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="219.4">
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-    </row>
-    <row r="31" spans="1:28">
+      <c r="B30" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="2">
+        <v>51</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="K30" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="L30" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="M30" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="N30" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="175.5">
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
+      <c r="B31" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E31" s="2">
+        <v>3</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I31" s="2">
+        <v>75</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="K31" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="L31" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="M31" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="N31" s="33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D3EDF8-E342-457B-AFD8-EF3F50033F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54763904-9DCB-4ECC-93ED-E057C9E5DF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-101" yWindow="-101" windowWidth="29002" windowHeight="15682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="210">
   <si>
     <t>NCT02491333</t>
   </si>
@@ -118,47 +118,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Paired t-tests (main comparisons between DDD-60 and DDD-80)
-Wilcoxon signed-rank test (nonparametric sensitivity)
-Two-way repeated measures ANOVA
-</t>
-  </si>
-  <si>
-    <t>MSNA burst incidence significantly decreased at 80 bpm (mean: 51 vs 64 bursts/100 RR, p &lt; 0.05)
-NT-proBNP: no significant difference (p = 0.3 by paired t-test; p = 0.44 by ANOVA)</t>
-  </si>
-  <si>
-    <t>Optimal Cardiac Resynchronization Therapy Pacing Rate in Non-Ischemic Heart Failure Patients: A Randomized Crossover Pilot Trial</t>
-  </si>
-  <si>
-    <t>NCT02258061</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1371/journal.pone.0138124</t>
-  </si>
-  <si>
-    <t>NCT04379336</t>
-  </si>
-  <si>
-    <t>No,HR = 2.0 (95% CI 0.69–5.9), p = 0.20</t>
-  </si>
-  <si>
-    <t>Safety and efficacy of BCG re-vaccination in relation to
-COVID-19 morbidity in healthcare workers: A doubleblind, randomised, controlled, phase 3 trial</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.
-eclinm.2022.101414</t>
-  </si>
-  <si>
-    <t>Cox proportional hazards model
-time-to-event analyses
-post hoc Markovian analysis</t>
-  </si>
-  <si>
-    <t>Binary time-to-event</t>
-  </si>
-  <si>
     <t>NCT02050360</t>
   </si>
   <si>
@@ -195,24 +154,10 @@
     <t>Chlorhexidine oral rinses for symptomatic COPD: a randomised, blind, placebo-controlled preliminary study</t>
   </si>
   <si>
-    <t xml:space="preserve"> No, the trial did not meet its primary outcome. There was no statistically significant difference in oral or sputum microbiota biomass between the chlorhexidine and placebo groups (oral microbiota p=0.665; sputum microbiota p=0.096 without imputation, p=0.078 with imputation)</t>
-  </si>
-  <si>
-    <t>PACTR201105000289276</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1371/journal.pone.0114602</t>
-  </si>
-  <si>
     <t>Primary analysis: Two-sample t-test on log10-transformed biomass data, with multiple imputation for missing sputum weights
 Secondary analyses: Linear regression models for biodiversity indices, BCSS, SGRQ and inflammatory markers, with each model adjusted for the baseline value of the measure</t>
   </si>
   <si>
-    <t>Wilcoxon rank-sum test (between arms)
-Wilcoxon signed-rank test (within-person change)
-Linear regression for slope of CD4 and viral load change</t>
-  </si>
-  <si>
     <t>NCT02954068</t>
   </si>
   <si>
@@ -227,13 +172,6 @@
   <si>
     <t>Categorical variables: Pearson χ² or Fisher’s exact tests
 Continuous variables: Independent t-tests or Mann-Whitney U tests (depending on normality)</t>
-  </si>
-  <si>
-    <t>Safety and Immunogenicity of H1/IC31H,
-an Adjuvanted TB Subunit Vaccine, in HIV-Infected Adults with CD4+ Lymphocyte
-Counts Greater than 350 cells/mm3: A
-Phase II, Multi-Centre, Double-Blind,
-Randomized, Placebo-Controlled Trial</t>
   </si>
   <si>
     <t>ChiCTR2000031834</t>
@@ -785,17 +723,110 @@
 Categorical variables: Fisher’s exact test
 Time-to-event analyses (time to symptom resolution): Kaplan–Meier estimator + Log-rank test; Cox proportional hazards model for predictor associations</t>
   </si>
+  <si>
+    <t>Proportion of patients with a negative SARS-CoV-2 RT-PCR on Day 6 post-enrolment</t>
+  </si>
+  <si>
+    <t>Binary (negative vs. non-negative RT-PCR)</t>
+  </si>
+  <si>
+    <t>CTRI/2020/08/027225</t>
+  </si>
+  <si>
+    <t>Evaluation of Ivermectin as a Potential Treatment for Mild to Moderate COVID-19:  A Double-BlindRandomized  Placebo  Controlled  Trialin Eastern India</t>
+  </si>
+  <si>
+    <t>10.18433/jpps32105</t>
+  </si>
+  <si>
+    <t>Baseline comparisons: independent-samples Student’s t-test (continuous) and chi-square test (categorical)
+Outcome comparisons: rate ratios with chi-square tests</t>
+  </si>
+  <si>
+    <t>IM injection</t>
+  </si>
+  <si>
+    <t>Proportion with Blood Loss ≥ 500
+Mean Blood Loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No</t>
+  </si>
+  <si>
+    <t>Change from baseline to 8 weeks in oral and sputum microbiota biomass (log₁₀ 16S rRNA copy number)</t>
+  </si>
+  <si>
+    <t>placebo</t>
+  </si>
+  <si>
+    <t>ISRCTN13204258</t>
+  </si>
+  <si>
+    <t>Umbilical vein oxytocin for the treatment of retained
+placenta (Release Study): a double-blind, randomised
+controlled trial</t>
+  </si>
+  <si>
+    <t>10.1016/S0140-6736(09)61752-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Placebo </t>
+  </si>
+  <si>
+    <t>Need for manual removal of the placenta after randomization</t>
+  </si>
+  <si>
+    <t>Primary &amp; binary secondary outcomes: relative risks with χ² tests
+Continuous skewed outcomes (e.g., time): Mann-Whitney tests
+Subgroup consistency: Mantel–Haenszel homogeneity tests</t>
+  </si>
+  <si>
+    <t>NCT02234726</t>
+  </si>
+  <si>
+    <t>Two-year impact of community-based health
+screening and parenting groups on child
+development in Zambia: Follow-up to a
+cluster-randomized controlled trial</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pmed.1002555</t>
+  </si>
+  <si>
+    <t>Stunting: height-for-age z-score (HAZ) &lt; –2
+Neurocognitive development: BSID-III composite z-scores in five domains (cognition, language, motor, adaptive behavior, social-emotional)</t>
+  </si>
+  <si>
+    <t>Stunting: Binary
+BSID-III z-scores: Continuous</t>
+  </si>
+  <si>
+    <t>Stunting: Yes, significant reduction
+Language domain: Yes, significant improvement
+No significant effects on cognition, motor, adaptive behavior, or social-emotional domains</t>
+  </si>
+  <si>
+    <t>Binary outcomes: logistic regression with cluster-robust standard errors
+Continuous outcomes: ordinary least squares regression with cluster-robust standard errors</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -944,47 +975,47 @@
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -996,49 +1027,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1316,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.65"/>
@@ -1339,43 +1368,43 @@
   <sheetData>
     <row r="1" spans="1:29" ht="18" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="K1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="M1" s="6" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -1411,31 +1440,31 @@
         <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="G2" s="3">
         <v>3</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I2" s="3">
         <v>342</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -1463,26 +1492,26 @@
       <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="35" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="3">
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="G3" s="3">
         <v>3</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I3" s="3">
         <v>400</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>9</v>
@@ -1491,10 +1520,10 @@
         <v>10</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="N3" s="34" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -1517,43 +1546,43 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>186</v>
+        <v>169</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I4" s="3">
         <v>6030</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="N4" s="34" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
@@ -1588,31 +1617,31 @@
         <v>2</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="G5" s="3">
         <v>2</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I5" s="3">
         <v>75</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="N5" s="34" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
@@ -1635,43 +1664,43 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>194</v>
+        <v>177</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>178</v>
       </c>
       <c r="E6" s="3">
         <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I6" s="3">
         <v>5060</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="N6" s="34" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -1706,31 +1735,31 @@
         <v>2</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="G7" s="3">
         <v>4</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I7" s="3">
         <v>463</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="N7" s="34" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -1765,19 +1794,19 @@
         <v>3</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I8" s="3">
         <v>311</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>18</v>
@@ -1786,10 +1815,10 @@
         <v>19</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="N8" s="34" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -1807,41 +1836,49 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" spans="1:29" ht="117">
+    <row r="9" spans="1:29" ht="87.75">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>22</v>
+        <v>189</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>190</v>
       </c>
       <c r="E9" s="3">
         <v>2</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="I9" s="3">
-        <v>12</v>
-      </c>
-      <c r="J9" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="K9" s="3" t="s">
-        <v>65</v>
+        <v>187</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="4"/>
+        <v>191</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -1858,41 +1895,49 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" spans="1:29" ht="73.150000000000006">
+    <row r="10" spans="1:29" ht="117">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>197</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>27</v>
+        <v>198</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>199</v>
       </c>
       <c r="E10" s="3">
         <v>2</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="G10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="I10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J10" s="3"/>
+        <v>577</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>201</v>
+      </c>
       <c r="K10" s="5" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="4"/>
+        <v>202</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -1914,20 +1959,20 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E11" s="3">
         <v>3</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="9" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="3">
@@ -1935,13 +1980,13 @@
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1965,36 +2010,44 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E12" s="3">
         <v>2</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>196</v>
+      </c>
       <c r="G12" s="3">
         <v>2</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="I12" s="3">
         <v>44</v>
       </c>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="K12" s="3" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="N12" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -2011,41 +2064,49 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" spans="1:29" ht="102.4">
+    <row r="13" spans="1:29" ht="117">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>41</v>
+      <c r="B13" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>204</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>205</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3">
-        <v>2</v>
-      </c>
-      <c r="H13" s="3"/>
+      <c r="F13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="I13" s="3">
-        <v>48</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="N13" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="N13" s="37" t="s">
+        <v>52</v>
+      </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -2067,38 +2128,44 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E14" s="3">
         <v>2</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="G14" s="3">
         <v>4</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I14" s="3">
-        <v>543</v>
-      </c>
-      <c r="J14" s="3"/>
+        <v>480</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="K14" s="5" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="N14" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
@@ -2120,43 +2187,43 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E15" s="3">
         <v>2</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I15" s="3">
         <v>119</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="L15" s="10" t="s">
         <v>10</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -2179,43 +2246,43 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E16" s="3">
         <v>2</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I16" s="3">
         <v>28</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="L16" s="11" t="s">
         <v>10</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="N16" s="13" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -2238,43 +2305,43 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E17" s="3">
         <v>2</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I17" s="3">
         <v>48</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="L17" s="10" t="s">
         <v>10</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
@@ -2297,43 +2364,43 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E18" s="3">
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I18" s="3">
         <v>294</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="L18" s="10" t="s">
         <v>10</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
@@ -2356,43 +2423,43 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="E19" s="3">
         <v>2</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I19" s="3">
         <v>295</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
@@ -2415,43 +2482,43 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="E20" s="3">
         <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I20" s="3">
         <v>32</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
@@ -2474,43 +2541,43 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="E21" s="3">
         <v>2</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I21" s="3">
         <v>37</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -2533,43 +2600,43 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="E22" s="3">
         <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I22" s="3">
         <v>1462</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
@@ -2592,43 +2659,43 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="E23" s="3">
         <v>2</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I23" s="3">
         <v>25</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="L23" s="11" t="s">
         <v>10</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="N23" s="16" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
@@ -2651,43 +2718,43 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I24" s="2">
         <v>92</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="K24" s="22" t="s">
         <v>9</v>
       </c>
       <c r="L24" s="23" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="M24" s="23" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="N24" s="24" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:29" ht="175.5">
@@ -2695,43 +2762,43 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I25" s="2">
         <v>50</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="L25" s="18" t="s">
         <v>10</v>
       </c>
       <c r="M25" s="18" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="N25" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="175.5">
@@ -2739,43 +2806,43 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="E26" s="26">
         <v>2</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="G26" s="2">
         <v>3</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I26" s="2">
         <v>55</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="L26" s="18" t="s">
         <v>10</v>
       </c>
       <c r="M26" s="18" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="N26" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="190.15">
@@ -2783,43 +2850,43 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E27" s="2">
         <v>2</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I27" s="2">
         <v>242</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="K27" s="28" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="L27" s="29" t="s">
         <v>10</v>
       </c>
       <c r="M27" s="29" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="N27" s="30" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="102.4">
@@ -2827,43 +2894,43 @@
         <v>27</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="E28" s="2">
         <v>2</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I28" s="2">
         <v>101</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="K28" s="27" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="L28" s="18" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="M28" s="18" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="N28" s="30" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:29" ht="146.25">
@@ -2871,43 +2938,43 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="E29" s="2">
         <v>2</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I29" s="2">
         <v>120</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="K29" s="27" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="L29" s="18" t="s">
         <v>10</v>
       </c>
       <c r="M29" s="18" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="N29" s="30" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="219.4">
@@ -2915,22 +2982,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="E30" s="2">
         <v>2</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>10</v>
@@ -2939,19 +3006,19 @@
         <v>51</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="L30" s="32" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="M30" s="18" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="N30" s="30" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="175.5">
@@ -2959,43 +3026,43 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="E31" s="2">
         <v>3</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I31" s="2">
         <v>75</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="K31" s="27" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="L31" s="18" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="M31" s="18" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="N31" s="33" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:29">

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54763904-9DCB-4ECC-93ED-E057C9E5DF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF672D81-4AB1-4D48-9231-D2D9F4C9DFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-101" yWindow="-101" windowWidth="29002" windowHeight="15682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="208">
   <si>
     <t>NCT02491333</t>
   </si>
@@ -118,33 +118,6 @@
     </r>
   </si>
   <si>
-    <t>NCT02050360</t>
-  </si>
-  <si>
-    <t>On-Demand Sildenafil as a Treatment for Raynaud Phenomenon
-A Series of n-of-1 Trials</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.7326/M18-0517</t>
-  </si>
-  <si>
-    <t>2/3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No (at population level):
-High individual-level probability of sildenafil &gt; placebo (≥90%)
-But aggregated effect size was not clinically relevant
- Yes (for select individuals):
-Some participants showed clinically meaningful improvement
-</t>
-  </si>
-  <si>
-    <t>Bayesian mixed-effects models
-Outcomes estimated using adjusted relative variation (aRV)
-Model covariates included sex, age, temperature, humidity, RP type, and CCB use
-Aggregated and individual probabilities of superiority calculated</t>
-  </si>
-  <si>
     <t>https://bmjopen.bmj.com/content/11/12/e050271</t>
   </si>
   <si>
@@ -225,9 +198,6 @@
   </si>
   <si>
     <t>6-minute walking distance (6MWD) in meters at 6 weeks (post-treatment) and at follow-up (~28 weeks)</t>
-  </si>
-  <si>
-    <t>ok</t>
   </si>
   <si>
     <t>For primary outcome and most secondary continuous outcomes: Constrained longitudinal data analysis (linear mixed effects model with equality constraint on baseline means), adjusted for center (fixed effect) with random intercept for participants
@@ -647,9 +617,6 @@
     <t>Sham acupuncture + placebo</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t>Primary: Kaplan–Meier survival curves + log-rank test; Cox proportional hazards regression for hazard ratios
 Secondary: Logistic regression for categorical recovery time and disease progression</t>
   </si>
@@ -808,6 +775,32 @@
   <si>
     <t>Binary outcomes: logistic regression with cluster-robust standard errors
 Continuous outcomes: ordinary least squares regression with cluster-robust standard errors</t>
+  </si>
+  <si>
+    <t>NCT02926144</t>
+  </si>
+  <si>
+    <t>Influence of videolaryngoscopy using
+McGrath Mac on the need for a helper
+to perform intubation during general
+anaesthesia: a multicentre randomised
+video-no-video trial</t>
+  </si>
+  <si>
+    <t>10.1136/bmjopen-2021-049275</t>
+  </si>
+  <si>
+    <t>No Video</t>
+  </si>
+  <si>
+    <t>Proportion of orotracheal intubations requiring assistance at the operator’s request</t>
+  </si>
+  <si>
+    <t>Primary outcome (binary): comparison of proportions by χ² test (with Bonferroni correction for multiple comparisons when assessing IDS components).
+Secondary categorical outcomes: χ² or Fisher’s exact tests (as appropriate).
+Continuous outcomes (e.g., POGO, time): Wilcoxon rank-sum test (after verifying normality with Shapiro–Wilk).
+Intubation Difficulty Scale (ordinal): Wilcoxon or χ² for class comparisons.
+Hemodynamic changes: pre- vs post-intubation medians compared by Wilcoxon; between-group differences tested similarly.</t>
   </si>
 </sst>
 </file>
@@ -973,7 +966,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1062,9 +1055,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1345,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.65"/>
@@ -1368,43 +1358,43 @@
   <sheetData>
     <row r="1" spans="1:29" ht="18" customHeight="1">
       <c r="A1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="L1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -1440,32 +1430,30 @@
         <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G2" s="3">
         <v>3</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I2" s="3">
         <v>342</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>165</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -1499,19 +1487,19 @@
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G3" s="3">
         <v>3</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I3" s="3">
         <v>400</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>9</v>
@@ -1520,11 +1508,9 @@
         <v>10</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>52</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N3" s="34"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -1546,44 +1532,42 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I4" s="3">
         <v>6030</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="N4" s="34" t="s">
-        <v>52</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N4" s="34"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -1617,32 +1601,30 @@
         <v>2</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G5" s="3">
         <v>2</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I5" s="3">
         <v>75</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="N5" s="34" t="s">
-        <v>52</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N5" s="34"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -1664,44 +1646,42 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E6" s="3">
         <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I6" s="3">
         <v>5060</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="N6" s="34" t="s">
-        <v>52</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="N6" s="34"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -1735,32 +1715,30 @@
         <v>2</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G7" s="3">
         <v>4</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I7" s="3">
         <v>463</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="N7" s="34" t="s">
-        <v>52</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N7" s="34"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -1794,19 +1772,19 @@
         <v>3</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I8" s="3">
         <v>311</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>18</v>
@@ -1815,11 +1793,9 @@
         <v>19</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>52</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="N8" s="34"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -1841,44 +1817,42 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E9" s="3">
         <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I9" s="3">
         <v>115</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>52</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -1900,44 +1874,42 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E10" s="3">
         <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I10" s="3">
         <v>577</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>52</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -1954,39 +1926,45 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" spans="1:29" ht="160.9">
+    <row r="11" spans="1:29" ht="263.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>202</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>204</v>
       </c>
       <c r="E11" s="3">
-        <v>3</v>
-      </c>
-      <c r="F11" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="G11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="I11" s="3">
-        <v>38</v>
-      </c>
-      <c r="J11" s="3"/>
+        <v>256</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="K11" s="3" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>25</v>
+        <v>207</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -2010,44 +1988,42 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12" s="3">
         <v>2</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I12" s="3">
         <v>44</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>52</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -2069,22 +2045,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>205</v>
+        <v>196</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>197</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>10</v>
@@ -2093,20 +2069,18 @@
         <v>30</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="N13" s="37" t="s">
-        <v>52</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N13" s="36"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -2128,44 +2102,42 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E14" s="3">
         <v>2</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G14" s="3">
         <v>4</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I14" s="3">
         <v>480</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>52</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
@@ -2187,44 +2159,42 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E15" s="3">
         <v>2</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I15" s="3">
         <v>119</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L15" s="10" t="s">
         <v>10</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>52</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
@@ -2246,44 +2216,42 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E16" s="3">
         <v>2</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I16" s="3">
         <v>28</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L16" s="11" t="s">
         <v>10</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="N16" s="13" t="s">
-        <v>52</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N16" s="13"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -2305,44 +2273,42 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E17" s="3">
         <v>2</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I17" s="3">
         <v>48</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L17" s="10" t="s">
         <v>10</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>52</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
@@ -2364,44 +2330,42 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E18" s="3">
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I18" s="3">
         <v>294</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L18" s="10" t="s">
         <v>10</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>52</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
@@ -2423,44 +2387,42 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E19" s="3">
         <v>2</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I19" s="3">
         <v>295</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>52</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
@@ -2482,44 +2444,42 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E20" s="3">
         <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I20" s="3">
         <v>32</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>52</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
@@ -2541,44 +2501,42 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E21" s="3">
         <v>2</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I21" s="3">
         <v>37</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>52</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
@@ -2600,44 +2558,42 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E22" s="3">
         <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I22" s="3">
         <v>1462</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="N22" s="15" t="s">
-        <v>52</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N22" s="15"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
@@ -2659,44 +2615,42 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E23" s="3">
         <v>2</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I23" s="3">
         <v>25</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L23" s="11" t="s">
         <v>10</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="N23" s="16" t="s">
-        <v>52</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N23" s="16"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
@@ -2718,87 +2672,82 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I24" s="2">
         <v>92</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="K24" s="22" t="s">
         <v>9</v>
       </c>
       <c r="L24" s="23" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M24" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="N24" s="24" t="s">
-        <v>52</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N24" s="24"/>
     </row>
     <row r="25" spans="1:29" ht="175.5">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I25" s="2">
         <v>50</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="L25" s="18" t="s">
         <v>10</v>
       </c>
       <c r="M25" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="N25" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="175.5">
@@ -2806,43 +2755,40 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E26" s="26">
         <v>2</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G26" s="2">
         <v>3</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I26" s="2">
         <v>55</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="L26" s="18" t="s">
         <v>10</v>
       </c>
       <c r="M26" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="N26" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="190.15">
@@ -2850,154 +2796,148 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E27" s="2">
         <v>2</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I27" s="2">
         <v>242</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="K27" s="28" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L27" s="29" t="s">
         <v>10</v>
       </c>
       <c r="M27" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="N27" s="30" t="s">
-        <v>52</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N27" s="30"/>
     </row>
     <row r="28" spans="1:29" ht="102.4">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E28" s="2">
         <v>2</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I28" s="2">
         <v>101</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K28" s="27" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L28" s="18" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M28" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="N28" s="30" t="s">
-        <v>52</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N28" s="30"/>
     </row>
     <row r="29" spans="1:29" ht="146.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E29" s="2">
         <v>2</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I29" s="2">
         <v>120</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="K29" s="27" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="L29" s="18" t="s">
         <v>10</v>
       </c>
       <c r="M29" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="N29" s="30" t="s">
-        <v>52</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="N29" s="30"/>
     </row>
     <row r="30" spans="1:29" ht="219.4">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E30" s="2">
         <v>2</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>10</v>
@@ -3006,64 +2946,60 @@
         <v>51</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="L30" s="32" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="M30" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="N30" s="30" t="s">
-        <v>52</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N30" s="30"/>
     </row>
     <row r="31" spans="1:29" ht="175.5">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E31" s="2">
         <v>3</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I31" s="2">
         <v>75</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="K31" s="27" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="L31" s="18" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="M31" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="N31" s="33" t="s">
-        <v>52</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="N31" s="33"/>
     </row>
     <row r="32" spans="1:29">
       <c r="A32" s="19"/>

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF672D81-4AB1-4D48-9231-D2D9F4C9DFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3DCE95-627D-43F1-A2D1-6DFF73332912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-101" yWindow="-101" windowWidth="29002" windowHeight="15682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="210">
   <si>
     <t>NCT02491333</t>
   </si>
@@ -200,6 +200,9 @@
     <t>6-minute walking distance (6MWD) in meters at 6 weeks (post-treatment) and at follow-up (~28 weeks)</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>For primary outcome and most secondary continuous outcomes: Constrained longitudinal data analysis (linear mixed effects model with equality constraint on baseline means), adjusted for center (fixed effect) with random intercept for participants
 For mMRC-dyspnoea: Generalized linear model of the Poisson family with a log link, adjusted for center and using natural logarithm of the number of observed occasions as offset, with cluster robust standard errors</t>
   </si>
@@ -802,17 +805,27 @@
 Intubation Difficulty Scale (ordinal): Wilcoxon or χ² for class comparisons.
 Hemodynamic changes: pre- vs post-intubation medians compared by Wilcoxon; between-group differences tested similarly.</t>
   </si>
+  <si>
+    <t>No(acupuncture was not more effective than metformin or sham acupuncture)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -966,49 +979,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1020,43 +1033,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1335,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.65"/>
@@ -1361,7 +1375,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>34</v>
@@ -1379,7 +1393,7 @@
         <v>37</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>38</v>
@@ -1391,7 +1405,7 @@
         <v>39</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>40</v>
@@ -1430,7 +1444,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G2" s="3">
         <v>3</v>
@@ -1442,18 +1456,20 @@
         <v>342</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>43</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>27</v>
+        <v>209</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="N2" s="4"/>
+        <v>157</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -1487,7 +1503,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G3" s="3">
         <v>3</v>
@@ -1499,7 +1515,7 @@
         <v>400</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>9</v>
@@ -1508,7 +1524,7 @@
         <v>10</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N3" s="34"/>
       <c r="O3" s="4"/>
@@ -1532,19 +1548,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>41</v>
@@ -1556,16 +1572,16 @@
         <v>6030</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L4" s="11" t="s">
         <v>27</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N4" s="34"/>
       <c r="O4" s="4"/>
@@ -1601,7 +1617,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G5" s="3">
         <v>2</v>
@@ -1613,7 +1629,7 @@
         <v>75</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>43</v>
@@ -1622,9 +1638,11 @@
         <v>27</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="N5" s="34"/>
+        <v>168</v>
+      </c>
+      <c r="N5" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -1646,19 +1664,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E6" s="3">
         <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>41</v>
@@ -1670,7 +1688,7 @@
         <v>5060</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>18</v>
@@ -1679,9 +1697,11 @@
         <v>27</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="N6" s="34"/>
+        <v>173</v>
+      </c>
+      <c r="N6" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -1715,7 +1735,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G7" s="3">
         <v>4</v>
@@ -1727,7 +1747,7 @@
         <v>463</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>43</v>
@@ -1736,9 +1756,11 @@
         <v>27</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="N7" s="34"/>
+        <v>175</v>
+      </c>
+      <c r="N7" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -1772,7 +1794,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>17</v>
@@ -1784,7 +1806,7 @@
         <v>311</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>18</v>
@@ -1793,9 +1815,11 @@
         <v>19</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="N8" s="34"/>
+        <v>178</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -1817,19 +1841,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E9" s="3">
         <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>41</v>
@@ -1841,18 +1865,20 @@
         <v>115</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L9" s="11" t="s">
         <v>27</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="N9" s="4"/>
+        <v>184</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -1874,19 +1900,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E10" s="3">
         <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>41</v>
@@ -1898,16 +1924,16 @@
         <v>577</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L10" s="11" t="s">
         <v>27</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -1931,19 +1957,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E11" s="3">
         <v>2</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>41</v>
@@ -1955,16 +1981,16 @@
         <v>256</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>27</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -2000,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
@@ -2012,13 +2038,13 @@
         <v>44</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>43</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M12" s="10" t="s">
         <v>23</v>
@@ -2045,19 +2071,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>41</v>
@@ -2069,16 +2095,16 @@
         <v>30</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N13" s="36"/>
       <c r="O13" s="4"/>
@@ -2114,7 +2140,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G14" s="3">
         <v>4</v>
@@ -2126,10 +2152,10 @@
         <v>480</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>27</v>
@@ -2192,7 +2218,7 @@
         <v>10</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -2216,19 +2242,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D16" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="E16" s="3">
         <v>2</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>41</v>
@@ -2240,7 +2266,7 @@
         <v>28</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>43</v>
@@ -2249,7 +2275,7 @@
         <v>10</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N16" s="13"/>
       <c r="O16" s="4"/>
@@ -2273,19 +2299,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17" s="3">
         <v>2</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>41</v>
@@ -2297,7 +2323,7 @@
         <v>48</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>43</v>
@@ -2306,7 +2332,7 @@
         <v>10</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -2330,19 +2356,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E18" s="3">
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>41</v>
@@ -2354,7 +2380,7 @@
         <v>294</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>43</v>
@@ -2363,7 +2389,7 @@
         <v>10</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -2387,19 +2413,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E19" s="3">
         <v>2</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>41</v>
@@ -2411,16 +2437,16 @@
         <v>295</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L19" s="10" t="s">
         <v>27</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -2444,19 +2470,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="E20" s="3">
         <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>41</v>
@@ -2468,7 +2494,7 @@
         <v>32</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>43</v>
@@ -2477,7 +2503,7 @@
         <v>27</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -2501,19 +2527,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E21" s="3">
         <v>2</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>41</v>
@@ -2525,16 +2551,16 @@
         <v>37</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>43</v>
       </c>
       <c r="L21" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="M21" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>84</v>
       </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
@@ -2558,19 +2584,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="E22" s="3">
         <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>41</v>
@@ -2582,16 +2608,16 @@
         <v>1462</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N22" s="15"/>
       <c r="O22" s="4"/>
@@ -2615,19 +2641,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>95</v>
-      </c>
       <c r="D23" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E23" s="3">
         <v>2</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>41</v>
@@ -2639,7 +2665,7 @@
         <v>25</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>43</v>
@@ -2648,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N23" s="16"/>
       <c r="O23" s="4"/>
@@ -2672,19 +2698,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>41</v>
@@ -2696,7 +2722,7 @@
         <v>92</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K24" s="22" t="s">
         <v>9</v>
@@ -2705,7 +2731,7 @@
         <v>27</v>
       </c>
       <c r="M24" s="23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N24" s="24"/>
     </row>
@@ -2714,19 +2740,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>41</v>
@@ -2738,16 +2764,16 @@
         <v>50</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L25" s="18" t="s">
         <v>10</v>
       </c>
       <c r="M25" s="18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="175.5">
@@ -2755,19 +2781,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E26" s="26">
         <v>2</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G26" s="2">
         <v>3</v>
@@ -2779,16 +2805,16 @@
         <v>55</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L26" s="18" t="s">
         <v>10</v>
       </c>
       <c r="M26" s="18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="190.15">
@@ -2796,19 +2822,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E27" s="2">
         <v>2</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>41</v>
@@ -2820,7 +2846,7 @@
         <v>242</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K27" s="28" t="s">
         <v>43</v>
@@ -2829,7 +2855,7 @@
         <v>10</v>
       </c>
       <c r="M27" s="29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N27" s="30"/>
     </row>
@@ -2838,19 +2864,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E28" s="2">
         <v>2</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>41</v>
@@ -2862,16 +2888,16 @@
         <v>101</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K28" s="27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L28" s="18" t="s">
         <v>27</v>
       </c>
       <c r="M28" s="18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N28" s="30"/>
     </row>
@@ -2880,19 +2906,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="E29" s="2">
         <v>2</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>41</v>
@@ -2904,16 +2930,16 @@
         <v>120</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K29" s="27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L29" s="18" t="s">
         <v>10</v>
       </c>
       <c r="M29" s="18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N29" s="30"/>
     </row>
@@ -2922,19 +2948,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E30" s="2">
         <v>2</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>41</v>
@@ -2946,16 +2972,16 @@
         <v>51</v>
       </c>
       <c r="J30" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K30" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="K30" s="27" t="s">
-        <v>143</v>
-      </c>
       <c r="L30" s="32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M30" s="18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N30" s="30"/>
     </row>
@@ -2964,19 +2990,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E31" s="2">
         <v>3</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>41</v>
@@ -2988,16 +3014,16 @@
         <v>75</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K31" s="27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L31" s="18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M31" s="18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N31" s="33"/>
     </row>

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3DCE95-627D-43F1-A2D1-6DFF73332912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF676F11-B186-4ED7-978C-0813841C0C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-101" yWindow="-101" windowWidth="29002" windowHeight="15682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="209">
   <si>
     <t>NCT02491333</t>
   </si>
@@ -198,9 +198,6 @@
   </si>
   <si>
     <t>6-minute walking distance (6MWD) in meters at 6 weeks (post-treatment) and at follow-up (~28 weeks)</t>
-  </si>
-  <si>
-    <t>ok</t>
   </si>
   <si>
     <t>For primary outcome and most secondary continuous outcomes: Constrained longitudinal data analysis (linear mixed effects model with equality constraint on baseline means), adjusted for center (fixed effect) with random intercept for participants
@@ -1349,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.65"/>
@@ -1375,7 +1372,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>34</v>
@@ -1393,7 +1390,7 @@
         <v>37</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>38</v>
@@ -1405,7 +1402,7 @@
         <v>39</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>40</v>
@@ -1444,7 +1441,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G2" s="3">
         <v>3</v>
@@ -1456,19 +1453,19 @@
         <v>342</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>43</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>46</v>
+        <v>156</v>
+      </c>
+      <c r="N2" s="4">
+        <v>1</v>
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -1503,7 +1500,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G3" s="3">
         <v>3</v>
@@ -1515,7 +1512,7 @@
         <v>400</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>9</v>
@@ -1524,7 +1521,7 @@
         <v>10</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N3" s="34"/>
       <c r="O3" s="4"/>
@@ -1548,19 +1545,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>41</v>
@@ -1572,16 +1569,16 @@
         <v>6030</v>
       </c>
       <c r="J4" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="11" t="s">
         <v>165</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>166</v>
       </c>
       <c r="N4" s="34"/>
       <c r="O4" s="4"/>
@@ -1617,7 +1614,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G5" s="3">
         <v>2</v>
@@ -1629,7 +1626,7 @@
         <v>75</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>43</v>
@@ -1638,10 +1635,10 @@
         <v>27</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="N5" s="37" t="s">
-        <v>46</v>
+        <v>167</v>
+      </c>
+      <c r="N5" s="37">
+        <v>1</v>
       </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
@@ -1664,19 +1661,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="14" t="s">
         <v>170</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>171</v>
       </c>
       <c r="E6" s="3">
         <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>41</v>
@@ -1688,7 +1685,7 @@
         <v>5060</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>18</v>
@@ -1697,10 +1694,10 @@
         <v>27</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="N6" s="37" t="s">
-        <v>46</v>
+        <v>172</v>
+      </c>
+      <c r="N6" s="37">
+        <v>1</v>
       </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -1735,7 +1732,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G7" s="3">
         <v>4</v>
@@ -1747,7 +1744,7 @@
         <v>463</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>43</v>
@@ -1756,11 +1753,9 @@
         <v>27</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="N7" s="37" t="s">
-        <v>46</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N7" s="37"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -1794,7 +1789,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>17</v>
@@ -1806,7 +1801,7 @@
         <v>311</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>18</v>
@@ -1815,11 +1810,9 @@
         <v>19</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="N8" s="37" t="s">
-        <v>46</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="N8" s="37"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -1841,19 +1834,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="E9" s="3">
         <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>41</v>
@@ -1865,20 +1858,18 @@
         <v>115</v>
       </c>
       <c r="J9" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="L9" s="11" t="s">
         <v>27</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>46</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -1900,19 +1891,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="E10" s="3">
         <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>41</v>
@@ -1924,16 +1915,16 @@
         <v>577</v>
       </c>
       <c r="J10" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="11" t="s">
         <v>194</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>195</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -1957,19 +1948,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="E11" s="3">
         <v>2</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>41</v>
@@ -1981,16 +1972,16 @@
         <v>256</v>
       </c>
       <c r="J11" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="10" t="s">
         <v>207</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>208</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -2026,7 +2017,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
@@ -2038,13 +2029,13 @@
         <v>44</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>43</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M12" s="10" t="s">
         <v>23</v>
@@ -2071,19 +2062,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="14" t="s">
         <v>197</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>198</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>41</v>
@@ -2095,16 +2086,16 @@
         <v>30</v>
       </c>
       <c r="J13" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="L13" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="M13" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>202</v>
       </c>
       <c r="N13" s="36"/>
       <c r="O13" s="4"/>
@@ -2140,7 +2131,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G14" s="3">
         <v>4</v>
@@ -2152,10 +2143,10 @@
         <v>480</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>27</v>
@@ -2218,7 +2209,7 @@
         <v>10</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -2242,19 +2233,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="3">
         <v>2</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>41</v>
@@ -2266,7 +2257,7 @@
         <v>28</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>43</v>
@@ -2275,7 +2266,7 @@
         <v>10</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N16" s="13"/>
       <c r="O16" s="4"/>
@@ -2299,19 +2290,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="D17" s="14" t="s">
         <v>59</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>60</v>
       </c>
       <c r="E17" s="3">
         <v>2</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>41</v>
@@ -2323,7 +2314,7 @@
         <v>48</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>43</v>
@@ -2332,7 +2323,7 @@
         <v>10</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -2356,19 +2347,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="E18" s="3">
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>41</v>
@@ -2380,7 +2371,7 @@
         <v>294</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>43</v>
@@ -2389,7 +2380,7 @@
         <v>10</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -2413,19 +2404,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="D19" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="E19" s="3">
         <v>2</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>41</v>
@@ -2437,16 +2428,16 @@
         <v>295</v>
       </c>
       <c r="J19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -2470,19 +2461,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="E20" s="3">
         <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>41</v>
@@ -2494,7 +2485,7 @@
         <v>32</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>43</v>
@@ -2503,7 +2494,7 @@
         <v>27</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -2527,19 +2518,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="D21" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="E21" s="3">
         <v>2</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>41</v>
@@ -2551,16 +2542,16 @@
         <v>37</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>43</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
@@ -2584,19 +2575,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E22" s="3">
         <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>41</v>
@@ -2608,16 +2599,16 @@
         <v>1462</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L22" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="M22" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>95</v>
       </c>
       <c r="N22" s="15"/>
       <c r="O22" s="4"/>
@@ -2641,19 +2632,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E23" s="3">
         <v>2</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>41</v>
@@ -2665,7 +2656,7 @@
         <v>25</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>43</v>
@@ -2674,7 +2665,7 @@
         <v>10</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N23" s="16"/>
       <c r="O23" s="4"/>
@@ -2698,19 +2689,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="D24" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>41</v>
@@ -2722,7 +2713,7 @@
         <v>92</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K24" s="22" t="s">
         <v>9</v>
@@ -2731,7 +2722,7 @@
         <v>27</v>
       </c>
       <c r="M24" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N24" s="24"/>
     </row>
@@ -2740,19 +2731,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>41</v>
@@ -2764,16 +2755,16 @@
         <v>50</v>
       </c>
       <c r="J25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K25" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="K25" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="L25" s="18" t="s">
         <v>10</v>
       </c>
       <c r="M25" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="175.5">
@@ -2781,19 +2772,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="D26" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="E26" s="26">
         <v>2</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G26" s="2">
         <v>3</v>
@@ -2805,16 +2796,16 @@
         <v>55</v>
       </c>
       <c r="J26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K26" s="27" t="s">
         <v>119</v>
-      </c>
-      <c r="K26" s="27" t="s">
-        <v>120</v>
       </c>
       <c r="L26" s="18" t="s">
         <v>10</v>
       </c>
       <c r="M26" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="190.15">
@@ -2822,19 +2813,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>123</v>
-      </c>
       <c r="D27" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E27" s="2">
         <v>2</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>41</v>
@@ -2846,7 +2837,7 @@
         <v>242</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K27" s="28" t="s">
         <v>43</v>
@@ -2855,7 +2846,7 @@
         <v>10</v>
       </c>
       <c r="M27" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N27" s="30"/>
     </row>
@@ -2864,19 +2855,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="D28" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="E28" s="2">
         <v>2</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>41</v>
@@ -2888,16 +2879,16 @@
         <v>101</v>
       </c>
       <c r="J28" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K28" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="K28" s="27" t="s">
+      <c r="L28" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="18" t="s">
         <v>134</v>
-      </c>
-      <c r="L28" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="M28" s="18" t="s">
-        <v>135</v>
       </c>
       <c r="N28" s="30"/>
     </row>
@@ -2906,19 +2897,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>138</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E29" s="2">
         <v>2</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>41</v>
@@ -2930,16 +2921,16 @@
         <v>120</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K29" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L29" s="18" t="s">
         <v>10</v>
       </c>
       <c r="M29" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N29" s="30"/>
     </row>
@@ -2948,19 +2939,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="D30" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="E30" s="2">
         <v>2</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>41</v>
@@ -2972,16 +2963,16 @@
         <v>51</v>
       </c>
       <c r="J30" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K30" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="L30" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="K30" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="L30" s="32" t="s">
+      <c r="M30" s="18" t="s">
         <v>146</v>
-      </c>
-      <c r="M30" s="18" t="s">
-        <v>147</v>
       </c>
       <c r="N30" s="30"/>
     </row>
@@ -2990,19 +2981,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="D31" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="E31" s="2">
         <v>3</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>41</v>
@@ -3014,16 +3005,16 @@
         <v>75</v>
       </c>
       <c r="J31" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K31" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="K31" s="27" t="s">
+      <c r="L31" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="L31" s="18" t="s">
+      <c r="M31" s="18" t="s">
         <v>154</v>
-      </c>
-      <c r="M31" s="18" t="s">
-        <v>155</v>
       </c>
       <c r="N31" s="33"/>
     </row>

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF676F11-B186-4ED7-978C-0813841C0C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B74C467-D205-4931-98A7-26DD21F3B67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-101" yWindow="-101" windowWidth="29002" windowHeight="15682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="210">
   <si>
     <t>NCT02491333</t>
   </si>
@@ -805,17 +805,27 @@
   <si>
     <t>No(acupuncture was not more effective than metformin or sham acupuncture)</t>
   </si>
+  <si>
+    <t>1, 但有问题</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -976,49 +986,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1030,43 +1040,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -1346,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.65"/>
@@ -1755,7 +1766,9 @@
       <c r="M7" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="N7" s="37"/>
+      <c r="N7" s="37">
+        <v>1</v>
+      </c>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -1812,7 +1825,9 @@
       <c r="M8" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="N8" s="37"/>
+      <c r="N8" s="38" t="s">
+        <v>209</v>
+      </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -1869,7 +1884,9 @@
       <c r="M9" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="N9" s="4"/>
+      <c r="N9" s="4">
+        <v>1</v>
+      </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -1926,7 +1943,9 @@
       <c r="M10" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="N10" s="4"/>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -1983,7 +2002,9 @@
       <c r="M11" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="N11" s="4"/>
+      <c r="N11" s="4">
+        <v>1</v>
+      </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -2040,7 +2061,9 @@
       <c r="M12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="4"/>
+      <c r="N12" s="4">
+        <v>1</v>
+      </c>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -2154,7 +2177,9 @@
       <c r="M14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="4"/>
+      <c r="N14" s="4">
+        <v>1</v>
+      </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B74C467-D205-4931-98A7-26DD21F3B67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45364F1-00C4-4026-B799-4EB54E71229F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-101" yWindow="-101" windowWidth="29002" windowHeight="15682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-124" yWindow="-124" windowWidth="29048" windowHeight="17528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="212">
   <si>
     <t>NCT02491333</t>
   </si>
@@ -378,26 +378,6 @@
 </t>
   </si>
   <si>
-    <t>Adjunctive use of modified Yunu-Jian in the non-surgical treatment of male smokers with chronic periodontitis: a randomized double-blind, placebo-controlled clinical trial</t>
-  </si>
-  <si>
-    <t>HKCTR-1848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	
-Placebo</t>
-  </si>
-  <si>
-    <t>DOI 10.1186/s13020-016-0111-z</t>
-  </si>
-  <si>
-    <t>Changes in CADIA (Computer-Assisted Densitometric Image Analysis) values - measuring radiographic alveolar bone density changes.</t>
-  </si>
-  <si>
-    <t>Primary outcome: repeated‐measures ANOVA with Dunnett’s post-test for within- and between-group comparisons
-Clinical parameters: same repeated-measures ANOVA approach</t>
-  </si>
-  <si>
     <t>UMIN000008339</t>
   </si>
   <si>
@@ -806,7 +786,37 @@
     <t>No(acupuncture was not more effective than metformin or sham acupuncture)</t>
   </si>
   <si>
-    <t>1, 但有问题</t>
+    <t>Yes, partially. At 24 weeks LDL-C and TC were significantly lower in statin + PCSK9-i and combine3 vs statin or statin + ezetimibe (overall p &lt; 0.05); combine3 and PCSK9 arms met superiority, while adding ezetimibe alone did not.</t>
+  </si>
+  <si>
+    <t>NCT02979756</t>
+  </si>
+  <si>
+    <t>Detection and initial management of
+gestational diabetes through primary health
+care services in Morocco: An effectivenessimplementation trial</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0209322</t>
+  </si>
+  <si>
+    <t>Birth-weight of the newborn</t>
+  </si>
+  <si>
+    <t>Primary outcome: Linear mixed-effects model with random intercepts for health centers and participants (REML estimation).
+Secondary outcomes:
+Binary/categorical: Logistic mixed-effects models with the same random-effects structure (Laplace approximation)
+Count: Poisson mixed-effects models with an offset for total measurements (Laplace approximation)
+Independence tests (2×2 tables): χ² tests with Rao–Scott correction</t>
+  </si>
+  <si>
+    <t>YS may be missing</t>
+  </si>
+  <si>
+    <t>1? Did not use odds ratio</t>
+  </si>
+  <si>
+    <t>many YP</t>
   </si>
 </sst>
 </file>
@@ -1027,10 +1037,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1043,43 +1049,45 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1357,25 +1365,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.65"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.69921875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="16.09765625" customWidth="1"/>
-    <col min="5" max="5" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.69921875" customWidth="1"/>
-    <col min="9" max="9" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.59765625" customWidth="1"/>
-    <col min="11" max="11" width="38.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.3984375" style="12" customWidth="1"/>
-    <col min="13" max="13" width="38.69921875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.7265625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" customWidth="1"/>
+    <col min="5" max="5" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" customWidth="1"/>
+    <col min="11" max="11" width="38.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="44.36328125" style="12" customWidth="1"/>
+    <col min="13" max="13" width="38.7265625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="18" customHeight="1">
@@ -1401,7 +1409,7 @@
         <v>37</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>38</v>
@@ -1435,7 +1443,7 @@
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
     </row>
-    <row r="2" spans="1:29" ht="73.150000000000006">
+    <row r="2" spans="1:29" ht="72.5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1452,7 +1460,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G2" s="3">
         <v>3</v>
@@ -1464,16 +1472,16 @@
         <v>342</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>43</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="N2" s="4">
         <v>1</v>
@@ -1494,7 +1502,7 @@
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
     </row>
-    <row r="3" spans="1:29" ht="102.4">
+    <row r="3" spans="1:29" ht="87">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1504,14 +1512,14 @@
       <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="3">
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G3" s="3">
         <v>3</v>
@@ -1523,7 +1531,7 @@
         <v>400</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>9</v>
@@ -1532,9 +1540,11 @@
         <v>10</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="N3" s="34"/>
+        <v>152</v>
+      </c>
+      <c r="N3" s="32">
+        <v>1</v>
+      </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -1551,18 +1561,18 @@
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
     </row>
-    <row r="4" spans="1:29" ht="175.5">
+    <row r="4" spans="1:29" ht="174">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
@@ -1580,18 +1590,20 @@
         <v>6030</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L4" s="11" t="s">
         <v>27</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="N4" s="34"/>
+        <v>159</v>
+      </c>
+      <c r="N4" s="32">
+        <v>1</v>
+      </c>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -1608,7 +1620,7 @@
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
     </row>
-    <row r="5" spans="1:29" ht="131.65">
+    <row r="5" spans="1:29" ht="130.5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1625,7 +1637,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G5" s="3">
         <v>2</v>
@@ -1637,7 +1649,7 @@
         <v>75</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>43</v>
@@ -1646,9 +1658,9 @@
         <v>27</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="N5" s="37">
+        <v>161</v>
+      </c>
+      <c r="N5" s="35">
         <v>1</v>
       </c>
       <c r="O5" s="4"/>
@@ -1667,18 +1679,18 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
     </row>
-    <row r="6" spans="1:29" ht="190.15">
+    <row r="6" spans="1:29" ht="188.5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E6" s="3">
         <v>2</v>
@@ -1696,7 +1708,7 @@
         <v>5060</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>18</v>
@@ -1705,9 +1717,9 @@
         <v>27</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="N6" s="37">
+        <v>166</v>
+      </c>
+      <c r="N6" s="35">
         <v>1</v>
       </c>
       <c r="O6" s="4"/>
@@ -1726,7 +1738,7 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" spans="1:29" ht="117">
+    <row r="7" spans="1:29" ht="116">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1755,7 +1767,7 @@
         <v>463</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>43</v>
@@ -1764,9 +1776,9 @@
         <v>27</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="N7" s="37">
+        <v>168</v>
+      </c>
+      <c r="N7" s="35">
         <v>1</v>
       </c>
       <c r="O7" s="4"/>
@@ -1785,7 +1797,7 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
-    <row r="8" spans="1:29" ht="131.65">
+    <row r="8" spans="1:29" ht="130.5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1802,7 +1814,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>17</v>
@@ -1814,7 +1826,7 @@
         <v>311</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>18</v>
@@ -1823,10 +1835,10 @@
         <v>19</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="N8" s="38" t="s">
-        <v>209</v>
+        <v>171</v>
+      </c>
+      <c r="N8" s="36">
+        <v>1</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -1844,24 +1856,24 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" spans="1:29" ht="87.75">
+    <row r="9" spans="1:29" ht="87">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E9" s="3">
         <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>41</v>
@@ -1873,16 +1885,16 @@
         <v>115</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L9" s="11" t="s">
         <v>27</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="N9" s="4">
         <v>1</v>
@@ -1903,24 +1915,24 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" spans="1:29" ht="117">
+    <row r="10" spans="1:29" ht="116">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E10" s="3">
         <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>41</v>
@@ -1932,16 +1944,16 @@
         <v>577</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L10" s="11" t="s">
         <v>27</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="N10" s="4">
         <v>1</v>
@@ -1962,24 +1974,24 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" spans="1:29" ht="263.25">
+    <row r="11" spans="1:29" ht="261">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E11" s="3">
         <v>2</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>41</v>
@@ -1991,16 +2003,16 @@
         <v>256</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>27</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="N11" s="4">
         <v>1</v>
@@ -2021,7 +2033,7 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" spans="1:29" ht="146.25">
+    <row r="12" spans="1:29" ht="130.5">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2038,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
@@ -2050,13 +2062,13 @@
         <v>44</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>43</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="M12" s="10" t="s">
         <v>23</v>
@@ -2080,18 +2092,18 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" spans="1:29" ht="117">
+    <row r="13" spans="1:29" ht="116">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
@@ -2109,18 +2121,20 @@
         <v>30</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="N13" s="36"/>
+        <v>195</v>
+      </c>
+      <c r="N13" s="34">
+        <v>1</v>
+      </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -2137,7 +2151,7 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" spans="1:29" ht="87.75">
+    <row r="14" spans="1:29" ht="87">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2154,7 +2168,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G14" s="3">
         <v>4</v>
@@ -2166,7 +2180,7 @@
         <v>480</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>48</v>
@@ -2196,7 +2210,7 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
     </row>
-    <row r="15" spans="1:29" ht="204.75">
+    <row r="15" spans="1:29" ht="203">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2236,7 +2250,9 @@
       <c r="M15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N15" s="4"/>
+      <c r="N15" s="4">
+        <v>1</v>
+      </c>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
@@ -2253,7 +2269,7 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
     </row>
-    <row r="16" spans="1:29" ht="117">
+    <row r="16" spans="1:29" ht="116">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2293,7 +2309,9 @@
       <c r="M16" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="N16" s="13"/>
+      <c r="N16" s="13">
+        <v>1</v>
+      </c>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -2310,7 +2328,7 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
     </row>
-    <row r="17" spans="1:29" ht="58.5">
+    <row r="17" spans="1:29" ht="58">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2350,7 +2368,9 @@
       <c r="M17" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="N17" s="4"/>
+      <c r="N17" s="4">
+        <v>1</v>
+      </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
@@ -2367,7 +2387,7 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
     </row>
-    <row r="18" spans="1:29" ht="117">
+    <row r="18" spans="1:29" ht="116">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2401,13 +2421,15 @@
       <c r="K18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L18" s="10" t="s">
-        <v>10</v>
+      <c r="L18" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="M18" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="N18" s="4"/>
+      <c r="N18" s="4">
+        <v>1</v>
+      </c>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
@@ -2424,7 +2446,7 @@
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
     </row>
-    <row r="19" spans="1:29" ht="190.15">
+    <row r="19" spans="1:29" ht="174">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2455,7 +2477,7 @@
       <c r="J19" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="5" t="s">
         <v>68</v>
       </c>
       <c r="L19" s="10" t="s">
@@ -2464,7 +2486,9 @@
       <c r="M19" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="N19" s="4"/>
+      <c r="N19" s="4">
+        <v>1</v>
+      </c>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
@@ -2481,7 +2505,7 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" spans="1:29" ht="131.65">
+    <row r="20" spans="1:29" ht="130.5">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2538,7 +2562,7 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
     </row>
-    <row r="21" spans="1:29" ht="87.75">
+    <row r="21" spans="1:29" ht="87">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2595,7 +2619,7 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
     </row>
-    <row r="22" spans="1:29" ht="102.4">
+    <row r="22" spans="1:29" ht="101.5">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2652,47 +2676,49 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
     </row>
-    <row r="23" spans="1:29" ht="87.75">
+    <row r="23" spans="1:29" ht="232">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>96</v>
+        <v>204</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>98</v>
+        <v>205</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>206</v>
       </c>
       <c r="E23" s="3">
         <v>2</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>41</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="I23" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>99</v>
+        <v>207</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>43</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="N23" s="16"/>
+        <v>208</v>
+      </c>
+      <c r="N23" s="37" t="s">
+        <v>209</v>
+      </c>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
@@ -2709,226 +2735,234 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
     </row>
-    <row r="24" spans="1:29" ht="87.75">
+    <row r="24" spans="1:29" ht="87">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>102</v>
+        <v>95</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="27" t="s">
+      <c r="H24" s="25" t="s">
         <v>27</v>
       </c>
       <c r="I24" s="2">
         <v>92</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K24" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="K24" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="L24" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="M24" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="N24" s="24"/>
+      <c r="L24" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="N24" s="22">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:29" ht="175.5">
+    <row r="25" spans="1:29" ht="174">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="H25" s="25" t="s">
         <v>27</v>
       </c>
       <c r="I25" s="2">
         <v>50</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K25" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="L25" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="L25" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="18" t="s">
-        <v>112</v>
+      <c r="M25" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="N25" s="38" t="s">
+        <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="175.5">
+    <row r="26" spans="1:29" ht="174">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>115</v>
+        <v>108</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" s="26">
+        <v>110</v>
+      </c>
+      <c r="E26" s="24">
         <v>2</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G26" s="2">
         <v>3</v>
       </c>
-      <c r="H26" s="27" t="s">
+      <c r="H26" s="25" t="s">
         <v>27</v>
       </c>
       <c r="I26" s="2">
         <v>55</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K26" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="L26" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="K26" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="L26" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="M26" s="18" t="s">
-        <v>120</v>
+      <c r="M26" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="N26" s="38" t="s">
+        <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="190.15">
+    <row r="27" spans="1:29" ht="174">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>124</v>
+        <v>115</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>118</v>
       </c>
       <c r="E27" s="2">
         <v>2</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="25" t="s">
         <v>27</v>
       </c>
       <c r="I27" s="2">
         <v>242</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K27" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="K27" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="L27" s="29" t="s">
+      <c r="L27" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="M27" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="N27" s="30"/>
+      <c r="M27" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="N27" s="28"/>
     </row>
-    <row r="28" spans="1:29" ht="102.4">
+    <row r="28" spans="1:29" ht="101.5">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>129</v>
+      <c r="B28" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>123</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E28" s="2">
         <v>2</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="25" t="s">
         <v>27</v>
       </c>
       <c r="I28" s="2">
         <v>101</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K28" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="L28" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="M28" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="N28" s="30"/>
+        <v>126</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="N28" s="28"/>
     </row>
-    <row r="29" spans="1:29" ht="146.25">
+    <row r="29" spans="1:29" ht="145">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>137</v>
+        <v>130</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>131</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E29" s="2">
         <v>2</v>
@@ -2946,31 +2980,31 @@
         <v>120</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="K29" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="L29" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="L29" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="N29" s="30"/>
+      <c r="M29" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="N29" s="28"/>
     </row>
-    <row r="30" spans="1:29" ht="219.4">
+    <row r="30" spans="1:29" ht="217.5">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>141</v>
+        <v>134</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E30" s="2">
         <v>2</v>
@@ -2988,37 +3022,39 @@
         <v>51</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="K30" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="L30" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="M30" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="N30" s="30"/>
+        <v>138</v>
+      </c>
+      <c r="K30" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="L30" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="N30" s="38" t="s">
+        <v>211</v>
+      </c>
     </row>
-    <row r="31" spans="1:29" ht="175.5">
+    <row r="31" spans="1:29" ht="174">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>148</v>
+        <v>141</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>142</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E31" s="2">
         <v>3</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>41</v>
@@ -3030,33 +3066,33 @@
         <v>75</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K31" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="L31" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="M31" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="N31" s="33"/>
+        <v>145</v>
+      </c>
+      <c r="K31" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="M31" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="N31" s="31"/>
     </row>
     <row r="32" spans="1:29">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45364F1-00C4-4026-B799-4EB54E71229F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95E89DA-30D5-487E-BA66-CE72EAE1F0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-124" yWindow="-124" windowWidth="29048" windowHeight="17528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-101" yWindow="-101" windowWidth="29002" windowHeight="15682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="210">
   <si>
     <t>NCT02491333</t>
   </si>
@@ -470,9 +470,6 @@
     <t>https://doi.org/10.1371/journal.pone.0177698</t>
   </si>
   <si>
-    <t>Adherence (improved scheduled clinic attendance and medication adherence self-report)</t>
-  </si>
-  <si>
     <t>Parametric tests: Student’s t-test, two-way repeated-measures ANOVA for adherence, CD4, viral load, and weight
 Nonparametric tests: Chi-square/Fisher’s exact tests for categorical comparisons; Friedman’s ANOVA for within-group non-normal data
 Multivariate models: mixed repeated-measures ANCOVA adjusting for baseline covariates (age, ethnicity, education, income)</t>
@@ -574,9 +571,6 @@
     <t>Feasibility, assessed by adherence to six sessions of the assigned intervention (target ≥ 80%).</t>
   </si>
   <si>
-    <t>Continuous proportion</t>
-  </si>
-  <si>
     <t>Adherence met the ≥80% feasibility threshold for Pool-REST (85%) and Pool-REST Preferred (89%).
 Chair-REST did not meet the threshold (74%).</t>
   </si>
@@ -810,25 +804,34 @@
 Independence tests (2×2 tables): χ² tests with Rao–Scott correction</t>
   </si>
   <si>
-    <t>YS may be missing</t>
-  </si>
-  <si>
-    <t>1? Did not use odds ratio</t>
-  </si>
-  <si>
-    <t>many YP</t>
+    <t>1 YS may be missing</t>
+  </si>
+  <si>
+    <t>Adherence (improved scheduled clinic attendance and medication adherence self-report), attendance</t>
+  </si>
+  <si>
+    <t>Delta adherence: Continuous
+Adherence: Categorical
+Attendance: Categorical</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -996,43 +999,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1046,48 +1049,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1365,25 +1371,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.65"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.7265625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="16.08984375" customWidth="1"/>
-    <col min="5" max="5" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7265625" customWidth="1"/>
-    <col min="9" max="9" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" customWidth="1"/>
-    <col min="11" max="11" width="38.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.36328125" style="12" customWidth="1"/>
-    <col min="13" max="13" width="38.7265625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="7.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.69921875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="16.09765625" customWidth="1"/>
+    <col min="5" max="5" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.69921875" customWidth="1"/>
+    <col min="9" max="9" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.59765625" customWidth="1"/>
+    <col min="11" max="11" width="38.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="44.3984375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="38.69921875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="18" customHeight="1">
@@ -1409,7 +1415,7 @@
         <v>37</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>38</v>
@@ -1443,7 +1449,7 @@
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
     </row>
-    <row r="2" spans="1:29" ht="72.5">
+    <row r="2" spans="1:29" ht="73.150000000000006">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1460,7 +1466,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G2" s="3">
         <v>3</v>
@@ -1472,16 +1478,16 @@
         <v>342</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>43</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N2" s="4">
         <v>1</v>
@@ -1502,7 +1508,7 @@
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
     </row>
-    <row r="3" spans="1:29" ht="87">
+    <row r="3" spans="1:29" ht="102.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1512,7 +1518,7 @@
       <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="32" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="3">
@@ -1531,7 +1537,7 @@
         <v>400</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>9</v>
@@ -1540,9 +1546,9 @@
         <v>10</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="N3" s="32">
+        <v>150</v>
+      </c>
+      <c r="N3" s="31">
         <v>1</v>
       </c>
       <c r="O3" s="4"/>
@@ -1561,18 +1567,18 @@
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
     </row>
-    <row r="4" spans="1:29" ht="174">
+    <row r="4" spans="1:29" ht="175.5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
@@ -1590,18 +1596,18 @@
         <v>6030</v>
       </c>
       <c r="J4" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="N4" s="32">
+      <c r="N4" s="31">
         <v>1</v>
       </c>
       <c r="O4" s="4"/>
@@ -1620,7 +1626,7 @@
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
     </row>
-    <row r="5" spans="1:29" ht="130.5">
+    <row r="5" spans="1:29" ht="131.65">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1649,7 +1655,7 @@
         <v>75</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>43</v>
@@ -1658,9 +1664,9 @@
         <v>27</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="N5" s="35">
+        <v>159</v>
+      </c>
+      <c r="N5" s="34">
         <v>1</v>
       </c>
       <c r="O5" s="4"/>
@@ -1679,18 +1685,18 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
     </row>
-    <row r="6" spans="1:29" ht="188.5">
+    <row r="6" spans="1:29" ht="190.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>162</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>164</v>
       </c>
       <c r="E6" s="3">
         <v>2</v>
@@ -1708,7 +1714,7 @@
         <v>5060</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>18</v>
@@ -1717,9 +1723,9 @@
         <v>27</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="N6" s="35">
+        <v>164</v>
+      </c>
+      <c r="N6" s="34">
         <v>1</v>
       </c>
       <c r="O6" s="4"/>
@@ -1738,7 +1744,7 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" spans="1:29" ht="116">
+    <row r="7" spans="1:29" ht="117">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1767,7 +1773,7 @@
         <v>463</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>43</v>
@@ -1776,9 +1782,9 @@
         <v>27</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="N7" s="35">
+        <v>166</v>
+      </c>
+      <c r="N7" s="34">
         <v>1</v>
       </c>
       <c r="O7" s="4"/>
@@ -1797,7 +1803,7 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
-    <row r="8" spans="1:29" ht="130.5">
+    <row r="8" spans="1:29" ht="131.65">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1814,7 +1820,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>17</v>
@@ -1826,7 +1832,7 @@
         <v>311</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>18</v>
@@ -1835,9 +1841,9 @@
         <v>19</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="N8" s="36">
+        <v>169</v>
+      </c>
+      <c r="N8" s="35">
         <v>1</v>
       </c>
       <c r="O8" s="4"/>
@@ -1856,18 +1862,18 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" spans="1:29" ht="87">
+    <row r="9" spans="1:29" ht="87.75">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="E9" s="3">
         <v>2</v>
@@ -1885,16 +1891,16 @@
         <v>115</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L9" s="11" t="s">
         <v>27</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N9" s="4">
         <v>1</v>
@@ -1915,24 +1921,24 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" spans="1:29" ht="116">
+    <row r="10" spans="1:29" ht="117">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="E10" s="3">
         <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>41</v>
@@ -1944,7 +1950,7 @@
         <v>577</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>105</v>
@@ -1953,7 +1959,7 @@
         <v>27</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N10" s="4">
         <v>1</v>
@@ -1974,24 +1980,24 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" spans="1:29" ht="261">
+    <row r="11" spans="1:29" ht="263.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="E11" s="3">
         <v>2</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>41</v>
@@ -2003,7 +2009,7 @@
         <v>256</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>105</v>
@@ -2012,7 +2018,7 @@
         <v>27</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N11" s="4">
         <v>1</v>
@@ -2033,7 +2039,7 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" spans="1:29" ht="130.5">
+    <row r="12" spans="1:29" ht="146.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2050,7 +2056,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
@@ -2062,13 +2068,13 @@
         <v>44</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>43</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M12" s="10" t="s">
         <v>23</v>
@@ -2092,18 +2098,18 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" spans="1:29" ht="116">
+    <row r="13" spans="1:29" ht="117">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>189</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>191</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
@@ -2121,18 +2127,18 @@
         <v>30</v>
       </c>
       <c r="J13" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="L13" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="M13" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="L13" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="N13" s="34">
+      <c r="N13" s="33">
         <v>1</v>
       </c>
       <c r="O13" s="4"/>
@@ -2151,7 +2157,7 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" spans="1:29" ht="87">
+    <row r="14" spans="1:29" ht="87.75">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2168,7 +2174,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G14" s="3">
         <v>4</v>
@@ -2180,7 +2186,7 @@
         <v>480</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>48</v>
@@ -2210,7 +2216,7 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
     </row>
-    <row r="15" spans="1:29" ht="203">
+    <row r="15" spans="1:29" ht="204.75">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2269,7 +2275,7 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
     </row>
-    <row r="16" spans="1:29" ht="116">
+    <row r="16" spans="1:29" ht="117">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2328,7 +2334,7 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
     </row>
-    <row r="17" spans="1:29" ht="58">
+    <row r="17" spans="1:29" ht="58.5">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2387,7 +2393,7 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
     </row>
-    <row r="18" spans="1:29" ht="116">
+    <row r="18" spans="1:29" ht="117">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2422,7 +2428,7 @@
         <v>43</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M18" s="10" t="s">
         <v>67</v>
@@ -2446,7 +2452,7 @@
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
     </row>
-    <row r="19" spans="1:29" ht="174">
+    <row r="19" spans="1:29" ht="190.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2505,7 +2511,7 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" spans="1:29" ht="130.5">
+    <row r="20" spans="1:29" ht="131.65">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2545,7 +2551,9 @@
       <c r="M20" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="N20" s="4"/>
+      <c r="N20" s="4">
+        <v>1</v>
+      </c>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
@@ -2562,7 +2570,7 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
     </row>
-    <row r="21" spans="1:29" ht="87">
+    <row r="21" spans="1:29" ht="87.75">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2602,7 +2610,9 @@
       <c r="M21" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="N21" s="4"/>
+      <c r="N21" s="4">
+        <v>1</v>
+      </c>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
@@ -2619,7 +2629,7 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
     </row>
-    <row r="22" spans="1:29" ht="101.5">
+    <row r="22" spans="1:29" ht="102.4">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2659,7 +2669,9 @@
       <c r="M22" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="N22" s="15"/>
+      <c r="N22" s="15">
+        <v>1</v>
+      </c>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
@@ -2676,18 +2688,18 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
     </row>
-    <row r="23" spans="1:29" ht="232">
+    <row r="23" spans="1:29" ht="234">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>204</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>206</v>
       </c>
       <c r="E23" s="3">
         <v>2</v>
@@ -2705,7 +2717,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>43</v>
@@ -2714,10 +2726,10 @@
         <v>27</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N23" s="37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
@@ -2735,7 +2747,7 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
     </row>
-    <row r="24" spans="1:29" ht="87">
+    <row r="24" spans="1:29" ht="87.75">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2779,7 +2791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="174">
+    <row r="25" spans="1:29" ht="175.5">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2819,11 +2831,11 @@
       <c r="M25" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="N25" s="38" t="s">
-        <v>210</v>
+      <c r="N25" s="36">
+        <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="174">
+    <row r="26" spans="1:29" ht="175.5">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2863,11 +2875,11 @@
       <c r="M26" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="N26" s="38" t="s">
-        <v>211</v>
+      <c r="N26" s="36">
+        <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="174">
+    <row r="27" spans="1:29" ht="190.15">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2895,38 +2907,40 @@
       <c r="I27" s="2">
         <v>242</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="K27" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="L27" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="K27" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="L27" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="M27" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="N27" s="28"/>
+      <c r="N27" s="27">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:29" ht="101.5">
+    <row r="28" spans="1:29" ht="102.4">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="D28" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="E28" s="2">
         <v>2</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>41</v>
@@ -2938,31 +2952,33 @@
         <v>101</v>
       </c>
       <c r="J28" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K28" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="K28" s="25" t="s">
+      <c r="L28" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="L28" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="M28" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="N28" s="28"/>
+      <c r="N28" s="27">
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="1:29" ht="145">
+    <row r="29" spans="1:29" ht="146.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>131</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E29" s="2">
         <v>2</v>
@@ -2980,7 +2996,7 @@
         <v>120</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K29" s="25" t="s">
         <v>105</v>
@@ -2989,22 +3005,24 @@
         <v>10</v>
       </c>
       <c r="M29" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="N29" s="28"/>
+        <v>132</v>
+      </c>
+      <c r="N29" s="27">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:29" ht="217.5">
+    <row r="30" spans="1:29" ht="219.4">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="D30" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="E30" s="2">
         <v>2</v>
@@ -3022,39 +3040,39 @@
         <v>51</v>
       </c>
       <c r="J30" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K30" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="L30" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="K30" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="L30" s="30" t="s">
+      <c r="M30" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="M30" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="N30" s="38" t="s">
-        <v>211</v>
+      <c r="N30" s="36">
+        <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="174">
+    <row r="31" spans="1:29" ht="175.5">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="D31" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="E31" s="2">
         <v>3</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>41</v>
@@ -3066,18 +3084,20 @@
         <v>75</v>
       </c>
       <c r="J31" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K31" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="L31" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="K31" s="25" t="s">
+      <c r="M31" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="L31" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="M31" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="N31" s="31"/>
+      <c r="N31" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:29">
       <c r="A32" s="17"/>

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95E89DA-30D5-487E-BA66-CE72EAE1F0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C776985-3EAF-4A7D-A4F9-021F911DA32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-101" yWindow="-101" windowWidth="29002" windowHeight="15682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="212">
   <si>
     <t>NCT02491333</t>
   </si>
@@ -668,9 +668,6 @@
     <t>Proportion of patients with a negative SARS-CoV-2 RT-PCR on Day 6 post-enrolment</t>
   </si>
   <si>
-    <t>Binary (negative vs. non-negative RT-PCR)</t>
-  </si>
-  <si>
     <t>CTRI/2020/08/027225</t>
   </si>
   <si>
@@ -814,17 +811,33 @@
 Adherence: Categorical
 Attendance: Categorical</t>
   </si>
+  <si>
+    <t>Text Data</t>
+  </si>
+  <si>
+    <t>Clinical notes: X_comorbidities_0d</t>
+  </si>
+  <si>
+    <t>Symptoms: YS_side_effect_description</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -999,43 +1012,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1049,50 +1062,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1369,30 +1397,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC32"/>
+  <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.65"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.69921875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="16.09765625" customWidth="1"/>
-    <col min="5" max="5" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.69921875" customWidth="1"/>
-    <col min="9" max="9" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.59765625" customWidth="1"/>
-    <col min="11" max="11" width="38.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.3984375" style="12" customWidth="1"/>
-    <col min="13" max="13" width="38.69921875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" customWidth="1"/>
+    <col min="11" max="11" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="44.42578125" style="12" customWidth="1"/>
+    <col min="13" max="14" width="38.7109375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="18" customHeight="1">
+    <row r="1" spans="1:30" ht="18" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>33</v>
       </c>
@@ -1432,7 +1460,9 @@
       <c r="M1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="4"/>
+      <c r="N1" s="6" t="s">
+        <v>209</v>
+      </c>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -1448,8 +1478,9 @@
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:29" ht="73.150000000000006">
+    <row r="2" spans="1:30" ht="75">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1484,15 +1515,15 @@
         <v>43</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="10"/>
+      <c r="O2" s="4">
         <v>1</v>
       </c>
-      <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
@@ -1507,8 +1538,9 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
     </row>
-    <row r="3" spans="1:29" ht="102.4">
+    <row r="3" spans="1:30" ht="105">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1548,10 +1580,10 @@
       <c r="M3" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="N3" s="31">
+      <c r="N3" s="11"/>
+      <c r="O3" s="31">
         <v>1</v>
       </c>
-      <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -1566,8 +1598,9 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
     </row>
-    <row r="4" spans="1:29" ht="175.5">
+    <row r="4" spans="1:30" ht="195">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1607,10 +1640,10 @@
       <c r="M4" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="N4" s="31">
+      <c r="N4" s="11"/>
+      <c r="O4" s="31">
         <v>1</v>
       </c>
-      <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -1625,8 +1658,9 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
     </row>
-    <row r="5" spans="1:29" ht="131.65">
+    <row r="5" spans="1:30" ht="135">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1666,10 +1700,10 @@
       <c r="M5" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="N5" s="34">
+      <c r="N5" s="11"/>
+      <c r="O5" s="34">
         <v>1</v>
       </c>
-      <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -1684,8 +1718,9 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
     </row>
-    <row r="6" spans="1:29" ht="190.15">
+    <row r="6" spans="1:30" ht="210">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1725,10 +1760,10 @@
       <c r="M6" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="N6" s="34">
+      <c r="N6" s="11"/>
+      <c r="O6" s="34">
         <v>1</v>
       </c>
-      <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -1743,8 +1778,9 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
     </row>
-    <row r="7" spans="1:29" ht="117">
+    <row r="7" spans="1:30" ht="120">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1784,10 +1820,10 @@
       <c r="M7" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="N7" s="34">
+      <c r="N7" s="11"/>
+      <c r="O7" s="34">
         <v>1</v>
       </c>
-      <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -1802,8 +1838,9 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
     </row>
-    <row r="8" spans="1:29" ht="131.65">
+    <row r="8" spans="1:30" ht="150">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1843,10 +1880,10 @@
       <c r="M8" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="N8" s="35">
+      <c r="N8" s="11"/>
+      <c r="O8" s="35">
         <v>1</v>
       </c>
-      <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -1861,19 +1898,20 @@
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
     </row>
-    <row r="9" spans="1:29" ht="87.75">
+    <row r="9" spans="1:30" ht="90">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="E9" s="3">
         <v>2</v>
@@ -1894,18 +1932,20 @@
         <v>170</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="L9" s="11" t="s">
         <v>27</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="N9" s="4">
+        <v>174</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="O9" s="4">
         <v>1</v>
       </c>
-      <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -1920,25 +1960,26 @@
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
     </row>
-    <row r="10" spans="1:29" ht="117">
+    <row r="10" spans="1:30" ht="120">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="E10" s="3">
         <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>41</v>
@@ -1950,7 +1991,7 @@
         <v>577</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>105</v>
@@ -1959,12 +2000,14 @@
         <v>27</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="N10" s="4">
+        <v>185</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="O10" s="4">
         <v>1</v>
       </c>
-      <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -1979,25 +2022,26 @@
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
     </row>
-    <row r="11" spans="1:29" ht="263.25">
+    <row r="11" spans="1:30" ht="285">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="E11" s="3">
         <v>2</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>41</v>
@@ -2009,7 +2053,7 @@
         <v>256</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>105</v>
@@ -2018,12 +2062,12 @@
         <v>27</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="N11" s="4">
+        <v>198</v>
+      </c>
+      <c r="N11" s="10"/>
+      <c r="O11" s="4">
         <v>1</v>
       </c>
-      <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
@@ -2038,8 +2082,9 @@
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
     </row>
-    <row r="12" spans="1:29" ht="146.25">
+    <row r="12" spans="1:30" ht="150">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2056,7 +2101,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
@@ -2068,21 +2113,21 @@
         <v>44</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>43</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="10"/>
+      <c r="O12" s="4">
         <v>1</v>
       </c>
-      <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -2097,19 +2142,20 @@
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
     </row>
-    <row r="13" spans="1:29" ht="117">
+    <row r="13" spans="1:30" ht="120">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="14" t="s">
         <v>188</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>189</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
@@ -2127,21 +2173,21 @@
         <v>30</v>
       </c>
       <c r="J13" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="L13" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="M13" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="M13" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="N13" s="33">
+      <c r="N13" s="11"/>
+      <c r="O13" s="33">
         <v>1</v>
       </c>
-      <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -2156,8 +2202,9 @@
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
     </row>
-    <row r="14" spans="1:29" ht="87.75">
+    <row r="14" spans="1:30" ht="90">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2174,7 +2221,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G14" s="3">
         <v>4</v>
@@ -2186,7 +2233,7 @@
         <v>480</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>48</v>
@@ -2197,10 +2244,10 @@
       <c r="M14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="11"/>
+      <c r="O14" s="4">
         <v>1</v>
       </c>
-      <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
@@ -2215,8 +2262,9 @@
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
     </row>
-    <row r="15" spans="1:29" ht="204.75">
+    <row r="15" spans="1:30" ht="210">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2256,10 +2304,10 @@
       <c r="M15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="10"/>
+      <c r="O15" s="4">
         <v>1</v>
       </c>
-      <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -2274,8 +2322,9 @@
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
     </row>
-    <row r="16" spans="1:29" ht="117">
+    <row r="16" spans="1:30" ht="150">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2315,10 +2364,10 @@
       <c r="M16" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="11"/>
+      <c r="O16" s="13">
         <v>1</v>
       </c>
-      <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -2333,8 +2382,9 @@
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
     </row>
-    <row r="17" spans="1:29" ht="58.5">
+    <row r="17" spans="1:30" ht="60">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2374,10 +2424,10 @@
       <c r="M17" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="10"/>
+      <c r="O17" s="4">
         <v>1</v>
       </c>
-      <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
@@ -2392,8 +2442,9 @@
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
     </row>
-    <row r="18" spans="1:29" ht="117">
+    <row r="18" spans="1:30" ht="150">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2428,15 +2479,15 @@
         <v>43</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M18" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="10"/>
+      <c r="O18" s="4">
         <v>1</v>
       </c>
-      <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
@@ -2451,8 +2502,9 @@
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
     </row>
-    <row r="19" spans="1:29" ht="190.15">
+    <row r="19" spans="1:30" ht="210">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2492,10 +2544,10 @@
       <c r="M19" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="10"/>
+      <c r="O19" s="4">
         <v>1</v>
       </c>
-      <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
@@ -2510,8 +2562,9 @@
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
     </row>
-    <row r="20" spans="1:29" ht="131.65">
+    <row r="20" spans="1:30" ht="150">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2551,10 +2604,10 @@
       <c r="M20" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="10"/>
+      <c r="O20" s="4">
         <v>1</v>
       </c>
-      <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
@@ -2569,8 +2622,9 @@
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
     </row>
-    <row r="21" spans="1:29" ht="87.75">
+    <row r="21" spans="1:30" ht="90">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2610,10 +2664,10 @@
       <c r="M21" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="10"/>
+      <c r="O21" s="4">
         <v>1</v>
       </c>
-      <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
@@ -2628,8 +2682,9 @@
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
     </row>
-    <row r="22" spans="1:29" ht="102.4">
+    <row r="22" spans="1:30" ht="105">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2669,10 +2724,10 @@
       <c r="M22" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N22" s="40"/>
+      <c r="O22" s="15">
         <v>1</v>
       </c>
-      <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -2687,19 +2742,20 @@
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
     </row>
-    <row r="23" spans="1:29" ht="234">
+    <row r="23" spans="1:30" ht="255">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="D23" s="14" t="s">
         <v>203</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>204</v>
       </c>
       <c r="E23" s="3">
         <v>2</v>
@@ -2717,7 +2773,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>43</v>
@@ -2726,12 +2782,12 @@
         <v>27</v>
       </c>
       <c r="M23" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="N23" s="41"/>
+      <c r="O23" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="N23" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
@@ -2746,8 +2802,9 @@
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
     </row>
-    <row r="24" spans="1:29" ht="87.75">
+    <row r="24" spans="1:30" ht="90">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2787,11 +2844,12 @@
       <c r="M24" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="N24" s="22">
+      <c r="N24" s="42"/>
+      <c r="O24" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="175.5">
+    <row r="25" spans="1:30" ht="180">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2831,11 +2889,12 @@
       <c r="M25" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="N25" s="36">
+      <c r="N25" s="43"/>
+      <c r="O25" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="175.5">
+    <row r="26" spans="1:30" ht="195">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2875,11 +2934,12 @@
       <c r="M26" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="N26" s="36">
+      <c r="N26" s="43"/>
+      <c r="O26" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="190.15">
+    <row r="27" spans="1:30" ht="195">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2908,10 +2968,10 @@
         <v>242</v>
       </c>
       <c r="J27" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="K27" s="39" t="s">
         <v>208</v>
-      </c>
-      <c r="K27" s="39" t="s">
-        <v>209</v>
       </c>
       <c r="L27" s="26" t="s">
         <v>10</v>
@@ -2919,11 +2979,12 @@
       <c r="M27" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="N27" s="27">
+      <c r="N27" s="44"/>
+      <c r="O27" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="102.4">
+    <row r="28" spans="1:30" ht="120">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2963,11 +3024,12 @@
       <c r="M28" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="N28" s="27">
+      <c r="N28" s="43"/>
+      <c r="O28" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="146.25">
+    <row r="29" spans="1:30" ht="165">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -3007,11 +3069,12 @@
       <c r="M29" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="N29" s="27">
+      <c r="N29" s="43"/>
+      <c r="O29" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="219.4">
+    <row r="30" spans="1:30" ht="225">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -3051,11 +3114,12 @@
       <c r="M30" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="N30" s="36">
+      <c r="N30" s="43"/>
+      <c r="O30" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="175.5">
+    <row r="31" spans="1:30" ht="180">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -3095,11 +3159,12 @@
       <c r="M31" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="N31" s="30">
+      <c r="N31" s="43"/>
+      <c r="O31" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:29">
+    <row r="32" spans="1:30">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="18"/>
@@ -3113,6 +3178,7 @@
       <c r="K32" s="19"/>
       <c r="L32" s="18"/>
       <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C776985-3EAF-4A7D-A4F9-021F911DA32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DF1320-BEDC-4AB2-B080-89B505C55B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="211">
   <si>
     <t>NCT02491333</t>
   </si>
@@ -801,9 +801,6 @@
 Independence tests (2×2 tables): χ² tests with Rao–Scott correction</t>
   </si>
   <si>
-    <t>1 YS may be missing</t>
-  </si>
-  <si>
     <t>Adherence (improved scheduled clinic attendance and medication adherence self-report), attendance</t>
   </si>
   <si>
@@ -825,54 +822,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1012,47 +967,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1062,58 +1015,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1122,6 +1066,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1397,10 +1342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD32"/>
+  <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="H28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1420,7 +1365,7 @@
     <col min="13" max="14" width="38.7109375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="18" customHeight="1">
+    <row r="1" spans="1:29" ht="18" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>33</v>
       </c>
@@ -1461,7 +1406,7 @@
         <v>40</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -1478,9 +1423,8 @@
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:30" ht="75">
+    <row r="2" spans="1:29" ht="75">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1538,9 +1482,8 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
     </row>
-    <row r="3" spans="1:30" ht="105">
+    <row r="3" spans="1:29" ht="105">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1550,7 +1493,7 @@
       <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="26" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="3">
@@ -1581,7 +1524,7 @@
         <v>150</v>
       </c>
       <c r="N3" s="11"/>
-      <c r="O3" s="31">
+      <c r="O3" s="4">
         <v>1</v>
       </c>
       <c r="P3" s="4"/>
@@ -1598,9 +1541,8 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
     </row>
-    <row r="4" spans="1:30" ht="195">
+    <row r="4" spans="1:29" ht="195">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1641,7 +1583,7 @@
         <v>157</v>
       </c>
       <c r="N4" s="11"/>
-      <c r="O4" s="31">
+      <c r="O4" s="4">
         <v>1</v>
       </c>
       <c r="P4" s="4"/>
@@ -1658,9 +1600,8 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
     </row>
-    <row r="5" spans="1:30" ht="135">
+    <row r="5" spans="1:29" ht="135">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1701,7 +1642,7 @@
         <v>159</v>
       </c>
       <c r="N5" s="11"/>
-      <c r="O5" s="34">
+      <c r="O5" s="4">
         <v>1</v>
       </c>
       <c r="P5" s="4"/>
@@ -1718,9 +1659,8 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
     </row>
-    <row r="6" spans="1:30" ht="210">
+    <row r="6" spans="1:29" ht="210">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1730,7 +1670,7 @@
       <c r="C6" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>162</v>
       </c>
       <c r="E6" s="3">
@@ -1761,7 +1701,7 @@
         <v>164</v>
       </c>
       <c r="N6" s="11"/>
-      <c r="O6" s="34">
+      <c r="O6" s="4">
         <v>1</v>
       </c>
       <c r="P6" s="4"/>
@@ -1778,9 +1718,8 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
     </row>
-    <row r="7" spans="1:30" ht="120">
+    <row r="7" spans="1:29" ht="120">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1821,7 +1760,7 @@
         <v>166</v>
       </c>
       <c r="N7" s="11"/>
-      <c r="O7" s="34">
+      <c r="O7" s="4">
         <v>1</v>
       </c>
       <c r="P7" s="4"/>
@@ -1838,9 +1777,8 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
     </row>
-    <row r="8" spans="1:30" ht="150">
+    <row r="8" spans="1:29" ht="150">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1881,7 +1819,7 @@
         <v>169</v>
       </c>
       <c r="N8" s="11"/>
-      <c r="O8" s="35">
+      <c r="O8" s="4">
         <v>1</v>
       </c>
       <c r="P8" s="4"/>
@@ -1898,9 +1836,8 @@
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
     </row>
-    <row r="9" spans="1:30" ht="90">
+    <row r="9" spans="1:29" ht="90">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1941,7 +1878,7 @@
         <v>174</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O9" s="4">
         <v>1</v>
@@ -1960,9 +1897,8 @@
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
     </row>
-    <row r="10" spans="1:30" ht="120">
+    <row r="10" spans="1:29" ht="120">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2003,7 +1939,7 @@
         <v>185</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O10" s="4">
         <v>1</v>
@@ -2022,9 +1958,8 @@
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
     </row>
-    <row r="11" spans="1:30" ht="285">
+    <row r="11" spans="1:29" ht="285">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2082,9 +2017,8 @@
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
     </row>
-    <row r="12" spans="1:30" ht="150">
+    <row r="12" spans="1:29" ht="150">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2142,9 +2076,8 @@
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
     </row>
-    <row r="13" spans="1:30" ht="120">
+    <row r="13" spans="1:29" ht="120">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2154,7 +2087,7 @@
       <c r="C13" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>188</v>
       </c>
       <c r="E13" s="3">
@@ -2185,7 +2118,7 @@
         <v>192</v>
       </c>
       <c r="N13" s="11"/>
-      <c r="O13" s="33">
+      <c r="O13" s="4">
         <v>1</v>
       </c>
       <c r="P13" s="4"/>
@@ -2202,9 +2135,8 @@
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
     </row>
-    <row r="14" spans="1:30" ht="90">
+    <row r="14" spans="1:29" ht="90">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2262,9 +2194,8 @@
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
     </row>
-    <row r="15" spans="1:30" ht="210">
+    <row r="15" spans="1:29" ht="210">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2322,9 +2253,8 @@
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
     </row>
-    <row r="16" spans="1:30" ht="150">
+    <row r="16" spans="1:29" ht="150">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2365,7 +2295,7 @@
         <v>55</v>
       </c>
       <c r="N16" s="11"/>
-      <c r="O16" s="13">
+      <c r="O16" s="4">
         <v>1</v>
       </c>
       <c r="P16" s="4"/>
@@ -2382,9 +2312,8 @@
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
     </row>
-    <row r="17" spans="1:30" ht="60">
+    <row r="17" spans="1:29" ht="60">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2394,7 +2323,7 @@
       <c r="C17" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>59</v>
       </c>
       <c r="E17" s="3">
@@ -2442,9 +2371,8 @@
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
     </row>
-    <row r="18" spans="1:30" ht="150">
+    <row r="18" spans="1:29" ht="150">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2502,9 +2430,8 @@
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
     </row>
-    <row r="19" spans="1:30" ht="210">
+    <row r="19" spans="1:29" ht="210">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2562,9 +2489,8 @@
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
     </row>
-    <row r="20" spans="1:30" ht="150">
+    <row r="20" spans="1:29" ht="150">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2622,9 +2548,8 @@
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
     </row>
-    <row r="21" spans="1:30" ht="90">
+    <row r="21" spans="1:29" ht="90">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2682,9 +2607,8 @@
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
     </row>
-    <row r="22" spans="1:30" ht="105">
+    <row r="22" spans="1:29" ht="105">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2724,8 +2648,8 @@
       <c r="M22" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="N22" s="40"/>
-      <c r="O22" s="15">
+      <c r="N22" s="29"/>
+      <c r="O22" s="4">
         <v>1</v>
       </c>
       <c r="P22" s="4"/>
@@ -2742,9 +2666,8 @@
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
     </row>
-    <row r="23" spans="1:30" ht="255">
+    <row r="23" spans="1:29" ht="255">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2754,7 +2677,7 @@
       <c r="C23" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>203</v>
       </c>
       <c r="E23" s="3">
@@ -2784,9 +2707,9 @@
       <c r="M23" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="N23" s="41"/>
-      <c r="O23" s="37" t="s">
-        <v>206</v>
+      <c r="N23" s="30"/>
+      <c r="O23" s="4">
+        <v>1</v>
       </c>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
@@ -2802,16 +2725,15 @@
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
     </row>
-    <row r="24" spans="1:30" ht="90">
+    <row r="24" spans="1:29" ht="90">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="14" t="s">
         <v>96</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -2826,7 +2748,7 @@
       <c r="G24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="H24" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I24" s="2">
@@ -2835,28 +2757,28 @@
       <c r="J24" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K24" s="20" t="s">
+      <c r="K24" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L24" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="M24" s="21" t="s">
+      <c r="L24" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="22">
+      <c r="N24" s="31"/>
+      <c r="O24" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="180">
+    <row r="25" spans="1:29" ht="180">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="14" t="s">
         <v>103</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2871,7 +2793,7 @@
       <c r="G25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="25" t="s">
+      <c r="H25" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I25" s="2">
@@ -2880,34 +2802,34 @@
       <c r="J25" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K25" s="23" t="s">
+      <c r="K25" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="L25" s="16" t="s">
+      <c r="L25" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="16" t="s">
+      <c r="M25" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="N25" s="43"/>
-      <c r="O25" s="36">
+      <c r="N25" s="32"/>
+      <c r="O25" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="195">
+    <row r="26" spans="1:29" ht="195">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="14" t="s">
         <v>109</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="21">
         <v>2</v>
       </c>
       <c r="F26" s="2" t="s">
@@ -2916,7 +2838,7 @@
       <c r="G26" s="2">
         <v>3</v>
       </c>
-      <c r="H26" s="25" t="s">
+      <c r="H26" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I26" s="2">
@@ -2925,31 +2847,31 @@
       <c r="J26" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="K26" s="25" t="s">
+      <c r="K26" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="L26" s="16" t="s">
+      <c r="L26" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M26" s="16" t="s">
+      <c r="M26" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="N26" s="43"/>
-      <c r="O26" s="36">
+      <c r="N26" s="32"/>
+      <c r="O26" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="195">
+    <row r="27" spans="1:29" ht="195">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="22" t="s">
         <v>118</v>
       </c>
       <c r="E27" s="2">
@@ -2961,37 +2883,37 @@
       <c r="G27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H27" s="25" t="s">
+      <c r="H27" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I27" s="2">
         <v>242</v>
       </c>
-      <c r="J27" s="38" t="s">
+      <c r="J27" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="K27" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="K27" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="L27" s="26" t="s">
+      <c r="L27" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="M27" s="26" t="s">
+      <c r="M27" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="N27" s="44"/>
-      <c r="O27" s="27">
+      <c r="N27" s="33"/>
+      <c r="O27" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="120">
+    <row r="28" spans="1:29" ht="120">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="14" t="s">
         <v>122</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -3006,7 +2928,7 @@
       <c r="G28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="H28" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I28" s="2">
@@ -3015,28 +2937,28 @@
       <c r="J28" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="K28" s="25" t="s">
+      <c r="K28" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="L28" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="M28" s="16" t="s">
+      <c r="L28" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="N28" s="43"/>
-      <c r="O28" s="27">
+      <c r="N28" s="32"/>
+      <c r="O28" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="165">
+    <row r="29" spans="1:29" ht="165">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="14" t="s">
         <v>130</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -3060,28 +2982,28 @@
       <c r="J29" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="K29" s="25" t="s">
+      <c r="K29" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="L29" s="16" t="s">
+      <c r="L29" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="16" t="s">
+      <c r="M29" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="N29" s="43"/>
-      <c r="O29" s="27">
+      <c r="N29" s="32"/>
+      <c r="O29" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="225">
+    <row r="30" spans="1:29" ht="225">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -3105,28 +3027,28 @@
       <c r="J30" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="K30" s="25" t="s">
+      <c r="K30" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="L30" s="29" t="s">
+      <c r="L30" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="M30" s="16" t="s">
+      <c r="M30" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="N30" s="43"/>
-      <c r="O30" s="36">
+      <c r="N30" s="32"/>
+      <c r="O30" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="180">
+    <row r="31" spans="1:29" ht="180">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="14" t="s">
         <v>141</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -3150,35 +3072,32 @@
       <c r="J31" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="K31" s="38" t="s">
+      <c r="K31" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="L31" s="16" t="s">
+      <c r="L31" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="M31" s="16" t="s">
+      <c r="M31" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="N31" s="43"/>
-      <c r="O31" s="30">
-        <v>1</v>
-      </c>
+      <c r="N31" s="32"/>
     </row>
-    <row r="32" spans="1:30">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
+    <row r="32" spans="1:29">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DF1320-BEDC-4AB2-B080-89B505C55B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B652A0CF-DE0B-428C-9E05-AFA624DDFA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -967,7 +967,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1066,7 +1066,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1342,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC32"/>
+  <dimension ref="A1:AB32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView tabSelected="1" topLeftCell="F8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1365,7 +1364,7 @@
     <col min="13" max="14" width="38.7109375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="18" customHeight="1">
+    <row r="1" spans="1:28" ht="18" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>33</v>
       </c>
@@ -1422,9 +1421,8 @@
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-    </row>
-    <row r="2" spans="1:29" ht="75">
+    </row>
+    <row r="2" spans="1:28" ht="75">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1481,9 +1479,8 @@
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-    </row>
-    <row r="3" spans="1:29" ht="105">
+    </row>
+    <row r="3" spans="1:28" ht="105">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1540,9 +1537,8 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-    </row>
-    <row r="4" spans="1:29" ht="195">
+    </row>
+    <row r="4" spans="1:28" ht="195">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1599,9 +1595,8 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-    </row>
-    <row r="5" spans="1:29" ht="135">
+    </row>
+    <row r="5" spans="1:28" ht="135">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1658,9 +1653,8 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-    </row>
-    <row r="6" spans="1:29" ht="210">
+    </row>
+    <row r="6" spans="1:28" ht="210">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1717,9 +1711,8 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-    </row>
-    <row r="7" spans="1:29" ht="120">
+    </row>
+    <row r="7" spans="1:28" ht="120">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1776,9 +1769,8 @@
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-    </row>
-    <row r="8" spans="1:29" ht="150">
+    </row>
+    <row r="8" spans="1:28" ht="150">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1835,9 +1827,8 @@
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-    </row>
-    <row r="9" spans="1:29" ht="90">
+    </row>
+    <row r="9" spans="1:28" ht="90">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1896,9 +1887,8 @@
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-    </row>
-    <row r="10" spans="1:29" ht="120">
+    </row>
+    <row r="10" spans="1:28" ht="120">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1957,9 +1947,8 @@
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-    </row>
-    <row r="11" spans="1:29" ht="285">
+    </row>
+    <row r="11" spans="1:28" ht="285">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2000,9 +1989,7 @@
         <v>198</v>
       </c>
       <c r="N11" s="10"/>
-      <c r="O11" s="4">
-        <v>1</v>
-      </c>
+      <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
@@ -2016,9 +2003,8 @@
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-    </row>
-    <row r="12" spans="1:29" ht="150">
+    </row>
+    <row r="12" spans="1:28" ht="150">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2059,9 +2045,7 @@
         <v>23</v>
       </c>
       <c r="N12" s="10"/>
-      <c r="O12" s="4">
-        <v>1</v>
-      </c>
+      <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -2075,9 +2059,8 @@
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-    </row>
-    <row r="13" spans="1:29" ht="120">
+    </row>
+    <row r="13" spans="1:28" ht="120">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2118,9 +2101,7 @@
         <v>192</v>
       </c>
       <c r="N13" s="11"/>
-      <c r="O13" s="4">
-        <v>1</v>
-      </c>
+      <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -2134,9 +2115,8 @@
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-    </row>
-    <row r="14" spans="1:29" ht="90">
+    </row>
+    <row r="14" spans="1:28" ht="90">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2177,9 +2157,7 @@
         <v>28</v>
       </c>
       <c r="N14" s="11"/>
-      <c r="O14" s="4">
-        <v>1</v>
-      </c>
+      <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
@@ -2193,9 +2171,8 @@
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-    </row>
-    <row r="15" spans="1:29" ht="210">
+    </row>
+    <row r="15" spans="1:28" ht="210">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2236,9 +2213,7 @@
         <v>46</v>
       </c>
       <c r="N15" s="10"/>
-      <c r="O15" s="4">
-        <v>1</v>
-      </c>
+      <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -2252,9 +2227,8 @@
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-    </row>
-    <row r="16" spans="1:29" ht="150">
+    </row>
+    <row r="16" spans="1:28" ht="150">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2295,9 +2269,7 @@
         <v>55</v>
       </c>
       <c r="N16" s="11"/>
-      <c r="O16" s="4">
-        <v>1</v>
-      </c>
+      <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -2311,9 +2283,8 @@
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-    </row>
-    <row r="17" spans="1:29" ht="60">
+    </row>
+    <row r="17" spans="1:28" ht="60">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2354,9 +2325,7 @@
         <v>61</v>
       </c>
       <c r="N17" s="10"/>
-      <c r="O17" s="4">
-        <v>1</v>
-      </c>
+      <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
@@ -2370,9 +2339,8 @@
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-    </row>
-    <row r="18" spans="1:29" ht="150">
+    </row>
+    <row r="18" spans="1:28" ht="150">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2413,9 +2381,7 @@
         <v>67</v>
       </c>
       <c r="N18" s="10"/>
-      <c r="O18" s="4">
-        <v>1</v>
-      </c>
+      <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
@@ -2429,9 +2395,8 @@
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-    </row>
-    <row r="19" spans="1:29" ht="210">
+    </row>
+    <row r="19" spans="1:28" ht="210">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2472,9 +2437,7 @@
         <v>74</v>
       </c>
       <c r="N19" s="10"/>
-      <c r="O19" s="4">
-        <v>1</v>
-      </c>
+      <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
@@ -2488,9 +2451,8 @@
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-    </row>
-    <row r="20" spans="1:29" ht="150">
+    </row>
+    <row r="20" spans="1:28" ht="150">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2531,9 +2493,7 @@
         <v>80</v>
       </c>
       <c r="N20" s="10"/>
-      <c r="O20" s="4">
-        <v>1</v>
-      </c>
+      <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
@@ -2547,9 +2507,8 @@
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-    </row>
-    <row r="21" spans="1:29" ht="90">
+    </row>
+    <row r="21" spans="1:28" ht="90">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2590,9 +2549,7 @@
         <v>84</v>
       </c>
       <c r="N21" s="10"/>
-      <c r="O21" s="4">
-        <v>1</v>
-      </c>
+      <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
@@ -2606,9 +2563,8 @@
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-    </row>
-    <row r="22" spans="1:29" ht="105">
+    </row>
+    <row r="22" spans="1:28" ht="105">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2649,9 +2605,7 @@
         <v>94</v>
       </c>
       <c r="N22" s="29"/>
-      <c r="O22" s="4">
-        <v>1</v>
-      </c>
+      <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -2665,9 +2619,8 @@
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-    </row>
-    <row r="23" spans="1:29" ht="255">
+    </row>
+    <row r="23" spans="1:28" ht="255">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2708,9 +2661,7 @@
         <v>205</v>
       </c>
       <c r="N23" s="30"/>
-      <c r="O23" s="4">
-        <v>1</v>
-      </c>
+      <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
@@ -2724,9 +2675,8 @@
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-    </row>
-    <row r="24" spans="1:29" ht="90">
+    </row>
+    <row r="24" spans="1:28" ht="90">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2767,11 +2717,8 @@
         <v>100</v>
       </c>
       <c r="N24" s="31"/>
-      <c r="O24" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" ht="180">
+    </row>
+    <row r="25" spans="1:28" ht="180">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2812,11 +2759,8 @@
         <v>106</v>
       </c>
       <c r="N25" s="32"/>
-      <c r="O25" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" ht="195">
+    </row>
+    <row r="26" spans="1:28" ht="195">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2857,11 +2801,8 @@
         <v>114</v>
       </c>
       <c r="N26" s="32"/>
-      <c r="O26" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" ht="195">
+    </row>
+    <row r="27" spans="1:28" ht="195">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2902,11 +2843,8 @@
         <v>119</v>
       </c>
       <c r="N27" s="33"/>
-      <c r="O27" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" ht="120">
+    </row>
+    <row r="28" spans="1:28" ht="120">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2947,11 +2885,8 @@
         <v>127</v>
       </c>
       <c r="N28" s="32"/>
-      <c r="O28" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" ht="165">
+    </row>
+    <row r="29" spans="1:28" ht="165">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2992,11 +2927,8 @@
         <v>132</v>
       </c>
       <c r="N29" s="32"/>
-      <c r="O29" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="225">
+    </row>
+    <row r="30" spans="1:28" ht="225">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -3037,11 +2969,8 @@
         <v>139</v>
       </c>
       <c r="N30" s="32"/>
-      <c r="O30" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" ht="180">
+    </row>
+    <row r="31" spans="1:28" ht="180">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -3083,7 +3012,7 @@
       </c>
       <c r="N31" s="32"/>
     </row>
-    <row r="32" spans="1:29">
+    <row r="32" spans="1:28">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B652A0CF-DE0B-428C-9E05-AFA624DDFA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24FC994-834A-4380-9CBE-19D12E4DF7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1343,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="F11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1989,7 +1989,9 @@
         <v>198</v>
       </c>
       <c r="N11" s="10"/>
-      <c r="O11" s="4"/>
+      <c r="O11" s="4">
+        <v>1</v>
+      </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
@@ -2045,7 +2047,9 @@
         <v>23</v>
       </c>
       <c r="N12" s="10"/>
-      <c r="O12" s="4"/>
+      <c r="O12" s="4">
+        <v>1</v>
+      </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -2101,7 +2105,9 @@
         <v>192</v>
       </c>
       <c r="N13" s="11"/>
-      <c r="O13" s="4"/>
+      <c r="O13" s="4">
+        <v>1</v>
+      </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -2157,7 +2163,9 @@
         <v>28</v>
       </c>
       <c r="N14" s="11"/>
-      <c r="O14" s="4"/>
+      <c r="O14" s="4">
+        <v>1</v>
+      </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24FC994-834A-4380-9CBE-19D12E4DF7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEE8932-EE52-4DC6-9C7D-362F5E3BCDB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1343,25 +1343,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="J18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" customWidth="1"/>
-    <col min="11" max="11" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.42578125" style="12" customWidth="1"/>
-    <col min="13" max="14" width="38.7109375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.7265625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" customWidth="1"/>
+    <col min="9" max="9" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.54296875" customWidth="1"/>
+    <col min="11" max="11" width="38.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="44.453125" style="12" customWidth="1"/>
+    <col min="13" max="14" width="38.7265625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="18" customHeight="1">
@@ -1422,7 +1422,7 @@
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
     </row>
-    <row r="2" spans="1:28" ht="75">
+    <row r="2" spans="1:28" ht="72.5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1480,7 +1480,7 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
     </row>
-    <row r="3" spans="1:28" ht="105">
+    <row r="3" spans="1:28" ht="87">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1538,7 +1538,7 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
     </row>
-    <row r="4" spans="1:28" ht="195">
+    <row r="4" spans="1:28" ht="174">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1596,7 +1596,7 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
     </row>
-    <row r="5" spans="1:28" ht="135">
+    <row r="5" spans="1:28" ht="130.5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1654,7 +1654,7 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
     </row>
-    <row r="6" spans="1:28" ht="210">
+    <row r="6" spans="1:28" ht="188.5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1712,7 +1712,7 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
     </row>
-    <row r="7" spans="1:28" ht="120">
+    <row r="7" spans="1:28" ht="116">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1770,7 +1770,7 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
     </row>
-    <row r="8" spans="1:28" ht="150">
+    <row r="8" spans="1:28" ht="130.5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1828,7 +1828,7 @@
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
     </row>
-    <row r="9" spans="1:28" ht="90">
+    <row r="9" spans="1:28" ht="87">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1888,7 +1888,7 @@
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
     </row>
-    <row r="10" spans="1:28" ht="120">
+    <row r="10" spans="1:28" ht="116">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1948,7 +1948,7 @@
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
     </row>
-    <row r="11" spans="1:28" ht="285">
+    <row r="11" spans="1:28" ht="261">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2006,7 +2006,7 @@
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
     </row>
-    <row r="12" spans="1:28" ht="150">
+    <row r="12" spans="1:28" ht="130.5">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2064,7 +2064,7 @@
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
     </row>
-    <row r="13" spans="1:28" ht="120">
+    <row r="13" spans="1:28" ht="116">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2122,7 +2122,7 @@
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
     </row>
-    <row r="14" spans="1:28" ht="90">
+    <row r="14" spans="1:28" ht="87">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2180,7 +2180,7 @@
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
     </row>
-    <row r="15" spans="1:28" ht="210">
+    <row r="15" spans="1:28" ht="203">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2221,7 +2221,9 @@
         <v>46</v>
       </c>
       <c r="N15" s="10"/>
-      <c r="O15" s="4"/>
+      <c r="O15" s="4">
+        <v>1</v>
+      </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -2236,7 +2238,7 @@
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
     </row>
-    <row r="16" spans="1:28" ht="150">
+    <row r="16" spans="1:28" ht="116">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2277,7 +2279,9 @@
         <v>55</v>
       </c>
       <c r="N16" s="11"/>
-      <c r="O16" s="4"/>
+      <c r="O16" s="4">
+        <v>1</v>
+      </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -2292,7 +2296,7 @@
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
     </row>
-    <row r="17" spans="1:28" ht="60">
+    <row r="17" spans="1:28" ht="58">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2333,7 +2337,9 @@
         <v>61</v>
       </c>
       <c r="N17" s="10"/>
-      <c r="O17" s="4"/>
+      <c r="O17" s="4">
+        <v>1</v>
+      </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
@@ -2348,7 +2354,7 @@
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
     </row>
-    <row r="18" spans="1:28" ht="150">
+    <row r="18" spans="1:28" ht="116">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2389,7 +2395,9 @@
         <v>67</v>
       </c>
       <c r="N18" s="10"/>
-      <c r="O18" s="4"/>
+      <c r="O18" s="4">
+        <v>1</v>
+      </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
@@ -2404,7 +2412,7 @@
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
     </row>
-    <row r="19" spans="1:28" ht="210">
+    <row r="19" spans="1:28" ht="174">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2445,7 +2453,9 @@
         <v>74</v>
       </c>
       <c r="N19" s="10"/>
-      <c r="O19" s="4"/>
+      <c r="O19" s="4">
+        <v>1</v>
+      </c>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
@@ -2460,7 +2470,7 @@
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
     </row>
-    <row r="20" spans="1:28" ht="150">
+    <row r="20" spans="1:28" ht="130.5">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2501,7 +2511,9 @@
         <v>80</v>
       </c>
       <c r="N20" s="10"/>
-      <c r="O20" s="4"/>
+      <c r="O20" s="4">
+        <v>1</v>
+      </c>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
@@ -2516,7 +2528,7 @@
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
     </row>
-    <row r="21" spans="1:28" ht="90">
+    <row r="21" spans="1:28" ht="87">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2572,7 +2584,7 @@
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
     </row>
-    <row r="22" spans="1:28" ht="105">
+    <row r="22" spans="1:28" ht="101.5">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2628,7 +2640,7 @@
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
     </row>
-    <row r="23" spans="1:28" ht="255">
+    <row r="23" spans="1:28" ht="232">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2684,7 +2696,7 @@
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
     </row>
-    <row r="24" spans="1:28" ht="90">
+    <row r="24" spans="1:28" ht="87">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2726,7 +2738,7 @@
       </c>
       <c r="N24" s="31"/>
     </row>
-    <row r="25" spans="1:28" ht="180">
+    <row r="25" spans="1:28" ht="174">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2768,7 +2780,7 @@
       </c>
       <c r="N25" s="32"/>
     </row>
-    <row r="26" spans="1:28" ht="195">
+    <row r="26" spans="1:28" ht="174">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2810,7 +2822,7 @@
       </c>
       <c r="N26" s="32"/>
     </row>
-    <row r="27" spans="1:28" ht="195">
+    <row r="27" spans="1:28" ht="174">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2852,7 +2864,7 @@
       </c>
       <c r="N27" s="33"/>
     </row>
-    <row r="28" spans="1:28" ht="120">
+    <row r="28" spans="1:28" ht="101.5">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2894,7 +2906,7 @@
       </c>
       <c r="N28" s="32"/>
     </row>
-    <row r="29" spans="1:28" ht="165">
+    <row r="29" spans="1:28" ht="145">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2936,7 +2948,7 @@
       </c>
       <c r="N29" s="32"/>
     </row>
-    <row r="30" spans="1:28" ht="225">
+    <row r="30" spans="1:28" ht="217.5">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2978,7 +2990,7 @@
       </c>
       <c r="N30" s="32"/>
     </row>
-    <row r="31" spans="1:28" ht="180">
+    <row r="31" spans="1:28" ht="174">
       <c r="A31" s="2">
         <v>30</v>
       </c>

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEE8932-EE52-4DC6-9C7D-362F5E3BCDB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183C0090-F495-4FFC-B924-19325D80134A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1341,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB32"/>
+  <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1364,7 +1364,7 @@
     <col min="13" max="14" width="38.7265625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18" customHeight="1">
+    <row r="1" spans="1:27" ht="18" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>33</v>
       </c>
@@ -1420,9 +1420,8 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-    </row>
-    <row r="2" spans="1:28" ht="72.5">
+    </row>
+    <row r="2" spans="1:27" ht="72.5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1478,9 +1477,8 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-    </row>
-    <row r="3" spans="1:28" ht="87">
+    </row>
+    <row r="3" spans="1:27" ht="87">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1536,9 +1534,8 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-    </row>
-    <row r="4" spans="1:28" ht="174">
+    </row>
+    <row r="4" spans="1:27" ht="174">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1594,9 +1591,8 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-    </row>
-    <row r="5" spans="1:28" ht="130.5">
+    </row>
+    <row r="5" spans="1:27" ht="130.5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1637,9 +1633,7 @@
         <v>159</v>
       </c>
       <c r="N5" s="11"/>
-      <c r="O5" s="4">
-        <v>1</v>
-      </c>
+      <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -1652,9 +1646,8 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-    </row>
-    <row r="6" spans="1:28" ht="188.5">
+    </row>
+    <row r="6" spans="1:27" ht="188.5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1695,9 +1688,7 @@
         <v>164</v>
       </c>
       <c r="N6" s="11"/>
-      <c r="O6" s="4">
-        <v>1</v>
-      </c>
+      <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -1710,9 +1701,8 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-    </row>
-    <row r="7" spans="1:28" ht="116">
+    </row>
+    <row r="7" spans="1:27" ht="116">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1753,9 +1743,7 @@
         <v>166</v>
       </c>
       <c r="N7" s="11"/>
-      <c r="O7" s="4">
-        <v>1</v>
-      </c>
+      <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -1768,9 +1756,8 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-    </row>
-    <row r="8" spans="1:28" ht="130.5">
+    </row>
+    <row r="8" spans="1:27" ht="130.5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1811,9 +1798,7 @@
         <v>169</v>
       </c>
       <c r="N8" s="11"/>
-      <c r="O8" s="4">
-        <v>1</v>
-      </c>
+      <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -1826,9 +1811,8 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-    </row>
-    <row r="9" spans="1:28" ht="87">
+    </row>
+    <row r="9" spans="1:27" ht="87">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1871,9 +1855,7 @@
       <c r="N9" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="O9" s="4">
-        <v>1</v>
-      </c>
+      <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -1886,9 +1868,8 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-    </row>
-    <row r="10" spans="1:28" ht="116">
+    </row>
+    <row r="10" spans="1:27" ht="116">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1931,9 +1912,7 @@
       <c r="N10" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="O10" s="4">
-        <v>1</v>
-      </c>
+      <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -1946,9 +1925,8 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-    </row>
-    <row r="11" spans="1:28" ht="261">
+    </row>
+    <row r="11" spans="1:27" ht="261">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1989,9 +1967,7 @@
         <v>198</v>
       </c>
       <c r="N11" s="10"/>
-      <c r="O11" s="4">
-        <v>1</v>
-      </c>
+      <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
@@ -2004,9 +1980,8 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-    </row>
-    <row r="12" spans="1:28" ht="130.5">
+    </row>
+    <row r="12" spans="1:27" ht="130.5">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2047,9 +2022,7 @@
         <v>23</v>
       </c>
       <c r="N12" s="10"/>
-      <c r="O12" s="4">
-        <v>1</v>
-      </c>
+      <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -2062,9 +2035,8 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-    </row>
-    <row r="13" spans="1:28" ht="116">
+    </row>
+    <row r="13" spans="1:27" ht="116">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2105,9 +2077,7 @@
         <v>192</v>
       </c>
       <c r="N13" s="11"/>
-      <c r="O13" s="4">
-        <v>1</v>
-      </c>
+      <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -2120,9 +2090,8 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-    </row>
-    <row r="14" spans="1:28" ht="87">
+    </row>
+    <row r="14" spans="1:27" ht="87">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2163,9 +2132,7 @@
         <v>28</v>
       </c>
       <c r="N14" s="11"/>
-      <c r="O14" s="4">
-        <v>1</v>
-      </c>
+      <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
@@ -2178,9 +2145,8 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-    </row>
-    <row r="15" spans="1:28" ht="203">
+    </row>
+    <row r="15" spans="1:27" ht="203">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2221,9 +2187,7 @@
         <v>46</v>
       </c>
       <c r="N15" s="10"/>
-      <c r="O15" s="4">
-        <v>1</v>
-      </c>
+      <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -2236,9 +2200,8 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-    </row>
-    <row r="16" spans="1:28" ht="116">
+    </row>
+    <row r="16" spans="1:27" ht="116">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2279,9 +2242,7 @@
         <v>55</v>
       </c>
       <c r="N16" s="11"/>
-      <c r="O16" s="4">
-        <v>1</v>
-      </c>
+      <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -2294,9 +2255,8 @@
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-    </row>
-    <row r="17" spans="1:28" ht="58">
+    </row>
+    <row r="17" spans="1:27" ht="58">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2337,9 +2297,7 @@
         <v>61</v>
       </c>
       <c r="N17" s="10"/>
-      <c r="O17" s="4">
-        <v>1</v>
-      </c>
+      <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
@@ -2352,9 +2310,8 @@
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-    </row>
-    <row r="18" spans="1:28" ht="116">
+    </row>
+    <row r="18" spans="1:27" ht="116">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2395,9 +2352,7 @@
         <v>67</v>
       </c>
       <c r="N18" s="10"/>
-      <c r="O18" s="4">
-        <v>1</v>
-      </c>
+      <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
@@ -2410,9 +2365,8 @@
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-    </row>
-    <row r="19" spans="1:28" ht="174">
+    </row>
+    <row r="19" spans="1:27" ht="174">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2453,9 +2407,7 @@
         <v>74</v>
       </c>
       <c r="N19" s="10"/>
-      <c r="O19" s="4">
-        <v>1</v>
-      </c>
+      <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
@@ -2468,9 +2420,8 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-    </row>
-    <row r="20" spans="1:28" ht="130.5">
+    </row>
+    <row r="20" spans="1:27" ht="130.5">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2511,9 +2462,7 @@
         <v>80</v>
       </c>
       <c r="N20" s="10"/>
-      <c r="O20" s="4">
-        <v>1</v>
-      </c>
+      <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
@@ -2526,9 +2475,8 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-    </row>
-    <row r="21" spans="1:28" ht="87">
+    </row>
+    <row r="21" spans="1:27" ht="87">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2582,9 +2530,8 @@
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-    </row>
-    <row r="22" spans="1:28" ht="101.5">
+    </row>
+    <row r="22" spans="1:27" ht="101.5">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2638,9 +2585,8 @@
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-    </row>
-    <row r="23" spans="1:28" ht="232">
+    </row>
+    <row r="23" spans="1:27" ht="232">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2694,9 +2640,8 @@
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-    </row>
-    <row r="24" spans="1:28" ht="87">
+    </row>
+    <row r="24" spans="1:27" ht="87">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2738,7 +2683,7 @@
       </c>
       <c r="N24" s="31"/>
     </row>
-    <row r="25" spans="1:28" ht="174">
+    <row r="25" spans="1:27" ht="174">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2780,7 +2725,7 @@
       </c>
       <c r="N25" s="32"/>
     </row>
-    <row r="26" spans="1:28" ht="174">
+    <row r="26" spans="1:27" ht="174">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2822,7 +2767,7 @@
       </c>
       <c r="N26" s="32"/>
     </row>
-    <row r="27" spans="1:28" ht="174">
+    <row r="27" spans="1:27" ht="174">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2864,7 +2809,7 @@
       </c>
       <c r="N27" s="33"/>
     </row>
-    <row r="28" spans="1:28" ht="101.5">
+    <row r="28" spans="1:27" ht="101.5">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2906,7 +2851,7 @@
       </c>
       <c r="N28" s="32"/>
     </row>
-    <row r="29" spans="1:28" ht="145">
+    <row r="29" spans="1:27" ht="145">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2948,7 +2893,7 @@
       </c>
       <c r="N29" s="32"/>
     </row>
-    <row r="30" spans="1:28" ht="217.5">
+    <row r="30" spans="1:27" ht="217.5">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2990,7 +2935,7 @@
       </c>
       <c r="N30" s="32"/>
     </row>
-    <row r="31" spans="1:28" ht="174">
+    <row r="31" spans="1:27" ht="174">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -3032,7 +2977,7 @@
       </c>
       <c r="N31" s="32"/>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:27">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183C0090-F495-4FFC-B924-19325D80134A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6127E7-78F7-455F-80B1-6FC1AB2CDE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="210">
   <si>
     <t>NCT02491333</t>
   </si>
@@ -78,44 +79,7 @@
     <t>https://doi.org/10.1371/journal.pmed.1002051</t>
   </si>
   <si>
-    <t>Exploratory data on the clinical efficacy of monoclonal antibodies against SARS-CoV-2 Omicron variant of concern</t>
-  </si>
-  <si>
-    <t>https://elifesciences.org/articles/79639</t>
-  </si>
-  <si>
-    <t>NCT05205759</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>Composite binary outcome</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">No, the trial did not succeed in demonstrating a significant difference in the primary outcome (COVID-19 progression through day 14) between treatment arms
-Additionally, the trial was </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>underpowered</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> due to early discontinuation (only ~25% of target sample enrolled), which limited its ability to detect non-inferiority or superiority.</t>
-    </r>
   </si>
   <si>
     <t>https://bmjopen.bmj.com/content/11/12/e050271</t>
@@ -493,9 +457,6 @@
   </si>
   <si>
     <t>Intraoperative bleeding during transsphenoidal pituitary surgery, scored using a 7-level bleeding scale.</t>
-  </si>
-  <si>
-    <t>Ordinal, Categorical</t>
   </si>
   <si>
     <t>Primary outcome: ordinal logistic regression (proportional cumulative odds)
@@ -654,17 +615,6 @@
 Baseline comparisons: unpaired t-tests and Fisher’s exact tests</t>
   </si>
   <si>
-    <t>Casirivimab/Imdevimab</t>
-  </si>
-  <si>
-    <t>Composite COVID-19 progression through day 14 (hospitalization, need for supplemental oxygen, or death)</t>
-  </si>
-  <si>
-    <t>Continuous variables: Wilcoxon–Mann–Whitney test
-Categorical variables: Fisher’s exact test
-Time-to-event analyses (time to symptom resolution): Kaplan–Meier estimator + Log-rank test; Cox proportional hazards model for predictor associations</t>
-  </si>
-  <si>
     <t>Proportion of patients with a negative SARS-CoV-2 RT-PCR on Day 6 post-enrolment</t>
   </si>
   <si>
@@ -816,6 +766,34 @@
   </si>
   <si>
     <t>Symptoms: YS_side_effect_description</t>
+  </si>
+  <si>
+    <t>NCT02927197</t>
+  </si>
+  <si>
+    <t>Comparing Two Methods of Delivering ThinkRx Cognitive Training
+to Children Ages 8–14: a Randomized Controlled Trial of Equivalency</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s41465-018-0094-z</t>
+  </si>
+  <si>
+    <t>ThinkRx</t>
+  </si>
+  <si>
+    <t>Change scores (post – pre) on eight Woodcock–Johnson III cognitive subtests: associative memory, visual processing, auditory processing, logic &amp; reasoning, processing speed, working memory/attention, long-term memory, and general intellectual ability.</t>
+  </si>
+  <si>
+    <t>Primary analysis: MANOVA on difference scores with Bonferroni correction
+Sensitivity: ANCOVA for each post-test controlling baseline; OLS regression with clustered standard errors (for sibling dependence)</t>
+  </si>
+  <si>
+    <t>Equivalence (no significant difference) demonstrated on 7 of 8 measures; however, long-term memory gains were significantly greater in the ThinkRx arm</t>
+  </si>
+  <si>
+    <t>Bleeeding categoriy: Ordinal, Categorical
+Surgical problem bleeding: Binary
+Bleeding Score: Continuous</t>
   </si>
 </sst>
 </file>
@@ -828,6 +806,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -900,13 +885,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -967,104 +945,108 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1343,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="F27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1366,46 +1348,46 @@
   <sheetData>
     <row r="1" spans="1:27" ht="18" customHeight="1">
       <c r="A1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="J1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="L1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="N1" s="6" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -1438,28 +1420,28 @@
         <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G2" s="3">
         <v>3</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I2" s="3">
         <v>342</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="N2" s="10"/>
       <c r="O2" s="4">
@@ -1495,19 +1477,19 @@
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G3" s="3">
         <v>3</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I3" s="3">
         <v>400</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>9</v>
@@ -1516,7 +1498,7 @@
         <v>10</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="4">
@@ -1540,40 +1522,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I4" s="3">
         <v>6030</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="N4" s="11"/>
       <c r="O4" s="4">
@@ -1609,31 +1591,33 @@
         <v>2</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G5" s="3">
         <v>2</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I5" s="3">
         <v>75</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="N5" s="11"/>
-      <c r="O5" s="4"/>
+      <c r="O5" s="4">
+        <v>1</v>
+      </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -1652,43 +1636,45 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E6" s="3">
         <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I6" s="3">
         <v>5060</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="N6" s="11"/>
-      <c r="O6" s="4"/>
+      <c r="O6" s="4">
+        <v>1</v>
+      </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -1719,31 +1705,33 @@
         <v>2</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G7" s="3">
         <v>4</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I7" s="3">
         <v>463</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="N7" s="11"/>
-      <c r="O7" s="4"/>
+      <c r="O7" s="4">
+        <v>1</v>
+      </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -1762,43 +1750,45 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>203</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>204</v>
       </c>
       <c r="E8" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I8" s="3">
-        <v>311</v>
+        <v>38</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>19</v>
+        <v>208</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="N8" s="11"/>
-      <c r="O8" s="4"/>
+      <c r="O8" s="4">
+        <v>1</v>
+      </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -1817,45 +1807,47 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E9" s="3">
         <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I9" s="3">
         <v>115</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="O9" s="4"/>
+        <v>200</v>
+      </c>
+      <c r="O9" s="4">
+        <v>1</v>
+      </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -1874,45 +1866,47 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E10" s="3">
         <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I10" s="3">
         <v>577</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="O10" s="4"/>
+        <v>201</v>
+      </c>
+      <c r="O10" s="4">
+        <v>1</v>
+      </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -1931,43 +1925,45 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E11" s="3">
         <v>2</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I11" s="3">
         <v>256</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="N11" s="10"/>
-      <c r="O11" s="4"/>
+      <c r="O11" s="4">
+        <v>1</v>
+      </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
@@ -1986,43 +1982,45 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E12" s="3">
         <v>2</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I12" s="3">
         <v>44</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N12" s="10"/>
-      <c r="O12" s="4"/>
+      <c r="O12" s="4">
+        <v>1</v>
+      </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -2041,22 +2039,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>10</v>
@@ -2065,19 +2063,21 @@
         <v>30</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="N13" s="11"/>
-      <c r="O13" s="4"/>
+      <c r="O13" s="4">
+        <v>1</v>
+      </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -2096,43 +2096,45 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E14" s="3">
         <v>2</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G14" s="3">
         <v>4</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I14" s="3">
         <v>480</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N14" s="11"/>
-      <c r="O14" s="4"/>
+      <c r="O14" s="4">
+        <v>1</v>
+      </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
@@ -2151,43 +2153,45 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E15" s="3">
         <v>2</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I15" s="3">
         <v>119</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L15" s="10" t="s">
         <v>10</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="N15" s="10"/>
-      <c r="O15" s="4"/>
+      <c r="O15" s="4">
+        <v>1</v>
+      </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -2206,43 +2210,45 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E16" s="3">
         <v>2</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I16" s="3">
         <v>28</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L16" s="11" t="s">
         <v>10</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N16" s="11"/>
-      <c r="O16" s="4"/>
+      <c r="O16" s="4">
+        <v>1</v>
+      </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -2261,43 +2267,45 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E17" s="3">
         <v>2</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I17" s="3">
         <v>48</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L17" s="10" t="s">
         <v>10</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="N17" s="10"/>
-      <c r="O17" s="4"/>
+      <c r="O17" s="4">
+        <v>1</v>
+      </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
@@ -2316,43 +2324,45 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E18" s="3">
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I18" s="3">
         <v>294</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N18" s="10"/>
-      <c r="O18" s="4"/>
+      <c r="O18" s="4">
+        <v>1</v>
+      </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
@@ -2371,43 +2381,45 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E19" s="3">
         <v>2</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I19" s="3">
         <v>295</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="N19" s="10"/>
-      <c r="O19" s="4"/>
+      <c r="O19" s="4">
+        <v>1</v>
+      </c>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
@@ -2426,43 +2438,45 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E20" s="3">
         <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I20" s="3">
         <v>32</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N20" s="10"/>
-      <c r="O20" s="4"/>
+      <c r="O20" s="4">
+        <v>1</v>
+      </c>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
@@ -2481,43 +2495,45 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E21" s="3">
         <v>2</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I21" s="3">
         <v>37</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="N21" s="10"/>
-      <c r="O21" s="4"/>
+      <c r="O21" s="4">
+        <v>1</v>
+      </c>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
@@ -2536,43 +2552,45 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E22" s="3">
         <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I22" s="3">
         <v>1462</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="N22" s="29"/>
-      <c r="O22" s="4"/>
+      <c r="O22" s="4">
+        <v>1</v>
+      </c>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -2591,22 +2609,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E23" s="3">
         <v>2</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>10</v>
@@ -2615,19 +2633,21 @@
         <v>20</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="N23" s="30"/>
-      <c r="O23" s="4"/>
+      <c r="O23" s="4">
+        <v>1</v>
+      </c>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
@@ -2646,250 +2666,265 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I24" s="2">
         <v>92</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K24" s="18" t="s">
         <v>9</v>
       </c>
       <c r="L24" s="19" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M24" s="19" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N24" s="31"/>
+      <c r="O24" s="34">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:27" ht="174">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I25" s="2">
         <v>50</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L25" s="14" t="s">
         <v>10</v>
       </c>
       <c r="M25" s="14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="N25" s="32"/>
+      <c r="O25" s="34">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:27" ht="174">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E26" s="21">
         <v>2</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G26" s="2">
         <v>3</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I26" s="2">
         <v>55</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="L26" s="14" t="s">
         <v>10</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="N26" s="32"/>
+      <c r="O26" s="34">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:27" ht="174">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E27" s="2">
         <v>2</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I27" s="2">
         <v>242</v>
       </c>
       <c r="J27" s="27" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="K27" s="28" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="L27" s="23" t="s">
         <v>10</v>
       </c>
       <c r="M27" s="23" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N27" s="33"/>
+      <c r="O27" s="34">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:27" ht="101.5">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E28" s="2">
         <v>2</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I28" s="2">
         <v>101</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K28" s="22" t="s">
-        <v>126</v>
+        <v>120</v>
+      </c>
+      <c r="K28" s="35" t="s">
+        <v>209</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M28" s="14" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="N28" s="32"/>
+      <c r="O28" s="34">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:27" ht="145">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E29" s="2">
         <v>2</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I29" s="2">
         <v>120</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L29" s="14" t="s">
         <v>10</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="N29" s="32"/>
     </row>
@@ -2898,22 +2933,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E30" s="2">
         <v>2</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>10</v>
@@ -2922,16 +2957,16 @@
         <v>51</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="L30" s="25" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M30" s="14" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="N30" s="32"/>
     </row>
@@ -2940,40 +2975,40 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E31" s="2">
         <v>3</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I31" s="2">
         <v>75</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="K31" s="27" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="N31" s="32"/>
     </row>

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6127E7-78F7-455F-80B1-6FC1AB2CDE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5405B39-B447-4B57-8490-A06B699C567A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="211">
   <si>
     <t>NCT02491333</t>
   </si>
@@ -791,21 +790,30 @@
     <t>Equivalence (no significant difference) demonstrated on 7 of 8 measures; however, long-term memory gains were significantly greater in the ThinkRx arm</t>
   </si>
   <si>
-    <t>Bleeeding categoriy: Ordinal, Categorical
-Surgical problem bleeding: Binary
-Bleeding Score: Continuous</t>
+    <t>stunting: Binary
+BSID-III z-scores: Continuous</t>
+  </si>
+  <si>
+    <t>Continuous Proportion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -945,106 +953,109 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1325,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView tabSelected="1" topLeftCell="C29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -3001,8 +3012,8 @@
       <c r="J31" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="K31" s="27" t="s">
-        <v>100</v>
+      <c r="K31" s="36" t="s">
+        <v>210</v>
       </c>
       <c r="L31" s="14" t="s">
         <v>139</v>

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5405B39-B447-4B57-8490-A06B699C567A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20479B4-AE95-4F5D-9170-45456FD9AD9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -953,7 +953,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1059,6 +1059,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1336,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="J30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -2938,6 +2939,9 @@
         <v>126</v>
       </c>
       <c r="N29" s="32"/>
+      <c r="O29" s="37">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:27" ht="217.5">
       <c r="A30" s="2">
@@ -2980,6 +2984,9 @@
         <v>133</v>
       </c>
       <c r="N30" s="32"/>
+      <c r="O30" s="37">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:27" ht="174">
       <c r="A31" s="2">
@@ -3022,6 +3029,9 @@
         <v>140</v>
       </c>
       <c r="N31" s="32"/>
+      <c r="O31" s="37">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:27">
       <c r="A32" s="15"/>

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20479B4-AE95-4F5D-9170-45456FD9AD9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BAC352-1259-434E-ACE3-0F8F4C1D2568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -953,7 +953,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -996,13 +996,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1059,7 +1053,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1335,27 +1343,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA32"/>
+  <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.7265625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7265625" customWidth="1"/>
-    <col min="9" max="9" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.54296875" customWidth="1"/>
-    <col min="11" max="11" width="38.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.453125" style="12" customWidth="1"/>
-    <col min="13" max="14" width="38.7265625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" customWidth="1"/>
+    <col min="11" max="11" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="44.42578125" style="12" customWidth="1"/>
+    <col min="13" max="14" width="38.7109375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18" customHeight="1">
@@ -1415,7 +1423,7 @@
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
     </row>
-    <row r="2" spans="1:27" ht="72.5">
+    <row r="2" spans="1:27" ht="75">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1472,7 +1480,7 @@
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
     </row>
-    <row r="3" spans="1:27" ht="87">
+    <row r="3" spans="1:27" ht="105">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1482,7 +1490,7 @@
       <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="3">
@@ -1529,7 +1537,7 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
     </row>
-    <row r="4" spans="1:27" ht="174">
+    <row r="4" spans="1:27" ht="195">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1586,7 +1594,7 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
     </row>
-    <row r="5" spans="1:27" ht="130.5">
+    <row r="5" spans="1:27" ht="135">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1643,7 +1651,7 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
     </row>
-    <row r="6" spans="1:27" ht="188.5">
+    <row r="6" spans="1:27" ht="210">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1700,7 +1708,7 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
     </row>
-    <row r="7" spans="1:27" ht="116">
+    <row r="7" spans="1:27" ht="120">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1757,7 +1765,7 @@
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
     </row>
-    <row r="8" spans="1:27" ht="130.5">
+    <row r="8" spans="1:27" ht="135">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1814,7 +1822,7 @@
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
     </row>
-    <row r="9" spans="1:27" ht="87">
+    <row r="9" spans="1:27" ht="90">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1873,7 +1881,7 @@
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
     </row>
-    <row r="10" spans="1:27" ht="116">
+    <row r="10" spans="1:27" ht="120">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1932,7 +1940,7 @@
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
     </row>
-    <row r="11" spans="1:27" ht="261">
+    <row r="11" spans="1:27" ht="285">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1989,7 +1997,7 @@
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
     </row>
-    <row r="12" spans="1:27" ht="130.5">
+    <row r="12" spans="1:27" ht="150">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2046,7 +2054,7 @@
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
     </row>
-    <row r="13" spans="1:27" ht="116">
+    <row r="13" spans="1:27" ht="120">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2103,7 +2111,7 @@
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
     </row>
-    <row r="14" spans="1:27" ht="87">
+    <row r="14" spans="1:27" ht="90">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2160,7 +2168,7 @@
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
     </row>
-    <row r="15" spans="1:27" ht="203">
+    <row r="15" spans="1:27" ht="210">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2217,7 +2225,7 @@
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
     </row>
-    <row r="16" spans="1:27" ht="116">
+    <row r="16" spans="1:27" ht="150">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2274,7 +2282,7 @@
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
     </row>
-    <row r="17" spans="1:27" ht="58">
+    <row r="17" spans="1:27" ht="60">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2331,7 +2339,7 @@
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
     </row>
-    <row r="18" spans="1:27" ht="116">
+    <row r="18" spans="1:27" ht="150">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2388,7 +2396,7 @@
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
     </row>
-    <row r="19" spans="1:27" ht="174">
+    <row r="19" spans="1:27" ht="210">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2445,7 +2453,7 @@
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
     </row>
-    <row r="20" spans="1:27" ht="130.5">
+    <row r="20" spans="1:27" ht="150">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2502,7 +2510,7 @@
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
     </row>
-    <row r="21" spans="1:27" ht="87">
+    <row r="21" spans="1:27" ht="90">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2559,7 +2567,7 @@
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
     </row>
-    <row r="22" spans="1:27" ht="101.5">
+    <row r="22" spans="1:27" ht="105">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2599,7 +2607,7 @@
       <c r="M22" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="N22" s="29"/>
+      <c r="N22" s="27"/>
       <c r="O22" s="4">
         <v>1</v>
       </c>
@@ -2616,7 +2624,7 @@
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
     </row>
-    <row r="23" spans="1:27" ht="232">
+    <row r="23" spans="1:27" ht="255">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2656,7 +2664,7 @@
       <c r="M23" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="N23" s="30"/>
+      <c r="N23" s="28"/>
       <c r="O23" s="4">
         <v>1</v>
       </c>
@@ -2673,7 +2681,7 @@
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
     </row>
-    <row r="24" spans="1:27" ht="87">
+    <row r="24" spans="1:27" ht="90">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2695,7 +2703,7 @@
       <c r="G24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="20" t="s">
         <v>22</v>
       </c>
       <c r="I24" s="2">
@@ -2704,21 +2712,21 @@
       <c r="J24" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="K24" s="18" t="s">
+      <c r="K24" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L24" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="19" t="s">
+      <c r="L24" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="N24" s="31"/>
-      <c r="O24" s="34">
+      <c r="N24" s="29"/>
+      <c r="O24" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="174">
+    <row r="25" spans="1:27" ht="180">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2740,7 +2748,7 @@
       <c r="G25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H25" s="22" t="s">
+      <c r="H25" s="20" t="s">
         <v>22</v>
       </c>
       <c r="I25" s="2">
@@ -2749,7 +2757,7 @@
       <c r="J25" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K25" s="20" t="s">
+      <c r="K25" s="18" t="s">
         <v>100</v>
       </c>
       <c r="L25" s="14" t="s">
@@ -2758,12 +2766,12 @@
       <c r="M25" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="N25" s="32"/>
-      <c r="O25" s="34">
+      <c r="N25" s="30"/>
+      <c r="O25" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="174">
+    <row r="26" spans="1:27" ht="195">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2776,7 +2784,7 @@
       <c r="D26" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="19">
         <v>2</v>
       </c>
       <c r="F26" s="2" t="s">
@@ -2785,7 +2793,7 @@
       <c r="G26" s="2">
         <v>3</v>
       </c>
-      <c r="H26" s="22" t="s">
+      <c r="H26" s="20" t="s">
         <v>22</v>
       </c>
       <c r="I26" s="2">
@@ -2794,7 +2802,7 @@
       <c r="J26" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K26" s="22" t="s">
+      <c r="K26" s="20" t="s">
         <v>108</v>
       </c>
       <c r="L26" s="14" t="s">
@@ -2803,12 +2811,12 @@
       <c r="M26" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="N26" s="32"/>
-      <c r="O26" s="34">
+      <c r="N26" s="30"/>
+      <c r="O26" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="174">
+    <row r="27" spans="1:27" ht="195">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2818,7 +2826,7 @@
       <c r="C27" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="20" t="s">
         <v>113</v>
       </c>
       <c r="E27" s="2">
@@ -2830,34 +2838,34 @@
       <c r="G27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="20" t="s">
         <v>22</v>
       </c>
       <c r="I27" s="2">
         <v>242</v>
       </c>
-      <c r="J27" s="27" t="s">
+      <c r="J27" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="K27" s="28" t="s">
+      <c r="K27" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="L27" s="23" t="s">
+      <c r="L27" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="M27" s="23" t="s">
+      <c r="M27" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="N27" s="33"/>
-      <c r="O27" s="34">
+      <c r="N27" s="31"/>
+      <c r="O27" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="101.5">
+    <row r="28" spans="1:27" ht="120">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="22" t="s">
         <v>116</v>
       </c>
       <c r="C28" s="14" t="s">
@@ -2875,7 +2883,7 @@
       <c r="G28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="22" t="s">
+      <c r="H28" s="20" t="s">
         <v>22</v>
       </c>
       <c r="I28" s="2">
@@ -2884,7 +2892,7 @@
       <c r="J28" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="K28" s="35" t="s">
+      <c r="K28" s="33" t="s">
         <v>209</v>
       </c>
       <c r="L28" s="14" t="s">
@@ -2893,12 +2901,12 @@
       <c r="M28" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="N28" s="32"/>
-      <c r="O28" s="34">
+      <c r="N28" s="30"/>
+      <c r="O28" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="145">
+    <row r="29" spans="1:27" ht="165">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2929,7 +2937,7 @@
       <c r="J29" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="K29" s="22" t="s">
+      <c r="K29" s="20" t="s">
         <v>100</v>
       </c>
       <c r="L29" s="14" t="s">
@@ -2938,12 +2946,12 @@
       <c r="M29" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="N29" s="32"/>
-      <c r="O29" s="37">
+      <c r="N29" s="30"/>
+      <c r="O29" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="217.5">
+    <row r="30" spans="1:27" ht="225">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2974,21 +2982,21 @@
       <c r="J30" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="K30" s="22" t="s">
+      <c r="K30" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="L30" s="25" t="s">
+      <c r="L30" s="23" t="s">
         <v>132</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="N30" s="32"/>
-      <c r="O30" s="37">
+      <c r="N30" s="30"/>
+      <c r="O30" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="174">
+    <row r="31" spans="1:27" ht="180">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -3019,7 +3027,7 @@
       <c r="J31" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="K31" s="36" t="s">
+      <c r="K31" s="34" t="s">
         <v>210</v>
       </c>
       <c r="L31" s="14" t="s">
@@ -3028,26 +3036,311 @@
       <c r="M31" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="N31" s="32"/>
-      <c r="O31" s="37">
+      <c r="N31" s="30"/>
+      <c r="O31" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:27">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="15"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BAC352-1259-434E-ACE3-0F8F4C1D2568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9A1FA1-5636-4D4C-8463-8C3BF6697599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="240">
   <si>
     <t>NCT02491333</t>
   </si>
@@ -796,17 +796,147 @@
   <si>
     <t>Continuous Proportion</t>
   </si>
+  <si>
+    <t>NCT01802372</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pmed.1002561</t>
+  </si>
+  <si>
+    <t>Health insurance coverage with or without a nurse-led task shifting strategy for hypertension control: A pragmatic cluster randomized trial in Ghana</t>
+  </si>
+  <si>
+    <t>HIC</t>
+  </si>
+  <si>
+    <t>Mean change in systolic blood pressure (SBP) from baseline to 12 months.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary: Linear mixed-effects regression (3-level: repeated measures within patients within clusters)
+BP control: Multilevel logistic regression adjusting for clustering
+Lifestyle/weight: Linear mixed-effects models (time × group)
+Sensitivity: Regression-based single imputation under two missing-data scenarios </t>
+  </si>
+  <si>
+    <t>NCT05205759</t>
+  </si>
+  <si>
+    <t>Exploratory data on the clinical efficacy of monoclonal antibodies against SARS-CoV-2 Omicron variant of concern</t>
+  </si>
+  <si>
+    <t>https://elifesciences.org/articles/79639</t>
+  </si>
+  <si>
+    <t>Casirivimab/Imdevimab</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Composite COVID-19 progression through day 14 (hospitalization, need for supplemental oxygen, or death)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No, the trial did not succeed in demonstrating a significant difference in the primary outcome (COVID-19 progression through day 14) between treatment arms
+Additionally, the trial was </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>underpowered</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> due to early discontinuation (only ~25% of target sample enrolled), which limited its ability to detect non-inferiority or superiority.</t>
+    </r>
+  </si>
+  <si>
+    <t>Continuous variables: Wilcoxon–Mann–Whitney test
+Categorical variables: Fisher’s exact test
+Time-to-event analyses (time to symptom resolution): Kaplan–Meier estimator + Log-rank test; Cox proportional hazards model for predictor associations</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Therapeutic misconception, measured by the 10-item Therapeutic Misconception Scale (score range 10–50).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unadjusted two-tailed t-test for TM score comparison
+Chi-square test for willingness to participate
+Factorial two-way ANOVAs (group × baseline characteristics) to assess main and interaction effects, including education </t>
+  </si>
+  <si>
+    <t>Reducing therapeutic misconception: A
+randomized intervention trial in hypothetical
+clinical trials</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0184224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCT01214473 </t>
+  </si>
+  <si>
+    <t>A randomized synbiotic trial to prevent sepsis among infants in rural India</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/nature23480</t>
+  </si>
+  <si>
+    <t>Composite of death or neonatal sepsis (culture-positive/negative sepsis or lower respiratory tract infection) within 60 days.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary and secondary binary outcomes: Chi-square or Fisher’s exact tests to compare proportions; risk ratios with 95% CIs
+Weight gain comparison: Two-sample t-test (Satterthwaite) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCT01243554 </t>
+  </si>
+  <si>
+    <t>Exercise Training and Weight Gain in Obese
+Pregnant Women: A Randomized Controlled
+Trial (ETIP Trial)</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pmed.1002079</t>
+  </si>
+  <si>
+    <t>Gestational weight gain (GWG) from baseline (week 12–18) to delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continuous outcomes: linear mixed models (time × treatment fixed; participant random)
+Binary outcomes: mixed-effects logistic regression
+– Analyses by intention-to-treat; per-protocol sensitivity analyses also performed </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -893,6 +1023,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -926,19 +1063,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -949,128 +1073,176 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{DB6F5F88-69E3-4DCE-9400-6BF9FBA41B34}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1345,16 +1517,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" style="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="12" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -1362,66 +1537,66 @@
     <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28.5703125" customWidth="1"/>
     <col min="11" max="11" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.42578125" style="12" customWidth="1"/>
-    <col min="13" max="14" width="38.7109375" style="12" customWidth="1"/>
+    <col min="12" max="12" width="44.42578125" style="11" customWidth="1"/>
+    <col min="13" max="14" width="38.7109375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
     </row>
     <row r="2" spans="1:27" ht="75">
       <c r="A2" s="2">
@@ -1430,7 +1605,7 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1457,94 +1632,94 @@
       <c r="K2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="4">
+      <c r="N2" s="9"/>
+      <c r="O2" s="43">
         <v>1</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
     </row>
     <row r="3" spans="1:27" ht="105">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="3">
         <v>2</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>106</v>
       </c>
       <c r="G3" s="3">
         <v>3</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I3" s="3">
         <v>400</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="4">
+      <c r="N3" s="10"/>
+      <c r="O3" s="43">
         <v>1</v>
       </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
     </row>
     <row r="4" spans="1:27" ht="195">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>147</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1553,46 +1728,46 @@
       <c r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I4" s="3">
         <v>6030</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="L4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="11" t="s">
+      <c r="L4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="4">
+      <c r="N4" s="10"/>
+      <c r="O4" s="43">
         <v>1</v>
       </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
     </row>
     <row r="5" spans="1:27" ht="135">
       <c r="A5" s="2">
@@ -1601,7 +1776,7 @@
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1610,103 +1785,103 @@
       <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>106</v>
       </c>
       <c r="G5" s="3">
         <v>2</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3">
         <v>75</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="11" t="s">
+      <c r="L5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="4">
+      <c r="N5" s="10"/>
+      <c r="O5" s="43">
         <v>1</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
     </row>
     <row r="6" spans="1:27" ht="210">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>156</v>
       </c>
       <c r="E6" s="3">
         <v>2</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I6" s="3">
         <v>5060</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="11" t="s">
+      <c r="L6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="4">
+      <c r="N6" s="10"/>
+      <c r="O6" s="43">
         <v>1</v>
       </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="43"/>
     </row>
     <row r="7" spans="1:27" ht="120">
       <c r="A7" s="2">
@@ -1715,7 +1890,7 @@
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1724,112 +1899,112 @@
       <c r="E7" s="3">
         <v>2</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>73</v>
       </c>
       <c r="G7" s="3">
         <v>4</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I7" s="3">
         <v>463</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="4" t="s">
         <v>159</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="11" t="s">
+      <c r="L7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="N7" s="11"/>
-      <c r="O7" s="4">
+      <c r="N7" s="10"/>
+      <c r="O7" s="43">
         <v>1</v>
       </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="43"/>
     </row>
     <row r="8" spans="1:27" ht="135">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>204</v>
       </c>
       <c r="E8" s="3">
         <v>2</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="I8" s="3">
         <v>38</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="4">
+      <c r="N8" s="10"/>
+      <c r="O8" s="43">
         <v>1</v>
       </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
     </row>
     <row r="9" spans="1:27" ht="90">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>163</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1856,39 +2031,39 @@
       <c r="K9" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="L9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="11" t="s">
+      <c r="L9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="43">
         <v>1</v>
       </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43"/>
     </row>
     <row r="10" spans="1:27" ht="120">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>172</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1900,10 +2075,10 @@
       <c r="F10" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="3">
@@ -1912,33 +2087,33 @@
       <c r="J10" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="L10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="11" t="s">
+      <c r="L10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="N10" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="43">
         <v>1</v>
       </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
     </row>
     <row r="11" spans="1:27" ht="285">
       <c r="A11" s="2">
@@ -1947,7 +2122,7 @@
       <c r="B11" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>185</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1959,10 +2134,10 @@
       <c r="F11" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I11" s="3">
@@ -1974,28 +2149,28 @@
       <c r="K11" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="L11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="10" t="s">
+      <c r="L11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="N11" s="10"/>
-      <c r="O11" s="4">
+      <c r="N11" s="9"/>
+      <c r="O11" s="43">
         <v>1</v>
       </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="43"/>
     </row>
     <row r="12" spans="1:27" ht="150">
       <c r="A12" s="2">
@@ -2004,7 +2179,7 @@
       <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -2031,85 +2206,85 @@
       <c r="K12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="M12" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="10"/>
-      <c r="O12" s="4">
+      <c r="N12" s="9"/>
+      <c r="O12" s="43">
         <v>1</v>
       </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="43"/>
     </row>
     <row r="13" spans="1:27" ht="120">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>179</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="3">
         <v>30</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="M13" s="11" t="s">
+      <c r="M13" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="N13" s="11"/>
-      <c r="O13" s="4">
+      <c r="N13" s="10"/>
+      <c r="O13" s="43">
         <v>1</v>
       </c>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="43"/>
     </row>
     <row r="14" spans="1:27" ht="90">
       <c r="A14" s="2">
@@ -2118,7 +2293,7 @@
       <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2133,7 +2308,7 @@
       <c r="G14" s="3">
         <v>4</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I14" s="3">
@@ -2142,31 +2317,31 @@
       <c r="J14" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="11" t="s">
+      <c r="L14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="11"/>
-      <c r="O14" s="4">
+      <c r="N14" s="10"/>
+      <c r="O14" s="43">
         <v>1</v>
       </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="43"/>
     </row>
     <row r="15" spans="1:27" ht="210">
       <c r="A15" s="2">
@@ -2175,7 +2350,7 @@
       <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2190,49 +2365,49 @@
       <c r="G15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I15" s="3">
         <v>119</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="9" t="s">
         <v>40</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="M15" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="N15" s="10"/>
-      <c r="O15" s="4">
+      <c r="N15" s="9"/>
+      <c r="O15" s="43">
         <v>1</v>
       </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="43"/>
     </row>
     <row r="16" spans="1:27" ht="150">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -2241,46 +2416,46 @@
       <c r="E16" s="3">
         <v>2</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I16" s="3">
         <v>28</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M16" s="11" t="s">
+      <c r="M16" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="N16" s="11"/>
-      <c r="O16" s="4">
+      <c r="N16" s="10"/>
+      <c r="O16" s="43">
         <v>1</v>
       </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="43"/>
     </row>
     <row r="17" spans="1:27" ht="60">
       <c r="A17" s="2">
@@ -2289,10 +2464,10 @@
       <c r="B17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E17" s="3">
@@ -2304,40 +2479,40 @@
       <c r="G17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I17" s="3">
         <v>48</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="9" t="s">
         <v>55</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M17" s="10" t="s">
+      <c r="M17" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="N17" s="10"/>
-      <c r="O17" s="4">
+      <c r="N17" s="9"/>
+      <c r="O17" s="43">
         <v>1</v>
       </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="43"/>
+      <c r="AA17" s="43"/>
     </row>
     <row r="18" spans="1:27" ht="150">
       <c r="A18" s="2">
@@ -2346,7 +2521,7 @@
       <c r="B18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>57</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -2361,7 +2536,7 @@
       <c r="G18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I18" s="3">
@@ -2373,28 +2548,28 @@
       <c r="K18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="L18" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="M18" s="10" t="s">
+      <c r="M18" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="N18" s="10"/>
-      <c r="O18" s="4">
+      <c r="N18" s="9"/>
+      <c r="O18" s="43">
         <v>1</v>
       </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="43"/>
+      <c r="AA18" s="43"/>
     </row>
     <row r="19" spans="1:27" ht="210">
       <c r="A19" s="2">
@@ -2403,7 +2578,7 @@
       <c r="B19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>65</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -2418,7 +2593,7 @@
       <c r="G19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I19" s="3">
@@ -2427,31 +2602,31 @@
       <c r="J19" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L19" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" s="10" t="s">
+      <c r="L19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="N19" s="10"/>
-      <c r="O19" s="4">
+      <c r="N19" s="9"/>
+      <c r="O19" s="43">
         <v>1</v>
       </c>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="43"/>
     </row>
     <row r="20" spans="1:27" ht="150">
       <c r="A20" s="2">
@@ -2460,7 +2635,7 @@
       <c r="B20" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -2475,7 +2650,7 @@
       <c r="G20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I20" s="3">
@@ -2487,28 +2662,28 @@
       <c r="K20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L20" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" s="10" t="s">
+      <c r="L20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="N20" s="10"/>
-      <c r="O20" s="4">
+      <c r="N20" s="9"/>
+      <c r="O20" s="43">
         <v>1</v>
       </c>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="43"/>
+      <c r="AA20" s="43"/>
     </row>
     <row r="21" spans="1:27" ht="90">
       <c r="A21" s="2">
@@ -2517,7 +2692,7 @@
       <c r="B21" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>77</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -2532,7 +2707,7 @@
       <c r="G21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I21" s="3">
@@ -2544,28 +2719,28 @@
       <c r="K21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="L21" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="M21" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="N21" s="10"/>
-      <c r="O21" s="4">
+      <c r="N21" s="9"/>
+      <c r="O21" s="43">
         <v>1</v>
       </c>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="43"/>
     </row>
     <row r="22" spans="1:27" ht="105">
       <c r="A22" s="2">
@@ -2574,7 +2749,7 @@
       <c r="B22" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>87</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2589,7 +2764,7 @@
       <c r="G22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I22" s="3">
@@ -2601,85 +2776,85 @@
       <c r="K22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="10" t="s">
+      <c r="L22" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="M22" s="10" t="s">
+      <c r="M22" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="N22" s="27"/>
-      <c r="O22" s="4">
+      <c r="N22" s="9"/>
+      <c r="O22" s="43">
         <v>1</v>
       </c>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="43"/>
     </row>
     <row r="23" spans="1:27" ht="255">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>194</v>
       </c>
       <c r="E23" s="3">
         <v>2</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I23" s="3">
         <v>20</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L23" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M23" s="11" t="s">
+      <c r="L23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="N23" s="28"/>
-      <c r="O23" s="4">
+      <c r="N23" s="10"/>
+      <c r="O23" s="43">
         <v>1</v>
       </c>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="43"/>
     </row>
     <row r="24" spans="1:27" ht="90">
       <c r="A24" s="2">
@@ -2688,7 +2863,7 @@
       <c r="B24" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>91</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -2703,7 +2878,7 @@
       <c r="G24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="18" t="s">
         <v>22</v>
       </c>
       <c r="I24" s="2">
@@ -2712,19 +2887,31 @@
       <c r="J24" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="K24" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L24" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="17" t="s">
+      <c r="L24" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="N24" s="29"/>
-      <c r="O24" s="32">
+      <c r="N24" s="15"/>
+      <c r="O24" s="43">
         <v>1</v>
       </c>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="43"/>
+      <c r="AA24" s="43"/>
     </row>
     <row r="25" spans="1:27" ht="180">
       <c r="A25" s="2">
@@ -2733,7 +2920,7 @@
       <c r="B25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2748,7 +2935,7 @@
       <c r="G25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="H25" s="18" t="s">
         <v>22</v>
       </c>
       <c r="I25" s="2">
@@ -2757,19 +2944,31 @@
       <c r="J25" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K25" s="18" t="s">
+      <c r="K25" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="L25" s="14" t="s">
+      <c r="L25" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="14" t="s">
+      <c r="M25" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="N25" s="30"/>
-      <c r="O25" s="32">
+      <c r="N25" s="13"/>
+      <c r="O25" s="43">
         <v>1</v>
       </c>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="43"/>
     </row>
     <row r="26" spans="1:27" ht="195">
       <c r="A26" s="2">
@@ -2778,13 +2977,13 @@
       <c r="B26" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>104</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="17">
         <v>2</v>
       </c>
       <c r="F26" s="2" t="s">
@@ -2793,7 +2992,7 @@
       <c r="G26" s="2">
         <v>3</v>
       </c>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="18" t="s">
         <v>22</v>
       </c>
       <c r="I26" s="2">
@@ -2802,19 +3001,31 @@
       <c r="J26" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K26" s="20" t="s">
+      <c r="K26" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="L26" s="14" t="s">
+      <c r="L26" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M26" s="14" t="s">
+      <c r="M26" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="N26" s="30"/>
-      <c r="O26" s="32">
+      <c r="N26" s="13"/>
+      <c r="O26" s="43">
         <v>1</v>
       </c>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="43"/>
+      <c r="X26" s="43"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="43"/>
+      <c r="AA26" s="43"/>
     </row>
     <row r="27" spans="1:27" ht="195">
       <c r="A27" s="2">
@@ -2823,10 +3034,10 @@
       <c r="B27" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="18" t="s">
         <v>113</v>
       </c>
       <c r="E27" s="2">
@@ -2838,37 +3049,49 @@
       <c r="G27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H27" s="20" t="s">
+      <c r="H27" s="18" t="s">
         <v>22</v>
       </c>
       <c r="I27" s="2">
         <v>242</v>
       </c>
-      <c r="J27" s="25" t="s">
+      <c r="J27" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="K27" s="26" t="s">
+      <c r="K27" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="L27" s="21" t="s">
+      <c r="L27" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="M27" s="21" t="s">
+      <c r="M27" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="N27" s="31"/>
-      <c r="O27" s="32">
+      <c r="N27" s="37"/>
+      <c r="O27" s="43">
         <v>1</v>
       </c>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="43"/>
+      <c r="AA27" s="43"/>
     </row>
     <row r="28" spans="1:27" ht="120">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="13" t="s">
         <v>117</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -2883,7 +3106,7 @@
       <c r="G28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="20" t="s">
+      <c r="H28" s="18" t="s">
         <v>22</v>
       </c>
       <c r="I28" s="2">
@@ -2892,19 +3115,31 @@
       <c r="J28" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="K28" s="33" t="s">
+      <c r="K28" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="L28" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="M28" s="14" t="s">
+      <c r="L28" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="N28" s="30"/>
-      <c r="O28" s="32">
+      <c r="N28" s="13"/>
+      <c r="O28" s="43">
         <v>1</v>
       </c>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="43"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="43"/>
+      <c r="AA28" s="43"/>
     </row>
     <row r="29" spans="1:27" ht="165">
       <c r="A29" s="2">
@@ -2913,7 +3148,7 @@
       <c r="B29" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>124</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -2937,19 +3172,31 @@
       <c r="J29" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="K29" s="20" t="s">
+      <c r="K29" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="L29" s="14" t="s">
+      <c r="L29" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="14" t="s">
+      <c r="M29" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="N29" s="30"/>
-      <c r="O29" s="32">
+      <c r="N29" s="13"/>
+      <c r="O29" s="43">
         <v>1</v>
       </c>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="43"/>
+      <c r="AA29" s="43"/>
     </row>
     <row r="30" spans="1:27" ht="225">
       <c r="A30" s="2">
@@ -2958,7 +3205,7 @@
       <c r="B30" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="13" t="s">
         <v>128</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2982,19 +3229,31 @@
       <c r="J30" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="K30" s="20" t="s">
+      <c r="K30" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="L30" s="23" t="s">
+      <c r="L30" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="M30" s="14" t="s">
+      <c r="M30" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="N30" s="30"/>
-      <c r="O30" s="32">
+      <c r="N30" s="13"/>
+      <c r="O30" s="43">
         <v>1</v>
       </c>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="43"/>
+      <c r="X30" s="43"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="43"/>
+      <c r="AA30" s="43"/>
     </row>
     <row r="31" spans="1:27" ht="180">
       <c r="A31" s="2">
@@ -3003,7 +3262,7 @@
       <c r="B31" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="13" t="s">
         <v>135</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -3024,323 +3283,524 @@
       <c r="I31" s="2">
         <v>75</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J31" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="K31" s="34" t="s">
+      <c r="K31" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="L31" s="14" t="s">
+      <c r="L31" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="M31" s="14" t="s">
+      <c r="M31" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="N31" s="30"/>
-      <c r="O31" s="32">
+      <c r="N31" s="13"/>
+      <c r="O31" s="43">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:27">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="15"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="38"/>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="38"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
+      <c r="Y31" s="43"/>
+      <c r="Z31" s="43"/>
+      <c r="AA31" s="43"/>
+    </row>
+    <row r="32" spans="1:27" ht="195">
+      <c r="A32" s="17">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="17">
+        <v>757</v>
+      </c>
+      <c r="J32" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="K32" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="M32" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="N32" s="27"/>
+      <c r="O32" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="150">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="E33" s="46">
+        <v>3</v>
+      </c>
+      <c r="F33" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="G33" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="H33" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="46">
+        <v>311</v>
+      </c>
+      <c r="J33" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="K33" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="M33" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="N33" s="28"/>
+      <c r="O33" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="150">
+      <c r="A34" s="17">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="E34" s="30">
+        <v>2</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="G34" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="17">
+        <v>154</v>
+      </c>
+      <c r="J34" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="K34" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="L34" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="M34" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="N34" s="28"/>
+      <c r="O34" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="105">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="E35" s="30">
+        <v>2</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="G35" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="17">
+        <v>4556</v>
+      </c>
+      <c r="J35" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="K35" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="L35" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="M35" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="N35" s="28"/>
+      <c r="O35" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="135">
+      <c r="A36" s="17">
+        <v>35</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E36" s="30">
+        <v>2</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="G36" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="17">
+        <v>91</v>
+      </c>
+      <c r="J36" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="K36" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="M36" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="N36" s="28"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="28"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="17">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="28"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="28"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="17">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="28"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="28"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="17">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="28"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="28"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="17">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="28"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="28"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="17">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="28"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="28"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="17">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="28"/>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="28"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="17">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="28"/>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9A1FA1-5636-4D4C-8463-8C3BF6697599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB972D9-A527-46DE-952F-C274A8CDC978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="284">
   <si>
     <t>NCT02491333</t>
   </si>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>KCT0002794</t>
-  </si>
-  <si>
-    <t>Trial Number</t>
   </si>
   <si>
     <t>Change in Child Behavior Checklist (CBCL 1.5–5) scores (pre- vs. post-intervention)</t>
@@ -919,17 +916,194 @@
 Binary outcomes: mixed-effects logistic regression
 – Analyses by intention-to-treat; per-protocol sensitivity analyses also performed </t>
   </si>
+  <si>
+    <t>NCT03382353</t>
+  </si>
+  <si>
+    <t>Targeting brain health in subjective cognitive decline: insights
+from a multidomain randomized controlled trial</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s40520-025-03062-z</t>
+  </si>
+  <si>
+    <t>ACI</t>
+  </si>
+  <si>
+    <t>One-year change in cognitive function:
+Rey Auditory Verbal Learning Test (RAVLT)
+z-standardized composite scores for memory, attention-executive, and visuospatial domains</t>
+  </si>
+  <si>
+    <t>Memory composite, RAVLT total, visuospatial: No
+Attention-executive: Yes (MI vs ACI)</t>
+  </si>
+  <si>
+    <t>Primary &amp; secondary: Complete-case ANCOVA (post-intervention measure ~ group + baseline + age + sex + education), with Bonferroni-adjusted pairwise t-tests 36.
+Functional connectivity: MANCOVAN followed by voxel-wise univariate tests (FDR-corrected).
+Exploratory brain–behavior: Linear mixed-effects models.</t>
+  </si>
+  <si>
+    <t>NCT00820612</t>
+  </si>
+  <si>
+    <t>A Randomized Trial of Rectal Indomethacin
+to Prevent Post-ERCP Pancreatitis</t>
+  </si>
+  <si>
+    <t>ATCG 175</t>
+  </si>
+  <si>
+    <t>A trial comparing nucleoside monotherapy with combination therapy in HIV-infected adults with CD4 cell counts from 200 to 500 per cubic millimeter. AIDS Clinical Trials Group Study 175 Study Team</t>
+  </si>
+  <si>
+    <t>10.1056/NEJM199610103351501</t>
+  </si>
+  <si>
+    <t>ZDV</t>
+  </si>
+  <si>
+    <t>Time to a composite of:
+≥ 50 % decline in CD4 count
+Development of AIDS (CDC-defined)
+Death</t>
+  </si>
+  <si>
+    <t>Kaplan–Meier estimates + log-rank tests
+Cox proportional-hazards models stratified on prior therapy (with subgroup–treatment interaction)
+ANOVA and two-sample t-tests for CD4 count changes</t>
+  </si>
+  <si>
+    <t>HELP</t>
+  </si>
+  <si>
+    <t>Trial Number/Name</t>
+  </si>
+  <si>
+    <t>doi/10.1046/j.1360-0443.2003.00328.x</t>
+  </si>
+  <si>
+    <t>Linking alcohol- and drug-dependent adults to primary medical care: a randomized controlled trial of a multi-disciplinary health intervention in a detoxification unit</t>
+  </si>
+  <si>
+    <t>Time to first self-reported linkage (≥1 visit) to a primary care MD/NP/PA within 12 months</t>
+  </si>
+  <si>
+    <t>Primary: log-rank test; Cox proportional-hazards model for HR
+Secondary: generalized linear mixed models (PROC MIXED with unstructured covariance) for continuous outcomes; Wilcoxon rank-sum for utilization rates</t>
+  </si>
+  <si>
+    <t>10.1056/NEJMoa1111103</t>
+  </si>
+  <si>
+    <t>Incidence of post-ERCP pancreatitis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary &amp; moderate-to-severe outcomes: Two-tailed Fisher’s exact test (α=0.041, O’Brien–Fleming spending) 37
+Hospital stay: Kruskal–Wallis rank test 37
+Subgroup interactions: Multiple logistic regression with interaction terms </t>
+  </si>
+  <si>
+    <t>A Randomized Comparison Between the Pentax AWS
+Video Laryngoscope and the Macintosh Laryngoscope
+in Morbidly Obese Patients</t>
+  </si>
+  <si>
+    <t>10.1213/ANE.0b013e31822cf47d</t>
+  </si>
+  <si>
+    <t>Macintosh</t>
+  </si>
+  <si>
+    <t>Time to successful tracheal intubation—measured from blade insertion to capnographic confirmation, censored at 100 seconds if exceeded</t>
+  </si>
+  <si>
+    <t>Primary outcome: Cox proportional‐hazards regression (adjusted for ASA and Mallampati), Kaplan–Meier curves with 95% confidence bands
+Secondary outcomes:
+Wilcoxon rank‐sum test for number of attempts
+Fisher’s exact test or logistic regression for binary outcomes (first‐attempt and overall success, bleeding, glottic view)
+Analysis of covariance for ease‐of‐intubation score
+Proportional‐odds logistic regression for sore‐throat severity</t>
+  </si>
+  <si>
+    <t>Sugar</t>
+  </si>
+  <si>
+    <t>NCT01444703</t>
+  </si>
+  <si>
+    <t>A Randomized, Double-Blind Comparison
+of Licorice Versus Sugar-Water Gargle for
+Prevention of Postoperative Sore Throat and
+Postextubation Coughing</t>
+  </si>
+  <si>
+    <t>10.1213/ANE.0b013e318299a650</t>
+  </si>
+  <si>
+    <t>Incidence of postoperative sore throat at rest, assessed across the first 4 postextubation hours (at 0.5, 1.5, and 4 h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary outcome: Modified Mantel–Haenszel test adjusting for within-patient correlation
+Pain‐score trajectories: Linear mixed-effects model with autoregressive covariance
+Coughing (ordinal): GEE with cumulative-logit link
+Individual binary comparisons: χ² tests (with Bonferroni correction) </t>
+  </si>
+  <si>
+    <t>Combined Versus Sequential Injection of Mepivacaine
+and Ropivacaine for Supraclavicular Nerve Blocks</t>
+  </si>
+  <si>
+    <t>10.1097/AAP.0b013e31820d4235</t>
+  </si>
+  <si>
+    <t>Time (minutes) from completion of injection to onset of sensory block in all four nerve distributions (median, ulnar, radial, musculocutaneous)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary: Kaplan–Meier with log-rank test (stratified by sex) and multivariable Cox regression adjusting for sex; sensitivity via Wilcoxon test 42
+Secondary:
+Time-to-event outcomes: Kaplan–Meier/log-rank and Cox (as above) 42
+Pain scores &amp; opioid use: ANCOVA on VRS and log-transformed opioid consumption adjusting for sex </t>
+  </si>
+  <si>
+    <t>Combined</t>
+  </si>
+  <si>
+    <t>NCT00066131</t>
+  </si>
+  <si>
+    <t>Treatment of Periodontal Disease
+and the Risk of Preterm Birth</t>
+  </si>
+  <si>
+    <t>10.1056/NEJMoa062249</t>
+  </si>
+  <si>
+    <t>Gestational age at the end of pregnancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary: Kaplan–Meier curves and log-rank test stratified by center; Cox proportional-hazards regression
+Competing-risks: live birth vs spontaneous abortion/stillbirth
+Secondary: t-tests (birth weight), Fisher’s exact or chi-square (proportions), Wilcoxon signed-rank (Apgar), linear mixed models for periodontal measures </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1089,156 +1263,169 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1515,20 +1702,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA51"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L45" sqref="L45"/>
+      <selection pane="bottomRight" activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="11" customWidth="1"/>
     <col min="4" max="4" width="16.140625" style="12" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -1541,12 +1728,12 @@
     <col min="13" max="14" width="38.7109375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="18" customHeight="1">
+    <row r="1" spans="1:15" ht="18" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>47</v>
+        <v>255</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>29</v>
@@ -1564,7 +1751,7 @@
         <v>32</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>33</v>
@@ -1576,29 +1763,16 @@
         <v>34</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="37" t="s">
         <v>35</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-    </row>
-    <row r="2" spans="1:27" ht="75">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="75">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1615,7 +1789,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G2" s="3">
         <v>3</v>
@@ -1627,35 +1801,23 @@
         <v>342</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>38</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="M2" s="39" t="s">
-        <v>142</v>
+        <v>189</v>
+      </c>
+      <c r="M2" s="38" t="s">
+        <v>141</v>
       </c>
       <c r="N2" s="9"/>
-      <c r="O2" s="43">
-        <v>1</v>
-      </c>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-    </row>
-    <row r="3" spans="1:27" ht="105">
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="105">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1672,7 +1834,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G3" s="3">
         <v>3</v>
@@ -1684,7 +1846,7 @@
         <v>400</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>9</v>
@@ -1692,44 +1854,32 @@
       <c r="L3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="40" t="s">
-        <v>144</v>
+      <c r="M3" s="39" t="s">
+        <v>143</v>
       </c>
       <c r="N3" s="10"/>
-      <c r="O3" s="43">
-        <v>1</v>
-      </c>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-    </row>
-    <row r="4" spans="1:27" ht="195">
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="195">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="E4" s="3">
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>36</v>
@@ -1741,35 +1891,23 @@
         <v>6030</v>
       </c>
       <c r="J4" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="L4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="40" t="s">
-        <v>151</v>
-      </c>
       <c r="N4" s="10"/>
-      <c r="O4" s="43">
-        <v>1</v>
-      </c>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-    </row>
-    <row r="5" spans="1:27" ht="135">
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="135">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1786,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G5" s="3">
         <v>2</v>
@@ -1798,7 +1936,7 @@
         <v>75</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>38</v>
@@ -1806,44 +1944,32 @@
       <c r="L5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="40" t="s">
-        <v>153</v>
+      <c r="M5" s="39" t="s">
+        <v>152</v>
       </c>
       <c r="N5" s="10"/>
-      <c r="O5" s="43">
-        <v>1</v>
-      </c>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="43"/>
-    </row>
-    <row r="6" spans="1:27" ht="210">
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="210">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>156</v>
-      </c>
       <c r="E6" s="3">
         <v>2</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>36</v>
@@ -1855,7 +1981,7 @@
         <v>5060</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>14</v>
@@ -1863,27 +1989,15 @@
       <c r="L6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="40" t="s">
-        <v>158</v>
+      <c r="M6" s="39" t="s">
+        <v>157</v>
       </c>
       <c r="N6" s="10"/>
-      <c r="O6" s="43">
-        <v>1</v>
-      </c>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="43"/>
-    </row>
-    <row r="7" spans="1:27" ht="120">
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="120">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1900,7 +2014,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G7" s="3">
         <v>4</v>
@@ -1912,7 +2026,7 @@
         <v>463</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>38</v>
@@ -1920,44 +2034,32 @@
       <c r="L7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="40" t="s">
-        <v>160</v>
+      <c r="M7" s="39" t="s">
+        <v>159</v>
       </c>
       <c r="N7" s="10"/>
-      <c r="O7" s="43">
-        <v>1</v>
-      </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="43"/>
-    </row>
-    <row r="8" spans="1:27" ht="135">
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="135">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
@@ -1969,52 +2071,40 @@
         <v>38</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>38</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="M8" s="40" t="s">
         <v>207</v>
       </c>
+      <c r="M8" s="39" t="s">
+        <v>206</v>
+      </c>
       <c r="N8" s="10"/>
-      <c r="O8" s="43">
-        <v>1</v>
-      </c>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
-    </row>
-    <row r="9" spans="1:27" ht="90">
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="90">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D9" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="E9" s="3">
         <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>36</v>
@@ -2026,54 +2116,42 @@
         <v>115</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="40" t="s">
-        <v>165</v>
+      <c r="M9" s="39" t="s">
+        <v>164</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="O9" s="43">
-        <v>1</v>
-      </c>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="43"/>
-      <c r="AA9" s="43"/>
-    </row>
-    <row r="10" spans="1:27" ht="120">
+        <v>199</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="120">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>36</v>
@@ -2085,54 +2163,42 @@
         <v>577</v>
       </c>
       <c r="J10" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="40" t="s">
-        <v>176</v>
-      </c>
       <c r="N10" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="O10" s="43">
-        <v>1</v>
-      </c>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="43"/>
-    </row>
-    <row r="11" spans="1:27" ht="285">
+        <v>200</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="285">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>36</v>
@@ -2144,35 +2210,23 @@
         <v>256</v>
       </c>
       <c r="J11" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="39" t="s">
-        <v>189</v>
-      </c>
       <c r="N11" s="9"/>
-      <c r="O11" s="43">
-        <v>1</v>
-      </c>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="43"/>
-    </row>
-    <row r="12" spans="1:27" ht="150">
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="150">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2189,7 +2243,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
@@ -2201,52 +2255,40 @@
         <v>44</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>38</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="M12" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="M12" s="38" t="s">
         <v>18</v>
       </c>
       <c r="N12" s="9"/>
-      <c r="O12" s="43">
-        <v>1</v>
-      </c>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="43"/>
-      <c r="AA12" s="43"/>
-    </row>
-    <row r="13" spans="1:27" ht="120">
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="120">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="D13" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>179</v>
-      </c>
       <c r="E13" s="3">
         <v>2</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>36</v>
@@ -2258,35 +2300,23 @@
         <v>30</v>
       </c>
       <c r="J13" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="L13" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="M13" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="M13" s="40" t="s">
-        <v>183</v>
-      </c>
       <c r="N13" s="10"/>
-      <c r="O13" s="43">
-        <v>1</v>
-      </c>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="43"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="43"/>
-      <c r="AA13" s="43"/>
-    </row>
-    <row r="14" spans="1:27" ht="90">
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="90">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2303,7 +2333,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G14" s="3">
         <v>4</v>
@@ -2315,7 +2345,7 @@
         <v>480</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>43</v>
@@ -2323,27 +2353,15 @@
       <c r="L14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="40" t="s">
+      <c r="M14" s="39" t="s">
         <v>23</v>
       </c>
       <c r="N14" s="10"/>
-      <c r="O14" s="43">
-        <v>1</v>
-      </c>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="43"/>
-      <c r="X14" s="43"/>
-      <c r="Y14" s="43"/>
-      <c r="Z14" s="43"/>
-      <c r="AA14" s="43"/>
-    </row>
-    <row r="15" spans="1:27" ht="210">
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="210">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2380,27 +2398,15 @@
       <c r="L15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="39" t="s">
+      <c r="M15" s="38" t="s">
         <v>41</v>
       </c>
       <c r="N15" s="9"/>
-      <c r="O15" s="43">
-        <v>1</v>
-      </c>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="43"/>
-      <c r="X15" s="43"/>
-      <c r="Y15" s="43"/>
-      <c r="Z15" s="43"/>
-      <c r="AA15" s="43"/>
-    </row>
-    <row r="16" spans="1:27" ht="150">
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="150">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2429,7 +2435,7 @@
         <v>28</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>38</v>
@@ -2437,44 +2443,32 @@
       <c r="L16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M16" s="40" t="s">
-        <v>50</v>
+      <c r="M16" s="39" t="s">
+        <v>49</v>
       </c>
       <c r="N16" s="10"/>
-      <c r="O16" s="43">
-        <v>1</v>
-      </c>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="43"/>
-      <c r="X16" s="43"/>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="43"/>
-      <c r="AA16" s="43"/>
-    </row>
-    <row r="17" spans="1:27" ht="60">
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="60">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>54</v>
-      </c>
       <c r="E17" s="3">
         <v>2</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>36</v>
@@ -2486,7 +2480,7 @@
         <v>48</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>38</v>
@@ -2494,44 +2488,32 @@
       <c r="L17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M17" s="39" t="s">
-        <v>56</v>
+      <c r="M17" s="38" t="s">
+        <v>55</v>
       </c>
       <c r="N17" s="9"/>
-      <c r="O17" s="43">
-        <v>1</v>
-      </c>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="43"/>
-      <c r="X17" s="43"/>
-      <c r="Y17" s="43"/>
-      <c r="Z17" s="43"/>
-      <c r="AA17" s="43"/>
-    </row>
-    <row r="18" spans="1:27" ht="150">
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="150">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="E18" s="3">
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>36</v>
@@ -2543,52 +2525,40 @@
         <v>294</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>38</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="M18" s="39" t="s">
-        <v>62</v>
+        <v>190</v>
+      </c>
+      <c r="M18" s="38" t="s">
+        <v>61</v>
       </c>
       <c r="N18" s="9"/>
-      <c r="O18" s="43">
-        <v>1</v>
-      </c>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="43"/>
-      <c r="X18" s="43"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="43"/>
-      <c r="AA18" s="43"/>
-    </row>
-    <row r="19" spans="1:27" ht="210">
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="210">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>36</v>
@@ -2600,52 +2570,40 @@
         <v>295</v>
       </c>
       <c r="J19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="K19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" s="39" t="s">
-        <v>69</v>
-      </c>
       <c r="N19" s="9"/>
-      <c r="O19" s="43">
-        <v>1</v>
-      </c>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="43"/>
-      <c r="X19" s="43"/>
-      <c r="Y19" s="43"/>
-      <c r="Z19" s="43"/>
-      <c r="AA19" s="43"/>
-    </row>
-    <row r="20" spans="1:27" ht="150">
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="150">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>36</v>
@@ -2657,7 +2615,7 @@
         <v>32</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>38</v>
@@ -2665,44 +2623,32 @@
       <c r="L20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M20" s="39" t="s">
-        <v>75</v>
+      <c r="M20" s="38" t="s">
+        <v>74</v>
       </c>
       <c r="N20" s="9"/>
-      <c r="O20" s="43">
-        <v>1</v>
-      </c>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="43"/>
-      <c r="W20" s="43"/>
-      <c r="X20" s="43"/>
-      <c r="Y20" s="43"/>
-      <c r="Z20" s="43"/>
-      <c r="AA20" s="43"/>
-    </row>
-    <row r="21" spans="1:27" ht="90">
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="90">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="D21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="E21" s="3">
         <v>2</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>36</v>
@@ -2714,52 +2660,40 @@
         <v>37</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>38</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="M21" s="39" t="s">
         <v>79</v>
       </c>
+      <c r="M21" s="38" t="s">
+        <v>78</v>
+      </c>
       <c r="N21" s="9"/>
-      <c r="O21" s="43">
-        <v>1</v>
-      </c>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="43"/>
-      <c r="X21" s="43"/>
-      <c r="Y21" s="43"/>
-      <c r="Z21" s="43"/>
-      <c r="AA21" s="43"/>
-    </row>
-    <row r="22" spans="1:27" ht="105">
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="105">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E22" s="3">
         <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>36</v>
@@ -2771,52 +2705,40 @@
         <v>1462</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L22" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M22" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="M22" s="39" t="s">
-        <v>89</v>
-      </c>
       <c r="N22" s="9"/>
-      <c r="O22" s="43">
-        <v>1</v>
-      </c>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="43"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="43"/>
-      <c r="X22" s="43"/>
-      <c r="Y22" s="43"/>
-      <c r="Z22" s="43"/>
-      <c r="AA22" s="43"/>
-    </row>
-    <row r="23" spans="1:27" ht="255">
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="255">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="D23" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>194</v>
-      </c>
       <c r="E23" s="3">
         <v>2</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>36</v>
@@ -2828,7 +2750,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>38</v>
@@ -2836,44 +2758,32 @@
       <c r="L23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M23" s="40" t="s">
-        <v>196</v>
+      <c r="M23" s="39" t="s">
+        <v>195</v>
       </c>
       <c r="N23" s="10"/>
-      <c r="O23" s="43">
-        <v>1</v>
-      </c>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="43"/>
-      <c r="V23" s="43"/>
-      <c r="W23" s="43"/>
-      <c r="X23" s="43"/>
-      <c r="Y23" s="43"/>
-      <c r="Z23" s="43"/>
-      <c r="AA23" s="43"/>
-    </row>
-    <row r="24" spans="1:27" ht="90">
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="90">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="D24" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E24" s="2">
-        <v>2</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>36</v>
@@ -2885,7 +2795,7 @@
         <v>92</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K24" s="14" t="s">
         <v>9</v>
@@ -2893,44 +2803,32 @@
       <c r="L24" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M24" s="41" t="s">
-        <v>95</v>
+      <c r="M24" s="40" t="s">
+        <v>94</v>
       </c>
       <c r="N24" s="15"/>
-      <c r="O24" s="43">
-        <v>1</v>
-      </c>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="43"/>
-      <c r="W24" s="43"/>
-      <c r="X24" s="43"/>
-      <c r="Y24" s="43"/>
-      <c r="Z24" s="43"/>
-      <c r="AA24" s="43"/>
-    </row>
-    <row r="25" spans="1:27" ht="180">
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="180">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" s="2">
-        <v>2</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>36</v>
@@ -2942,52 +2840,40 @@
         <v>50</v>
       </c>
       <c r="J25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K25" s="16" t="s">
         <v>99</v>
-      </c>
-      <c r="K25" s="16" t="s">
-        <v>100</v>
       </c>
       <c r="L25" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="42" t="s">
-        <v>101</v>
+      <c r="M25" s="41" t="s">
+        <v>100</v>
       </c>
       <c r="N25" s="13"/>
-      <c r="O25" s="43">
-        <v>1</v>
-      </c>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="43"/>
-      <c r="W25" s="43"/>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="43"/>
-      <c r="Z25" s="43"/>
-      <c r="AA25" s="43"/>
-    </row>
-    <row r="26" spans="1:27" ht="195">
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="195">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="D26" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="17">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E26" s="17">
-        <v>2</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="G26" s="2">
         <v>3</v>
@@ -2999,52 +2885,40 @@
         <v>55</v>
       </c>
       <c r="J26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K26" s="18" t="s">
         <v>107</v>
-      </c>
-      <c r="K26" s="18" t="s">
-        <v>108</v>
       </c>
       <c r="L26" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M26" s="42" t="s">
-        <v>109</v>
+      <c r="M26" s="41" t="s">
+        <v>108</v>
       </c>
       <c r="N26" s="13"/>
-      <c r="O26" s="43">
-        <v>1</v>
-      </c>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
-      <c r="V26" s="43"/>
-      <c r="W26" s="43"/>
-      <c r="X26" s="43"/>
-      <c r="Y26" s="43"/>
-      <c r="Z26" s="43"/>
-      <c r="AA26" s="43"/>
-    </row>
-    <row r="27" spans="1:27" ht="195">
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="195">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="D27" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" s="2">
-        <v>2</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>36</v>
@@ -3056,52 +2930,40 @@
         <v>242</v>
       </c>
       <c r="J27" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K27" s="24" t="s">
         <v>197</v>
-      </c>
-      <c r="K27" s="24" t="s">
-        <v>198</v>
       </c>
       <c r="L27" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="M27" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="N27" s="37"/>
-      <c r="O27" s="43">
-        <v>1</v>
-      </c>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="43"/>
-      <c r="X27" s="43"/>
-      <c r="Y27" s="43"/>
-      <c r="Z27" s="43"/>
-      <c r="AA27" s="43"/>
-    </row>
-    <row r="28" spans="1:27" ht="120">
+      <c r="M27" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="N27" s="36"/>
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="120">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="D28" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E28" s="2">
-        <v>2</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>36</v>
@@ -3113,52 +2975,40 @@
         <v>101</v>
       </c>
       <c r="J28" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="K28" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="L28" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="M28" s="42" t="s">
-        <v>121</v>
-      </c>
       <c r="N28" s="13"/>
-      <c r="O28" s="43">
-        <v>1</v>
-      </c>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="43"/>
-      <c r="U28" s="43"/>
-      <c r="V28" s="43"/>
-      <c r="W28" s="43"/>
-      <c r="X28" s="43"/>
-      <c r="Y28" s="43"/>
-      <c r="Z28" s="43"/>
-      <c r="AA28" s="43"/>
-    </row>
-    <row r="29" spans="1:27" ht="165">
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="165">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>124</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E29" s="2">
         <v>2</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>36</v>
@@ -3170,52 +3020,40 @@
         <v>120</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L29" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="42" t="s">
-        <v>126</v>
+      <c r="M29" s="41" t="s">
+        <v>125</v>
       </c>
       <c r="N29" s="13"/>
-      <c r="O29" s="43">
-        <v>1</v>
-      </c>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="43"/>
-      <c r="X29" s="43"/>
-      <c r="Y29" s="43"/>
-      <c r="Z29" s="43"/>
-      <c r="AA29" s="43"/>
-    </row>
-    <row r="30" spans="1:27" ht="225">
+      <c r="O29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="225">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="D30" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E30" s="2">
         <v>2</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>36</v>
@@ -3227,52 +3065,40 @@
         <v>51</v>
       </c>
       <c r="J30" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="L30" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="K30" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="L30" s="21" t="s">
+      <c r="M30" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="M30" s="42" t="s">
-        <v>133</v>
-      </c>
       <c r="N30" s="13"/>
-      <c r="O30" s="43">
-        <v>1</v>
-      </c>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="43"/>
-      <c r="W30" s="43"/>
-      <c r="X30" s="43"/>
-      <c r="Y30" s="43"/>
-      <c r="Z30" s="43"/>
-      <c r="AA30" s="43"/>
-    </row>
-    <row r="31" spans="1:27" ht="180">
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="180">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="D31" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="E31" s="2">
         <v>3</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>36</v>
@@ -3283,77 +3109,65 @@
       <c r="I31" s="2">
         <v>75</v>
       </c>
-      <c r="J31" s="35" t="s">
+      <c r="J31" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="K31" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="L31" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="K31" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="L31" s="31" t="s">
+      <c r="M31" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="M31" s="42" t="s">
-        <v>140</v>
-      </c>
       <c r="N31" s="13"/>
-      <c r="O31" s="43">
-        <v>1</v>
-      </c>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="43"/>
-      <c r="V31" s="43"/>
-      <c r="W31" s="43"/>
-      <c r="X31" s="43"/>
-      <c r="Y31" s="43"/>
-      <c r="Z31" s="43"/>
-      <c r="AA31" s="43"/>
-    </row>
-    <row r="32" spans="1:27" ht="195">
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="195">
       <c r="A32" s="17">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
+      <c r="F32" s="33" t="s">
         <v>213</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="E32" s="2">
-        <v>2</v>
-      </c>
-      <c r="F32" s="34" t="s">
-        <v>214</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H32" s="34" t="s">
+      <c r="H32" s="33" t="s">
         <v>10</v>
       </c>
       <c r="I32" s="17">
         <v>757</v>
       </c>
-      <c r="J32" s="35" t="s">
+      <c r="J32" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="K32" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="M32" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="K32" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="L32" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="M32" s="45" t="s">
-        <v>216</v>
-      </c>
       <c r="N32" s="27"/>
-      <c r="O32" s="50">
+      <c r="O32">
         <v>1</v>
       </c>
     </row>
@@ -3361,44 +3175,44 @@
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="C33" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="D33" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="E33" s="44">
+        <v>3</v>
+      </c>
+      <c r="F33" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="E33" s="46">
-        <v>3</v>
-      </c>
-      <c r="F33" s="46" t="s">
+      <c r="G33" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="G33" s="47" t="s">
+      <c r="H33" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="44">
+        <v>311</v>
+      </c>
+      <c r="J33" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="H33" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I33" s="46">
-        <v>311</v>
-      </c>
-      <c r="J33" s="46" t="s">
+      <c r="K33" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="K33" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="L33" s="48" t="s">
+      <c r="M33" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="M33" s="48" t="s">
-        <v>224</v>
-      </c>
       <c r="N33" s="28"/>
-      <c r="O33" s="50">
+      <c r="O33">
         <v>1</v>
       </c>
     </row>
@@ -3407,41 +3221,41 @@
         <v>33</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D34" s="32" t="s">
-        <v>229</v>
-      </c>
       <c r="E34" s="30">
         <v>2</v>
       </c>
-      <c r="F34" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="G34" s="35" t="s">
+      <c r="F34" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="G34" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="H34" s="34" t="s">
+      <c r="H34" s="33" t="s">
         <v>22</v>
       </c>
       <c r="I34" s="17">
         <v>154</v>
       </c>
-      <c r="J34" s="49" t="s">
+      <c r="J34" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="K34" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="L34" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="M34" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="K34" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="L34" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="M34" s="45" t="s">
-        <v>227</v>
-      </c>
       <c r="N34" s="28"/>
-      <c r="O34" s="50">
+      <c r="O34">
         <v>1</v>
       </c>
     </row>
@@ -3449,44 +3263,44 @@
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="C35" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="D35" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D35" s="32" t="s">
-        <v>232</v>
-      </c>
       <c r="E35" s="30">
         <v>2</v>
       </c>
-      <c r="F35" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="G35" s="35" t="s">
+      <c r="F35" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="G35" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="H35" s="34" t="s">
+      <c r="H35" s="33" t="s">
         <v>22</v>
       </c>
       <c r="I35" s="17">
         <v>4556</v>
       </c>
-      <c r="J35" s="35" t="s">
+      <c r="J35" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="K35" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="L35" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="M35" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="K35" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="L35" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="M35" s="45" t="s">
-        <v>234</v>
-      </c>
       <c r="N35" s="28"/>
-      <c r="O35" s="50">
+      <c r="O35">
         <v>1</v>
       </c>
     </row>
@@ -3494,187 +3308,402 @@
       <c r="A36" s="17">
         <v>35</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="C36" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="D36" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="D36" s="35" t="s">
-        <v>237</v>
-      </c>
       <c r="E36" s="30">
         <v>2</v>
       </c>
-      <c r="F36" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="G36" s="35" t="s">
+      <c r="F36" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="G36" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="H36" s="34" t="s">
+      <c r="H36" s="33" t="s">
         <v>22</v>
       </c>
       <c r="I36" s="17">
         <v>91</v>
       </c>
-      <c r="J36" s="35" t="s">
+      <c r="J36" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="K36" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="M36" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="K36" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="L36" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="M36" s="45" t="s">
-        <v>239</v>
-      </c>
       <c r="N36" s="28"/>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="O36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="180">
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="42"/>
+      <c r="B37" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D37" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="E37" s="30">
+        <v>3</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="17">
+        <v>114</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K37" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="L37" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="M37" s="41" t="s">
+        <v>245</v>
+      </c>
       <c r="N37" s="28"/>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="O37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="120">
       <c r="A38" s="17">
         <v>37</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="42"/>
+      <c r="B38" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E38" s="30">
+        <v>2</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="17">
+        <v>4</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="17">
+        <v>602</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="K38" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="L38" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="M38" s="41" t="s">
+        <v>262</v>
+      </c>
       <c r="N38" s="28"/>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="O38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="120">
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="42"/>
+      <c r="B39" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E39" s="30">
+        <v>4</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="17">
+        <v>2139</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K39" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="L39" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="M39" s="41" t="s">
+        <v>253</v>
+      </c>
       <c r="N39" s="28"/>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="O39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="105">
       <c r="A40" s="17">
         <v>39</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="42"/>
+      <c r="B40" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E40" s="30">
+        <v>2</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="17">
+        <v>470</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="K40" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="L40" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="M40" s="41" t="s">
+        <v>259</v>
+      </c>
       <c r="N40" s="28"/>
-    </row>
-    <row r="41" spans="1:15">
+      <c r="O40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="300">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="42"/>
+      <c r="C41" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E41" s="30">
+        <v>2</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="17">
+        <v>99</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="K41" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="L41" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M41" s="41" t="s">
+        <v>267</v>
+      </c>
       <c r="N41" s="28"/>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="O41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="195">
       <c r="A42" s="17">
         <v>41</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="42"/>
+      <c r="B42" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>271</v>
+      </c>
+      <c r="E42" s="30">
+        <v>2</v>
+      </c>
+      <c r="F42" s="50" t="s">
+        <v>268</v>
+      </c>
+      <c r="G42" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" s="17">
+        <v>235</v>
+      </c>
+      <c r="J42" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="K42" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="L42" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="M42" s="53" t="s">
+        <v>273</v>
+      </c>
       <c r="N42" s="28"/>
-    </row>
-    <row r="43" spans="1:15">
+      <c r="O42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="210">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="2"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="42"/>
+      <c r="C43" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="D43" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="E43" s="30">
+        <v>2</v>
+      </c>
+      <c r="F43" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="G43" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="H43" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="17">
+        <v>103</v>
+      </c>
+      <c r="J43" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="K43" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="L43" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="M43" s="53" t="s">
+        <v>277</v>
+      </c>
       <c r="N43" s="28"/>
-    </row>
-    <row r="44" spans="1:15">
+      <c r="O43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="165">
       <c r="A44" s="17">
         <v>43</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="42"/>
+      <c r="B44" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>280</v>
+      </c>
+      <c r="D44" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="E44" s="30">
+        <v>2</v>
+      </c>
+      <c r="F44" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="G44" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="H44" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="17">
+        <v>823</v>
+      </c>
+      <c r="J44" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="K44" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="L44" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="M44" s="53" t="s">
+        <v>283</v>
+      </c>
       <c r="N44" s="28"/>
+      <c r="O44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="2">
@@ -3689,9 +3718,9 @@
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
       <c r="J45" s="2"/>
-      <c r="K45" s="35"/>
+      <c r="K45" s="34"/>
       <c r="L45" s="31"/>
-      <c r="M45" s="42"/>
+      <c r="M45" s="41"/>
       <c r="N45" s="28"/>
     </row>
     <row r="46" spans="1:15">
@@ -3707,9 +3736,9 @@
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
       <c r="J46" s="2"/>
-      <c r="K46" s="35"/>
+      <c r="K46" s="34"/>
       <c r="L46" s="31"/>
-      <c r="M46" s="42"/>
+      <c r="M46" s="41"/>
       <c r="N46" s="28"/>
     </row>
     <row r="47" spans="1:15">
@@ -3725,9 +3754,9 @@
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
       <c r="J47" s="2"/>
-      <c r="K47" s="35"/>
+      <c r="K47" s="34"/>
       <c r="L47" s="31"/>
-      <c r="M47" s="42"/>
+      <c r="M47" s="41"/>
       <c r="N47" s="28"/>
     </row>
     <row r="48" spans="1:15">
@@ -3743,9 +3772,9 @@
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
       <c r="J48" s="2"/>
-      <c r="K48" s="35"/>
+      <c r="K48" s="34"/>
       <c r="L48" s="31"/>
-      <c r="M48" s="42"/>
+      <c r="M48" s="41"/>
       <c r="N48" s="28"/>
     </row>
     <row r="49" spans="1:14">
@@ -3761,9 +3790,9 @@
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
       <c r="J49" s="2"/>
-      <c r="K49" s="35"/>
+      <c r="K49" s="34"/>
       <c r="L49" s="31"/>
-      <c r="M49" s="42"/>
+      <c r="M49" s="41"/>
       <c r="N49" s="28"/>
     </row>
     <row r="50" spans="1:14">
@@ -3779,9 +3808,9 @@
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
       <c r="J50" s="2"/>
-      <c r="K50" s="35"/>
+      <c r="K50" s="34"/>
       <c r="L50" s="31"/>
-      <c r="M50" s="42"/>
+      <c r="M50" s="41"/>
       <c r="N50" s="28"/>
     </row>
     <row r="51" spans="1:14">
@@ -3797,9 +3826,9 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="35"/>
+      <c r="K51" s="34"/>
       <c r="L51" s="31"/>
-      <c r="M51" s="42"/>
+      <c r="M51" s="41"/>
       <c r="N51" s="28"/>
     </row>
   </sheetData>

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB972D9-A527-46DE-952F-C274A8CDC978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8844C377-6C64-478E-A21B-50D444A4AD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="297">
   <si>
     <t>NCT02491333</t>
   </si>
@@ -1086,17 +1086,98 @@
 Competing-risks: live birth vs spontaneous abortion/stillbirth
 Secondary: t-tests (birth weight), Fisher’s exact or chi-square (proportions), Wilcoxon signed-rank (Apgar), linear mixed models for periodontal measures </t>
   </si>
+  <si>
+    <t xml:space="preserve">Conventional </t>
+  </si>
+  <si>
+    <t>Influence of needle-insertion depth on epidural
+spread and clinical outcomes in caudal epidural
+injections: a randomized clinical trial</t>
+  </si>
+  <si>
+    <t>NCT03057197</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Success rate of epidural spread </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>without</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> intravascular uptake (binary per patient)</t>
+    </r>
+  </si>
+  <si>
+    <t>Primary outcome: Chi-square test
+Continuous outcomes (pain scores): Student’s t-test
+Ordinal outcome (PGIC): Mann–Whitney U test
+Normality check: Shapiro–Wilk test</t>
+  </si>
+  <si>
+    <t>10.2147/JPR.S182227</t>
+  </si>
+  <si>
+    <t>NCT04178824</t>
+  </si>
+  <si>
+    <t>0% Discount</t>
+  </si>
+  <si>
+    <t>Impact of a randomized controlled trial of
+discounts on fruits, vegetables, and
+noncaloric beverages in NYC supermarkets on
+food intake and health risk factors</t>
+  </si>
+  <si>
+    <t>10.5061/dryad.np5hqbzz9</t>
+  </si>
+  <si>
+    <t>Change in grams per day of:
+Fruit intake
+Vegetable intake
+Non‐caloric beverage intake (diet soda, bottled water, seltzer)</t>
+  </si>
+  <si>
+    <t>30%: Yes
+15%: No</t>
+  </si>
+  <si>
+    <t>Multiple linear regression of mid‐intervention values on group, adjusting for baseline and COVID-19 covariate; two‐tailed P&lt;0.05 for significance; Cohen’s f² for effect sizes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1263,168 +1344,168 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1705,10 +1786,10 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O43" sqref="O43"/>
+      <selection pane="bottomRight" activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3359,7 +3440,7 @@
       <c r="C37" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="D37" s="48" t="s">
+      <c r="D37" s="12" t="s">
         <v>241</v>
       </c>
       <c r="E37" s="30">
@@ -3380,7 +3461,7 @@
       <c r="J37" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="K37" s="49" t="s">
+      <c r="K37" s="48" t="s">
         <v>38</v>
       </c>
       <c r="L37" s="31" t="s">
@@ -3425,7 +3506,7 @@
       <c r="J38" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="K38" s="49" t="s">
+      <c r="K38" s="48" t="s">
         <v>99</v>
       </c>
       <c r="L38" s="31" t="s">
@@ -3470,7 +3551,7 @@
       <c r="J39" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="K39" s="49" t="s">
+      <c r="K39" s="48" t="s">
         <v>9</v>
       </c>
       <c r="L39" s="31" t="s">
@@ -3515,7 +3596,7 @@
       <c r="J40" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="K40" s="49" t="s">
+      <c r="K40" s="48" t="s">
         <v>9</v>
       </c>
       <c r="L40" s="31" t="s">
@@ -3558,7 +3639,7 @@
       <c r="J41" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="K41" s="49" t="s">
+      <c r="K41" s="48" t="s">
         <v>9</v>
       </c>
       <c r="L41" s="31" t="s">
@@ -3576,40 +3657,40 @@
       <c r="A42" s="17">
         <v>41</v>
       </c>
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="50" t="s">
         <v>270</v>
       </c>
-      <c r="D42" s="49" t="s">
+      <c r="D42" s="48" t="s">
         <v>271</v>
       </c>
       <c r="E42" s="30">
         <v>2</v>
       </c>
-      <c r="F42" s="50" t="s">
+      <c r="F42" s="49" t="s">
         <v>268</v>
       </c>
-      <c r="G42" s="49" t="s">
+      <c r="G42" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="H42" s="50" t="s">
+      <c r="H42" s="49" t="s">
         <v>22</v>
       </c>
       <c r="I42" s="17">
         <v>235</v>
       </c>
-      <c r="J42" s="49" t="s">
+      <c r="J42" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="K42" s="49" t="s">
+      <c r="K42" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="L42" s="52" t="s">
+      <c r="L42" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="M42" s="53" t="s">
+      <c r="M42" s="52" t="s">
         <v>273</v>
       </c>
       <c r="N42" s="28"/>
@@ -3622,37 +3703,37 @@
         <v>42</v>
       </c>
       <c r="B43" s="2"/>
-      <c r="C43" s="51" t="s">
+      <c r="C43" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="D43" s="49" t="s">
+      <c r="D43" s="48" t="s">
         <v>275</v>
       </c>
       <c r="E43" s="30">
         <v>2</v>
       </c>
-      <c r="F43" s="50" t="s">
+      <c r="F43" s="49" t="s">
         <v>278</v>
       </c>
-      <c r="G43" s="49" t="s">
+      <c r="G43" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="H43" s="50" t="s">
+      <c r="H43" s="49" t="s">
         <v>22</v>
       </c>
       <c r="I43" s="17">
         <v>103</v>
       </c>
-      <c r="J43" s="49" t="s">
+      <c r="J43" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="K43" s="49" t="s">
+      <c r="K43" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="L43" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="M43" s="53" t="s">
+      <c r="L43" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="M43" s="52" t="s">
         <v>277</v>
       </c>
       <c r="N43" s="28"/>
@@ -3664,40 +3745,40 @@
       <c r="A44" s="17">
         <v>43</v>
       </c>
-      <c r="B44" s="49" t="s">
+      <c r="B44" s="48" t="s">
         <v>279</v>
       </c>
-      <c r="C44" s="51" t="s">
+      <c r="C44" s="50" t="s">
         <v>280</v>
       </c>
-      <c r="D44" s="49" t="s">
+      <c r="D44" s="48" t="s">
         <v>281</v>
       </c>
       <c r="E44" s="30">
         <v>2</v>
       </c>
-      <c r="F44" s="50" t="s">
+      <c r="F44" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="G44" s="49" t="s">
+      <c r="G44" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="H44" s="50" t="s">
+      <c r="H44" s="49" t="s">
         <v>22</v>
       </c>
       <c r="I44" s="17">
         <v>823</v>
       </c>
-      <c r="J44" s="49" t="s">
+      <c r="J44" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="K44" s="49" t="s">
+      <c r="K44" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="L44" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="M44" s="53" t="s">
+      <c r="L44" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="M44" s="52" t="s">
         <v>283</v>
       </c>
       <c r="N44" s="28"/>
@@ -3705,41 +3786,95 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" ht="135">
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="41"/>
+      <c r="B45" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E45" s="30">
+        <v>2</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="17">
+        <v>127</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="K45" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="L45" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="M45" s="41" t="s">
+        <v>288</v>
+      </c>
       <c r="N45" s="28"/>
-    </row>
-    <row r="46" spans="1:15">
+      <c r="O45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="135">
       <c r="A46" s="17">
         <v>45</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="41"/>
+      <c r="B46" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E46" s="30">
+        <v>3</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" s="17">
+        <v>64</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="K46" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="L46" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="M46" s="41" t="s">
+        <v>296</v>
+      </c>
       <c r="N46" s="28"/>
+      <c r="O46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="2">

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8844C377-6C64-478E-A21B-50D444A4AD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB2B905-CD27-4196-8DCA-89F92A74A4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="307">
   <si>
     <t>NCT02491333</t>
   </si>
@@ -1145,9 +1145,6 @@
 food intake and health risk factors</t>
   </si>
   <si>
-    <t>10.5061/dryad.np5hqbzz9</t>
-  </si>
-  <si>
     <t>Change in grams per day of:
 Fruit intake
 Vegetable intake
@@ -1159,18 +1156,72 @@
   </si>
   <si>
     <t>Multiple linear regression of mid‐intervention values on group, adjusting for baseline and COVID-19 covariate; two‐tailed P&lt;0.05 for significance; Cohen’s f² for effect sizes</t>
+  </si>
+  <si>
+    <t>Evaluating the effectiveness of a structured,
+simulator-assisted, peer-led training on cardiovascular
+physical examination in third-year medical students: a
+prospective, randomized, controlled trial</t>
+  </si>
+  <si>
+    <t>10.3205/zma001504</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0291770</t>
+  </si>
+  <si>
+    <t>Total score (0–25) on a standardized cardiovascular-PE checklist</t>
+  </si>
+  <si>
+    <t>Normality check: Shapiro–Wilk
+Group comparisons: Independent t-test (for normal data) or Mann–Whitney U (non-normal), with Bonferroni correction for subdomains; Fisher’s exact for nominal
+Correlations: Spearman’s rs
+Adjusted analysis: Hierarchical multiple linear regression of total score on prespecified covariates, then group assignment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIV </t>
+  </si>
+  <si>
+    <t>Comparison between high-flow
+nasal cannula (HFNC) therapy
+and noninvasive ventilation (NIV) in children
+with acute respiratory failure by bronchiolitis:
+a randomized controlled trial</t>
+  </si>
+  <si>
+    <t>U1111-1262-1740</t>
+  </si>
+  <si>
+    <t>https://bmcpediatr.biomedcentral.com/articles/10.1186/s12887-024-05058-6</t>
+  </si>
+  <si>
+    <t>Requirement for invasive mechanical ventilation</t>
+  </si>
+  <si>
+    <t>Primary outcome: Farrington-Manning test for noninferiority 47
+Group comparisons: Wilcoxon/Mann–Whitney test; chi-square test 47
+Time-to-event (intubation): Log-rank test 47
+Repeated measures: Friedman test with Wilcoxon paired post-hoc (Bonferroni correction) 47
+Effect size: Cohen’s d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1344,167 +1395,173 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1786,10 +1843,10 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M57" sqref="M57"/>
+      <selection pane="bottomRight" activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3842,7 +3899,7 @@
         <v>292</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="E46" s="30">
         <v>3</v>
@@ -3860,57 +3917,109 @@
         <v>64</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K46" s="53" t="s">
         <v>38</v>
       </c>
       <c r="L46" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="M46" s="41" t="s">
         <v>295</v>
-      </c>
-      <c r="M46" s="41" t="s">
-        <v>296</v>
       </c>
       <c r="N46" s="28"/>
       <c r="O46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" ht="210">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="41"/>
+      <c r="C47" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E47" s="30">
+        <v>2</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H47" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" s="17">
+        <v>70</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="K47" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="L47" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="M47" s="41" t="s">
+        <v>300</v>
+      </c>
       <c r="N47" s="28"/>
-    </row>
-    <row r="48" spans="1:15">
+      <c r="O47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="225">
       <c r="A48" s="17">
         <v>47</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="41"/>
+      <c r="B48" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D48" s="55" t="s">
+        <v>304</v>
+      </c>
+      <c r="E48" s="30">
+        <v>2</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I48" s="17">
+        <v>252</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="K48" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="L48" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="M48" s="41" t="s">
+        <v>306</v>
+      </c>
       <c r="N48" s="28"/>
+      <c r="O48">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2">

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB2B905-CD27-4196-8DCA-89F92A74A4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12D51DE-1C8F-4255-AF37-E6B0FCB6573B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="321">
   <si>
     <t>NCT02491333</t>
   </si>
@@ -1204,17 +1204,83 @@
 Repeated measures: Friedman test with Wilcoxon paired post-hoc (Bonferroni correction) 47
 Effect size: Cohen’s d</t>
   </si>
+  <si>
+    <t>executive-function composite (working memory, inhibition, cognitive flexibility) and academic achievement (Woodcock–Johnson Applied Problems &amp; Letter-Word scores) at end of kindergarten</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Closing the Achievement Gap through Modification of
+Neurocognitive and Neuroendocrine Function: Results
+from a Cluster Randomized Controlled Trial of an
+Innovative Approach to the Education of Children in
+Kindergarten</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0112393</t>
+  </si>
+  <si>
+    <t>Multilevel linear models with children nested in schools (clusters), bootstrapped clustered SEs (B=1000); three-level models (observations within children within schools) for repeated measures; treatment effect tested with baseline adjustment and interactions with school-poverty</t>
+  </si>
+  <si>
+    <t>NCT03025815</t>
+  </si>
+  <si>
+    <t>Impact of a pre-feeding oral stimulation
+program on first feed attempt in preterm
+infants: Double-blind controlled clinical trial</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0237915</t>
+  </si>
+  <si>
+    <t>Oral Feeding Skills (OFS) level at first oral feeding, which includes:
+Proficiency (PRO, % volume taken in first 5 minutes)
+Rate of Transfer (RT, mL/min)</t>
+  </si>
+  <si>
+    <t>Fisher’s exact test, Student’s t-test, Mann–Whitney U test
+Logistic regression (OFS level 4 vs. lower levels)
+Generalized estimating equations (GEE) for volume intake trends
+Cox proportional hazards model for time to full oral feeding</t>
+  </si>
+  <si>
+    <t>Assessment</t>
+  </si>
+  <si>
+    <t>Comparison of a newly established
+emotional stimulus approach to a
+classical assessment-driven approach in
+BLS training: a randomised
+controlled trial</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1136/bmjopen-2017-017705</t>
+  </si>
+  <si>
+    <t>Chest-compression quality: mean compression depth (CD, mm) and compression rate (CR, min⁻¹).</t>
+  </si>
+  <si>
+    <t>Univariate ANOVA (baseline)
+Repeated-measures ANOVA (group × time × prior knowledge)
+Chi-square tests for categorical variables</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1395,174 +1461,168 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1843,429 +1903,430 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N60" sqref="N60"/>
+      <selection pane="bottomRight" activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="52" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="27" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" customWidth="1"/>
-    <col min="11" max="11" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.42578125" style="11" customWidth="1"/>
-    <col min="13" max="14" width="38.7109375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="27" customWidth="1"/>
+    <col min="11" max="11" width="38.5703125" style="53" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="44.42578125" style="51" customWidth="1"/>
+    <col min="13" max="13" width="38.7109375" style="52" customWidth="1"/>
+    <col min="14" max="14" width="38.7109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="75">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>3</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2">
         <v>342</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="M2" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="N2" s="9"/>
+      <c r="N2" s="8"/>
       <c r="O2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="105">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>3</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2">
         <v>400</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="39" t="s">
+      <c r="M3" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="N3" s="10"/>
+      <c r="N3" s="9"/>
       <c r="O3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="195">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="3">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="H4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2">
         <v>6030</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="L4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="39" t="s">
+      <c r="L4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="N4" s="10"/>
+      <c r="N4" s="9"/>
       <c r="O4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="135">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3">
-        <v>2</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G5" s="3">
-        <v>2</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2">
         <v>75</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="39" t="s">
+      <c r="L5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="N5" s="10"/>
+      <c r="N5" s="9"/>
       <c r="O5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="210">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E6" s="3">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="H6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="2">
         <v>5060</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="39" t="s">
+      <c r="L6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="N6" s="10"/>
+      <c r="N6" s="9"/>
       <c r="O6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="120">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="3">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>4</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="H7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="2">
         <v>463</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="39" t="s">
+      <c r="L7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="N7" s="10"/>
+      <c r="N7" s="9"/>
       <c r="O7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="135">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="E8" s="3">
-        <v>2</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="H8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="2">
         <v>38</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="M8" s="39" t="s">
+      <c r="M8" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="N8" s="10"/>
+      <c r="N8" s="9"/>
       <c r="O8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="90">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E9" s="3">
-        <v>2</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="H9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="2">
         <v>115</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="L9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="39" t="s">
+      <c r="L9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="N9" s="9" t="s">
         <v>199</v>
       </c>
       <c r="O9">
@@ -2273,46 +2334,46 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="120">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E10" s="3">
-        <v>2</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="2">
         <v>577</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="L10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="39" t="s">
+      <c r="L10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="9" t="s">
         <v>200</v>
       </c>
       <c r="O10">
@@ -2320,1760 +2381,1834 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="285">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E11" s="3">
-        <v>2</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="H11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="2">
         <v>256</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="L11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="38" t="s">
+      <c r="L11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="N11" s="9"/>
+      <c r="N11" s="8"/>
       <c r="O11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="150">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="3">
-        <v>2</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G12" s="3">
-        <v>2</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="2">
         <v>44</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="M12" s="38" t="s">
+      <c r="M12" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="9"/>
+      <c r="N12" s="8"/>
       <c r="O12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="120">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="E13" s="3">
-        <v>2</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>30</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="M13" s="39" t="s">
+      <c r="M13" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="N13" s="10"/>
+      <c r="N13" s="9"/>
       <c r="O13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="90">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="3">
-        <v>2</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>4</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="2">
         <v>480</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="39" t="s">
+      <c r="L14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="10"/>
+      <c r="N14" s="9"/>
       <c r="O14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="210">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="3">
-        <v>2</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="H15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="2">
         <v>119</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="38" t="s">
+      <c r="M15" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="N15" s="9"/>
+      <c r="N15" s="8"/>
       <c r="O15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="150">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="3">
-        <v>2</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="3">
+      <c r="H16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="2">
         <v>28</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="L16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M16" s="39" t="s">
+      <c r="M16" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="N16" s="10"/>
+      <c r="N16" s="9"/>
       <c r="O16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="60">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="3">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="E17" s="2">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="H17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="2">
         <v>48</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="L17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M17" s="38" t="s">
+      <c r="M17" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="N17" s="9"/>
+      <c r="N17" s="8"/>
       <c r="O17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="150">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>4</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="2">
         <v>294</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="L18" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="M18" s="38" t="s">
+      <c r="M18" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="N18" s="9"/>
+      <c r="N18" s="8"/>
       <c r="O18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="210">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="3">
-        <v>2</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="3">
+      <c r="H19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="2">
         <v>295</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L19" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" s="38" t="s">
+      <c r="L19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="N19" s="9"/>
+      <c r="N19" s="8"/>
       <c r="O19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="150">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="3">
-        <v>2</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="2">
         <v>32</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L20" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" s="38" t="s">
+      <c r="L20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="N20" s="9"/>
+      <c r="N20" s="8"/>
       <c r="O20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="90">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="3">
-        <v>2</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="2">
         <v>37</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L21" s="9" t="s">
+      <c r="L21" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="M21" s="38" t="s">
+      <c r="M21" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="N21" s="9"/>
+      <c r="N21" s="8"/>
       <c r="O21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="105">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>3</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="2">
         <v>1462</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="9" t="s">
+      <c r="L22" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="M22" s="38" t="s">
+      <c r="M22" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="N22" s="9"/>
+      <c r="N22" s="8"/>
       <c r="O22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="255">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="E23" s="3">
-        <v>2</v>
-      </c>
-      <c r="F23" s="4" t="s">
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <v>20</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L23" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M23" s="39" t="s">
+      <c r="L23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="N23" s="10"/>
+      <c r="N23" s="9"/>
       <c r="O23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="90">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="2">
-        <v>2</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" s="2">
+      <c r="H24" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="1">
         <v>92</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K24" s="14" t="s">
+      <c r="K24" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L24" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="40" t="s">
+      <c r="L24" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="N24" s="15"/>
+      <c r="N24" s="14"/>
       <c r="O24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="180">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="2">
-        <v>2</v>
-      </c>
-      <c r="F25" s="2" t="s">
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H25" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="2">
+      <c r="H25" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="1">
         <v>50</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K25" s="16" t="s">
+      <c r="K25" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="L25" s="13" t="s">
+      <c r="L25" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="41" t="s">
+      <c r="M25" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="N25" s="13"/>
+      <c r="N25" s="12"/>
       <c r="O25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="195">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="17">
-        <v>2</v>
-      </c>
-      <c r="F26" s="2" t="s">
+      <c r="E26" s="16">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="1">
         <v>3</v>
       </c>
-      <c r="H26" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="2">
+      <c r="H26" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="1">
         <v>55</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="K26" s="18" t="s">
+      <c r="K26" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="L26" s="13" t="s">
+      <c r="L26" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M26" s="41" t="s">
+      <c r="M26" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="N26" s="13"/>
+      <c r="N26" s="12"/>
       <c r="O26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="195">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="2">
-        <v>2</v>
-      </c>
-      <c r="F27" s="2" t="s">
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H27" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" s="2">
+      <c r="H27" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="1">
         <v>242</v>
       </c>
-      <c r="J27" s="23" t="s">
+      <c r="J27" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="K27" s="24" t="s">
+      <c r="K27" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="L27" s="19" t="s">
+      <c r="L27" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="M27" s="42" t="s">
+      <c r="M27" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="N27" s="36"/>
+      <c r="N27" s="31"/>
       <c r="O27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="120">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E28" s="2">
-        <v>2</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="2">
+      <c r="H28" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="1">
         <v>101</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K28" s="25" t="s">
+      <c r="K28" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="L28" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="M28" s="41" t="s">
+      <c r="L28" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="N28" s="13"/>
+      <c r="N28" s="12"/>
       <c r="O28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="165">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E29" s="2">
-        <v>2</v>
-      </c>
-      <c r="F29" s="2" t="s">
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" s="2">
+      <c r="H29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="1">
         <v>120</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K29" s="18" t="s">
+      <c r="K29" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="L29" s="13" t="s">
+      <c r="L29" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="41" t="s">
+      <c r="M29" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="N29" s="13"/>
+      <c r="N29" s="12"/>
       <c r="O29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="225">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E30" s="2">
-        <v>2</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="E30" s="1">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="1">
         <v>51</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="J30" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K30" s="18" t="s">
+      <c r="K30" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="L30" s="21" t="s">
+      <c r="L30" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="M30" s="41" t="s">
+      <c r="M30" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="N30" s="13"/>
+      <c r="N30" s="12"/>
       <c r="O30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="180">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>3</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="2">
+      <c r="H31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="1">
         <v>75</v>
       </c>
-      <c r="J31" s="34" t="s">
+      <c r="J31" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="K31" s="26" t="s">
+      <c r="K31" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="L31" s="31" t="s">
+      <c r="L31" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="M31" s="41" t="s">
+      <c r="M31" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="N31" s="13"/>
+      <c r="N31" s="12"/>
       <c r="O31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="195">
-      <c r="A32" s="17">
+      <c r="A32" s="16">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E32" s="2">
-        <v>2</v>
-      </c>
-      <c r="F32" s="33" t="s">
+      <c r="E32" s="1">
+        <v>2</v>
+      </c>
+      <c r="F32" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H32" s="33" t="s">
+      <c r="H32" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="I32" s="17">
-        <v>757</v>
-      </c>
-      <c r="J32" s="34" t="s">
+      <c r="I32" s="16">
+        <v>37</v>
+      </c>
+      <c r="J32" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="K32" s="34" t="s">
+      <c r="K32" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="L32" s="35" t="s">
+      <c r="L32" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="M32" s="43" t="s">
+      <c r="M32" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="N32" s="27"/>
+      <c r="N32" s="25"/>
       <c r="O32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="150">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C33" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E33" s="44">
+      <c r="E33" s="39">
         <v>3</v>
       </c>
-      <c r="F33" s="44" t="s">
+      <c r="F33" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="G33" s="45" t="s">
+      <c r="G33" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="H33" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="I33" s="44">
+      <c r="H33" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="39">
         <v>311</v>
       </c>
-      <c r="J33" s="44" t="s">
+      <c r="J33" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="K33" s="44" t="s">
+      <c r="K33" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="L33" s="46" t="s">
+      <c r="L33" s="41" t="s">
         <v>222</v>
       </c>
-      <c r="M33" s="46" t="s">
+      <c r="M33" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="N33" s="28"/>
+      <c r="N33" s="26"/>
       <c r="O33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="150">
-      <c r="A34" s="17">
+      <c r="A34" s="16">
         <v>33</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="32" t="s">
+      <c r="B34" s="1"/>
+      <c r="C34" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E34" s="30">
-        <v>2</v>
-      </c>
-      <c r="F34" s="33" t="s">
+      <c r="E34" s="1">
+        <v>2</v>
+      </c>
+      <c r="F34" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="G34" s="34" t="s">
+      <c r="G34" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="H34" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="I34" s="17">
+      <c r="H34" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="16">
         <v>154</v>
       </c>
-      <c r="J34" s="47" t="s">
+      <c r="J34" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="K34" s="34" t="s">
+      <c r="K34" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="L34" s="35" t="s">
+      <c r="L34" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="M34" s="43" t="s">
+      <c r="M34" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="N34" s="28"/>
+      <c r="N34" s="26"/>
       <c r="O34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="105">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E35" s="30">
-        <v>2</v>
-      </c>
-      <c r="F35" s="33" t="s">
+      <c r="E35" s="1">
+        <v>2</v>
+      </c>
+      <c r="F35" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="G35" s="34" t="s">
+      <c r="G35" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="H35" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="I35" s="17">
+      <c r="H35" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="16">
         <v>4556</v>
       </c>
-      <c r="J35" s="34" t="s">
+      <c r="J35" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="K35" s="34" t="s">
+      <c r="K35" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="L35" s="35" t="s">
+      <c r="L35" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="M35" s="43" t="s">
+      <c r="M35" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="N35" s="28"/>
+      <c r="N35" s="26"/>
       <c r="O35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="135">
-      <c r="A36" s="17">
+      <c r="A36" s="16">
         <v>35</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D36" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="E36" s="30">
-        <v>2</v>
-      </c>
-      <c r="F36" s="33" t="s">
+      <c r="E36" s="1">
+        <v>2</v>
+      </c>
+      <c r="F36" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="G36" s="34" t="s">
+      <c r="G36" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="H36" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="I36" s="17">
+      <c r="H36" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="16">
         <v>91</v>
       </c>
-      <c r="J36" s="34" t="s">
+      <c r="J36" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="K36" s="34" t="s">
+      <c r="K36" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="L36" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="M36" s="43" t="s">
+      <c r="L36" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="M36" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="N36" s="28"/>
+      <c r="N36" s="26"/>
       <c r="O36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="180">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="E37" s="30">
+      <c r="E37" s="1">
         <v>3</v>
       </c>
-      <c r="F37" s="17" t="s">
+      <c r="F37" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H37" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I37" s="17">
+      <c r="H37" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="16">
         <v>114</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="J37" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="K37" s="48" t="s">
+      <c r="K37" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="L37" s="31" t="s">
+      <c r="L37" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="M37" s="41" t="s">
+      <c r="M37" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="N37" s="28"/>
+      <c r="N37" s="26"/>
       <c r="O37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="120">
-      <c r="A38" s="17">
+      <c r="A38" s="16">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E38" s="30">
-        <v>2</v>
-      </c>
-      <c r="F38" s="17" t="s">
+      <c r="E38" s="1">
+        <v>2</v>
+      </c>
+      <c r="F38" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="16">
         <v>4</v>
       </c>
-      <c r="H38" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I38" s="17">
+      <c r="H38" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="16">
         <v>602</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J38" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="K38" s="48" t="s">
+      <c r="K38" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="L38" s="31" t="s">
+      <c r="L38" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M38" s="41" t="s">
+      <c r="M38" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="N38" s="28"/>
+      <c r="N38" s="26"/>
       <c r="O38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="120">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E39" s="30">
+      <c r="E39" s="1">
         <v>4</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="F39" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H39" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I39" s="17">
+      <c r="H39" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="16">
         <v>2139</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="J39" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="K39" s="48" t="s">
+      <c r="K39" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="L39" s="31" t="s">
+      <c r="L39" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M39" s="41" t="s">
+      <c r="M39" s="36" t="s">
         <v>253</v>
       </c>
-      <c r="N39" s="28"/>
+      <c r="N39" s="26"/>
       <c r="O39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="105">
-      <c r="A40" s="17">
+      <c r="A40" s="16">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E40" s="30">
-        <v>2</v>
-      </c>
-      <c r="F40" s="17" t="s">
+      <c r="E40" s="1">
+        <v>2</v>
+      </c>
+      <c r="F40" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H40" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I40" s="17">
+      <c r="H40" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="16">
         <v>470</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="J40" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="K40" s="48" t="s">
+      <c r="K40" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="L40" s="31" t="s">
+      <c r="L40" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M40" s="41" t="s">
+      <c r="M40" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="N40" s="28"/>
+      <c r="N40" s="26"/>
       <c r="O40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="300">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="13" t="s">
+      <c r="B41" s="1"/>
+      <c r="C41" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E41" s="30">
-        <v>2</v>
-      </c>
-      <c r="F41" s="17" t="s">
+      <c r="E41" s="1">
+        <v>2</v>
+      </c>
+      <c r="F41" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H41" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I41" s="17">
+      <c r="H41" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="16">
         <v>99</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="J41" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="K41" s="48" t="s">
+      <c r="K41" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="L41" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="M41" s="41" t="s">
+      <c r="L41" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M41" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="N41" s="28"/>
+      <c r="N41" s="26"/>
       <c r="O41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="195">
-      <c r="A42" s="17">
+      <c r="A42" s="16">
         <v>41</v>
       </c>
-      <c r="B42" s="48" t="s">
+      <c r="B42" s="43" t="s">
         <v>269</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="45" t="s">
         <v>270</v>
       </c>
-      <c r="D42" s="48" t="s">
+      <c r="D42" s="43" t="s">
         <v>271</v>
       </c>
-      <c r="E42" s="30">
-        <v>2</v>
-      </c>
-      <c r="F42" s="49" t="s">
+      <c r="E42" s="1">
+        <v>2</v>
+      </c>
+      <c r="F42" s="44" t="s">
         <v>268</v>
       </c>
-      <c r="G42" s="48" t="s">
+      <c r="G42" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="H42" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="I42" s="17">
+      <c r="H42" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" s="16">
         <v>235</v>
       </c>
-      <c r="J42" s="48" t="s">
+      <c r="J42" s="43" t="s">
         <v>272</v>
       </c>
-      <c r="K42" s="48" t="s">
+      <c r="K42" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="L42" s="51" t="s">
+      <c r="L42" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="M42" s="52" t="s">
+      <c r="M42" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="N42" s="28"/>
+      <c r="N42" s="26"/>
       <c r="O42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="210">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="50" t="s">
+      <c r="B43" s="1"/>
+      <c r="C43" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="D43" s="48" t="s">
+      <c r="D43" s="43" t="s">
         <v>275</v>
       </c>
-      <c r="E43" s="30">
-        <v>2</v>
-      </c>
-      <c r="F43" s="49" t="s">
+      <c r="E43" s="1">
+        <v>2</v>
+      </c>
+      <c r="F43" s="44" t="s">
         <v>278</v>
       </c>
-      <c r="G43" s="48" t="s">
+      <c r="G43" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="H43" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="I43" s="17">
+      <c r="H43" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="16">
         <v>103</v>
       </c>
-      <c r="J43" s="48" t="s">
+      <c r="J43" s="43" t="s">
         <v>276</v>
       </c>
-      <c r="K43" s="48" t="s">
+      <c r="K43" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="L43" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="M43" s="52" t="s">
+      <c r="L43" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="M43" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="N43" s="28"/>
+      <c r="N43" s="26"/>
       <c r="O43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="165">
-      <c r="A44" s="17">
+      <c r="A44" s="16">
         <v>43</v>
       </c>
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="C44" s="50" t="s">
+      <c r="C44" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="D44" s="48" t="s">
+      <c r="D44" s="43" t="s">
         <v>281</v>
       </c>
-      <c r="E44" s="30">
-        <v>2</v>
-      </c>
-      <c r="F44" s="49" t="s">
+      <c r="E44" s="1">
+        <v>2</v>
+      </c>
+      <c r="F44" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="G44" s="48" t="s">
+      <c r="G44" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="H44" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="I44" s="17">
+      <c r="H44" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="16">
         <v>823</v>
       </c>
-      <c r="J44" s="48" t="s">
+      <c r="J44" s="43" t="s">
         <v>282</v>
       </c>
-      <c r="K44" s="48" t="s">
+      <c r="K44" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="L44" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="M44" s="52" t="s">
+      <c r="L44" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="M44" s="46" t="s">
         <v>283</v>
       </c>
-      <c r="N44" s="28"/>
+      <c r="N44" s="26"/>
       <c r="O44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="135">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E45" s="30">
-        <v>2</v>
-      </c>
-      <c r="F45" s="2" t="s">
+      <c r="E45" s="1">
+        <v>2</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G45" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H45" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I45" s="17">
+      <c r="H45" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="16">
         <v>127</v>
       </c>
-      <c r="J45" s="12" t="s">
+      <c r="J45" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="K45" s="53" t="s">
+      <c r="K45" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="L45" s="31" t="s">
+      <c r="L45" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M45" s="41" t="s">
+      <c r="M45" s="36" t="s">
         <v>288</v>
       </c>
-      <c r="N45" s="28"/>
+      <c r="N45" s="26"/>
       <c r="O45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="135">
-      <c r="A46" s="17">
+      <c r="A46" s="16">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E46" s="30">
+      <c r="E46" s="1">
         <v>3</v>
       </c>
-      <c r="F46" s="17" t="s">
+      <c r="F46" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G46" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H46" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I46" s="17">
+      <c r="H46" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" s="16">
         <v>64</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="J46" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="K46" s="53" t="s">
+      <c r="K46" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="L46" s="31" t="s">
+      <c r="L46" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="M46" s="41" t="s">
+      <c r="M46" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="N46" s="28"/>
+      <c r="N46" s="26"/>
       <c r="O46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="210">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="13" t="s">
+      <c r="B47" s="1"/>
+      <c r="C47" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E47" s="30">
-        <v>2</v>
-      </c>
-      <c r="F47" s="17" t="s">
+      <c r="E47" s="1">
+        <v>2</v>
+      </c>
+      <c r="F47" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G47" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H47" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I47" s="17">
+      <c r="H47" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" s="16">
         <v>70</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="J47" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="K47" s="54" t="s">
+      <c r="K47" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="L47" s="31" t="s">
+      <c r="L47" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M47" s="41" t="s">
+      <c r="M47" s="36" t="s">
         <v>300</v>
       </c>
-      <c r="N47" s="28"/>
+      <c r="N47" s="26"/>
       <c r="O47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="225">
-      <c r="A48" s="17">
+      <c r="A48" s="16">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="D48" s="55" t="s">
+      <c r="D48" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E48" s="30">
-        <v>2</v>
-      </c>
-      <c r="F48" s="17" t="s">
+      <c r="E48" s="1">
+        <v>2</v>
+      </c>
+      <c r="F48" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H48" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I48" s="17">
+      <c r="H48" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I48" s="16">
         <v>252</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="J48" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="K48" s="54" t="s">
+      <c r="K48" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="L48" s="31" t="s">
+      <c r="L48" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M48" s="41" t="s">
+      <c r="M48" s="36" t="s">
         <v>306</v>
       </c>
-      <c r="N48" s="28"/>
+      <c r="N48" s="26"/>
       <c r="O48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
-      <c r="A49" s="2">
+    <row r="49" spans="1:15" ht="120">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="41"/>
-      <c r="N49" s="28"/>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="A50" s="17">
+      <c r="B49" s="1"/>
+      <c r="C49" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="D49" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="16">
+        <v>31</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="K49" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="L49" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M49" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="N49" s="26"/>
+      <c r="O49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="165">
+      <c r="A50" s="16">
         <v>49</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="41"/>
-      <c r="N50" s="28"/>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="A51" s="2">
+      <c r="B50" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="D50" s="50" t="s">
+        <v>313</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" s="16">
+        <v>74</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="K50" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="L50" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M50" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="N50" s="26"/>
+      <c r="O50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="90">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="41"/>
-      <c r="N51" s="28"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="D51" s="50" t="s">
+        <v>318</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H51" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="16">
+        <v>24</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="K51" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="L51" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M51" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="N51" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12D51DE-1C8F-4255-AF37-E6B0FCB6573B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3145A8CE-2503-469F-8A1F-76471DE4092F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="286">
   <si>
     <t>NCT02491333</t>
   </si>
@@ -435,9 +435,6 @@
 Multivariate models: mixed repeated-measures ANCOVA adjusting for baseline covariates (age, ethnicity, education, income)</t>
   </si>
   <si>
-    <t>Cluster</t>
-  </si>
-  <si>
     <t>NCT01891838</t>
   </si>
   <si>
@@ -474,40 +471,6 @@
     <t>Comparisons: independent t-tests for continuous variables; χ² or Fisher’s exact for categorical
 Primary/secondary binary outcomes: binary logistic regression (adjusted for covariates &amp; clustering)
 Knowledge score: linear regression of follow-up score on baseline score and intervention</t>
-  </si>
-  <si>
-    <t>PACTR201710002683810</t>
-  </si>
-  <si>
-    <t>Evaluation of a community health worker home visit intervention to improve child development in South Africa: A cluster-randomized controlled trial</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1371/journal.pmed.1004222</t>
-  </si>
-  <si>
-    <t>Anthropometry:
-Height-for-age z-score: Continuous
-Stunting (HAZ &lt; −2): Binary
-gross motor, fine motor, language, social-emotional z-scores: Continuous
-Absolute EEG gamma power &amp; total EEG power : Continuous
-Relative gamma power: Continuous
-Saccadic reaction time: Continuous</t>
-  </si>
-  <si>
-    <t>Height-for-age z-score
-Stunting (HAZ &lt; −2)
-Child development skills (MDAT): gross motor, fine motor, language, social-emotional z-scores
-Absolute EEG gamma power &amp; total EEG power
-Relative gamma power
-Saccadic reaction time</t>
-  </si>
-  <si>
-    <t>HAZ, stunting, or MDAT domain scores, RGP: No
-SRT, EEG: Yes</t>
-  </si>
-  <si>
-    <t>Continuous outcomes: linear mixed-effects models with cluster random effects (and individual random effects + month fixed effects for EEG/SRT)
-Binary outcomes (stunting): mixed-effects logistic regression with cluster random effects</t>
   </si>
   <si>
     <t>NCT03899090</t>
@@ -663,35 +626,6 @@
     <t>Primary &amp; binary secondary outcomes: relative risks with χ² tests
 Continuous skewed outcomes (e.g., time): Mann-Whitney tests
 Subgroup consistency: Mantel–Haenszel homogeneity tests</t>
-  </si>
-  <si>
-    <t>NCT02234726</t>
-  </si>
-  <si>
-    <t>Two-year impact of community-based health
-screening and parenting groups on child
-development in Zambia: Follow-up to a
-cluster-randomized controlled trial</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1371/journal.pmed.1002555</t>
-  </si>
-  <si>
-    <t>Stunting: height-for-age z-score (HAZ) &lt; –2
-Neurocognitive development: BSID-III composite z-scores in five domains (cognition, language, motor, adaptive behavior, social-emotional)</t>
-  </si>
-  <si>
-    <t>Stunting: Binary
-BSID-III z-scores: Continuous</t>
-  </si>
-  <si>
-    <t>Stunting: Yes, significant reduction
-Language domain: Yes, significant improvement
-No significant effects on cognition, motor, adaptive behavior, or social-emotional domains</t>
-  </si>
-  <si>
-    <t>Binary outcomes: logistic regression with cluster-robust standard errors
-Continuous outcomes: ordinary least squares regression with cluster-robust standard errors</t>
   </si>
   <si>
     <t>NCT02926144</t>
@@ -726,27 +660,6 @@
     <t>Yes, partially. At 24 weeks LDL-C and TC were significantly lower in statin + PCSK9-i and combine3 vs statin or statin + ezetimibe (overall p &lt; 0.05); combine3 and PCSK9 arms met superiority, while adding ezetimibe alone did not.</t>
   </si>
   <si>
-    <t>NCT02979756</t>
-  </si>
-  <si>
-    <t>Detection and initial management of
-gestational diabetes through primary health
-care services in Morocco: An effectivenessimplementation trial</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1371/journal.pone.0209322</t>
-  </si>
-  <si>
-    <t>Birth-weight of the newborn</t>
-  </si>
-  <si>
-    <t>Primary outcome: Linear mixed-effects model with random intercepts for health centers and participants (REML estimation).
-Secondary outcomes:
-Binary/categorical: Logistic mixed-effects models with the same random-effects structure (Laplace approximation)
-Count: Poisson mixed-effects models with an offset for total measurements (Laplace approximation)
-Independence tests (2×2 tables): χ² tests with Rao–Scott correction</t>
-  </si>
-  <si>
     <t>Adherence (improved scheduled clinic attendance and medication adherence self-report), attendance</t>
   </si>
   <si>
@@ -792,27 +705,6 @@
   </si>
   <si>
     <t>Continuous Proportion</t>
-  </si>
-  <si>
-    <t>NCT01802372</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1371/journal.pmed.1002561</t>
-  </si>
-  <si>
-    <t>Health insurance coverage with or without a nurse-led task shifting strategy for hypertension control: A pragmatic cluster randomized trial in Ghana</t>
-  </si>
-  <si>
-    <t>HIC</t>
-  </si>
-  <si>
-    <t>Mean change in systolic blood pressure (SBP) from baseline to 12 months.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary: Linear mixed-effects regression (3-level: repeated measures within patients within clusters)
-BP control: Multilevel logistic regression adjusting for clustering
-Lifestyle/weight: Linear mixed-effects models (time × group)
-Sensitivity: Regression-based single imputation under two missing-data scenarios </t>
   </si>
   <si>
     <t>NCT05205759</t>
@@ -1205,22 +1097,6 @@
 Effect size: Cohen’s d</t>
   </si>
   <si>
-    <t>executive-function composite (working memory, inhibition, cognitive flexibility) and academic achievement (Woodcock–Johnson Applied Problems &amp; Letter-Word scores) at end of kindergarten</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Closing the Achievement Gap through Modification of
-Neurocognitive and Neuroendocrine Function: Results
-from a Cluster Randomized Controlled Trial of an
-Innovative Approach to the Education of Children in
-Kindergarten</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1371/journal.pone.0112393</t>
-  </si>
-  <si>
-    <t>Multilevel linear models with children nested in schools (clusters), bootstrapped clustered SEs (B=1000); three-level models (observations within children within schools) for repeated measures; treatment effect tested with baseline adjustment and interactions with school-poverty</t>
-  </si>
-  <si>
     <t>NCT03025815</t>
   </si>
   <si>
@@ -1241,27 +1117,6 @@
 Logistic regression (OFS level 4 vs. lower levels)
 Generalized estimating equations (GEE) for volume intake trends
 Cox proportional hazards model for time to full oral feeding</t>
-  </si>
-  <si>
-    <t>Assessment</t>
-  </si>
-  <si>
-    <t>Comparison of a newly established
-emotional stimulus approach to a
-classical assessment-driven approach in
-BLS training: a randomised
-controlled trial</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1136/bmjopen-2017-017705</t>
-  </si>
-  <si>
-    <t>Chest-compression quality: mean compression depth (CD, mm) and compression rate (CR, min⁻¹).</t>
-  </si>
-  <si>
-    <t>Univariate ANOVA (baseline)
-Repeated-measures ANOVA (group × time × prior knowledge)
-Chi-square tests for categorical variables</t>
   </si>
 </sst>
 </file>
@@ -1463,7 +1318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1612,9 +1467,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1622,6 +1474,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1900,39 +1756,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K57" sqref="K57"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="52" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="51" customWidth="1"/>
     <col min="4" max="4" width="16.140625" style="11" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" style="27" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" style="27" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" style="27" customWidth="1"/>
-    <col min="11" max="11" width="38.5703125" style="53" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.42578125" style="51" customWidth="1"/>
-    <col min="13" max="13" width="38.7109375" style="52" customWidth="1"/>
-    <col min="14" max="14" width="38.7109375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" style="52" customWidth="1"/>
+    <col min="11" max="11" width="44.42578125" style="50" customWidth="1"/>
+    <col min="12" max="12" width="40.28515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.7109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" customHeight="1">
+    <row r="1" spans="1:14" ht="18" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>29</v>
@@ -1949,29 +1804,26 @@
       <c r="G1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>114</v>
+      <c r="H1" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="J1" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="K1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="L1" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="75">
+      <c r="M1" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="75">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1988,35 +1840,32 @@
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G2" s="2">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="H2" s="2">
         <v>342</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="J2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="K2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="M2" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="N2" s="8"/>
-      <c r="O2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="105">
+      <c r="K2" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="105">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2038,41 +1887,38 @@
       <c r="G3" s="2">
         <v>3</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="H3" s="2">
         <v>400</v>
       </c>
+      <c r="I3" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="J3" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="K3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="N3" s="9"/>
-      <c r="O3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="195">
+      <c r="L3" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="195">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
@@ -2083,30 +1929,27 @@
       <c r="G4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2">
+        <v>6030</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="2">
-        <v>6030</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="N4" s="9"/>
-      <c r="O4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="135">
+      <c r="L4" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="135">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2128,41 +1971,38 @@
       <c r="G5" s="2">
         <v>2</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2">
+        <v>75</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="2">
-        <v>75</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="N5" s="9"/>
-      <c r="O5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="210">
+      <c r="L5" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="210">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
@@ -2173,30 +2013,27 @@
       <c r="G6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2">
+        <v>5060</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="2">
-        <v>5060</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="N6" s="9"/>
-      <c r="O6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="120">
+      <c r="L6" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="120">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2218,86 +2055,80 @@
       <c r="G7" s="2">
         <v>4</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2">
+        <v>463</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="2">
-        <v>463</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="N7" s="9"/>
-      <c r="O7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="135">
+      <c r="L7" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="135">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="2">
+      <c r="H8" s="2">
         <v>38</v>
       </c>
+      <c r="I8" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="J8" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="K8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="N8" s="9"/>
-      <c r="O8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="90">
+      <c r="K8" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="90">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
@@ -2308,124 +2139,115 @@
       <c r="G9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="2">
+        <v>115</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="2">
-        <v>115</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="120">
+      <c r="L9" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="120">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="2">
+        <v>577</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="2">
-        <v>577</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="285">
+      <c r="L10" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="285">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="2">
+        <v>256</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="2">
-        <v>256</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="N11" s="8"/>
-      <c r="O11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="150">
+      <c r="L11" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="150">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2442,80 +2264,52 @@
         <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G12" s="2">
         <v>2</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="2">
+      <c r="H12" s="2">
         <v>44</v>
       </c>
+      <c r="I12" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="J12" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="K12" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="K12" s="8" t="s">
+        <v>159</v>
+      </c>
       <c r="L12" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="M12" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="8"/>
-      <c r="O12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="120">
-      <c r="A13" s="1">
+      <c r="M12" s="8"/>
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="2">
-        <v>30</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="M13" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="N13" s="9"/>
-      <c r="O13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="90">
+      <c r="B13" s="53"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="9"/>
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="90">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2532,35 +2326,32 @@
         <v>2</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G14" s="2">
         <v>4</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="2">
+        <v>480</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="2">
-        <v>480</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="34" t="s">
+      <c r="L14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="9"/>
-      <c r="O14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="210">
+      <c r="M14" s="9"/>
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="210">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2582,30 +2373,27 @@
       <c r="G15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="2">
+      <c r="H15" s="2">
         <v>119</v>
       </c>
+      <c r="I15" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="J15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="K15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="33" t="s">
+      <c r="L15" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="N15" s="8"/>
-      <c r="O15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="150">
+      <c r="M15" s="8"/>
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="150">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2627,30 +2415,27 @@
       <c r="G16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="2">
+      <c r="H16" s="2">
         <v>28</v>
       </c>
+      <c r="I16" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="J16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="K16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M16" s="34" t="s">
+      <c r="L16" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="N16" s="9"/>
-      <c r="O16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="60">
+      <c r="M16" s="9"/>
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="60">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2672,30 +2457,27 @@
       <c r="G17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="2">
+      <c r="H17" s="2">
         <v>48</v>
       </c>
+      <c r="I17" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="J17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="K17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M17" s="33" t="s">
+      <c r="L17" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="N17" s="8"/>
-      <c r="O17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="150">
+      <c r="M17" s="8"/>
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="150">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2717,30 +2499,27 @@
       <c r="G18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="2">
+      <c r="H18" s="2">
         <v>294</v>
       </c>
+      <c r="I18" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="J18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L18" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="M18" s="33" t="s">
+      <c r="K18" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="L18" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="N18" s="8"/>
-      <c r="O18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="210">
+      <c r="M18" s="8"/>
+      <c r="N18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="210">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2762,30 +2541,27 @@
       <c r="G19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="2">
+        <v>295</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="2">
-        <v>295</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" s="33" t="s">
+      <c r="L19" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="N19" s="8"/>
-      <c r="O19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="150">
+      <c r="M19" s="8"/>
+      <c r="N19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="150">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2807,30 +2583,27 @@
       <c r="G20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="2">
+        <v>32</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="2">
-        <v>32</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" s="33" t="s">
+      <c r="L20" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="N20" s="8"/>
-      <c r="O20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="90">
+      <c r="M20" s="8"/>
+      <c r="N20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="90">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2852,30 +2625,27 @@
       <c r="G21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="2">
+      <c r="H21" s="2">
         <v>37</v>
       </c>
+      <c r="I21" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="J21" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L21" s="8" t="s">
+      <c r="K21" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="M21" s="33" t="s">
+      <c r="L21" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="N21" s="8"/>
-      <c r="O21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="105">
+      <c r="M21" s="8"/>
+      <c r="N21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="105">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2897,75 +2667,27 @@
       <c r="G22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="2">
+      <c r="H22" s="2">
         <v>1462</v>
       </c>
+      <c r="I22" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="J22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="8" t="s">
+      <c r="K22" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="M22" s="33" t="s">
+      <c r="L22" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="N22" s="8"/>
-      <c r="O22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="255">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="2">
-        <v>20</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M23" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="N23" s="9"/>
-      <c r="O23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="90">
+      <c r="M22" s="8"/>
+      <c r="N22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="90">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2987,30 +2709,27 @@
       <c r="G24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="17" t="s">
+      <c r="H24" s="1">
+        <v>92</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="1">
-        <v>92</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L24" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="35" t="s">
+      <c r="L24" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="N24" s="14"/>
-      <c r="O24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="180">
+      <c r="M24" s="14"/>
+      <c r="N24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="180">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3032,30 +2751,27 @@
       <c r="G25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H25" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="1">
+      <c r="H25" s="1">
         <v>50</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K25" s="15" t="s">
+      <c r="J25" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="L25" s="12" t="s">
+      <c r="K25" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="36" t="s">
+      <c r="L25" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="N25" s="12"/>
-      <c r="O25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="195">
+      <c r="M25" s="12"/>
+      <c r="N25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="195">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3077,30 +2793,27 @@
       <c r="G26" s="1">
         <v>3</v>
       </c>
-      <c r="H26" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="1">
+      <c r="H26" s="1">
         <v>55</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="K26" s="17" t="s">
+      <c r="J26" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="L26" s="12" t="s">
+      <c r="K26" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M26" s="36" t="s">
+      <c r="L26" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="N26" s="12"/>
-      <c r="O26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="195">
+      <c r="M26" s="12"/>
+      <c r="N26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="195">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3122,86 +2835,80 @@
       <c r="G27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H27" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" s="1">
+      <c r="H27" s="1">
         <v>242</v>
       </c>
-      <c r="J27" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="K27" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="L27" s="18" t="s">
+      <c r="I27" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="K27" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="M27" s="37" t="s">
+      <c r="L27" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="N27" s="31"/>
-      <c r="O27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="120">
+      <c r="M27" s="31"/>
+      <c r="N27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="120">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="D28" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="E28" s="1">
-        <v>2</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="17" t="s">
+      <c r="H28" s="1">
+        <v>101</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="K28" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="1">
-        <v>101</v>
-      </c>
-      <c r="J28" s="1" t="s">
+      <c r="L28" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="K28" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M28" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="N28" s="12"/>
-      <c r="O28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="165">
+      <c r="M28" s="12"/>
+      <c r="N28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="165">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>123</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E29" s="1">
         <v>2</v>
@@ -3212,399 +2919,288 @@
       <c r="G29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" s="1">
+      <c r="H29" s="1">
         <v>120</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="I29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="K29" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="M29" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="N29" s="12"/>
-      <c r="O29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="225">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E30" s="1">
-        <v>2</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="1">
-        <v>51</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K30" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="L30" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="M30" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="N30" s="12"/>
-      <c r="O30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="180">
+      <c r="M29" s="12"/>
+      <c r="N29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="180">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E31" s="1">
         <v>3</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="1">
+      <c r="H31" s="1">
         <v>75</v>
       </c>
-      <c r="J31" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="K31" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="L31" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="M31" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="N31" s="12"/>
-      <c r="O31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="195">
-      <c r="A32" s="16">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E32" s="1">
-        <v>2</v>
-      </c>
-      <c r="F32" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H32" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="16">
-        <v>37</v>
-      </c>
-      <c r="J32" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="K32" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="L32" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="M32" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="N32" s="25"/>
-      <c r="O32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="150">
+      <c r="I31" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="J31" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="L31" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="M31" s="12"/>
+      <c r="N31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="150">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="E33" s="39">
         <v>3</v>
       </c>
       <c r="F33" s="39" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="G33" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="H33" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="I33" s="39">
+        <v>194</v>
+      </c>
+      <c r="H33" s="39">
         <v>311</v>
       </c>
+      <c r="I33" s="39" t="s">
+        <v>195</v>
+      </c>
       <c r="J33" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="K33" s="39" t="s">
         <v>14</v>
       </c>
+      <c r="K33" s="41" t="s">
+        <v>196</v>
+      </c>
       <c r="L33" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="M33" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="N33" s="26"/>
-      <c r="O33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="150">
+        <v>197</v>
+      </c>
+      <c r="M33" s="26"/>
+      <c r="N33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="150">
       <c r="A34" s="16">
         <v>33</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="28" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="E34" s="1">
         <v>2</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="G34" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="H34" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="I34" s="16">
+      <c r="H34" s="16">
         <v>154</v>
       </c>
-      <c r="J34" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="K34" s="30" t="s">
+      <c r="I34" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="J34" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="L34" s="28" t="s">
+      <c r="K34" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="M34" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="N34" s="26"/>
-      <c r="O34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="105">
+      <c r="L34" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="M34" s="26"/>
+      <c r="N34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="105">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="E35" s="1">
         <v>2</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G35" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="H35" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="I35" s="16">
+      <c r="H35" s="16">
         <v>4556</v>
       </c>
+      <c r="I35" s="30" t="s">
+        <v>206</v>
+      </c>
       <c r="J35" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="K35" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="L35" s="28" t="s">
+      <c r="K35" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="M35" s="38" t="s">
-        <v>233</v>
-      </c>
-      <c r="N35" s="26"/>
-      <c r="O35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="135">
+      <c r="L35" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="M35" s="26"/>
+      <c r="N35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="135">
       <c r="A36" s="16">
         <v>35</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="E36" s="1">
         <v>2</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="G36" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="H36" s="29" t="s">
+      <c r="H36" s="16">
+        <v>91</v>
+      </c>
+      <c r="I36" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="J36" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="K36" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="I36" s="16">
-        <v>91</v>
-      </c>
-      <c r="J36" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="K36" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="L36" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="M36" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="N36" s="26"/>
-      <c r="O36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="180">
+      <c r="L36" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="M36" s="26"/>
+      <c r="N36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="180">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="E37" s="1">
         <v>3</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H37" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I37" s="16">
+      <c r="H37" s="16">
         <v>114</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="K37" s="43" t="s">
+      <c r="I37" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J37" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="L37" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="M37" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="N37" s="26"/>
-      <c r="O37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="120">
+      <c r="K37" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="L37" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="M37" s="26"/>
+      <c r="N37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="120">
       <c r="A38" s="16">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="E38" s="1">
         <v>2</v>
@@ -3615,86 +3211,80 @@
       <c r="G38" s="16">
         <v>4</v>
       </c>
-      <c r="H38" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I38" s="16">
+      <c r="H38" s="16">
         <v>602</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="K38" s="43" t="s">
+      <c r="I38" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J38" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="L38" s="12" t="s">
+      <c r="K38" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M38" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="N38" s="26"/>
-      <c r="O38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="120">
+      <c r="L38" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="M38" s="26"/>
+      <c r="N38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="120">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="E39" s="1">
         <v>4</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H39" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I39" s="16">
+      <c r="H39" s="16">
         <v>2139</v>
       </c>
-      <c r="J39" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="K39" s="43" t="s">
+      <c r="I39" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J39" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="L39" s="12" t="s">
+      <c r="K39" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M39" s="36" t="s">
-        <v>253</v>
-      </c>
-      <c r="N39" s="26"/>
-      <c r="O39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="105">
+      <c r="L39" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="M39" s="26"/>
+      <c r="N39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="105">
       <c r="A40" s="16">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="E40" s="1">
         <v>2</v>
@@ -3705,510 +3295,397 @@
       <c r="G40" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H40" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I40" s="16">
+      <c r="H40" s="16">
         <v>470</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="K40" s="43" t="s">
+      <c r="I40" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J40" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="L40" s="12" t="s">
+      <c r="K40" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M40" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="N40" s="26"/>
-      <c r="O40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="300">
+      <c r="L40" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="M40" s="26"/>
+      <c r="N40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="300">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="12" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H41" s="16" t="s">
+      <c r="H41" s="16">
+        <v>99</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J41" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I41" s="16">
-        <v>99</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="K41" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="L41" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M41" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="N41" s="26"/>
-      <c r="O41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="195">
+      <c r="L41" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="M41" s="26"/>
+      <c r="N41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="195">
       <c r="A42" s="16">
         <v>41</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="C42" s="45" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="D42" s="43" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="E42" s="1">
         <v>2</v>
       </c>
       <c r="F42" s="44" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="G42" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="H42" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="I42" s="16">
+      <c r="H42" s="16">
         <v>235</v>
       </c>
+      <c r="I42" s="43" t="s">
+        <v>246</v>
+      </c>
       <c r="J42" s="43" t="s">
-        <v>272</v>
-      </c>
-      <c r="K42" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="L42" s="45" t="s">
+      <c r="K42" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="M42" s="46" t="s">
-        <v>273</v>
-      </c>
-      <c r="N42" s="26"/>
-      <c r="O42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="210">
+      <c r="L42" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="M42" s="26"/>
+      <c r="N42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="210">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="45" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="D43" s="43" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="E43" s="1">
         <v>2</v>
       </c>
       <c r="F43" s="44" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="G43" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="H43" s="44" t="s">
+      <c r="H43" s="16">
+        <v>103</v>
+      </c>
+      <c r="I43" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="J43" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="K43" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="I43" s="16">
-        <v>103</v>
-      </c>
-      <c r="J43" s="43" t="s">
-        <v>276</v>
-      </c>
-      <c r="K43" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="L43" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="M43" s="46" t="s">
-        <v>277</v>
-      </c>
-      <c r="N43" s="26"/>
-      <c r="O43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="165">
+      <c r="L43" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="M43" s="26"/>
+      <c r="N43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="165">
       <c r="A44" s="16">
         <v>43</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="C44" s="45" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="D44" s="43" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="E44" s="1">
         <v>2</v>
       </c>
       <c r="F44" s="44" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="G44" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="H44" s="44" t="s">
+      <c r="H44" s="16">
+        <v>823</v>
+      </c>
+      <c r="I44" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="J44" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="K44" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="I44" s="16">
-        <v>823</v>
-      </c>
-      <c r="J44" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="K44" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="L44" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="M44" s="46" t="s">
-        <v>283</v>
-      </c>
-      <c r="N44" s="26"/>
-      <c r="O44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="135">
+      <c r="L44" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="M44" s="26"/>
+      <c r="N44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="135">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="E45" s="1">
         <v>2</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H45" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I45" s="16">
+      <c r="H45" s="16">
         <v>127</v>
       </c>
-      <c r="J45" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="K45" s="47" t="s">
+      <c r="I45" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="J45" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="L45" s="12" t="s">
+      <c r="K45" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M45" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="N45" s="26"/>
-      <c r="O45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="135">
+      <c r="L45" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="M45" s="26"/>
+      <c r="N45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="135">
       <c r="A46" s="16">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="E46" s="1">
         <v>3</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H46" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I46" s="16">
+      <c r="H46" s="16">
         <v>64</v>
       </c>
-      <c r="J46" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="K46" s="47" t="s">
+      <c r="I46" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J46" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="L46" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="M46" s="36" t="s">
-        <v>295</v>
-      </c>
-      <c r="N46" s="26"/>
-      <c r="O46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="210">
+      <c r="K46" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="L46" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="M46" s="26"/>
+      <c r="N46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="210">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="12" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="E47" s="1">
         <v>2</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H47" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I47" s="16">
+      <c r="H47" s="16">
         <v>70</v>
       </c>
-      <c r="J47" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="K47" s="48" t="s">
+      <c r="I47" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J47" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="L47" s="12" t="s">
+      <c r="K47" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M47" s="36" t="s">
-        <v>300</v>
-      </c>
-      <c r="N47" s="26"/>
-      <c r="O47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="225">
+      <c r="L47" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="M47" s="26"/>
+      <c r="N47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="225">
       <c r="A48" s="16">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="E48" s="1">
         <v>2</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H48" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I48" s="16">
+      <c r="H48" s="16">
         <v>252</v>
       </c>
-      <c r="J48" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="K48" s="48" t="s">
+      <c r="I48" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="J48" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="L48" s="12" t="s">
+      <c r="K48" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M48" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="N48" s="26"/>
-      <c r="O48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="120">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="D49" s="50" t="s">
-        <v>309</v>
-      </c>
-      <c r="E49" s="1">
-        <v>2</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H49" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I49" s="16">
-        <v>31</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="K49" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="L49" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="M49" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="N49" s="26"/>
-      <c r="O49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="165">
+      <c r="L48" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="M48" s="26"/>
+      <c r="N48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="165">
       <c r="A50" s="16">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="D50" s="50" t="s">
-        <v>313</v>
+        <v>282</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="E50" s="1">
         <v>2</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I50" s="16">
+      <c r="H50" s="16">
         <v>74</v>
       </c>
-      <c r="J50" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="K50" s="49" t="s">
+      <c r="I50" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="J50" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="L50" s="12" t="s">
+      <c r="K50" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M50" s="36" t="s">
-        <v>315</v>
-      </c>
-      <c r="N50" s="26"/>
-      <c r="O50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="90">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="D51" s="50" t="s">
-        <v>318</v>
-      </c>
-      <c r="E51" s="1">
-        <v>2</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H51" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I51" s="16">
-        <v>24</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="K51" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="L51" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M51" s="36" t="s">
-        <v>320</v>
-      </c>
-      <c r="N51" s="26"/>
+      <c r="L50" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="M50" s="26"/>
+      <c r="N50">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3145A8CE-2503-469F-8A1F-76471DE4092F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23C84CD-EC2A-4DFF-A651-171E74EBB7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="303">
   <si>
     <t>NCT02491333</t>
   </si>
@@ -1118,17 +1118,109 @@
 Generalized estimating equations (GEE) for volume intake trends
 Cox proportional hazards model for time to full oral feeding</t>
   </si>
+  <si>
+    <t>Mean reviewer rating per manuscript on a 4-point scale (1 = weak to 4 = excellent)</t>
+  </si>
+  <si>
+    <t>SingleBlind</t>
+  </si>
+  <si>
+    <t>Double-blind peer review affects reviewer ratings and editor
+decisions at an ecology journal</t>
+  </si>
+  <si>
+    <t>10.1111/1365-2435.14259</t>
+  </si>
+  <si>
+    <t>• Linear mixed models (SAS Proc Mixed) for reviewer scores
+• Logistic regressions (SAS Proc Glimmix) for binary editor decisions, with author-country random effect and the covariates above.</t>
+  </si>
+  <si>
+    <t>Development and First Phase Evaluation of a
+Maternity Leave Educational Tool for
+Pregnant, Working Women in California</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.01294721</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Proportion of women taking </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>more than one week of prenatal leave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (among those delivering ≥37 weeks)</t>
+    </r>
+  </si>
+  <si>
+    <t>Descriptive comparisons used t-tests for continuous outcomes and chi-square or Fisher’s exact tests for categorical outcomes</t>
+  </si>
+  <si>
+    <t>Adjunctive sertraline in HIV-associated cryptococcal meningitis:
+a randomised, placebo-controlled, double-blind phase 3 trial</t>
+  </si>
+  <si>
+    <t>NCT01802385</t>
+  </si>
+  <si>
+    <t>18-week all-cause mortality (survival)</t>
+  </si>
+  <si>
+    <t>Primary: Kaplan-Meier survival curves and Cox proportional hazards regression (intention-to-treat) 29
+Secondary:
+Linear regression and mixed-effects regression (random intercept) for early fungicidal activity
+Cumulative incidence functions (competing risks), logistic regression, Fisher’s exact tests, general linear models, and Wilcoxon rank-sum tests for other endpoints</t>
+  </si>
+  <si>
+    <t>10.1016/S1473-3099(19)30127-6</t>
+  </si>
+  <si>
+    <t>Influenza Hemagglutination-inhibition Antibody Titer as a
+Mediator of Vaccine-induced Protection for Influenza B</t>
+  </si>
+  <si>
+    <t>Time to laboratory-confirmed influenza B/Victoria infection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cox models for total, direct, and indirect (mediated) effects.
+Logistic regression to create inverse-odds-ratio weights for mediation.
+Bootstrap (10 000 resamples) for CIs. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1316,169 +1408,178 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1759,26 +1860,26 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomRight" activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" style="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="51" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="49" customWidth="1"/>
     <col min="4" max="4" width="16.140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.5703125" style="52" customWidth="1"/>
-    <col min="11" max="11" width="44.42578125" style="50" customWidth="1"/>
-    <col min="12" max="12" width="40.28515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" style="50" customWidth="1"/>
+    <col min="11" max="11" width="44.42578125" style="48" customWidth="1"/>
+    <col min="12" max="12" width="40.28515625" style="49" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="38.7109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1816,7 +1917,7 @@
       <c r="K1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="31" t="s">
         <v>35</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -1857,7 +1958,7 @@
       <c r="K2" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="32" t="s">
         <v>133</v>
       </c>
       <c r="M2" s="8"/>
@@ -1899,7 +2000,7 @@
       <c r="K3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="33" t="s">
         <v>135</v>
       </c>
       <c r="M3" s="9"/>
@@ -1907,7 +2008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="195">
+    <row r="4" spans="1:14" ht="180">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1941,7 +2042,7 @@
       <c r="K4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="L4" s="33" t="s">
         <v>142</v>
       </c>
       <c r="M4" s="9"/>
@@ -1983,7 +2084,7 @@
       <c r="K5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="L5" s="33" t="s">
         <v>144</v>
       </c>
       <c r="M5" s="9"/>
@@ -1991,7 +2092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="210">
+    <row r="6" spans="1:14" ht="195">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2025,7 +2126,7 @@
       <c r="K6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="34" t="s">
+      <c r="L6" s="33" t="s">
         <v>149</v>
       </c>
       <c r="M6" s="9"/>
@@ -2067,7 +2168,7 @@
       <c r="K7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="34" t="s">
+      <c r="L7" s="33" t="s">
         <v>151</v>
       </c>
       <c r="M7" s="9"/>
@@ -2109,7 +2210,7 @@
       <c r="K8" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="L8" s="34" t="s">
+      <c r="L8" s="33" t="s">
         <v>186</v>
       </c>
       <c r="M8" s="9"/>
@@ -2151,7 +2252,7 @@
       <c r="K9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="34" t="s">
+      <c r="L9" s="33" t="s">
         <v>156</v>
       </c>
       <c r="M9" s="9" t="s">
@@ -2195,7 +2296,7 @@
       <c r="K10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="34" t="s">
+      <c r="L10" s="33" t="s">
         <v>167</v>
       </c>
       <c r="M10" s="9" t="s">
@@ -2239,7 +2340,7 @@
       <c r="K11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="33" t="s">
+      <c r="L11" s="32" t="s">
         <v>173</v>
       </c>
       <c r="M11" s="8"/>
@@ -2289,21 +2390,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" ht="90">
       <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="12"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="54" t="s">
+        <v>288</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>289</v>
+      </c>
+      <c r="E13" s="16">
+        <v>2</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>287</v>
+      </c>
+      <c r="G13" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="16">
+        <v>3739</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J13" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="54" t="s">
+        <v>290</v>
+      </c>
       <c r="M13" s="9"/>
       <c r="N13">
         <v>1</v>
@@ -2385,7 +2506,7 @@
       <c r="K15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="33" t="s">
+      <c r="L15" s="32" t="s">
         <v>41</v>
       </c>
       <c r="M15" s="8"/>
@@ -2393,7 +2514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="150">
+    <row r="16" spans="1:14" ht="135">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2427,7 +2548,7 @@
       <c r="K16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="34" t="s">
+      <c r="L16" s="33" t="s">
         <v>49</v>
       </c>
       <c r="M16" s="9"/>
@@ -2469,7 +2590,7 @@
       <c r="K17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L17" s="33" t="s">
+      <c r="L17" s="32" t="s">
         <v>55</v>
       </c>
       <c r="M17" s="8"/>
@@ -2511,7 +2632,7 @@
       <c r="K18" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="L18" s="33" t="s">
+      <c r="L18" s="32" t="s">
         <v>61</v>
       </c>
       <c r="M18" s="8"/>
@@ -2519,7 +2640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="210">
+    <row r="19" spans="1:14" ht="195">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2553,7 +2674,7 @@
       <c r="K19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="33" t="s">
+      <c r="L19" s="32" t="s">
         <v>68</v>
       </c>
       <c r="M19" s="8"/>
@@ -2595,7 +2716,7 @@
       <c r="K20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="33" t="s">
+      <c r="L20" s="32" t="s">
         <v>74</v>
       </c>
       <c r="M20" s="8"/>
@@ -2637,7 +2758,7 @@
       <c r="K21" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="L21" s="33" t="s">
+      <c r="L21" s="32" t="s">
         <v>78</v>
       </c>
       <c r="M21" s="8"/>
@@ -2679,11 +2800,51 @@
       <c r="K22" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L22" s="33" t="s">
+      <c r="L22" s="8" t="s">
         <v>88</v>
       </c>
       <c r="M22" s="8"/>
       <c r="N22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="60">
+      <c r="A23" s="16">
+        <v>22</v>
+      </c>
+      <c r="B23" s="52"/>
+      <c r="C23" s="54" t="s">
+        <v>291</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>292</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="G23" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="16">
+        <v>146</v>
+      </c>
+      <c r="I23" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="J23" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="K23" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="M23" s="25"/>
+      <c r="N23">
         <v>1</v>
       </c>
     </row>
@@ -2721,7 +2882,7 @@
       <c r="K24" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="35" t="s">
+      <c r="L24" s="14" t="s">
         <v>94</v>
       </c>
       <c r="M24" s="14"/>
@@ -2763,7 +2924,7 @@
       <c r="K25" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L25" s="36" t="s">
+      <c r="L25" s="34" t="s">
         <v>100</v>
       </c>
       <c r="M25" s="12"/>
@@ -2771,7 +2932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="195">
+    <row r="26" spans="1:14" ht="180">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2805,7 +2966,7 @@
       <c r="K26" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L26" s="36" t="s">
+      <c r="L26" s="34" t="s">
         <v>108</v>
       </c>
       <c r="M26" s="12"/>
@@ -2847,15 +3008,15 @@
       <c r="K27" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L27" s="37" t="s">
+      <c r="L27" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="M27" s="31"/>
+      <c r="M27" s="30"/>
       <c r="N27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="120">
+    <row r="28" spans="1:14" ht="105">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2889,7 +3050,7 @@
       <c r="K28" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L28" s="36" t="s">
+      <c r="L28" s="34" t="s">
         <v>119</v>
       </c>
       <c r="M28" s="12"/>
@@ -2931,11 +3092,53 @@
       <c r="K29" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="36" t="s">
+      <c r="L29" s="12" t="s">
         <v>124</v>
       </c>
       <c r="M29" s="12"/>
       <c r="N29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="225">
+      <c r="A30" s="16">
+        <v>29</v>
+      </c>
+      <c r="B30" s="52" t="s">
+        <v>296</v>
+      </c>
+      <c r="C30" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="D30" s="53" t="s">
+        <v>299</v>
+      </c>
+      <c r="E30" s="16">
+        <v>2</v>
+      </c>
+      <c r="F30" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" s="1">
+        <v>3</v>
+      </c>
+      <c r="H30" s="1">
+        <v>460</v>
+      </c>
+      <c r="I30" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="J30" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="54" t="s">
+        <v>298</v>
+      </c>
+      <c r="M30" s="25"/>
+      <c r="N30">
         <v>1</v>
       </c>
     </row>
@@ -2964,7 +3167,7 @@
       <c r="H31" s="1">
         <v>75</v>
       </c>
-      <c r="I31" s="30" t="s">
+      <c r="I31" s="29" t="s">
         <v>129</v>
       </c>
       <c r="J31" s="24" t="s">
@@ -2973,7 +3176,7 @@
       <c r="K31" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="L31" s="36" t="s">
+      <c r="L31" s="12" t="s">
         <v>131</v>
       </c>
       <c r="M31" s="12"/>
@@ -2981,54 +3184,94 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="150">
+    <row r="32" spans="1:14" ht="105">
+      <c r="A32" s="16">
+        <v>31</v>
+      </c>
+      <c r="B32" s="51"/>
+      <c r="C32" s="54" t="s">
+        <v>300</v>
+      </c>
+      <c r="D32" s="53" t="s">
+        <v>299</v>
+      </c>
+      <c r="E32" s="16">
+        <v>2</v>
+      </c>
+      <c r="F32" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="16">
+        <v>796</v>
+      </c>
+      <c r="I32" s="53" t="s">
+        <v>301</v>
+      </c>
+      <c r="J32" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="54" t="s">
+        <v>302</v>
+      </c>
+      <c r="M32" s="25"/>
+      <c r="N32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="135">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="39" t="s">
         <v>191</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E33" s="37">
         <v>3</v>
       </c>
-      <c r="F33" s="39" t="s">
+      <c r="F33" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="G33" s="40" t="s">
+      <c r="G33" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="H33" s="39">
+      <c r="H33" s="37">
         <v>311</v>
       </c>
-      <c r="I33" s="39" t="s">
+      <c r="I33" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="J33" s="39" t="s">
+      <c r="J33" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="K33" s="41" t="s">
+      <c r="K33" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="L33" s="41" t="s">
+      <c r="L33" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="M33" s="26"/>
+      <c r="M33" s="25"/>
       <c r="N33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="150">
+    <row r="34" spans="1:14" ht="135">
       <c r="A34" s="16">
         <v>33</v>
       </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="27" t="s">
         <v>201</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -3037,28 +3280,28 @@
       <c r="E34" s="1">
         <v>2</v>
       </c>
-      <c r="F34" s="29" t="s">
+      <c r="F34" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="G34" s="30" t="s">
+      <c r="G34" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H34" s="16">
         <v>154</v>
       </c>
-      <c r="I34" s="42" t="s">
+      <c r="I34" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="J34" s="30" t="s">
+      <c r="J34" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="K34" s="28" t="s">
+      <c r="K34" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="L34" s="38" t="s">
+      <c r="L34" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="M34" s="26"/>
+      <c r="M34" s="25"/>
       <c r="N34">
         <v>1</v>
       </c>
@@ -3067,10 +3310,10 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="27" t="s">
         <v>204</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -3079,28 +3322,28 @@
       <c r="E35" s="1">
         <v>2</v>
       </c>
-      <c r="F35" s="29" t="s">
+      <c r="F35" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H35" s="16">
         <v>4556</v>
       </c>
-      <c r="I35" s="30" t="s">
+      <c r="I35" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="J35" s="30" t="s">
+      <c r="J35" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="K35" s="28" t="s">
+      <c r="K35" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="L35" s="38" t="s">
+      <c r="L35" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="M35" s="26"/>
+      <c r="M35" s="25"/>
       <c r="N35">
         <v>1</v>
       </c>
@@ -3109,40 +3352,40 @@
       <c r="A36" s="16">
         <v>35</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="29" t="s">
         <v>210</v>
       </c>
       <c r="E36" s="1">
         <v>2</v>
       </c>
-      <c r="F36" s="29" t="s">
+      <c r="F36" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="G36" s="30" t="s">
+      <c r="G36" s="29" t="s">
         <v>36</v>
       </c>
       <c r="H36" s="16">
         <v>91</v>
       </c>
-      <c r="I36" s="30" t="s">
+      <c r="I36" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="J36" s="30" t="s">
+      <c r="J36" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="K36" s="28" t="s">
+      <c r="K36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="L36" s="38" t="s">
+      <c r="L36" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="M36" s="26"/>
+      <c r="M36" s="25"/>
       <c r="N36">
         <v>1</v>
       </c>
@@ -3175,16 +3418,16 @@
       <c r="I37" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="J37" s="43" t="s">
+      <c r="J37" s="41" t="s">
         <v>38</v>
       </c>
       <c r="K37" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="L37" s="36" t="s">
+      <c r="L37" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="M37" s="26"/>
+      <c r="M37" s="25"/>
       <c r="N37">
         <v>1</v>
       </c>
@@ -3217,16 +3460,16 @@
       <c r="I38" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="J38" s="43" t="s">
+      <c r="J38" s="41" t="s">
         <v>99</v>
       </c>
       <c r="K38" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L38" s="36" t="s">
+      <c r="L38" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="M38" s="26"/>
+      <c r="M38" s="25"/>
       <c r="N38">
         <v>1</v>
       </c>
@@ -3259,16 +3502,16 @@
       <c r="I39" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="J39" s="43" t="s">
+      <c r="J39" s="41" t="s">
         <v>9</v>
       </c>
       <c r="K39" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L39" s="36" t="s">
+      <c r="L39" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="M39" s="26"/>
+      <c r="M39" s="25"/>
       <c r="N39">
         <v>1</v>
       </c>
@@ -3301,21 +3544,21 @@
       <c r="I40" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="J40" s="43" t="s">
+      <c r="J40" s="41" t="s">
         <v>9</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L40" s="36" t="s">
+      <c r="L40" s="34" t="s">
         <v>233</v>
       </c>
-      <c r="M40" s="26"/>
+      <c r="M40" s="25"/>
       <c r="N40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="300">
+    <row r="41" spans="1:14" ht="285">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3341,16 +3584,16 @@
       <c r="I41" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="J41" s="43" t="s">
+      <c r="J41" s="41" t="s">
         <v>9</v>
       </c>
       <c r="K41" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L41" s="36" t="s">
+      <c r="L41" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="M41" s="26"/>
+      <c r="M41" s="25"/>
       <c r="N41">
         <v>1</v>
       </c>
@@ -3359,40 +3602,40 @@
       <c r="A42" s="16">
         <v>41</v>
       </c>
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="D42" s="43" t="s">
+      <c r="D42" s="41" t="s">
         <v>245</v>
       </c>
       <c r="E42" s="1">
         <v>2</v>
       </c>
-      <c r="F42" s="44" t="s">
+      <c r="F42" s="42" t="s">
         <v>242</v>
       </c>
-      <c r="G42" s="43" t="s">
+      <c r="G42" s="41" t="s">
         <v>36</v>
       </c>
       <c r="H42" s="16">
         <v>235</v>
       </c>
-      <c r="I42" s="43" t="s">
+      <c r="I42" s="41" t="s">
         <v>246</v>
       </c>
-      <c r="J42" s="43" t="s">
+      <c r="J42" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="K42" s="45" t="s">
+      <c r="K42" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="L42" s="46" t="s">
+      <c r="L42" s="44" t="s">
         <v>247</v>
       </c>
-      <c r="M42" s="26"/>
+      <c r="M42" s="25"/>
       <c r="N42">
         <v>1</v>
       </c>
@@ -3402,37 +3645,37 @@
         <v>42</v>
       </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="45" t="s">
+      <c r="C43" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="D43" s="43" t="s">
+      <c r="D43" s="41" t="s">
         <v>249</v>
       </c>
       <c r="E43" s="1">
         <v>2</v>
       </c>
-      <c r="F43" s="44" t="s">
+      <c r="F43" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="G43" s="43" t="s">
+      <c r="G43" s="41" t="s">
         <v>36</v>
       </c>
       <c r="H43" s="16">
         <v>103</v>
       </c>
-      <c r="I43" s="43" t="s">
+      <c r="I43" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="J43" s="43" t="s">
+      <c r="J43" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="K43" s="45" t="s">
+      <c r="K43" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="L43" s="46" t="s">
+      <c r="L43" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="M43" s="26"/>
+      <c r="M43" s="25"/>
       <c r="N43">
         <v>1</v>
       </c>
@@ -3441,40 +3684,40 @@
       <c r="A44" s="16">
         <v>43</v>
       </c>
-      <c r="B44" s="43" t="s">
+      <c r="B44" s="41" t="s">
         <v>253</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="C44" s="43" t="s">
         <v>254</v>
       </c>
-      <c r="D44" s="43" t="s">
+      <c r="D44" s="41" t="s">
         <v>255</v>
       </c>
       <c r="E44" s="1">
         <v>2</v>
       </c>
-      <c r="F44" s="44" t="s">
+      <c r="F44" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="G44" s="43" t="s">
+      <c r="G44" s="41" t="s">
         <v>36</v>
       </c>
       <c r="H44" s="16">
         <v>823</v>
       </c>
-      <c r="I44" s="43" t="s">
+      <c r="I44" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="J44" s="43" t="s">
+      <c r="J44" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="K44" s="45" t="s">
+      <c r="K44" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="L44" s="46" t="s">
+      <c r="L44" s="44" t="s">
         <v>257</v>
       </c>
-      <c r="M44" s="26"/>
+      <c r="M44" s="25"/>
       <c r="N44">
         <v>1</v>
       </c>
@@ -3507,16 +3750,16 @@
       <c r="I45" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="J45" s="47" t="s">
+      <c r="J45" s="45" t="s">
         <v>99</v>
       </c>
       <c r="K45" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L45" s="36" t="s">
+      <c r="L45" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="M45" s="26"/>
+      <c r="M45" s="25"/>
       <c r="N45">
         <v>1</v>
       </c>
@@ -3549,21 +3792,21 @@
       <c r="I46" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="J46" s="47" t="s">
+      <c r="J46" s="45" t="s">
         <v>38</v>
       </c>
       <c r="K46" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="L46" s="36" t="s">
+      <c r="L46" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="M46" s="26"/>
+      <c r="M46" s="25"/>
       <c r="N46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="210">
+    <row r="47" spans="1:14" ht="195">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3589,16 +3832,16 @@
       <c r="I47" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="J47" s="48" t="s">
+      <c r="J47" s="46" t="s">
         <v>38</v>
       </c>
       <c r="K47" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L47" s="36" t="s">
+      <c r="L47" s="34" t="s">
         <v>274</v>
       </c>
-      <c r="M47" s="26"/>
+      <c r="M47" s="25"/>
       <c r="N47">
         <v>1</v>
       </c>
@@ -3631,16 +3874,16 @@
       <c r="I48" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="J48" s="48" t="s">
+      <c r="J48" s="46" t="s">
         <v>99</v>
       </c>
       <c r="K48" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L48" s="36" t="s">
+      <c r="L48" s="34" t="s">
         <v>280</v>
       </c>
-      <c r="M48" s="26"/>
+      <c r="M48" s="25"/>
       <c r="N48">
         <v>1</v>
       </c>
@@ -3673,16 +3916,16 @@
       <c r="I50" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="J50" s="49" t="s">
+      <c r="J50" s="47" t="s">
         <v>38</v>
       </c>
       <c r="K50" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L50" s="36" t="s">
+      <c r="L50" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="M50" s="26"/>
+      <c r="M50" s="25"/>
       <c r="N50">
         <v>1</v>
       </c>

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23C84CD-EC2A-4DFF-A651-171E74EBB7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EF26B2-1152-4BED-BBE1-67B7FAB85261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="311">
   <si>
     <t>NCT02491333</t>
   </si>
@@ -705,54 +705,6 @@
   </si>
   <si>
     <t>Continuous Proportion</t>
-  </si>
-  <si>
-    <t>NCT05205759</t>
-  </si>
-  <si>
-    <t>Exploratory data on the clinical efficacy of monoclonal antibodies against SARS-CoV-2 Omicron variant of concern</t>
-  </si>
-  <si>
-    <t>https://elifesciences.org/articles/79639</t>
-  </si>
-  <si>
-    <t>Casirivimab/Imdevimab</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Composite COVID-19 progression through day 14 (hospitalization, need for supplemental oxygen, or death)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">No, the trial did not succeed in demonstrating a significant difference in the primary outcome (COVID-19 progression through day 14) between treatment arms
-Additionally, the trial was </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>underpowered</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> due to early discontinuation (only ~25% of target sample enrolled), which limited its ability to detect non-inferiority or superiority.</t>
-    </r>
-  </si>
-  <si>
-    <t>Continuous variables: Wilcoxon–Mann–Whitney test
-Categorical variables: Fisher’s exact test
-Time-to-event analyses (time to symptom resolution): Kaplan–Meier estimator + Log-rank test; Cox proportional hazards model for predictor associations</t>
   </si>
   <si>
     <t>Control</t>
@@ -1203,17 +1155,87 @@
 Logistic regression to create inverse-odds-ratio weights for mediation.
 Bootstrap (10 000 resamples) for CIs. </t>
   </si>
+  <si>
+    <t>Ear Mite Removal in the Santa Catalina
+Island Fox (Urocyon littoralis catalinae):
+Controlling Risk Factors for Cancer
+Development</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0144271</t>
+  </si>
+  <si>
+    <t>Ear mite prevalence and intensity of infection</t>
+  </si>
+  <si>
+    <t>Prevalence: Binary 
+intensity of infection: Continuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Not Applicable</t>
+  </si>
+  <si>
+    <t>Between-group: Pearson’s chi-square and McNemar’s chi-square for prevalence; Mann–Whitney U for intensity and pathology; Spearman’s rank for score/count correlation
+Within-group: Friedman test for longitudinal changes
+Baseline balance: Yates-corrected chi-square, t-tests, and Mann–Whitney U as appropriate</t>
+  </si>
+  <si>
+    <t>Untreated</t>
+  </si>
+  <si>
+    <t>A controlled trial of interferon gamma to prevent infection in chronic granulomatous disease</t>
+  </si>
+  <si>
+    <t>10.1056/NEJM199102213240801</t>
+  </si>
+  <si>
+    <t>Time to first serious infection (requiring hospitalisation + parenteral antibiotics)</t>
+  </si>
+  <si>
+    <t>Time-to-event: Kaplan–Meier curves with log-rank test (for time to first serious infection).
+Binary/count outcomes: χ² or Fisher’s exact tests for proportions; comparisons of infection counts (likely Poisson or similar, though not specified)</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1136/bmj.2.4582.769</t>
+  </si>
+  <si>
+    <t>Streptomycin Treatment of Pulmonary Tuberculosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Radiological change at 6 months (5-level ordinal scale from “considerable improvement” to “considerable deterioration”)</t>
+  </si>
+  <si>
+    <t>Categorical</t>
+  </si>
+  <si>
+    <t>Primary outcome: Chi-square tests, analysis of variance for comparing proportions between groups
+Secondary outcomes: Log-rank tests for time-to-event analyses, t-tests for continuous variables, chi-square tests for categorical variables</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1342,13 +1364,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1408,177 +1423,189 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1857,13 +1884,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M33" sqref="M33"/>
+      <selection pane="bottomRight" activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1888,7 +1915,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>29</v>
@@ -2396,16 +2423,16 @@
       </c>
       <c r="B13" s="51"/>
       <c r="C13" s="54" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E13" s="16">
         <v>2</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="G13" s="53" t="s">
         <v>36</v>
@@ -2414,7 +2441,7 @@
         <v>3739</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="J13" s="52" t="s">
         <v>38</v>
@@ -2423,7 +2450,7 @@
         <v>10</v>
       </c>
       <c r="L13" s="54" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13">
@@ -2814,16 +2841,16 @@
       </c>
       <c r="B23" s="52"/>
       <c r="C23" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="D23" s="56" t="s">
-        <v>292</v>
+        <v>283</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>284</v>
       </c>
       <c r="E23" s="1">
         <v>2</v>
       </c>
       <c r="F23" s="52" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G23" s="53" t="s">
         <v>36</v>
@@ -2831,8 +2858,8 @@
       <c r="H23" s="16">
         <v>146</v>
       </c>
-      <c r="I23" s="57" t="s">
-        <v>293</v>
+      <c r="I23" s="56" t="s">
+        <v>285</v>
       </c>
       <c r="J23" s="52" t="s">
         <v>99</v>
@@ -2841,7 +2868,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="54" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="M23" s="25"/>
       <c r="N23">
@@ -3105,13 +3132,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C30" s="54" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D30" s="53" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="E30" s="16">
         <v>2</v>
@@ -3126,7 +3153,7 @@
         <v>460</v>
       </c>
       <c r="I30" s="53" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="J30" s="52" t="s">
         <v>9</v>
@@ -3135,7 +3162,7 @@
         <v>22</v>
       </c>
       <c r="L30" s="54" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="M30" s="25"/>
       <c r="N30">
@@ -3190,10 +3217,10 @@
       </c>
       <c r="B32" s="51"/>
       <c r="C32" s="54" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D32" s="53" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="E32" s="16">
         <v>2</v>
@@ -3208,7 +3235,7 @@
         <v>796</v>
       </c>
       <c r="I32" s="53" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="J32" s="52" t="s">
         <v>9</v>
@@ -3217,49 +3244,47 @@
         <v>10</v>
       </c>
       <c r="L32" s="54" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="M32" s="25"/>
       <c r="N32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="135">
+    <row r="33" spans="1:14" ht="120">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="37"/>
+      <c r="C33" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="D33" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="E33" s="37">
+        <v>2</v>
+      </c>
+      <c r="F33" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="C33" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E33" s="37">
-        <v>3</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>193</v>
-      </c>
       <c r="G33" s="38" t="s">
-        <v>194</v>
+        <v>36</v>
       </c>
       <c r="H33" s="37">
-        <v>311</v>
+        <v>107</v>
       </c>
       <c r="I33" s="37" t="s">
-        <v>195</v>
+        <v>308</v>
       </c>
       <c r="J33" s="37" t="s">
-        <v>14</v>
+        <v>309</v>
       </c>
       <c r="K33" s="39" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="L33" s="39" t="s">
-        <v>197</v>
+        <v>310</v>
       </c>
       <c r="M33" s="25"/>
       <c r="N33">
@@ -3272,16 +3297,16 @@
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="27" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E34" s="1">
         <v>2</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G34" s="29" t="s">
         <v>36</v>
@@ -3290,7 +3315,7 @@
         <v>154</v>
       </c>
       <c r="I34" s="40" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="J34" s="29" t="s">
         <v>38</v>
@@ -3299,7 +3324,7 @@
         <v>10</v>
       </c>
       <c r="L34" s="36" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="M34" s="25"/>
       <c r="N34">
@@ -3311,13 +3336,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E35" s="1">
         <v>2</v>
@@ -3332,7 +3357,7 @@
         <v>4556</v>
       </c>
       <c r="I35" s="29" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="J35" s="29" t="s">
         <v>99</v>
@@ -3341,7 +3366,7 @@
         <v>10</v>
       </c>
       <c r="L35" s="36" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="M35" s="25"/>
       <c r="N35">
@@ -3353,19 +3378,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E36" s="1">
         <v>2</v>
       </c>
       <c r="F36" s="28" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G36" s="29" t="s">
         <v>36</v>
@@ -3374,7 +3399,7 @@
         <v>91</v>
       </c>
       <c r="I36" s="29" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="J36" s="29" t="s">
         <v>38</v>
@@ -3383,7 +3408,7 @@
         <v>22</v>
       </c>
       <c r="L36" s="36" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="M36" s="25"/>
       <c r="N36">
@@ -3395,19 +3420,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E37" s="1">
         <v>3</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>36</v>
@@ -3416,16 +3441,16 @@
         <v>114</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="J37" s="41" t="s">
         <v>38</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="L37" s="34" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="M37" s="25"/>
       <c r="N37">
@@ -3437,13 +3462,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E38" s="1">
         <v>2</v>
@@ -3458,7 +3483,7 @@
         <v>602</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="J38" s="41" t="s">
         <v>99</v>
@@ -3467,7 +3492,7 @@
         <v>10</v>
       </c>
       <c r="L38" s="34" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="M38" s="25"/>
       <c r="N38">
@@ -3479,19 +3504,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E39" s="1">
         <v>4</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>36</v>
@@ -3500,7 +3525,7 @@
         <v>2139</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="J39" s="41" t="s">
         <v>9</v>
@@ -3509,7 +3534,7 @@
         <v>10</v>
       </c>
       <c r="L39" s="34" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="M39" s="25"/>
       <c r="N39">
@@ -3521,13 +3546,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E40" s="1">
         <v>2</v>
@@ -3542,7 +3567,7 @@
         <v>470</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="J40" s="41" t="s">
         <v>9</v>
@@ -3551,7 +3576,7 @@
         <v>10</v>
       </c>
       <c r="L40" s="34" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="M40" s="25"/>
       <c r="N40">
@@ -3564,16 +3589,16 @@
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="12" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>36</v>
@@ -3582,7 +3607,7 @@
         <v>99</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="J41" s="41" t="s">
         <v>9</v>
@@ -3591,7 +3616,7 @@
         <v>22</v>
       </c>
       <c r="L41" s="34" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="M41" s="25"/>
       <c r="N41">
@@ -3603,19 +3628,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="41" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D42" s="41" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E42" s="1">
         <v>2</v>
       </c>
       <c r="F42" s="42" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G42" s="41" t="s">
         <v>36</v>
@@ -3624,7 +3649,7 @@
         <v>235</v>
       </c>
       <c r="I42" s="41" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="J42" s="41" t="s">
         <v>99</v>
@@ -3633,7 +3658,7 @@
         <v>10</v>
       </c>
       <c r="L42" s="44" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="M42" s="25"/>
       <c r="N42">
@@ -3646,16 +3671,16 @@
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="43" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D43" s="41" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E43" s="1">
         <v>2</v>
       </c>
       <c r="F43" s="42" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G43" s="41" t="s">
         <v>36</v>
@@ -3664,7 +3689,7 @@
         <v>103</v>
       </c>
       <c r="I43" s="41" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="J43" s="41" t="s">
         <v>9</v>
@@ -3673,7 +3698,7 @@
         <v>22</v>
       </c>
       <c r="L43" s="44" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="M43" s="25"/>
       <c r="N43">
@@ -3685,19 +3710,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="41" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D44" s="41" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E44" s="1">
         <v>2</v>
       </c>
       <c r="F44" s="42" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G44" s="41" t="s">
         <v>36</v>
@@ -3706,7 +3731,7 @@
         <v>823</v>
       </c>
       <c r="I44" s="41" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="J44" s="41" t="s">
         <v>9</v>
@@ -3715,7 +3740,7 @@
         <v>22</v>
       </c>
       <c r="L44" s="44" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="M44" s="25"/>
       <c r="N44">
@@ -3727,19 +3752,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E45" s="1">
         <v>2</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>36</v>
@@ -3748,7 +3773,7 @@
         <v>127</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="J45" s="45" t="s">
         <v>99</v>
@@ -3757,7 +3782,7 @@
         <v>10</v>
       </c>
       <c r="L45" s="34" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="M45" s="25"/>
       <c r="N45">
@@ -3769,19 +3794,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="E46" s="1">
         <v>3</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>36</v>
@@ -3790,16 +3815,16 @@
         <v>64</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="J46" s="45" t="s">
         <v>38</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="L46" s="34" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M46" s="25"/>
       <c r="N46">
@@ -3812,16 +3837,16 @@
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="12" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E47" s="1">
         <v>2</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>36</v>
@@ -3830,7 +3855,7 @@
         <v>70</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="J47" s="46" t="s">
         <v>38</v>
@@ -3839,7 +3864,7 @@
         <v>10</v>
       </c>
       <c r="L47" s="34" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="M47" s="25"/>
       <c r="N47">
@@ -3851,19 +3876,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E48" s="1">
         <v>2</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>36</v>
@@ -3872,7 +3897,7 @@
         <v>252</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J48" s="46" t="s">
         <v>99</v>
@@ -3880,11 +3905,51 @@
       <c r="K48" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L48" s="34" t="s">
-        <v>280</v>
+      <c r="L48" s="12" t="s">
+        <v>272</v>
       </c>
       <c r="M48" s="25"/>
       <c r="N48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="180">
+      <c r="A49" s="16">
+        <v>48</v>
+      </c>
+      <c r="B49" s="51"/>
+      <c r="C49" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E49" s="16">
+        <v>2</v>
+      </c>
+      <c r="F49" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="G49" s="58" t="s">
+        <v>299</v>
+      </c>
+      <c r="H49" s="16">
+        <v>117</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="J49" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="K49" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="L49" s="60" t="s">
+        <v>300</v>
+      </c>
+      <c r="M49" s="25"/>
+      <c r="N49">
         <v>1</v>
       </c>
     </row>
@@ -3893,19 +3958,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E50" s="1">
         <v>2</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>36</v>
@@ -3914,7 +3979,7 @@
         <v>74</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="J50" s="47" t="s">
         <v>38</v>
@@ -3922,11 +3987,51 @@
       <c r="K50" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L50" s="34" t="s">
-        <v>285</v>
+      <c r="L50" s="12" t="s">
+        <v>277</v>
       </c>
       <c r="M50" s="25"/>
       <c r="N50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="120">
+      <c r="A51" s="16">
+        <v>50</v>
+      </c>
+      <c r="B51" s="51"/>
+      <c r="C51" s="60" t="s">
+        <v>302</v>
+      </c>
+      <c r="D51" s="58" t="s">
+        <v>303</v>
+      </c>
+      <c r="E51" s="16">
+        <v>2</v>
+      </c>
+      <c r="F51" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="G51" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="H51" s="16">
+        <v>128</v>
+      </c>
+      <c r="I51" s="58" t="s">
+        <v>304</v>
+      </c>
+      <c r="J51" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="K51" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="L51" s="60" t="s">
+        <v>305</v>
+      </c>
+      <c r="M51" s="25"/>
+      <c r="N51">
         <v>1</v>
       </c>
     </row>

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EF26B2-1152-4BED-BBE1-67B7FAB85261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9335F6BF-6E24-40C8-A8F2-04D44FE6B755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="315">
   <si>
     <t>NCT02491333</t>
   </si>
@@ -1210,6 +1210,18 @@
   <si>
     <t>Primary outcome: Chi-square tests, analysis of variance for comparing proportions between groups
 Secondary outcomes: Log-rank tests for time-to-event analyses, t-tests for continuous variables, chi-square tests for categorical variables</t>
+  </si>
+  <si>
+    <t>cgd</t>
+  </si>
+  <si>
+    <t>supraclavicular</t>
+  </si>
+  <si>
+    <t>laryngoscope</t>
+  </si>
+  <si>
+    <t>strep_tb</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1604,9 +1616,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1887,10 +1896,10 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K34" sqref="K34"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3255,11 +3264,13 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="37"/>
+      <c r="B33" s="37" t="s">
+        <v>314</v>
+      </c>
       <c r="C33" s="39" t="s">
         <v>307</v>
       </c>
-      <c r="D33" s="61" t="s">
+      <c r="D33" s="11" t="s">
         <v>306</v>
       </c>
       <c r="E33" s="37">
@@ -3587,7 +3598,9 @@
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="C41" s="12" t="s">
         <v>229</v>
       </c>
@@ -3669,7 +3682,9 @@
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="C43" s="43" t="s">
         <v>240</v>
       </c>
@@ -3999,7 +4014,9 @@
       <c r="A51" s="16">
         <v>50</v>
       </c>
-      <c r="B51" s="51"/>
+      <c r="B51" s="16" t="s">
+        <v>311</v>
+      </c>
       <c r="C51" s="60" t="s">
         <v>302</v>
       </c>

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10824"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephshao/Desktop/UMICH/RCT_Reseach/cleaned_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9335F6BF-6E24-40C8-A8F2-04D44FE6B755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C931E3-B502-D14B-AC5E-CAD3EB181C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="376">
   <si>
     <t>NCT02491333</t>
   </si>
@@ -951,7 +951,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>without</t>
@@ -961,7 +961,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> intravascular uptake (binary per patient)</t>
@@ -1223,12 +1223,199 @@
   <si>
     <t>strep_tb</t>
   </si>
+  <si>
+    <t>Randomization Scheme</t>
+  </si>
+  <si>
+    <t>Scientific Area</t>
+  </si>
+  <si>
+    <t>Nephrology</t>
+  </si>
+  <si>
+    <t>Hepatology</t>
+  </si>
+  <si>
+    <t>stratified by site</t>
+  </si>
+  <si>
+    <t>simple randomization</t>
+  </si>
+  <si>
+    <t>Reproductive Endocrinology</t>
+  </si>
+  <si>
+    <t>blocked randomization</t>
+  </si>
+  <si>
+    <t>Diabetes / Cardiovascular Disease</t>
+  </si>
+  <si>
+    <t>biased coin</t>
+  </si>
+  <si>
+    <t>Blocked randomization,
+ stratified by sibling status</t>
+  </si>
+  <si>
+    <t>Infectious Diseases / COVID-19</t>
+  </si>
+  <si>
+    <t>Obstetrics / Maternal Health</t>
+  </si>
+  <si>
+    <t>Cognitive Neuroscience / Education</t>
+  </si>
+  <si>
+    <t>blocked randomization,
+stratified by center</t>
+  </si>
+  <si>
+    <t>Anaesthesiology / Airway Management</t>
+  </si>
+  <si>
+    <t>centralized randomization,
+stratified by center</t>
+  </si>
+  <si>
+    <t>Cardiology / Heart Failure</t>
+  </si>
+  <si>
+    <t>Oncology</t>
+  </si>
+  <si>
+    <t>Obstetrics</t>
+  </si>
+  <si>
+    <t>Pulmonary Rehabilitation / COVID-19 Recovery</t>
+  </si>
+  <si>
+    <t>Pediatric Rehabilitation / Cerebral Palsy</t>
+  </si>
+  <si>
+    <t>blocked randomization, stratified by hospital</t>
+  </si>
+  <si>
+    <t>HIV</t>
+  </si>
+  <si>
+    <t>Transplant Surgery</t>
+  </si>
+  <si>
+    <t>Psychiatry</t>
+  </si>
+  <si>
+    <t>Cardiology</t>
+  </si>
+  <si>
+    <t>Diabetes</t>
+  </si>
+  <si>
+    <t>Musculoskeletal Rehabilitation</t>
+  </si>
+  <si>
+    <t>Central web-based randomization, minimization algorithm adjusting for prognostic factors.</t>
+  </si>
+  <si>
+    <t>Critical Care / Hematology</t>
+  </si>
+  <si>
+    <t>Anesthesiology</t>
+  </si>
+  <si>
+    <t>Neurology</t>
+  </si>
+  <si>
+    <t>Neurosurgery / Anesthesiology</t>
+  </si>
+  <si>
+    <t>Cardiovascular Medicine</t>
+  </si>
+  <si>
+    <t>cluster randomization</t>
+  </si>
+  <si>
+    <t>blocked randomization, stratified by site and ART status</t>
+  </si>
+  <si>
+    <t>stratified by age and cancer stage</t>
+  </si>
+  <si>
+    <t>blocked randomization, stratified by sex</t>
+  </si>
+  <si>
+    <t>Psychology</t>
+  </si>
+  <si>
+    <t>stratified by disease group</t>
+  </si>
+  <si>
+    <t>Global Health / Neonatology / Infectious Diseases</t>
+  </si>
+  <si>
+    <t>Maternal Health / Obstetrics</t>
+  </si>
+  <si>
+    <t>Blocked randomization,
+ stratified by site</t>
+  </si>
+  <si>
+    <t>Gastroenterology / Endoscopy</t>
+  </si>
+  <si>
+    <t>stratified by center</t>
+  </si>
+  <si>
+    <t>stratified by prior antiretroviral exposure</t>
+  </si>
+  <si>
+    <t>Addiction Medicine / Primary Care</t>
+  </si>
+  <si>
+    <t>blocked randomization, stratified by primary substance (alcohol vs drugs)</t>
+  </si>
+  <si>
+    <t>blocked randomization, stratified by center</t>
+  </si>
+  <si>
+    <t>Maternal &amp; Fetal Health</t>
+  </si>
+  <si>
+    <t>Endocrinology</t>
+  </si>
+  <si>
+    <t>Obstetrics / Dentistry</t>
+  </si>
+  <si>
+    <t>stratified by store and sex</t>
+  </si>
+  <si>
+    <t>Public Health / Nutrition Economics</t>
+  </si>
+  <si>
+    <t>Medical Education</t>
+  </si>
+  <si>
+    <t>Pediatrics</t>
+  </si>
+  <si>
+    <t>Wildlife Conservation / Veterinary Medicine</t>
+  </si>
+  <si>
+    <t>Neonatology</t>
+  </si>
+  <si>
+    <t>blocked randomization, stratified by gestational age</t>
+  </si>
+  <si>
+    <t>Immunology / Rare Diseases</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1353,14 +1540,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1385,7 +1572,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1432,12 +1619,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1617,6 +1830,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1893,33 +2115,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="K49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" style="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="49" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.5703125" style="50" customWidth="1"/>
-    <col min="11" max="11" width="44.42578125" style="48" customWidth="1"/>
-    <col min="12" max="12" width="40.28515625" style="49" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="38.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="51.5" style="49" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.5" style="50" customWidth="1"/>
+    <col min="11" max="11" width="44.5" style="48" customWidth="1"/>
+    <col min="12" max="12" width="40.33203125" style="49" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.6640625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" customHeight="1">
+    <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
@@ -1957,10 +2180,16 @@
         <v>35</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="75">
+    <row r="2" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1997,12 +2226,15 @@
       <c r="L2" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="105">
+      <c r="M2" s="61" t="s">
+        <v>319</v>
+      </c>
+      <c r="N2" s="61" t="s">
+        <v>321</v>
+      </c>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2039,12 +2271,15 @@
       <c r="L3" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="180">
+      <c r="M3" s="61" t="s">
+        <v>320</v>
+      </c>
+      <c r="N3" s="62" t="s">
+        <v>326</v>
+      </c>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2081,12 +2316,15 @@
       <c r="L4" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="M4" s="9"/>
-      <c r="N4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="135">
+      <c r="M4" s="61" t="s">
+        <v>320</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="O4" s="25"/>
+    </row>
+    <row r="5" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2123,12 +2361,15 @@
       <c r="L5" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="M5" s="9"/>
-      <c r="N5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="195">
+      <c r="M5" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="O5" s="25"/>
+    </row>
+    <row r="6" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2165,12 +2406,13 @@
       <c r="L6" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="120">
+      <c r="M6" s="51"/>
+      <c r="N6" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="O6" s="25"/>
+    </row>
+    <row r="7" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2207,12 +2449,15 @@
       <c r="L7" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="M7" s="9"/>
-      <c r="N7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="135">
+      <c r="M7" s="61" t="s">
+        <v>324</v>
+      </c>
+      <c r="N7" s="61" t="s">
+        <v>323</v>
+      </c>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2249,12 +2494,15 @@
       <c r="L8" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="M8" s="9"/>
-      <c r="N8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="90">
+      <c r="M8" s="64" t="s">
+        <v>325</v>
+      </c>
+      <c r="N8" s="62" t="s">
+        <v>328</v>
+      </c>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2291,14 +2539,17 @@
       <c r="L9" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="N9" s="61" t="s">
+        <v>326</v>
+      </c>
+      <c r="O9" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="120">
+    </row>
+    <row r="10" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2335,14 +2586,17 @@
       <c r="L10" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="N10" s="61" t="s">
+        <v>327</v>
+      </c>
+      <c r="O10" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="285">
+    </row>
+    <row r="11" spans="1:15" ht="288" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2379,12 +2633,15 @@
       <c r="L11" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="M11" s="8"/>
-      <c r="N11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="150">
+      <c r="M11" s="63" t="s">
+        <v>331</v>
+      </c>
+      <c r="N11" s="61" t="s">
+        <v>330</v>
+      </c>
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2421,12 +2678,15 @@
       <c r="L12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="8"/>
-      <c r="N12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="90">
+      <c r="M12" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="N12" s="61" t="s">
+        <v>332</v>
+      </c>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -2461,12 +2721,15 @@
       <c r="L13" s="54" t="s">
         <v>282</v>
       </c>
-      <c r="M13" s="9"/>
-      <c r="N13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="90">
+      <c r="M13" s="61" t="s">
+        <v>319</v>
+      </c>
+      <c r="N13" s="61" t="s">
+        <v>333</v>
+      </c>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2503,12 +2766,15 @@
       <c r="L14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M14" s="9"/>
-      <c r="N14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="210">
+      <c r="M14" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="N14" s="65" t="s">
+        <v>334</v>
+      </c>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2542,15 +2808,18 @@
       <c r="K15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="32" t="s">
+      <c r="L15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="M15" s="8"/>
-      <c r="N15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="135">
+      <c r="M15" s="61" t="s">
+        <v>337</v>
+      </c>
+      <c r="N15" s="62" t="s">
+        <v>335</v>
+      </c>
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2584,15 +2853,18 @@
       <c r="K16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="33" t="s">
+      <c r="L16" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="M16" s="9"/>
-      <c r="N16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="60">
+      <c r="M16" s="61" t="s">
+        <v>320</v>
+      </c>
+      <c r="N16" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2629,12 +2901,15 @@
       <c r="L17" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="M17" s="8"/>
-      <c r="N17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="150">
+      <c r="M17" s="61" t="s">
+        <v>320</v>
+      </c>
+      <c r="N17" s="61" t="s">
+        <v>340</v>
+      </c>
+      <c r="O17" s="8"/>
+    </row>
+    <row r="18" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2671,12 +2946,15 @@
       <c r="L18" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="M18" s="8"/>
-      <c r="N18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="195">
+      <c r="M18" s="61" t="s">
+        <v>320</v>
+      </c>
+      <c r="N18" s="61" t="s">
+        <v>341</v>
+      </c>
+      <c r="O18" s="8"/>
+    </row>
+    <row r="19" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2713,12 +2991,15 @@
       <c r="L19" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="M19" s="8"/>
-      <c r="N19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="150">
+      <c r="M19" s="61" t="s">
+        <v>319</v>
+      </c>
+      <c r="N19" s="61" t="s">
+        <v>338</v>
+      </c>
+      <c r="O19" s="8"/>
+    </row>
+    <row r="20" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2755,12 +3036,15 @@
       <c r="L20" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="M20" s="8"/>
-      <c r="N20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="90">
+      <c r="M20" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="N20" s="51" t="s">
+        <v>339</v>
+      </c>
+      <c r="O20" s="8"/>
+    </row>
+    <row r="21" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2797,12 +3081,15 @@
       <c r="L21" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="M21" s="8"/>
-      <c r="N21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="105">
+      <c r="M21" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="N21" s="61" t="s">
+        <v>342</v>
+      </c>
+      <c r="O21" s="8"/>
+    </row>
+    <row r="22" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2839,12 +3126,15 @@
       <c r="L22" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="M22" s="8"/>
-      <c r="N22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="60">
+      <c r="M22" s="61" t="s">
+        <v>320</v>
+      </c>
+      <c r="N22" s="61" t="s">
+        <v>343</v>
+      </c>
+      <c r="O22" s="8"/>
+    </row>
+    <row r="23" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>22</v>
       </c>
@@ -2879,12 +3169,15 @@
       <c r="L23" s="54" t="s">
         <v>286</v>
       </c>
-      <c r="M23" s="25"/>
-      <c r="N23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="90">
+      <c r="M23" s="63" t="s">
+        <v>344</v>
+      </c>
+      <c r="N23" s="61" t="s">
+        <v>318</v>
+      </c>
+      <c r="O23" s="25"/>
+    </row>
+    <row r="24" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2921,12 +3214,15 @@
       <c r="L24" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="M24" s="14"/>
-      <c r="N24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="180">
+      <c r="M24" s="61" t="s">
+        <v>320</v>
+      </c>
+      <c r="N24" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="O24" s="14"/>
+    </row>
+    <row r="25" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2963,12 +3259,15 @@
       <c r="L25" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="M25" s="12"/>
-      <c r="N25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="180">
+      <c r="M25" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="N25" s="61" t="s">
+        <v>346</v>
+      </c>
+      <c r="O25" s="12"/>
+    </row>
+    <row r="26" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3005,12 +3304,15 @@
       <c r="L26" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="M26" s="12"/>
-      <c r="N26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="195">
+      <c r="M26" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="N26" s="61" t="s">
+        <v>347</v>
+      </c>
+      <c r="O26" s="12"/>
+    </row>
+    <row r="27" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3047,12 +3349,15 @@
       <c r="L27" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="M27" s="30"/>
-      <c r="N27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="105">
+      <c r="M27" s="61" t="s">
+        <v>320</v>
+      </c>
+      <c r="N27" s="61" t="s">
+        <v>338</v>
+      </c>
+      <c r="O27" s="30"/>
+    </row>
+    <row r="28" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3089,12 +3394,15 @@
       <c r="L28" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="M28" s="12"/>
-      <c r="N28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="165">
+      <c r="M28" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="N28" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="O28" s="12"/>
+    </row>
+    <row r="29" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3131,12 +3439,15 @@
       <c r="L29" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="M29" s="12"/>
-      <c r="N29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="225">
+      <c r="M29" s="61" t="s">
+        <v>350</v>
+      </c>
+      <c r="N29" s="61" t="s">
+        <v>349</v>
+      </c>
+      <c r="O29" s="12"/>
+    </row>
+    <row r="30" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>29</v>
       </c>
@@ -3173,12 +3484,15 @@
       <c r="L30" s="54" t="s">
         <v>290</v>
       </c>
-      <c r="M30" s="25"/>
-      <c r="N30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="180">
+      <c r="M30" s="63" t="s">
+        <v>351</v>
+      </c>
+      <c r="N30" s="61" t="s">
+        <v>338</v>
+      </c>
+      <c r="O30" s="25"/>
+    </row>
+    <row r="31" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3215,12 +3529,15 @@
       <c r="L31" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="M31" s="12"/>
-      <c r="N31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="105">
+      <c r="M31" s="61" t="s">
+        <v>320</v>
+      </c>
+      <c r="N31" s="61" t="s">
+        <v>340</v>
+      </c>
+      <c r="O31" s="12"/>
+    </row>
+    <row r="32" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>31</v>
       </c>
@@ -3255,12 +3572,15 @@
       <c r="L32" s="54" t="s">
         <v>294</v>
       </c>
-      <c r="M32" s="25"/>
-      <c r="N32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="120">
+      <c r="M32" s="61" t="s">
+        <v>352</v>
+      </c>
+      <c r="N32" s="61" t="s">
+        <v>333</v>
+      </c>
+      <c r="O32" s="25"/>
+    </row>
+    <row r="33" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3297,12 +3617,15 @@
       <c r="L33" s="39" t="s">
         <v>310</v>
       </c>
-      <c r="M33" s="25"/>
-      <c r="N33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="135">
+      <c r="M33" s="61" t="s">
+        <v>353</v>
+      </c>
+      <c r="N33" s="61" t="s">
+        <v>340</v>
+      </c>
+      <c r="O33" s="25"/>
+    </row>
+    <row r="34" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>33</v>
       </c>
@@ -3337,12 +3660,15 @@
       <c r="L34" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="M34" s="25"/>
-      <c r="N34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="105">
+      <c r="M34" s="61" t="s">
+        <v>355</v>
+      </c>
+      <c r="N34" s="61" t="s">
+        <v>354</v>
+      </c>
+      <c r="O34" s="25"/>
+    </row>
+    <row r="35" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3379,12 +3705,15 @@
       <c r="L35" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="M35" s="25"/>
-      <c r="N35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="135">
+      <c r="M35" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="N35" s="61" t="s">
+        <v>356</v>
+      </c>
+      <c r="O35" s="25"/>
+    </row>
+    <row r="36" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
         <v>35</v>
       </c>
@@ -3421,12 +3750,15 @@
       <c r="L36" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="M36" s="25"/>
-      <c r="N36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="180">
+      <c r="M36" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="N36" s="61" t="s">
+        <v>357</v>
+      </c>
+      <c r="O36" s="25"/>
+    </row>
+    <row r="37" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3463,12 +3795,15 @@
       <c r="L37" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="M37" s="25"/>
-      <c r="N37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="120">
+      <c r="M37" s="63" t="s">
+        <v>358</v>
+      </c>
+      <c r="N37" s="61" t="s">
+        <v>347</v>
+      </c>
+      <c r="O37" s="25"/>
+    </row>
+    <row r="38" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
         <v>37</v>
       </c>
@@ -3505,12 +3840,15 @@
       <c r="L38" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="M38" s="25"/>
-      <c r="N38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="120">
+      <c r="M38" s="61" t="s">
+        <v>360</v>
+      </c>
+      <c r="N38" s="61" t="s">
+        <v>359</v>
+      </c>
+      <c r="O38" s="25"/>
+    </row>
+    <row r="39" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3547,12 +3885,15 @@
       <c r="L39" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="M39" s="25"/>
-      <c r="N39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="105">
+      <c r="M39" s="61" t="s">
+        <v>361</v>
+      </c>
+      <c r="N39" s="61" t="s">
+        <v>338</v>
+      </c>
+      <c r="O39" s="25"/>
+    </row>
+    <row r="40" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
         <v>39</v>
       </c>
@@ -3589,12 +3930,15 @@
       <c r="L40" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="M40" s="25"/>
-      <c r="N40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="285">
+      <c r="M40" s="63" t="s">
+        <v>363</v>
+      </c>
+      <c r="N40" s="61" t="s">
+        <v>362</v>
+      </c>
+      <c r="O40" s="25"/>
+    </row>
+    <row r="41" spans="1:15" ht="256" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3631,12 +3975,15 @@
       <c r="L41" s="34" t="s">
         <v>233</v>
       </c>
-      <c r="M41" s="25"/>
-      <c r="N41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="195">
+      <c r="M41" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="N41" s="61" t="s">
+        <v>346</v>
+      </c>
+      <c r="O41" s="25"/>
+    </row>
+    <row r="42" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
         <v>41</v>
       </c>
@@ -3673,12 +4020,15 @@
       <c r="L42" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="M42" s="25"/>
-      <c r="N42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="210">
+      <c r="M42" s="61" t="s">
+        <v>364</v>
+      </c>
+      <c r="N42" s="61" t="s">
+        <v>365</v>
+      </c>
+      <c r="O42" s="25"/>
+    </row>
+    <row r="43" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3715,12 +4065,15 @@
       <c r="L43" s="44" t="s">
         <v>243</v>
       </c>
-      <c r="M43" s="25"/>
-      <c r="N43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="165">
+      <c r="M43" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="N43" s="61" t="s">
+        <v>366</v>
+      </c>
+      <c r="O43" s="25"/>
+    </row>
+    <row r="44" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
         <v>43</v>
       </c>
@@ -3757,12 +4110,15 @@
       <c r="L44" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="M44" s="25"/>
-      <c r="N44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="135">
+      <c r="M44" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="N44" s="61" t="s">
+        <v>367</v>
+      </c>
+      <c r="O44" s="25"/>
+    </row>
+    <row r="45" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3799,12 +4155,15 @@
       <c r="L45" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="M45" s="25"/>
-      <c r="N45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="135">
+      <c r="M45" s="61" t="s">
+        <v>320</v>
+      </c>
+      <c r="N45" s="61" t="s">
+        <v>346</v>
+      </c>
+      <c r="O45" s="25"/>
+    </row>
+    <row r="46" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A46" s="16">
         <v>45</v>
       </c>
@@ -3841,12 +4200,15 @@
       <c r="L46" s="34" t="s">
         <v>261</v>
       </c>
-      <c r="M46" s="25"/>
-      <c r="N46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="195">
+      <c r="M46" s="61" t="s">
+        <v>368</v>
+      </c>
+      <c r="N46" s="61" t="s">
+        <v>369</v>
+      </c>
+      <c r="O46" s="25"/>
+    </row>
+    <row r="47" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3881,12 +4243,15 @@
       <c r="L47" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="M47" s="25"/>
-      <c r="N47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="225">
+      <c r="M47" s="61" t="s">
+        <v>320</v>
+      </c>
+      <c r="N47" s="61" t="s">
+        <v>370</v>
+      </c>
+      <c r="O47" s="25"/>
+    </row>
+    <row r="48" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
         <v>47</v>
       </c>
@@ -3923,12 +4288,15 @@
       <c r="L48" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="M48" s="25"/>
-      <c r="N48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="180">
+      <c r="M48" s="61" t="s">
+        <v>320</v>
+      </c>
+      <c r="N48" s="61" t="s">
+        <v>371</v>
+      </c>
+      <c r="O48" s="25"/>
+    </row>
+    <row r="49" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A49" s="16">
         <v>48</v>
       </c>
@@ -3963,12 +4331,15 @@
       <c r="L49" s="60" t="s">
         <v>300</v>
       </c>
-      <c r="M49" s="25"/>
-      <c r="N49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="165">
+      <c r="M49" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="N49" s="61" t="s">
+        <v>372</v>
+      </c>
+      <c r="O49" s="25"/>
+    </row>
+    <row r="50" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A50" s="16">
         <v>49</v>
       </c>
@@ -4005,12 +4376,15 @@
       <c r="L50" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="M50" s="25"/>
-      <c r="N50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="120">
+      <c r="M50" s="63" t="s">
+        <v>374</v>
+      </c>
+      <c r="N50" s="62" t="s">
+        <v>373</v>
+      </c>
+      <c r="O50" s="25"/>
+    </row>
+    <row r="51" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A51" s="16">
         <v>50</v>
       </c>
@@ -4047,10 +4421,13 @@
       <c r="L51" s="60" t="s">
         <v>305</v>
       </c>
-      <c r="M51" s="25"/>
-      <c r="N51">
-        <v>1</v>
-      </c>
+      <c r="M51" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="N51" s="61" t="s">
+        <v>375</v>
+      </c>
+      <c r="O51" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephshao/Desktop/UMICH/RCT_Reseach/cleaned_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C931E3-B502-D14B-AC5E-CAD3EB181C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A60297B-EAAA-43AA-B575-023BF68228AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="375">
   <si>
     <t>NCT02491333</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>https://doi.org/10.1371/journal.pmed.1002051</t>
-  </si>
-  <si>
-    <t>Composite binary outcome</t>
   </si>
   <si>
     <t>https://bmjopen.bmj.com/content/11/12/e050271</t>
@@ -529,14 +526,6 @@
   </si>
   <si>
     <t xml:space="preserve">Composite of AKI progression (to a higher KDIGO stage), receipt of dialysis, or death within 14 days of randomization </t>
-  </si>
-  <si>
-    <t>Composite binary outcome, Time to event</t>
-  </si>
-  <si>
-    <t>Primary analysis: Mantel–Haenszel test (stratified by hospital) for relative risks; Cox proportional hazards regression (stratified by hospital) for time-to-event
-Sensitivity: modified Poisson generalized estimating equations with robust variance
-Continuous/process measures: Van Elteren test (stratified); Kaplan–Meier curves and log-rank tests for site-specific time-to-event analyses</t>
   </si>
   <si>
     <t xml:space="preserve">Change from baseline to week 6 in serum fibrogenesis markers:
@@ -1208,10 +1197,6 @@
     <t>Categorical</t>
   </si>
   <si>
-    <t>Primary outcome: Chi-square tests, analysis of variance for comparing proportions between groups
-Secondary outcomes: Log-rank tests for time-to-event analyses, t-tests for continuous variables, chi-square tests for categorical variables</t>
-  </si>
-  <si>
     <t>cgd</t>
   </si>
   <si>
@@ -1409,18 +1394,44 @@
   </si>
   <si>
     <t>Immunology / Rare Diseases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Composite Binary </t>
+  </si>
+  <si>
+    <t>Primary analysis: Mantel–Haenszel test (stratified by hospital) for relative risks; Cox proportional hazards regression (stratified by hospital) for Time-to-event
+Sensitivity: modified Poisson generalized estimating equations with robust variance
+Continuous/process measures: Van Elteren test (stratified); Kaplan–Meier curves and log-rank tests for site-specific Time-to-event analyses</t>
+  </si>
+  <si>
+    <t>Primary outcome: Chi-square tests, analysis of variance for comparing proportions between groups
+Secondary outcomes: Log-rank tests for Time-to-event analyses, t-tests for continuous variables, chi-square tests for categorical variables</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1648,197 +1659,198 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2117,79 +2129,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K49" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M52" sqref="M52"/>
+      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.5" style="49" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.83203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.5" style="50" customWidth="1"/>
-    <col min="11" max="11" width="44.5" style="48" customWidth="1"/>
-    <col min="12" max="12" width="40.33203125" style="49" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="38.6640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="49" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="11" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37" style="50" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="52.85546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43.140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.140625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="18" customHeight="1">
       <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>35</v>
-      </c>
       <c r="M1" s="4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="75">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2206,7 +2219,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G2" s="2">
         <v>3</v>
@@ -2215,26 +2228,26 @@
         <v>342</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L2" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="L2" s="32" t="s">
-        <v>133</v>
-      </c>
       <c r="M2" s="61" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="N2" s="61" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="90">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2251,7 +2264,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G3" s="2">
         <v>3</v>
@@ -2260,7 +2273,7 @@
         <v>400</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>9</v>
@@ -2269,62 +2282,62 @@
         <v>10</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M3" s="61" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N3" s="62" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="O3" s="9"/>
     </row>
-    <row r="4" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="180">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="E4" s="2">
         <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" s="2">
         <v>6030</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L4" s="33" t="s">
-        <v>142</v>
+        <v>373</v>
       </c>
       <c r="M4" s="61" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="O4" s="25"/>
     </row>
-    <row r="5" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="135">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2341,7 +2354,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G5" s="2">
         <v>2</v>
@@ -2350,69 +2363,69 @@
         <v>75</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L5" s="33" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M5" s="61" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="O5" s="25"/>
     </row>
-    <row r="6" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="195">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" s="2">
         <v>5060</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>14</v>
+        <v>145</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L6" s="33" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M6" s="51"/>
       <c r="N6" s="8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="O6" s="25"/>
     </row>
-    <row r="7" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="120">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2429,7 +2442,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" s="2">
         <v>4</v>
@@ -2438,227 +2451,227 @@
         <v>463</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L7" s="33" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M7" s="61" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="N7" s="61" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="135">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>184</v>
-      </c>
       <c r="G8" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="2">
         <v>38</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L8" s="33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M8" s="64" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="N8" s="62" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="O8" s="9"/>
     </row>
-    <row r="9" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="90">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" s="2">
         <v>115</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L9" s="33" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M9" s="61" t="s">
+        <v>318</v>
+      </c>
+      <c r="N9" s="61" t="s">
         <v>322</v>
       </c>
-      <c r="N9" s="61" t="s">
-        <v>326</v>
-      </c>
       <c r="O9" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="120">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="G10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" s="2">
         <v>577</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M10" s="63" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="N10" s="61" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="288" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="270">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" s="2">
         <v>256</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M11" s="63" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="N11" s="61" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="O11" s="8"/>
     </row>
-    <row r="12" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="135">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G12" s="2">
         <v>2</v>
@@ -2667,86 +2680,86 @@
         <v>44</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M12" s="61" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="N12" s="61" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="O12" s="8"/>
     </row>
-    <row r="13" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="75">
       <c r="A13" s="16">
         <v>12</v>
       </c>
       <c r="B13" s="51"/>
       <c r="C13" s="54" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E13" s="16">
         <v>2</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13" s="16">
         <v>3739</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J13" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K13" s="55" t="s">
         <v>10</v>
       </c>
       <c r="L13" s="54" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M13" s="61" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="N13" s="61" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="90">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E14" s="2">
         <v>2</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G14" s="2">
         <v>4</v>
@@ -2755,536 +2768,536 @@
         <v>480</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="9" t="s">
-        <v>23</v>
-      </c>
       <c r="M14" s="61" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="N14" s="65" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="195">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="E15" s="2">
         <v>2</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15" s="2">
         <v>119</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>10</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M15" s="61" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="N15" s="62" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="O15" s="8"/>
     </row>
-    <row r="16" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="120">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="2">
         <v>2</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16" s="2">
         <v>28</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>10</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M16" s="61" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N16" s="65" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="O16" s="9"/>
     </row>
-    <row r="17" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="60">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="D17" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>53</v>
-      </c>
       <c r="E17" s="2">
         <v>2</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17" s="2">
         <v>48</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M17" s="61" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N17" s="61" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="O17" s="8"/>
     </row>
-    <row r="18" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="120">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E18" s="2">
         <v>4</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18" s="2">
         <v>294</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="L18" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="L18" s="32" t="s">
-        <v>61</v>
-      </c>
       <c r="M18" s="61" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N18" s="61" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="O18" s="8"/>
     </row>
-    <row r="19" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="180">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="D19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="2">
-        <v>2</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="G19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19" s="2">
         <v>295</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="32" t="s">
-        <v>68</v>
-      </c>
       <c r="M19" s="61" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="N19" s="61" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O19" s="8"/>
     </row>
-    <row r="20" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="135">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="2">
-        <v>2</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="G20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20" s="2">
         <v>32</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" s="32" t="s">
-        <v>74</v>
-      </c>
       <c r="M20" s="61" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="N20" s="51" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="O20" s="8"/>
     </row>
-    <row r="21" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="90">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="D21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="E21" s="2">
         <v>2</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21" s="2">
         <v>37</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L21" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M21" s="61" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="N21" s="61" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="O21" s="8"/>
     </row>
-    <row r="22" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="90">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E22" s="2">
         <v>3</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H22" s="2">
         <v>1462</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K22" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L22" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L22" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="M22" s="61" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N22" s="61" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O22" s="8"/>
     </row>
-    <row r="23" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="60">
       <c r="A23" s="16">
         <v>22</v>
       </c>
       <c r="B23" s="52"/>
       <c r="C23" s="54" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E23" s="1">
         <v>2</v>
       </c>
       <c r="F23" s="52" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G23" s="53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H23" s="16">
         <v>146</v>
       </c>
       <c r="I23" s="56" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J23" s="52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K23" s="54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L23" s="54" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M23" s="63" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="N23" s="61" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="O23" s="25"/>
     </row>
-    <row r="24" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="90">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="D24" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="1">
-        <v>2</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H24" s="1">
         <v>92</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J24" s="13" t="s">
         <v>9</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M24" s="61" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N24" s="61" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="O24" s="14"/>
     </row>
-    <row r="25" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="165">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H25" s="1">
         <v>50</v>
       </c>
       <c r="I25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J25" s="15" t="s">
         <v>98</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>99</v>
       </c>
       <c r="K25" s="12" t="s">
         <v>10</v>
       </c>
       <c r="L25" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M25" s="61" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="N25" s="61" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="O25" s="12"/>
     </row>
-    <row r="26" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="180">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="D26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="16">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="E26" s="16">
-        <v>2</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="G26" s="1">
         <v>3</v>
@@ -3293,178 +3306,178 @@
         <v>55</v>
       </c>
       <c r="I26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J26" s="17" t="s">
         <v>106</v>
-      </c>
-      <c r="J26" s="17" t="s">
-        <v>107</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>10</v>
       </c>
       <c r="L26" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M26" s="61" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="N26" s="61" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="O26" s="12"/>
     </row>
-    <row r="27" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="180">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="D27" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" s="1">
-        <v>2</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H27" s="1">
         <v>242</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J27" s="22" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K27" s="18" t="s">
         <v>10</v>
       </c>
       <c r="L27" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M27" s="61" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N27" s="61" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O27" s="30"/>
     </row>
-    <row r="28" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="105">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="D28" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E28" s="1">
-        <v>2</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="G28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28" s="1">
         <v>101</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="J28" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" s="34" t="s">
-        <v>119</v>
-      </c>
       <c r="M28" s="61" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="N28" s="61" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="O28" s="12"/>
     </row>
-    <row r="29" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="150">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>122</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E29" s="1">
         <v>2</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H29" s="1">
         <v>120</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>10</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M29" s="61" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="N29" s="61" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="O29" s="12"/>
     </row>
-    <row r="30" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="210">
       <c r="A30" s="16">
         <v>29</v>
       </c>
       <c r="B30" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="C30" s="54" t="s">
+        <v>284</v>
+      </c>
+      <c r="D30" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="C30" s="54" t="s">
-        <v>287</v>
-      </c>
-      <c r="D30" s="53" t="s">
-        <v>291</v>
-      </c>
       <c r="E30" s="16">
         <v>2</v>
       </c>
       <c r="F30" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G30" s="1">
         <v>3</v>
@@ -3473,95 +3486,95 @@
         <v>460</v>
       </c>
       <c r="I30" s="53" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J30" s="52" t="s">
         <v>9</v>
       </c>
       <c r="K30" s="55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L30" s="54" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M30" s="63" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="N30" s="61" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O30" s="25"/>
     </row>
-    <row r="31" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="165">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="D31" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="E31" s="1">
         <v>3</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31" s="1">
         <v>75</v>
       </c>
       <c r="I31" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="J31" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="K31" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="J31" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="K31" s="12" t="s">
+      <c r="L31" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="L31" s="12" t="s">
-        <v>131</v>
-      </c>
       <c r="M31" s="61" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N31" s="61" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="O31" s="12"/>
     </row>
-    <row r="32" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="105">
       <c r="A32" s="16">
         <v>31</v>
       </c>
       <c r="B32" s="51"/>
       <c r="C32" s="54" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D32" s="53" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E32" s="16">
         <v>2</v>
       </c>
       <c r="F32" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G32" s="53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H32" s="16">
         <v>796</v>
       </c>
       <c r="I32" s="53" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="J32" s="52" t="s">
         <v>9</v>
@@ -3570,257 +3583,257 @@
         <v>10</v>
       </c>
       <c r="L32" s="54" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M32" s="61" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="N32" s="61" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="O32" s="25"/>
     </row>
-    <row r="33" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="120">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E33" s="37">
         <v>2</v>
       </c>
       <c r="F33" s="37" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H33" s="37">
         <v>107</v>
       </c>
       <c r="I33" s="37" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J33" s="37" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K33" s="39" t="s">
         <v>10</v>
       </c>
       <c r="L33" s="39" t="s">
-        <v>310</v>
+        <v>374</v>
       </c>
       <c r="M33" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="N33" s="61" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="O33" s="25"/>
     </row>
-    <row r="34" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="120">
       <c r="A34" s="16">
         <v>33</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="27" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E34" s="1">
         <v>2</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H34" s="16">
         <v>154</v>
       </c>
       <c r="I34" s="40" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J34" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K34" s="27" t="s">
         <v>10</v>
       </c>
       <c r="L34" s="36" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M34" s="61" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="N34" s="61" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="O34" s="25"/>
     </row>
-    <row r="35" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="90">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E35" s="1">
         <v>2</v>
       </c>
       <c r="F35" s="28" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H35" s="16">
         <v>4556</v>
       </c>
       <c r="I35" s="29" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J35" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K35" s="27" t="s">
         <v>10</v>
       </c>
       <c r="L35" s="36" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M35" s="61" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="N35" s="61" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="O35" s="25"/>
     </row>
-    <row r="36" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="105">
       <c r="A36" s="16">
         <v>35</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E36" s="1">
         <v>2</v>
       </c>
       <c r="F36" s="28" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H36" s="16">
         <v>91</v>
       </c>
       <c r="I36" s="29" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J36" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K36" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L36" s="36" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M36" s="61" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="N36" s="61" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="O36" s="25"/>
     </row>
-    <row r="37" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="165">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E37" s="1">
         <v>3</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H37" s="16">
         <v>114</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J37" s="41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L37" s="34" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M37" s="63" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="N37" s="61" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="O37" s="25"/>
     </row>
-    <row r="38" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="120">
       <c r="A38" s="16">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E38" s="1">
         <v>2</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G38" s="16">
         <v>4</v>
@@ -3829,52 +3842,52 @@
         <v>602</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J38" s="41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K38" s="12" t="s">
         <v>10</v>
       </c>
       <c r="L38" s="34" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M38" s="61" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="N38" s="61" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="O38" s="25"/>
     </row>
-    <row r="39" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="120">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E39" s="1">
         <v>4</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39" s="16">
         <v>2139</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J39" s="41" t="s">
         <v>9</v>
@@ -3883,43 +3896,43 @@
         <v>10</v>
       </c>
       <c r="L39" s="34" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M39" s="61" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="N39" s="61" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O39" s="25"/>
     </row>
-    <row r="40" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="105">
       <c r="A40" s="16">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>223</v>
-      </c>
       <c r="D40" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E40" s="1">
         <v>2</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H40" s="16">
         <v>470</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J40" s="41" t="s">
         <v>9</v>
@@ -3928,489 +3941,489 @@
         <v>10</v>
       </c>
       <c r="L40" s="34" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M40" s="63" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="N40" s="61" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="O40" s="25"/>
     </row>
-    <row r="41" spans="1:15" ht="256" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="285">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H41" s="16">
         <v>99</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J41" s="41" t="s">
         <v>9</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L41" s="34" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M41" s="61" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="N41" s="61" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="O41" s="25"/>
     </row>
-    <row r="42" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="165">
       <c r="A42" s="16">
         <v>41</v>
       </c>
       <c r="B42" s="41" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D42" s="41" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E42" s="1">
         <v>2</v>
       </c>
       <c r="F42" s="42" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G42" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H42" s="16">
         <v>235</v>
       </c>
       <c r="I42" s="41" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J42" s="41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K42" s="43" t="s">
         <v>10</v>
       </c>
       <c r="L42" s="44" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M42" s="61" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="N42" s="61" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="O42" s="25"/>
     </row>
-    <row r="43" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="195">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D43" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2</v>
+      </c>
+      <c r="F43" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="E43" s="1">
-        <v>2</v>
-      </c>
-      <c r="F43" s="42" t="s">
-        <v>244</v>
-      </c>
       <c r="G43" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H43" s="16">
         <v>103</v>
       </c>
       <c r="I43" s="41" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J43" s="41" t="s">
         <v>9</v>
       </c>
       <c r="K43" s="43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L43" s="44" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M43" s="63" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="N43" s="61" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="O43" s="25"/>
     </row>
-    <row r="44" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="165">
       <c r="A44" s="16">
         <v>43</v>
       </c>
       <c r="B44" s="41" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D44" s="41" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E44" s="1">
         <v>2</v>
       </c>
       <c r="F44" s="42" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G44" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H44" s="16">
         <v>823</v>
       </c>
       <c r="I44" s="41" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J44" s="41" t="s">
         <v>9</v>
       </c>
       <c r="K44" s="43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L44" s="44" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M44" s="61" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="N44" s="61" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="O44" s="25"/>
     </row>
-    <row r="45" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="120">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="E45" s="1">
         <v>2</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H45" s="16">
         <v>127</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J45" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K45" s="12" t="s">
         <v>10</v>
       </c>
       <c r="L45" s="34" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M45" s="61" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N45" s="61" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="O45" s="25"/>
     </row>
-    <row r="46" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="135">
       <c r="A46" s="16">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E46" s="1">
         <v>3</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H46" s="16">
         <v>64</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J46" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L46" s="34" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M46" s="61" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="N46" s="61" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="O46" s="25"/>
     </row>
-    <row r="47" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="180">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="12" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E47" s="1">
         <v>2</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H47" s="16">
         <v>70</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J47" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K47" s="12" t="s">
         <v>10</v>
       </c>
       <c r="L47" s="34" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M47" s="61" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N47" s="61" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="O47" s="25"/>
     </row>
-    <row r="48" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="195">
       <c r="A48" s="16">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E48" s="1">
         <v>2</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H48" s="16">
         <v>252</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="J48" s="46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K48" s="12" t="s">
         <v>10</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M48" s="61" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N48" s="61" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="O48" s="25"/>
     </row>
-    <row r="49" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="150">
       <c r="A49" s="16">
         <v>48</v>
       </c>
       <c r="B49" s="51"/>
       <c r="C49" s="12" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E49" s="16">
+        <v>2</v>
+      </c>
+      <c r="F49" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="G49" s="58" t="s">
         <v>296</v>
-      </c>
-      <c r="E49" s="16">
-        <v>2</v>
-      </c>
-      <c r="F49" s="58" t="s">
-        <v>301</v>
-      </c>
-      <c r="G49" s="58" t="s">
-        <v>299</v>
       </c>
       <c r="H49" s="16">
         <v>117</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J49" s="58" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K49" s="59" t="s">
         <v>10</v>
       </c>
       <c r="L49" s="60" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M49" s="61" t="s">
-        <v>322</v>
-      </c>
-      <c r="N49" s="61" t="s">
-        <v>372</v>
+        <v>318</v>
+      </c>
+      <c r="N49" s="66" t="s">
+        <v>368</v>
       </c>
       <c r="O49" s="25"/>
     </row>
-    <row r="50" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="165">
       <c r="A50" s="16">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E50" s="1">
         <v>2</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H50" s="16">
         <v>74</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J50" s="47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K50" s="12" t="s">
         <v>10</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M50" s="63" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="N50" s="62" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="O50" s="25"/>
     </row>
-    <row r="51" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="105">
       <c r="A51" s="16">
         <v>50</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C51" s="60" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D51" s="58" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E51" s="16">
         <v>2</v>
       </c>
       <c r="F51" s="57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G51" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H51" s="16">
         <v>128</v>
       </c>
       <c r="I51" s="58" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J51" s="58" t="s">
         <v>9</v>
@@ -4419,13 +4432,13 @@
         <v>10</v>
       </c>
       <c r="L51" s="60" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M51" s="63" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="N51" s="61" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="O51" s="25"/>
     </row>

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10921"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephshao/Desktop/UMICH/RCT_Reseach/cleaned_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A60297B-EAAA-43AA-B575-023BF68228AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977BA6E1-9BDB-8643-B51F-2F47DDED8542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -234,10 +234,6 @@
     <t>Within-group changes: Wilcoxon signed-rank test with rank-biserial correlation
 Between-group comparisons: Kruskal–Wallis one-way ANOVA with Dunn’s post-hoc test
 Target-achievement analysis: Multivariate logistic regression (adjusting for covariates)</t>
-  </si>
-  <si>
-    <t>Disengagement: Time-to-event
-Time in care: Continuous proportion</t>
   </si>
   <si>
     <t>NCT02474992</t>
@@ -1407,12 +1403,16 @@
     <t>Primary outcome: Chi-square tests, analysis of variance for comparing proportions between groups
 Secondary outcomes: Log-rank tests for Time-to-event analyses, t-tests for continuous variables, chi-square tests for categorical variables</t>
   </si>
+  <si>
+    <t>Time to disengagement: Time-to-event
+Time in care: Continuous proportion</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2129,38 +2129,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="49" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5" style="49" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="11" customWidth="1"/>
     <col min="5" max="5" width="11" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" style="26" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31" style="26" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="37" style="50" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="52.85546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="43.140625" style="49" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="52.83203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43.1640625" style="49" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="48.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.1640625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" customHeight="1">
+    <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>28</v>
@@ -2193,16 +2193,16 @@
         <v>34</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>312</v>
-      </c>
       <c r="O1" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="75">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G2" s="2">
         <v>3</v>
@@ -2228,26 +2228,26 @@
         <v>342</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L2" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M2" s="61" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N2" s="61" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="1:15" ht="90">
+    <row r="3" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G3" s="2">
         <v>3</v>
@@ -2273,7 +2273,7 @@
         <v>400</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>9</v>
@@ -2282,34 +2282,34 @@
         <v>10</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M3" s="61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N3" s="62" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O3" s="9"/>
     </row>
-    <row r="4" spans="1:15" ht="180">
+    <row r="4" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="E4" s="2">
         <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>35</v>
@@ -2318,7 +2318,7 @@
         <v>6030</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>9</v>
@@ -2327,17 +2327,17 @@
         <v>21</v>
       </c>
       <c r="L4" s="33" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M4" s="61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O4" s="25"/>
     </row>
-    <row r="5" spans="1:15" ht="135">
+    <row r="5" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G5" s="2">
         <v>2</v>
@@ -2363,7 +2363,7 @@
         <v>75</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>37</v>
@@ -2372,34 +2372,34 @@
         <v>21</v>
       </c>
       <c r="L5" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M5" s="61" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O5" s="25"/>
     </row>
-    <row r="6" spans="1:15" ht="195">
+    <row r="6" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>144</v>
-      </c>
       <c r="E6" s="2">
         <v>2</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>35</v>
@@ -2408,24 +2408,24 @@
         <v>5060</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L6" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M6" s="51"/>
       <c r="N6" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O6" s="25"/>
     </row>
-    <row r="7" spans="1:15" ht="120">
+    <row r="7" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" s="2">
         <v>4</v>
@@ -2451,7 +2451,7 @@
         <v>463</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>37</v>
@@ -2460,34 +2460,34 @@
         <v>21</v>
       </c>
       <c r="L7" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M7" s="61" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N7" s="61" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="1:15" ht="135">
+    <row r="8" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>35</v>
@@ -2496,43 +2496,43 @@
         <v>38</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L8" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M8" s="64" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N8" s="62" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O8" s="9"/>
     </row>
-    <row r="9" spans="1:15" ht="90">
+    <row r="9" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="E9" s="2">
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>35</v>
@@ -2541,45 +2541,45 @@
         <v>115</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M9" s="61" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N9" s="61" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="120">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>35</v>
@@ -2588,45 +2588,45 @@
         <v>577</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M10" s="63" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N10" s="61" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="270">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="272" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>35</v>
@@ -2635,26 +2635,26 @@
         <v>256</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M11" s="63" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N11" s="61" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O11" s="8"/>
     </row>
-    <row r="12" spans="1:15" ht="135">
+    <row r="12" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G12" s="2">
         <v>2</v>
@@ -2680,41 +2680,41 @@
         <v>44</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>37</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L12" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="61" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N12" s="61" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O12" s="8"/>
     </row>
-    <row r="13" spans="1:15" ht="75">
+    <row r="13" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>12</v>
       </c>
       <c r="B13" s="51"/>
       <c r="C13" s="54" t="s">
+        <v>276</v>
+      </c>
+      <c r="D13" s="53" t="s">
         <v>277</v>
       </c>
-      <c r="D13" s="53" t="s">
-        <v>278</v>
-      </c>
       <c r="E13" s="16">
         <v>2</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G13" s="53" t="s">
         <v>35</v>
@@ -2723,7 +2723,7 @@
         <v>3739</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J13" s="52" t="s">
         <v>37</v>
@@ -2732,17 +2732,17 @@
         <v>10</v>
       </c>
       <c r="L13" s="54" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M13" s="61" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N13" s="61" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" spans="1:15" ht="90">
+    <row r="14" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G14" s="2">
         <v>4</v>
@@ -2768,7 +2768,7 @@
         <v>480</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>42</v>
@@ -2780,14 +2780,14 @@
         <v>22</v>
       </c>
       <c r="M14" s="61" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N14" s="65" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="1:15" ht="195">
+    <row r="15" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2825,14 +2825,14 @@
         <v>40</v>
       </c>
       <c r="M15" s="61" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N15" s="62" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O15" s="8"/>
     </row>
-    <row r="16" spans="1:15" ht="120">
+    <row r="16" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2870,14 +2870,14 @@
         <v>48</v>
       </c>
       <c r="M16" s="61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N16" s="65" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O16" s="9"/>
     </row>
-    <row r="17" spans="1:15" ht="60">
+    <row r="17" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2915,14 +2915,14 @@
         <v>54</v>
       </c>
       <c r="M17" s="61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N17" s="61" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O17" s="8"/>
     </row>
-    <row r="18" spans="1:15" ht="120">
+    <row r="18" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2954,37 +2954,37 @@
         <v>37</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L18" s="32" t="s">
         <v>60</v>
       </c>
       <c r="M18" s="61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N18" s="61" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O18" s="8"/>
     </row>
-    <row r="19" spans="1:15" ht="180">
+    <row r="19" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="D19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>35</v>
@@ -2993,43 +2993,43 @@
         <v>295</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>374</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>21</v>
       </c>
       <c r="L19" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M19" s="61" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N19" s="61" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O19" s="8"/>
     </row>
-    <row r="20" spans="1:15" ht="135">
+    <row r="20" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="2">
-        <v>2</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>35</v>
@@ -3038,7 +3038,7 @@
         <v>32</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>37</v>
@@ -3047,34 +3047,34 @@
         <v>21</v>
       </c>
       <c r="L20" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M20" s="61" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N20" s="51" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O20" s="8"/>
     </row>
-    <row r="21" spans="1:15" ht="90">
+    <row r="21" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="D21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="E21" s="2">
         <v>2</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>35</v>
@@ -3083,43 +3083,43 @@
         <v>37</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>37</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L21" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M21" s="61" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N21" s="61" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O21" s="8"/>
     </row>
-    <row r="22" spans="1:15" ht="90">
+    <row r="22" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E22" s="2">
         <v>3</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>35</v>
@@ -3128,41 +3128,41 @@
         <v>1462</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K22" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L22" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="L22" s="8" t="s">
-        <v>87</v>
-      </c>
       <c r="M22" s="61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N22" s="61" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O22" s="8"/>
     </row>
-    <row r="23" spans="1:15" ht="60">
+    <row r="23" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>22</v>
       </c>
       <c r="B23" s="52"/>
       <c r="C23" s="54" t="s">
+        <v>279</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>281</v>
-      </c>
       <c r="E23" s="1">
         <v>2</v>
       </c>
       <c r="F23" s="52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G23" s="53" t="s">
         <v>35</v>
@@ -3171,43 +3171,43 @@
         <v>146</v>
       </c>
       <c r="I23" s="56" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J23" s="52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K23" s="54" t="s">
         <v>21</v>
       </c>
       <c r="L23" s="54" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M23" s="63" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N23" s="61" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O23" s="25"/>
     </row>
-    <row r="24" spans="1:15" ht="90">
+    <row r="24" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="D24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="E24" s="1">
-        <v>2</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>35</v>
@@ -3216,7 +3216,7 @@
         <v>92</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J24" s="13" t="s">
         <v>9</v>
@@ -3225,34 +3225,34 @@
         <v>21</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M24" s="61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N24" s="61" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O24" s="14"/>
     </row>
-    <row r="25" spans="1:15" ht="165">
+    <row r="25" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>35</v>
@@ -3261,43 +3261,43 @@
         <v>50</v>
       </c>
       <c r="I25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J25" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="K25" s="12" t="s">
         <v>10</v>
       </c>
       <c r="L25" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M25" s="61" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N25" s="61" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O25" s="12"/>
     </row>
-    <row r="26" spans="1:15" ht="180">
+    <row r="26" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="D26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="16">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="E26" s="16">
-        <v>2</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="G26" s="1">
         <v>3</v>
@@ -3306,43 +3306,43 @@
         <v>55</v>
       </c>
       <c r="I26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J26" s="17" t="s">
         <v>105</v>
-      </c>
-      <c r="J26" s="17" t="s">
-        <v>106</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>10</v>
       </c>
       <c r="L26" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M26" s="61" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N26" s="61" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O26" s="12"/>
     </row>
-    <row r="27" spans="1:15" ht="180">
+    <row r="27" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="D27" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" s="1">
-        <v>2</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>35</v>
@@ -3351,43 +3351,43 @@
         <v>242</v>
       </c>
       <c r="I27" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="J27" s="22" t="s">
         <v>173</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>174</v>
       </c>
       <c r="K27" s="18" t="s">
         <v>10</v>
       </c>
       <c r="L27" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M27" s="61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N27" s="61" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O27" s="30"/>
     </row>
-    <row r="28" spans="1:15" ht="105">
+    <row r="28" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="D28" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="E28" s="1">
-        <v>2</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>35</v>
@@ -3396,43 +3396,43 @@
         <v>101</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>21</v>
       </c>
       <c r="L28" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M28" s="61" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N28" s="61" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O28" s="12"/>
     </row>
-    <row r="29" spans="1:15" ht="150">
+    <row r="29" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>121</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E29" s="1">
         <v>2</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>35</v>
@@ -3441,43 +3441,43 @@
         <v>120</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>10</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M29" s="61" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N29" s="61" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O29" s="12"/>
     </row>
-    <row r="30" spans="1:15" ht="210">
+    <row r="30" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>29</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C30" s="54" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D30" s="53" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E30" s="16">
         <v>2</v>
       </c>
       <c r="F30" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G30" s="1">
         <v>3</v>
@@ -3486,7 +3486,7 @@
         <v>460</v>
       </c>
       <c r="I30" s="53" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J30" s="52" t="s">
         <v>9</v>
@@ -3495,34 +3495,34 @@
         <v>21</v>
       </c>
       <c r="L30" s="54" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M30" s="63" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N30" s="61" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O30" s="25"/>
     </row>
-    <row r="31" spans="1:15" ht="165">
+    <row r="31" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="D31" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="E31" s="1">
         <v>3</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>35</v>
@@ -3531,41 +3531,41 @@
         <v>75</v>
       </c>
       <c r="I31" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="J31" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="K31" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="J31" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="K31" s="12" t="s">
+      <c r="L31" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="L31" s="12" t="s">
-        <v>130</v>
-      </c>
       <c r="M31" s="61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N31" s="61" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O31" s="12"/>
     </row>
-    <row r="32" spans="1:15" ht="105">
+    <row r="32" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>31</v>
       </c>
       <c r="B32" s="51"/>
       <c r="C32" s="54" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D32" s="53" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E32" s="16">
         <v>2</v>
       </c>
       <c r="F32" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G32" s="53" t="s">
         <v>35</v>
@@ -3574,7 +3574,7 @@
         <v>796</v>
       </c>
       <c r="I32" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J32" s="52" t="s">
         <v>9</v>
@@ -3583,34 +3583,34 @@
         <v>10</v>
       </c>
       <c r="L32" s="54" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M32" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N32" s="61" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O32" s="25"/>
     </row>
-    <row r="33" spans="1:15" ht="120">
+    <row r="33" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E33" s="37">
         <v>2</v>
       </c>
       <c r="F33" s="37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G33" s="38" t="s">
         <v>35</v>
@@ -3619,41 +3619,41 @@
         <v>107</v>
       </c>
       <c r="I33" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="J33" s="37" t="s">
         <v>305</v>
-      </c>
-      <c r="J33" s="37" t="s">
-        <v>306</v>
       </c>
       <c r="K33" s="39" t="s">
         <v>10</v>
       </c>
       <c r="L33" s="39" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M33" s="61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N33" s="61" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O33" s="25"/>
     </row>
-    <row r="34" spans="1:15" ht="120">
+    <row r="34" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>33</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="E34" s="1">
         <v>2</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G34" s="29" t="s">
         <v>35</v>
@@ -3662,7 +3662,7 @@
         <v>154</v>
       </c>
       <c r="I34" s="40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J34" s="29" t="s">
         <v>37</v>
@@ -3671,34 +3671,34 @@
         <v>10</v>
       </c>
       <c r="L34" s="36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M34" s="61" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N34" s="61" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O34" s="25"/>
     </row>
-    <row r="35" spans="1:15" ht="90">
+    <row r="35" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="C35" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="D35" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="E35" s="1">
         <v>2</v>
       </c>
       <c r="F35" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G35" s="29" t="s">
         <v>35</v>
@@ -3707,43 +3707,43 @@
         <v>4556</v>
       </c>
       <c r="I35" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J35" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K35" s="27" t="s">
         <v>10</v>
       </c>
       <c r="L35" s="36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M35" s="61" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N35" s="61" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O35" s="25"/>
     </row>
-    <row r="36" spans="1:15" ht="105">
+    <row r="36" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
         <v>35</v>
       </c>
       <c r="B36" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="C36" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="D36" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="D36" s="29" t="s">
-        <v>199</v>
-      </c>
       <c r="E36" s="1">
         <v>2</v>
       </c>
       <c r="F36" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G36" s="29" t="s">
         <v>35</v>
@@ -3752,7 +3752,7 @@
         <v>91</v>
       </c>
       <c r="I36" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J36" s="29" t="s">
         <v>37</v>
@@ -3761,34 +3761,34 @@
         <v>21</v>
       </c>
       <c r="L36" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M36" s="61" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N36" s="61" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O36" s="25"/>
     </row>
-    <row r="37" spans="1:15" ht="165">
+    <row r="37" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="D37" s="11" t="s">
         <v>203</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>204</v>
       </c>
       <c r="E37" s="1">
         <v>3</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>35</v>
@@ -3797,43 +3797,43 @@
         <v>114</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J37" s="41" t="s">
         <v>37</v>
       </c>
       <c r="K37" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="L37" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="L37" s="34" t="s">
-        <v>208</v>
-      </c>
       <c r="M37" s="63" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N37" s="61" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O37" s="25"/>
     </row>
-    <row r="38" spans="1:15" ht="120">
+    <row r="38" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>210</v>
-      </c>
       <c r="D38" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E38" s="1">
         <v>2</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G38" s="16">
         <v>4</v>
@@ -3842,43 +3842,43 @@
         <v>602</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J38" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K38" s="12" t="s">
         <v>10</v>
       </c>
       <c r="L38" s="34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M38" s="61" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N38" s="61" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O38" s="25"/>
     </row>
-    <row r="39" spans="1:15" ht="120">
+    <row r="39" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="D39" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="E39" s="1">
         <v>4</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>35</v>
@@ -3887,7 +3887,7 @@
         <v>2139</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J39" s="41" t="s">
         <v>9</v>
@@ -3896,34 +3896,34 @@
         <v>10</v>
       </c>
       <c r="L39" s="34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M39" s="61" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N39" s="61" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O39" s="25"/>
     </row>
-    <row r="40" spans="1:15" ht="105">
+    <row r="40" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E40" s="1">
         <v>2</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>35</v>
@@ -3932,7 +3932,7 @@
         <v>470</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J40" s="41" t="s">
         <v>9</v>
@@ -3941,34 +3941,34 @@
         <v>10</v>
       </c>
       <c r="L40" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M40" s="63" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N40" s="61" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O40" s="25"/>
     </row>
-    <row r="41" spans="1:15" ht="285">
+    <row r="41" spans="1:15" ht="256" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C41" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1">
+        <v>2</v>
+      </c>
+      <c r="F41" s="16" t="s">
         <v>227</v>
-      </c>
-      <c r="E41" s="1">
-        <v>2</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>228</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>35</v>
@@ -3977,7 +3977,7 @@
         <v>99</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J41" s="41" t="s">
         <v>9</v>
@@ -3986,34 +3986,34 @@
         <v>21</v>
       </c>
       <c r="L41" s="34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M41" s="61" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N41" s="61" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O41" s="25"/>
     </row>
-    <row r="42" spans="1:15" ht="165">
+    <row r="42" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
         <v>41</v>
       </c>
       <c r="B42" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="C42" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="C42" s="43" t="s">
+      <c r="D42" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="D42" s="41" t="s">
-        <v>234</v>
-      </c>
       <c r="E42" s="1">
         <v>2</v>
       </c>
       <c r="F42" s="42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G42" s="41" t="s">
         <v>35</v>
@@ -4022,43 +4022,43 @@
         <v>235</v>
       </c>
       <c r="I42" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J42" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K42" s="43" t="s">
         <v>10</v>
       </c>
       <c r="L42" s="44" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M42" s="61" t="s">
+        <v>359</v>
+      </c>
+      <c r="N42" s="61" t="s">
         <v>360</v>
       </c>
-      <c r="N42" s="61" t="s">
-        <v>361</v>
-      </c>
       <c r="O42" s="25"/>
     </row>
-    <row r="43" spans="1:15" ht="195">
+    <row r="43" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C43" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="D43" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="D43" s="41" t="s">
-        <v>238</v>
-      </c>
       <c r="E43" s="1">
         <v>2</v>
       </c>
       <c r="F43" s="42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G43" s="41" t="s">
         <v>35</v>
@@ -4067,7 +4067,7 @@
         <v>103</v>
       </c>
       <c r="I43" s="41" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J43" s="41" t="s">
         <v>9</v>
@@ -4076,34 +4076,34 @@
         <v>21</v>
       </c>
       <c r="L43" s="44" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M43" s="63" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N43" s="61" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O43" s="25"/>
     </row>
-    <row r="44" spans="1:15" ht="165">
+    <row r="44" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
         <v>43</v>
       </c>
       <c r="B44" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="C44" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="C44" s="43" t="s">
+      <c r="D44" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="D44" s="41" t="s">
-        <v>244</v>
-      </c>
       <c r="E44" s="1">
         <v>2</v>
       </c>
       <c r="F44" s="42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G44" s="41" t="s">
         <v>35</v>
@@ -4112,7 +4112,7 @@
         <v>823</v>
       </c>
       <c r="I44" s="41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J44" s="41" t="s">
         <v>9</v>
@@ -4121,34 +4121,34 @@
         <v>21</v>
       </c>
       <c r="L44" s="44" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M44" s="61" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N44" s="61" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O44" s="25"/>
     </row>
-    <row r="45" spans="1:15" ht="120">
+    <row r="45" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E45" s="1">
         <v>2</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>35</v>
@@ -4157,43 +4157,43 @@
         <v>127</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J45" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K45" s="12" t="s">
         <v>10</v>
       </c>
       <c r="L45" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M45" s="61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N45" s="61" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O45" s="25"/>
     </row>
-    <row r="46" spans="1:15" ht="135">
+    <row r="46" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A46" s="16">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E46" s="1">
         <v>3</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>35</v>
@@ -4202,41 +4202,41 @@
         <v>64</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J46" s="45" t="s">
         <v>37</v>
       </c>
       <c r="K46" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="L46" s="34" t="s">
         <v>257</v>
       </c>
-      <c r="L46" s="34" t="s">
-        <v>258</v>
-      </c>
       <c r="M46" s="61" t="s">
+        <v>363</v>
+      </c>
+      <c r="N46" s="61" t="s">
         <v>364</v>
       </c>
-      <c r="N46" s="61" t="s">
-        <v>365</v>
-      </c>
       <c r="O46" s="25"/>
     </row>
-    <row r="47" spans="1:15" ht="180">
+    <row r="47" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="E47" s="1">
         <v>2</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>35</v>
@@ -4245,7 +4245,7 @@
         <v>70</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J47" s="46" t="s">
         <v>37</v>
@@ -4254,34 +4254,34 @@
         <v>10</v>
       </c>
       <c r="L47" s="34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M47" s="61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N47" s="61" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O47" s="25"/>
     </row>
-    <row r="48" spans="1:15" ht="195">
+    <row r="48" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C48" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="E48" s="1">
         <v>2</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>35</v>
@@ -4290,86 +4290,86 @@
         <v>252</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J48" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K48" s="12" t="s">
         <v>10</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M48" s="61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N48" s="61" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O48" s="25"/>
     </row>
-    <row r="49" spans="1:15" ht="150">
+    <row r="49" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A49" s="16">
         <v>48</v>
       </c>
       <c r="B49" s="51"/>
       <c r="C49" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="E49" s="16">
         <v>2</v>
       </c>
       <c r="F49" s="58" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G49" s="58" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H49" s="16">
         <v>117</v>
       </c>
       <c r="I49" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J49" s="58" t="s">
         <v>294</v>
-      </c>
-      <c r="J49" s="58" t="s">
-        <v>295</v>
       </c>
       <c r="K49" s="59" t="s">
         <v>10</v>
       </c>
       <c r="L49" s="60" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M49" s="61" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N49" s="66" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O49" s="25"/>
     </row>
-    <row r="50" spans="1:15" ht="165">
+    <row r="50" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A50" s="16">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C50" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="D50" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="E50" s="1">
         <v>2</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>35</v>
@@ -4378,7 +4378,7 @@
         <v>74</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J50" s="47" t="s">
         <v>37</v>
@@ -4387,34 +4387,34 @@
         <v>10</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M50" s="63" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N50" s="62" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O50" s="25"/>
     </row>
-    <row r="51" spans="1:15" ht="105">
+    <row r="51" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A51" s="16">
         <v>50</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C51" s="60" t="s">
+        <v>298</v>
+      </c>
+      <c r="D51" s="58" t="s">
         <v>299</v>
       </c>
-      <c r="D51" s="58" t="s">
-        <v>300</v>
-      </c>
       <c r="E51" s="16">
         <v>2</v>
       </c>
       <c r="F51" s="57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G51" s="58" t="s">
         <v>35</v>
@@ -4423,7 +4423,7 @@
         <v>128</v>
       </c>
       <c r="I51" s="58" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J51" s="58" t="s">
         <v>9</v>
@@ -4432,13 +4432,13 @@
         <v>10</v>
       </c>
       <c r="L51" s="60" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M51" s="63" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N51" s="61" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O51" s="25"/>
     </row>

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephshao/Desktop/UMICH/RCT_Reseach/cleaned_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977BA6E1-9BDB-8643-B51F-2F47DDED8542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3A9D4D-A5DE-4846-A989-86BDABBBD991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="374">
   <si>
     <t>NCT02491333</t>
   </si>
@@ -1208,9 +1208,6 @@
     <t>Randomization Scheme</t>
   </si>
   <si>
-    <t>Scientific Area</t>
-  </si>
-  <si>
     <t>Nephrology</t>
   </si>
   <si>
@@ -1223,13 +1220,7 @@
     <t>simple randomization</t>
   </si>
   <si>
-    <t>Reproductive Endocrinology</t>
-  </si>
-  <si>
     <t>blocked randomization</t>
-  </si>
-  <si>
-    <t>Diabetes / Cardiovascular Disease</t>
   </si>
   <si>
     <t>biased coin</t>
@@ -1239,157 +1230,64 @@
  stratified by sibling status</t>
   </si>
   <si>
-    <t>Infectious Diseases / COVID-19</t>
-  </si>
-  <si>
-    <t>Obstetrics / Maternal Health</t>
-  </si>
-  <si>
-    <t>Cognitive Neuroscience / Education</t>
-  </si>
-  <si>
     <t>blocked randomization,
 stratified by center</t>
   </si>
   <si>
-    <t>Anaesthesiology / Airway Management</t>
-  </si>
-  <si>
     <t>centralized randomization,
 stratified by center</t>
   </si>
   <si>
-    <t>Cardiology / Heart Failure</t>
-  </si>
-  <si>
-    <t>Oncology</t>
-  </si>
-  <si>
     <t>Obstetrics</t>
   </si>
   <si>
-    <t>Pulmonary Rehabilitation / COVID-19 Recovery</t>
-  </si>
-  <si>
-    <t>Pediatric Rehabilitation / Cerebral Palsy</t>
-  </si>
-  <si>
     <t>blocked randomization, stratified by hospital</t>
   </si>
   <si>
     <t>HIV</t>
   </si>
   <si>
-    <t>Transplant Surgery</t>
-  </si>
-  <si>
-    <t>Psychiatry</t>
-  </si>
-  <si>
-    <t>Cardiology</t>
-  </si>
-  <si>
-    <t>Diabetes</t>
-  </si>
-  <si>
-    <t>Musculoskeletal Rehabilitation</t>
-  </si>
-  <si>
-    <t>Central web-based randomization, minimization algorithm adjusting for prognostic factors.</t>
-  </si>
-  <si>
-    <t>Critical Care / Hematology</t>
-  </si>
-  <si>
     <t>Anesthesiology</t>
   </si>
   <si>
     <t>Neurology</t>
   </si>
   <si>
-    <t>Neurosurgery / Anesthesiology</t>
-  </si>
-  <si>
-    <t>Cardiovascular Medicine</t>
-  </si>
-  <si>
     <t>cluster randomization</t>
   </si>
   <si>
     <t>blocked randomization, stratified by site and ART status</t>
   </si>
   <si>
-    <t>stratified by age and cancer stage</t>
-  </si>
-  <si>
-    <t>blocked randomization, stratified by sex</t>
-  </si>
-  <si>
-    <t>Psychology</t>
-  </si>
-  <si>
     <t>stratified by disease group</t>
-  </si>
-  <si>
-    <t>Global Health / Neonatology / Infectious Diseases</t>
-  </si>
-  <si>
-    <t>Maternal Health / Obstetrics</t>
   </si>
   <si>
     <t>Blocked randomization,
  stratified by site</t>
   </si>
   <si>
-    <t>Gastroenterology / Endoscopy</t>
-  </si>
-  <si>
     <t>stratified by center</t>
   </si>
   <si>
-    <t>stratified by prior antiretroviral exposure</t>
-  </si>
-  <si>
-    <t>Addiction Medicine / Primary Care</t>
-  </si>
-  <si>
     <t>blocked randomization, stratified by primary substance (alcohol vs drugs)</t>
   </si>
   <si>
-    <t>blocked randomization, stratified by center</t>
-  </si>
-  <si>
-    <t>Maternal &amp; Fetal Health</t>
-  </si>
-  <si>
     <t>Endocrinology</t>
   </si>
   <si>
-    <t>Obstetrics / Dentistry</t>
-  </si>
-  <si>
     <t>stratified by store and sex</t>
   </si>
   <si>
-    <t>Public Health / Nutrition Economics</t>
-  </si>
-  <si>
     <t>Medical Education</t>
   </si>
   <si>
     <t>Pediatrics</t>
   </si>
   <si>
-    <t>Wildlife Conservation / Veterinary Medicine</t>
-  </si>
-  <si>
     <t>Neonatology</t>
   </si>
   <si>
     <t>blocked randomization, stratified by gestational age</t>
-  </si>
-  <si>
-    <t>Immunology / Rare Diseases</t>
   </si>
   <si>
     <t xml:space="preserve">Composite Binary </t>
@@ -1406,25 +1304,118 @@
   <si>
     <t>Time to disengagement: Time-to-event
 Time in care: Continuous proportion</t>
+  </si>
+  <si>
+    <t>Randomization Scheme(High Level)</t>
+  </si>
+  <si>
+    <t>Stratified</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Covariate Adaptive</t>
+  </si>
+  <si>
+    <t>Stratified Block</t>
+  </si>
+  <si>
+    <t>Cardiovascular Disease</t>
+  </si>
+  <si>
+    <t>Neuropsychology</t>
+  </si>
+  <si>
+    <t>Simple randomization</t>
+  </si>
+  <si>
+    <t>Pulmonology</t>
+  </si>
+  <si>
+    <t>Publishing Methodology</t>
+  </si>
+  <si>
+    <t>Rehabilitation</t>
+  </si>
+  <si>
+    <t>Pediatric Rehabilitation</t>
+  </si>
+  <si>
+    <t>Mental Health</t>
+  </si>
+  <si>
+    <t>COVID-19</t>
+  </si>
+  <si>
+    <t>Surgery/Transplantation</t>
+  </si>
+  <si>
+    <t>Type 2 Diabetes</t>
+  </si>
+  <si>
+    <t>Maternal and Child Health</t>
+  </si>
+  <si>
+    <t>Critical Care</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>Hypertension</t>
+  </si>
+  <si>
+    <t>Vaccinology</t>
+  </si>
+  <si>
+    <t>Tuberculosis</t>
+  </si>
+  <si>
+    <t>Research Ethics</t>
+  </si>
+  <si>
+    <t>Gastroenterology</t>
+  </si>
+  <si>
+    <t>stratified by prior antiretroviral exposure, block</t>
+  </si>
+  <si>
+    <t>Addiction Medicine</t>
+  </si>
+  <si>
+    <t>blocked randomization, stratify by center</t>
+  </si>
+  <si>
+    <t>Nutrition</t>
+  </si>
+  <si>
+    <t>Wildlife Conservation</t>
+  </si>
+  <si>
+    <t>Immunology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+stratified by inherit</t>
+  </si>
+  <si>
+    <t>Research Area</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1659,35 +1650,35 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1699,136 +1690,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1836,21 +1812,47 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2127,35 +2129,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.5" style="49" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="49" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="11" customWidth="1"/>
     <col min="5" max="5" width="11" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="26" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31" style="26" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="37" style="50" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="52.83203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="43.1640625" style="49" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="48.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="52.85546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43.140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.140625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="18" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
@@ -2196,13 +2198,16 @@
         <v>310</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="75">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2240,14 +2245,17 @@
         <v>131</v>
       </c>
       <c r="M2" s="61" t="s">
-        <v>314</v>
-      </c>
-      <c r="N2" s="61" t="s">
-        <v>316</v>
-      </c>
-      <c r="O2" s="8"/>
-    </row>
-    <row r="3" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+      <c r="N2" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="O2" s="66" t="s">
+        <v>331</v>
+      </c>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:16" ht="90">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2285,14 +2293,17 @@
         <v>133</v>
       </c>
       <c r="M3" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="N3" s="62" t="s">
-        <v>321</v>
-      </c>
-      <c r="O3" s="9"/>
-    </row>
-    <row r="4" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+      <c r="N3" s="66" t="s">
+        <v>343</v>
+      </c>
+      <c r="O3" s="67" t="s">
+        <v>355</v>
+      </c>
+      <c r="P3" s="9"/>
+    </row>
+    <row r="4" spans="1:16" ht="180">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2327,17 +2338,20 @@
         <v>21</v>
       </c>
       <c r="L4" s="33" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="M4" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="O4" s="25"/>
-    </row>
-    <row r="5" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+      <c r="N4" s="66" t="s">
+        <v>343</v>
+      </c>
+      <c r="O4" s="68" t="s">
+        <v>311</v>
+      </c>
+      <c r="P4" s="25"/>
+    </row>
+    <row r="5" spans="1:16" ht="135">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2375,14 +2389,17 @@
         <v>140</v>
       </c>
       <c r="M5" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="O5" s="25"/>
-    </row>
-    <row r="6" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+      <c r="N5" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="O5" s="68" t="s">
+        <v>312</v>
+      </c>
+      <c r="P5" s="25"/>
+    </row>
+    <row r="6" spans="1:16" ht="195">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2411,7 +2428,7 @@
         <v>144</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>21</v>
@@ -2419,13 +2436,18 @@
       <c r="L6" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="M6" s="51"/>
-      <c r="N6" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="O6" s="25"/>
-    </row>
-    <row r="7" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+      <c r="M6" s="51" t="s">
+        <v>314</v>
+      </c>
+      <c r="N6" s="51" t="s">
+        <v>343</v>
+      </c>
+      <c r="O6" s="68" t="s">
+        <v>311</v>
+      </c>
+      <c r="P6" s="25"/>
+    </row>
+    <row r="7" spans="1:16" ht="120">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2463,14 +2485,17 @@
         <v>147</v>
       </c>
       <c r="M7" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="N7" s="61" t="s">
-        <v>318</v>
-      </c>
-      <c r="O7" s="9"/>
-    </row>
-    <row r="8" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+      <c r="N7" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="O7" s="66" t="s">
+        <v>347</v>
+      </c>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" ht="135">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2508,14 +2533,17 @@
         <v>182</v>
       </c>
       <c r="M8" s="64" t="s">
-        <v>320</v>
-      </c>
-      <c r="N8" s="62" t="s">
-        <v>323</v>
-      </c>
-      <c r="O8" s="9"/>
-    </row>
-    <row r="9" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+      <c r="N8" s="69" t="s">
+        <v>346</v>
+      </c>
+      <c r="O8" s="67" t="s">
+        <v>348</v>
+      </c>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16" ht="90">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2553,16 +2581,19 @@
         <v>152</v>
       </c>
       <c r="M9" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="N9" s="61" t="s">
-        <v>321</v>
-      </c>
-      <c r="O9" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="N9" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="O9" s="66" t="s">
+        <v>355</v>
+      </c>
+      <c r="P9" s="9" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="120">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2600,16 +2631,19 @@
         <v>163</v>
       </c>
       <c r="M10" s="63" t="s">
-        <v>324</v>
-      </c>
-      <c r="N10" s="61" t="s">
-        <v>322</v>
-      </c>
-      <c r="O10" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="N10" s="70" t="s">
+        <v>346</v>
+      </c>
+      <c r="O10" s="66" t="s">
+        <v>320</v>
+      </c>
+      <c r="P10" s="9" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="272" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="270">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2647,14 +2681,17 @@
         <v>169</v>
       </c>
       <c r="M11" s="63" t="s">
-        <v>326</v>
-      </c>
-      <c r="N11" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="O11" s="8"/>
-    </row>
-    <row r="12" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+      <c r="N11" s="70" t="s">
+        <v>346</v>
+      </c>
+      <c r="O11" s="66" t="s">
+        <v>323</v>
+      </c>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="1:16" ht="135">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2691,15 +2728,18 @@
       <c r="L12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="N12" s="61" t="s">
-        <v>327</v>
-      </c>
-      <c r="O12" s="8"/>
-    </row>
-    <row r="13" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+      <c r="M12" s="66" t="s">
+        <v>349</v>
+      </c>
+      <c r="N12" s="66" t="s">
+        <v>343</v>
+      </c>
+      <c r="O12" s="66" t="s">
+        <v>350</v>
+      </c>
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="1:16" ht="75">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -2734,15 +2774,18 @@
       <c r="L13" s="54" t="s">
         <v>278</v>
       </c>
-      <c r="M13" s="61" t="s">
+      <c r="M13" s="66" t="s">
         <v>314</v>
       </c>
-      <c r="N13" s="61" t="s">
-        <v>328</v>
-      </c>
-      <c r="O13" s="9"/>
-    </row>
-    <row r="14" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+      <c r="N13" s="66" t="s">
+        <v>343</v>
+      </c>
+      <c r="O13" s="66" t="s">
+        <v>351</v>
+      </c>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" ht="90">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2780,14 +2823,17 @@
         <v>22</v>
       </c>
       <c r="M14" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="N14" s="65" t="s">
-        <v>329</v>
-      </c>
-      <c r="O14" s="9"/>
-    </row>
-    <row r="15" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+      <c r="N14" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="O14" s="65" t="s">
+        <v>320</v>
+      </c>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" ht="195">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2825,14 +2871,17 @@
         <v>40</v>
       </c>
       <c r="M15" s="61" t="s">
-        <v>332</v>
-      </c>
-      <c r="N15" s="62" t="s">
-        <v>330</v>
-      </c>
-      <c r="O15" s="8"/>
-    </row>
-    <row r="16" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+      <c r="N15" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="O15" s="70" t="s">
+        <v>352</v>
+      </c>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="1:16" ht="120">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2870,14 +2919,17 @@
         <v>48</v>
       </c>
       <c r="M16" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="N16" s="65" t="s">
-        <v>331</v>
-      </c>
-      <c r="O16" s="9"/>
-    </row>
-    <row r="17" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+      <c r="N16" s="66" t="s">
+        <v>343</v>
+      </c>
+      <c r="O16" s="71" t="s">
+        <v>353</v>
+      </c>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="1:16" ht="60">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2915,14 +2967,17 @@
         <v>54</v>
       </c>
       <c r="M17" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="N17" s="61" t="s">
-        <v>335</v>
-      </c>
-      <c r="O17" s="8"/>
-    </row>
-    <row r="18" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+      <c r="N17" s="66" t="s">
+        <v>343</v>
+      </c>
+      <c r="O17" s="66" t="s">
+        <v>354</v>
+      </c>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:16" ht="120">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2960,14 +3015,17 @@
         <v>60</v>
       </c>
       <c r="M18" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="N18" s="61" t="s">
-        <v>336</v>
-      </c>
-      <c r="O18" s="8"/>
-    </row>
-    <row r="19" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+      <c r="N18" s="66" t="s">
+        <v>343</v>
+      </c>
+      <c r="O18" s="66" t="s">
+        <v>347</v>
+      </c>
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="1:16" ht="180">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2996,7 +3054,7 @@
         <v>65</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>21</v>
@@ -3005,14 +3063,17 @@
         <v>66</v>
       </c>
       <c r="M19" s="61" t="s">
-        <v>314</v>
-      </c>
-      <c r="N19" s="61" t="s">
-        <v>333</v>
-      </c>
-      <c r="O19" s="8"/>
-    </row>
-    <row r="20" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+      <c r="N19" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="O19" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="1:16" ht="135">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3050,14 +3111,17 @@
         <v>72</v>
       </c>
       <c r="M20" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="N20" s="51" t="s">
-        <v>334</v>
-      </c>
-      <c r="O20" s="8"/>
-    </row>
-    <row r="21" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+      <c r="N20" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="O20" s="51" t="s">
+        <v>356</v>
+      </c>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="1:16" ht="90">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3095,14 +3159,17 @@
         <v>76</v>
       </c>
       <c r="M21" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="N21" s="61" t="s">
-        <v>337</v>
-      </c>
-      <c r="O21" s="8"/>
-    </row>
-    <row r="22" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+      <c r="N21" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="O21" s="66" t="s">
+        <v>357</v>
+      </c>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="1:16" ht="90">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3140,14 +3207,17 @@
         <v>86</v>
       </c>
       <c r="M22" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="N22" s="61" t="s">
-        <v>338</v>
-      </c>
-      <c r="O22" s="8"/>
-    </row>
-    <row r="23" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+      <c r="N22" s="66" t="s">
+        <v>343</v>
+      </c>
+      <c r="O22" s="66" t="s">
+        <v>322</v>
+      </c>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="1:16" ht="60">
       <c r="A23" s="16">
         <v>22</v>
       </c>
@@ -3182,15 +3252,18 @@
       <c r="L23" s="54" t="s">
         <v>282</v>
       </c>
-      <c r="M23" s="63" t="s">
-        <v>339</v>
-      </c>
-      <c r="N23" s="61" t="s">
-        <v>313</v>
-      </c>
-      <c r="O23" s="25"/>
-    </row>
-    <row r="24" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+      <c r="M23" s="70" t="s">
+        <v>314</v>
+      </c>
+      <c r="N23" s="70" t="s">
+        <v>343</v>
+      </c>
+      <c r="O23" s="66" t="s">
+        <v>358</v>
+      </c>
+      <c r="P23" s="25"/>
+    </row>
+    <row r="24" spans="1:16" ht="90">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3228,14 +3301,17 @@
         <v>92</v>
       </c>
       <c r="M24" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="N24" s="61" t="s">
-        <v>340</v>
-      </c>
-      <c r="O24" s="14"/>
-    </row>
-    <row r="25" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+      <c r="N24" s="66" t="s">
+        <v>343</v>
+      </c>
+      <c r="O24" s="66" t="s">
+        <v>359</v>
+      </c>
+      <c r="P24" s="14"/>
+    </row>
+    <row r="25" spans="1:16" ht="165">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3273,14 +3349,17 @@
         <v>98</v>
       </c>
       <c r="M25" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="N25" s="61" t="s">
-        <v>341</v>
-      </c>
-      <c r="O25" s="12"/>
-    </row>
-    <row r="26" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+      <c r="N25" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="O25" s="61" t="s">
+        <v>323</v>
+      </c>
+      <c r="P25" s="12"/>
+    </row>
+    <row r="26" spans="1:16" ht="180">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3318,14 +3397,17 @@
         <v>106</v>
       </c>
       <c r="M26" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="N26" s="61" t="s">
-        <v>342</v>
-      </c>
-      <c r="O26" s="12"/>
-    </row>
-    <row r="27" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+      <c r="N26" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="O26" s="61" t="s">
+        <v>324</v>
+      </c>
+      <c r="P26" s="12"/>
+    </row>
+    <row r="27" spans="1:16" ht="180">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3363,14 +3445,17 @@
         <v>111</v>
       </c>
       <c r="M27" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="N27" s="61" t="s">
-        <v>333</v>
-      </c>
-      <c r="O27" s="30"/>
-    </row>
-    <row r="28" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+      <c r="N27" s="66" t="s">
+        <v>343</v>
+      </c>
+      <c r="O27" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="P27" s="30"/>
+    </row>
+    <row r="28" spans="1:16" ht="105">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3408,14 +3493,17 @@
         <v>117</v>
       </c>
       <c r="M28" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="N28" s="61" t="s">
-        <v>343</v>
-      </c>
-      <c r="O28" s="12"/>
-    </row>
-    <row r="29" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+      <c r="N28" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="O28" s="66" t="s">
+        <v>323</v>
+      </c>
+      <c r="P28" s="12"/>
+    </row>
+    <row r="29" spans="1:16" ht="150">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3452,15 +3540,18 @@
       <c r="L29" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="M29" s="61" t="s">
-        <v>345</v>
-      </c>
-      <c r="N29" s="61" t="s">
-        <v>344</v>
-      </c>
-      <c r="O29" s="12"/>
-    </row>
-    <row r="30" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+      <c r="M29" s="66" t="s">
+        <v>325</v>
+      </c>
+      <c r="N29" s="66" t="s">
+        <v>360</v>
+      </c>
+      <c r="O29" s="66" t="s">
+        <v>361</v>
+      </c>
+      <c r="P29" s="12"/>
+    </row>
+    <row r="30" spans="1:16" ht="210">
       <c r="A30" s="16">
         <v>29</v>
       </c>
@@ -3498,14 +3589,17 @@
         <v>286</v>
       </c>
       <c r="M30" s="63" t="s">
+        <v>326</v>
+      </c>
+      <c r="N30" s="70" t="s">
         <v>346</v>
       </c>
-      <c r="N30" s="61" t="s">
-        <v>333</v>
-      </c>
-      <c r="O30" s="25"/>
-    </row>
-    <row r="31" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+      <c r="O30" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="P30" s="25"/>
+    </row>
+    <row r="31" spans="1:16" ht="165">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3543,14 +3637,17 @@
         <v>129</v>
       </c>
       <c r="M31" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="N31" s="61" t="s">
-        <v>335</v>
-      </c>
-      <c r="O31" s="12"/>
-    </row>
-    <row r="32" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+      <c r="N31" s="66" t="s">
+        <v>343</v>
+      </c>
+      <c r="O31" s="66" t="s">
+        <v>354</v>
+      </c>
+      <c r="P31" s="12"/>
+    </row>
+    <row r="32" spans="1:16" ht="105">
       <c r="A32" s="16">
         <v>31</v>
       </c>
@@ -3585,15 +3682,18 @@
       <c r="L32" s="54" t="s">
         <v>290</v>
       </c>
-      <c r="M32" s="61" t="s">
-        <v>347</v>
-      </c>
-      <c r="N32" s="61" t="s">
-        <v>328</v>
-      </c>
-      <c r="O32" s="25"/>
-    </row>
-    <row r="33" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+      <c r="M32" s="66" t="s">
+        <v>314</v>
+      </c>
+      <c r="N32" s="66" t="s">
+        <v>343</v>
+      </c>
+      <c r="O32" s="66" t="s">
+        <v>362</v>
+      </c>
+      <c r="P32" s="25"/>
+    </row>
+    <row r="33" spans="1:16" ht="120">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3628,17 +3728,20 @@
         <v>10</v>
       </c>
       <c r="L33" s="39" t="s">
-        <v>373</v>
-      </c>
-      <c r="M33" s="61" t="s">
-        <v>348</v>
-      </c>
-      <c r="N33" s="61" t="s">
-        <v>335</v>
-      </c>
-      <c r="O33" s="25"/>
-    </row>
-    <row r="34" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+      <c r="M33" s="66" t="s">
+        <v>314</v>
+      </c>
+      <c r="N33" s="66" t="s">
+        <v>343</v>
+      </c>
+      <c r="O33" s="66" t="s">
+        <v>363</v>
+      </c>
+      <c r="P33" s="25"/>
+    </row>
+    <row r="34" spans="1:16" ht="120">
       <c r="A34" s="16">
         <v>33</v>
       </c>
@@ -3673,15 +3776,18 @@
       <c r="L34" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="M34" s="61" t="s">
-        <v>350</v>
-      </c>
-      <c r="N34" s="61" t="s">
-        <v>349</v>
-      </c>
-      <c r="O34" s="25"/>
-    </row>
-    <row r="35" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+      <c r="M34" s="66" t="s">
+        <v>327</v>
+      </c>
+      <c r="N34" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="O34" s="66" t="s">
+        <v>364</v>
+      </c>
+      <c r="P34" s="25"/>
+    </row>
+    <row r="35" spans="1:16" ht="90">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3719,14 +3825,17 @@
         <v>195</v>
       </c>
       <c r="M35" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="N35" s="61" t="s">
-        <v>351</v>
-      </c>
-      <c r="O35" s="25"/>
-    </row>
-    <row r="36" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+      <c r="N35" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="O35" s="70" t="s">
+        <v>358</v>
+      </c>
+      <c r="P35" s="25"/>
+    </row>
+    <row r="36" spans="1:16" ht="105">
       <c r="A36" s="16">
         <v>35</v>
       </c>
@@ -3764,14 +3873,17 @@
         <v>200</v>
       </c>
       <c r="M36" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="N36" s="61" t="s">
-        <v>352</v>
-      </c>
-      <c r="O36" s="25"/>
-    </row>
-    <row r="37" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+      <c r="N36" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="O36" s="66" t="s">
+        <v>358</v>
+      </c>
+      <c r="P36" s="25"/>
+    </row>
+    <row r="37" spans="1:16" ht="165">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3809,14 +3921,17 @@
         <v>207</v>
       </c>
       <c r="M37" s="63" t="s">
-        <v>353</v>
-      </c>
-      <c r="N37" s="61" t="s">
-        <v>342</v>
-      </c>
-      <c r="O37" s="25"/>
-    </row>
-    <row r="38" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+      <c r="N37" s="70" t="s">
+        <v>346</v>
+      </c>
+      <c r="O37" s="66" t="s">
+        <v>324</v>
+      </c>
+      <c r="P37" s="25"/>
+    </row>
+    <row r="38" spans="1:16" ht="120">
       <c r="A38" s="16">
         <v>37</v>
       </c>
@@ -3854,14 +3969,17 @@
         <v>224</v>
       </c>
       <c r="M38" s="61" t="s">
-        <v>355</v>
-      </c>
-      <c r="N38" s="61" t="s">
-        <v>354</v>
-      </c>
-      <c r="O38" s="25"/>
-    </row>
-    <row r="39" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+      <c r="N38" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="O38" s="66" t="s">
+        <v>365</v>
+      </c>
+      <c r="P38" s="25"/>
+    </row>
+    <row r="39" spans="1:16" ht="120">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3898,15 +4016,18 @@
       <c r="L39" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="M39" s="61" t="s">
-        <v>356</v>
-      </c>
-      <c r="N39" s="61" t="s">
-        <v>333</v>
-      </c>
-      <c r="O39" s="25"/>
-    </row>
-    <row r="40" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+      <c r="M39" s="66" t="s">
+        <v>366</v>
+      </c>
+      <c r="N39" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="O39" s="66" t="s">
+        <v>322</v>
+      </c>
+      <c r="P39" s="25"/>
+    </row>
+    <row r="40" spans="1:16" ht="105">
       <c r="A40" s="16">
         <v>39</v>
       </c>
@@ -3944,14 +4065,17 @@
         <v>221</v>
       </c>
       <c r="M40" s="63" t="s">
-        <v>358</v>
-      </c>
-      <c r="N40" s="61" t="s">
-        <v>357</v>
-      </c>
-      <c r="O40" s="25"/>
-    </row>
-    <row r="41" spans="1:15" ht="256" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+      <c r="N40" s="70" t="s">
+        <v>346</v>
+      </c>
+      <c r="O40" s="66" t="s">
+        <v>367</v>
+      </c>
+      <c r="P40" s="25"/>
+    </row>
+    <row r="41" spans="1:16" ht="285">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3989,14 +4113,17 @@
         <v>229</v>
       </c>
       <c r="M41" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="N41" s="61" t="s">
-        <v>341</v>
-      </c>
-      <c r="O41" s="25"/>
-    </row>
-    <row r="42" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+      <c r="N41" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="O41" s="66" t="s">
+        <v>323</v>
+      </c>
+      <c r="P41" s="25"/>
+    </row>
+    <row r="42" spans="1:16" ht="165">
       <c r="A42" s="16">
         <v>41</v>
       </c>
@@ -4033,15 +4160,18 @@
       <c r="L42" s="44" t="s">
         <v>235</v>
       </c>
-      <c r="M42" s="61" t="s">
-        <v>359</v>
-      </c>
-      <c r="N42" s="61" t="s">
-        <v>360</v>
-      </c>
-      <c r="O42" s="25"/>
-    </row>
-    <row r="43" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+      <c r="M42" s="66" t="s">
+        <v>314</v>
+      </c>
+      <c r="N42" s="66" t="s">
+        <v>343</v>
+      </c>
+      <c r="O42" s="61" t="s">
+        <v>323</v>
+      </c>
+      <c r="P42" s="25"/>
+    </row>
+    <row r="43" spans="1:16" ht="195">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -4078,15 +4208,18 @@
       <c r="L43" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="M43" s="63" t="s">
-        <v>324</v>
-      </c>
-      <c r="N43" s="61" t="s">
-        <v>361</v>
-      </c>
-      <c r="O43" s="25"/>
-    </row>
-    <row r="44" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+      <c r="M43" s="70" t="s">
+        <v>315</v>
+      </c>
+      <c r="N43" s="70" t="s">
+        <v>344</v>
+      </c>
+      <c r="O43" t="s">
+        <v>323</v>
+      </c>
+      <c r="P43" s="25"/>
+    </row>
+    <row r="44" spans="1:16" ht="165">
       <c r="A44" s="16">
         <v>43</v>
       </c>
@@ -4123,15 +4256,18 @@
       <c r="L44" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="M44" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="N44" s="61" t="s">
-        <v>362</v>
-      </c>
-      <c r="O44" s="25"/>
-    </row>
-    <row r="45" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+      <c r="M44" s="66" t="s">
+        <v>368</v>
+      </c>
+      <c r="N44" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="O44" s="70" t="s">
+        <v>358</v>
+      </c>
+      <c r="P44" s="25"/>
+    </row>
+    <row r="45" spans="1:16" ht="120">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4169,14 +4305,17 @@
         <v>250</v>
       </c>
       <c r="M45" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="N45" s="61" t="s">
-        <v>341</v>
-      </c>
-      <c r="O45" s="25"/>
-    </row>
-    <row r="46" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+      <c r="N45" s="66" t="s">
+        <v>343</v>
+      </c>
+      <c r="O45" s="61" t="s">
+        <v>323</v>
+      </c>
+      <c r="P45" s="25"/>
+    </row>
+    <row r="46" spans="1:16" ht="135">
       <c r="A46" s="16">
         <v>45</v>
       </c>
@@ -4214,14 +4353,17 @@
         <v>257</v>
       </c>
       <c r="M46" s="61" t="s">
-        <v>363</v>
-      </c>
-      <c r="N46" s="61" t="s">
-        <v>364</v>
-      </c>
-      <c r="O46" s="25"/>
-    </row>
-    <row r="47" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+      <c r="N46" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="O46" s="66" t="s">
+        <v>369</v>
+      </c>
+      <c r="P46" s="25"/>
+    </row>
+    <row r="47" spans="1:16" ht="180">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4257,14 +4399,17 @@
         <v>262</v>
       </c>
       <c r="M47" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="N47" s="61" t="s">
-        <v>365</v>
-      </c>
-      <c r="O47" s="25"/>
-    </row>
-    <row r="48" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+      <c r="N47" s="66" t="s">
+        <v>343</v>
+      </c>
+      <c r="O47" s="61" t="s">
+        <v>333</v>
+      </c>
+      <c r="P47" s="25"/>
+    </row>
+    <row r="48" spans="1:16" ht="195">
       <c r="A48" s="16">
         <v>47</v>
       </c>
@@ -4302,14 +4447,17 @@
         <v>268</v>
       </c>
       <c r="M48" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="N48" s="61" t="s">
-        <v>366</v>
-      </c>
-      <c r="O48" s="25"/>
-    </row>
-    <row r="49" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+      <c r="N48" s="66" t="s">
+        <v>343</v>
+      </c>
+      <c r="O48" s="66" t="s">
+        <v>334</v>
+      </c>
+      <c r="P48" s="25"/>
+    </row>
+    <row r="49" spans="1:16" ht="150">
       <c r="A49" s="16">
         <v>48</v>
       </c>
@@ -4345,14 +4493,17 @@
         <v>296</v>
       </c>
       <c r="M49" s="61" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N49" s="66" t="s">
-        <v>367</v>
-      </c>
-      <c r="O49" s="25"/>
-    </row>
-    <row r="50" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+      <c r="O49" s="70" t="s">
+        <v>370</v>
+      </c>
+      <c r="P49" s="25"/>
+    </row>
+    <row r="50" spans="1:16" ht="165">
       <c r="A50" s="16">
         <v>49</v>
       </c>
@@ -4390,14 +4541,17 @@
         <v>273</v>
       </c>
       <c r="M50" s="63" t="s">
-        <v>369</v>
-      </c>
-      <c r="N50" s="62" t="s">
-        <v>368</v>
-      </c>
-      <c r="O50" s="25"/>
-    </row>
-    <row r="51" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+      <c r="N50" s="70" t="s">
+        <v>346</v>
+      </c>
+      <c r="O50" s="62" t="s">
+        <v>335</v>
+      </c>
+      <c r="P50" s="25"/>
+    </row>
+    <row r="51" spans="1:16" ht="105">
       <c r="A51" s="16">
         <v>50</v>
       </c>
@@ -4434,13 +4588,16 @@
       <c r="L51" s="60" t="s">
         <v>301</v>
       </c>
-      <c r="M51" s="63" t="s">
-        <v>324</v>
-      </c>
-      <c r="N51" s="61" t="s">
-        <v>370</v>
-      </c>
-      <c r="O51" s="25"/>
+      <c r="M51" s="70" t="s">
+        <v>372</v>
+      </c>
+      <c r="N51" s="70" t="s">
+        <v>342</v>
+      </c>
+      <c r="O51" s="66" t="s">
+        <v>371</v>
+      </c>
+      <c r="P51" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3A9D4D-A5DE-4846-A989-86BDABBBD991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19E8C86-BF26-4F22-9471-39748B14D2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="375">
   <si>
     <t>NCT02491333</t>
   </si>
@@ -1318,9 +1318,6 @@
     <t>Block</t>
   </si>
   <si>
-    <t>Covariate Adaptive</t>
-  </si>
-  <si>
     <t>Stratified Block</t>
   </si>
   <si>
@@ -1361,9 +1358,6 @@
   </si>
   <si>
     <t>Critical Care</t>
-  </si>
-  <si>
-    <t>Cluster</t>
   </si>
   <si>
     <t>Hypertension</t>
@@ -1404,18 +1398,34 @@
   </si>
   <si>
     <t>Research Area</t>
+  </si>
+  <si>
+    <t>Biased Coin</t>
+  </si>
+  <si>
+    <t>Stratified Rerandomization</t>
+  </si>
+  <si>
+    <t>No_Covariates</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1650,161 +1660,176 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1812,47 +1837,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2129,13 +2140,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2146,18 +2157,19 @@
     <col min="4" max="4" width="16.140625" style="11" customWidth="1"/>
     <col min="5" max="5" width="11" style="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37" style="50" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="52.85546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="43.140625" style="49" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="26" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37" style="50" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="52.85546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43.140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.140625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18" customHeight="1">
+    <row r="1" spans="1:17" ht="18" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
@@ -2177,37 +2189,40 @@
         <v>26</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="M1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>373</v>
-      </c>
       <c r="P1" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="75">
+    <row r="2" spans="1:17" ht="75">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2227,35 +2242,38 @@
         <v>132</v>
       </c>
       <c r="G2" s="2">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2">
         <v>3</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>342</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="M2" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="M2" s="61" t="s">
+      <c r="N2" s="61" t="s">
         <v>313</v>
       </c>
-      <c r="N2" s="66" t="s">
+      <c r="O2" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="O2" s="66" t="s">
+      <c r="P2" s="66" t="s">
         <v>331</v>
       </c>
-      <c r="P2" s="8"/>
-    </row>
-    <row r="3" spans="1:16" ht="90">
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="1:17" ht="90">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2274,36 +2292,39 @@
       <c r="F3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2">
         <v>3</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>400</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="M3" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="M3" s="61" t="s">
+      <c r="N3" s="61" t="s">
         <v>314</v>
       </c>
-      <c r="N3" s="66" t="s">
+      <c r="O3" s="66" t="s">
         <v>343</v>
       </c>
-      <c r="O3" s="67" t="s">
-        <v>355</v>
-      </c>
-      <c r="P3" s="9"/>
-    </row>
-    <row r="4" spans="1:16" ht="180">
+      <c r="P3" s="67" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="4" spans="1:17" ht="180">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2322,36 +2343,39 @@
       <c r="F4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="3">
+        <v>25</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>6030</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="M4" s="33" t="s">
         <v>338</v>
       </c>
-      <c r="M4" s="61" t="s">
+      <c r="N4" s="61" t="s">
         <v>314</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="O4" s="66" t="s">
         <v>343</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="P4" s="68" t="s">
         <v>311</v>
       </c>
-      <c r="P4" s="25"/>
-    </row>
-    <row r="5" spans="1:16" ht="135">
+      <c r="Q4" s="25"/>
+    </row>
+    <row r="5" spans="1:17" ht="135">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2370,36 +2394,39 @@
       <c r="F5" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2">
         <v>2</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>75</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="L5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="M5" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="M5" s="61" t="s">
+      <c r="N5" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="N5" s="66" t="s">
+      <c r="O5" s="66" t="s">
         <v>344</v>
       </c>
-      <c r="O5" s="68" t="s">
+      <c r="P5" s="68" t="s">
         <v>312</v>
       </c>
-      <c r="P5" s="25"/>
-    </row>
-    <row r="6" spans="1:16" ht="195">
+      <c r="Q5" s="25"/>
+    </row>
+    <row r="6" spans="1:17" ht="195">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2418,36 +2445,39 @@
       <c r="F6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="3">
+        <v>42</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>5060</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="L6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="33" t="s">
+      <c r="M6" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="M6" s="51" t="s">
+      <c r="N6" s="51" t="s">
         <v>314</v>
       </c>
-      <c r="N6" s="51" t="s">
+      <c r="O6" s="51" t="s">
         <v>343</v>
       </c>
-      <c r="O6" s="68" t="s">
+      <c r="P6" s="68" t="s">
         <v>311</v>
       </c>
-      <c r="P6" s="25"/>
-    </row>
-    <row r="7" spans="1:16" ht="120">
+      <c r="Q6" s="25"/>
+    </row>
+    <row r="7" spans="1:17" ht="120">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2466,36 +2496,39 @@
       <c r="F7" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
+        <v>21</v>
+      </c>
+      <c r="H7" s="2">
         <v>4</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>463</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="L7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="33" t="s">
+      <c r="M7" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="M7" s="61" t="s">
+      <c r="N7" s="61" t="s">
         <v>316</v>
       </c>
-      <c r="N7" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="O7" s="66" t="s">
-        <v>347</v>
-      </c>
-      <c r="P7" s="9"/>
-    </row>
-    <row r="8" spans="1:16" ht="135">
+      <c r="O7" s="72" t="s">
+        <v>372</v>
+      </c>
+      <c r="P7" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" ht="135">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2514,36 +2547,39 @@
       <c r="F8" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="3">
+        <v>21</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>38</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="L8" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="L8" s="33" t="s">
+      <c r="M8" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="M8" s="64" t="s">
+      <c r="N8" s="64" t="s">
         <v>317</v>
       </c>
-      <c r="N8" s="69" t="s">
-        <v>346</v>
-      </c>
-      <c r="O8" s="67" t="s">
-        <v>348</v>
-      </c>
-      <c r="P8" s="9"/>
-    </row>
-    <row r="9" spans="1:16" ht="90">
+      <c r="O8" s="69" t="s">
+        <v>345</v>
+      </c>
+      <c r="P8" s="67" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" ht="90">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2562,38 +2598,41 @@
       <c r="F9" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="2">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>115</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="L9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="33" t="s">
+      <c r="M9" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="M9" s="61" t="s">
+      <c r="N9" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="N9" s="66" t="s">
+      <c r="O9" s="66" t="s">
         <v>344</v>
       </c>
-      <c r="O9" s="66" t="s">
-        <v>355</v>
-      </c>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="66" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q9" s="9" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="120">
+    <row r="10" spans="1:17" ht="120">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2612,38 +2651,41 @@
       <c r="F10" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="2">
+        <v>8</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>577</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="L10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="33" t="s">
+      <c r="M10" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="M10" s="63" t="s">
+      <c r="N10" s="63" t="s">
         <v>318</v>
       </c>
-      <c r="N10" s="70" t="s">
-        <v>346</v>
-      </c>
-      <c r="O10" s="66" t="s">
+      <c r="O10" s="70" t="s">
+        <v>345</v>
+      </c>
+      <c r="P10" s="66" t="s">
         <v>320</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="Q10" s="9" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="270">
+    <row r="11" spans="1:17" ht="270">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2662,36 +2704,39 @@
       <c r="F11" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="2">
+        <v>14</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>256</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="L11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="32" t="s">
+      <c r="M11" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="M11" s="63" t="s">
+      <c r="N11" s="63" t="s">
         <v>319</v>
       </c>
-      <c r="N11" s="70" t="s">
-        <v>346</v>
-      </c>
-      <c r="O11" s="66" t="s">
+      <c r="O11" s="70" t="s">
+        <v>345</v>
+      </c>
+      <c r="P11" s="66" t="s">
         <v>323</v>
       </c>
-      <c r="P11" s="8"/>
-    </row>
-    <row r="12" spans="1:16" ht="135">
+      <c r="Q11" s="8"/>
+    </row>
+    <row r="12" spans="1:17" ht="135">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2711,35 +2756,38 @@
         <v>157</v>
       </c>
       <c r="G12" s="2">
+        <v>14</v>
+      </c>
+      <c r="H12" s="2">
         <v>2</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>44</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="L12" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="M12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="66" t="s">
+      <c r="N12" s="66" t="s">
+        <v>348</v>
+      </c>
+      <c r="O12" s="66" t="s">
+        <v>343</v>
+      </c>
+      <c r="P12" s="66" t="s">
         <v>349</v>
       </c>
-      <c r="N12" s="66" t="s">
-        <v>343</v>
-      </c>
-      <c r="O12" s="66" t="s">
-        <v>350</v>
-      </c>
-      <c r="P12" s="8"/>
-    </row>
-    <row r="13" spans="1:16" ht="75">
+      <c r="Q12" s="8"/>
+    </row>
+    <row r="13" spans="1:17" ht="75">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -2756,36 +2804,39 @@
       <c r="F13" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="G13" s="53" t="s">
+      <c r="G13" s="52">
+        <v>4</v>
+      </c>
+      <c r="H13" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="16">
+      <c r="I13" s="16">
         <v>3739</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="J13" s="52" t="s">
+      <c r="K13" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="55" t="s">
+      <c r="L13" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="54" t="s">
+      <c r="M13" s="54" t="s">
         <v>278</v>
       </c>
-      <c r="M13" s="66" t="s">
+      <c r="N13" s="66" t="s">
         <v>314</v>
       </c>
-      <c r="N13" s="66" t="s">
+      <c r="O13" s="66" t="s">
         <v>343</v>
       </c>
-      <c r="O13" s="66" t="s">
-        <v>351</v>
-      </c>
-      <c r="P13" s="9"/>
-    </row>
-    <row r="14" spans="1:16" ht="90">
+      <c r="P13" s="66" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14" spans="1:17" ht="90">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2805,35 +2856,38 @@
         <v>153</v>
       </c>
       <c r="G14" s="2">
+        <v>5</v>
+      </c>
+      <c r="H14" s="2">
         <v>4</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>480</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="L14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="M14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="61" t="s">
+      <c r="N14" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="N14" s="66" t="s">
+      <c r="O14" s="66" t="s">
         <v>344</v>
       </c>
-      <c r="O14" s="65" t="s">
+      <c r="P14" s="65" t="s">
         <v>320</v>
       </c>
-      <c r="P14" s="9"/>
-    </row>
-    <row r="15" spans="1:16" ht="195">
+      <c r="Q14" s="9"/>
+    </row>
+    <row r="15" spans="1:17" ht="195">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2852,36 +2906,39 @@
       <c r="F15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="2">
+        <v>24</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>119</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="L15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="M15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M15" s="61" t="s">
+      <c r="N15" s="61" t="s">
         <v>321</v>
       </c>
-      <c r="N15" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="O15" s="70" t="s">
-        <v>352</v>
-      </c>
-      <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" ht="120">
+      <c r="O15" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="P15" s="70" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q15" s="8"/>
+    </row>
+    <row r="16" spans="1:17" ht="120">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2900,36 +2957,39 @@
       <c r="F16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="3">
+        <v>17</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <v>28</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="L16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="M16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="M16" s="61" t="s">
+      <c r="N16" s="61" t="s">
         <v>314</v>
       </c>
-      <c r="N16" s="66" t="s">
+      <c r="O16" s="66" t="s">
         <v>343</v>
       </c>
-      <c r="O16" s="71" t="s">
-        <v>353</v>
-      </c>
-      <c r="P16" s="9"/>
-    </row>
-    <row r="17" spans="1:16" ht="60">
+      <c r="P16" s="71" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="1:17" ht="60">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2948,36 +3008,39 @@
       <c r="F17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="2">
+        <v>11</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I17" s="2">
         <v>48</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="L17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L17" s="32" t="s">
+      <c r="M17" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="M17" s="61" t="s">
+      <c r="N17" s="61" t="s">
         <v>314</v>
       </c>
-      <c r="N17" s="66" t="s">
+      <c r="O17" s="66" t="s">
         <v>343</v>
       </c>
-      <c r="O17" s="66" t="s">
-        <v>354</v>
-      </c>
-      <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="1:16" ht="120">
+      <c r="P17" s="66" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q17" s="8"/>
+    </row>
+    <row r="18" spans="1:17" ht="120">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2996,36 +3059,39 @@
       <c r="F18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="2">
+        <v>10</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="2">
         <v>294</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="L18" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="L18" s="32" t="s">
+      <c r="M18" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="M18" s="61" t="s">
+      <c r="N18" s="61" t="s">
         <v>314</v>
       </c>
-      <c r="N18" s="66" t="s">
+      <c r="O18" s="66" t="s">
         <v>343</v>
       </c>
-      <c r="O18" s="66" t="s">
-        <v>347</v>
-      </c>
-      <c r="P18" s="8"/>
-    </row>
-    <row r="19" spans="1:16" ht="180">
+      <c r="P18" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q18" s="8"/>
+    </row>
+    <row r="19" spans="1:17" ht="180">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3044,36 +3110,39 @@
       <c r="F19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="2">
+        <v>17</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I19" s="2">
         <v>295</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="L19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="32" t="s">
+      <c r="M19" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="M19" s="61" t="s">
+      <c r="N19" s="61" t="s">
         <v>313</v>
       </c>
-      <c r="N19" s="66" t="s">
+      <c r="O19" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="O19" s="61" t="s">
+      <c r="P19" s="61" t="s">
         <v>322</v>
       </c>
-      <c r="P19" s="8"/>
-    </row>
-    <row r="20" spans="1:16" ht="135">
+      <c r="Q19" s="8"/>
+    </row>
+    <row r="20" spans="1:17" ht="135">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3092,36 +3161,39 @@
       <c r="F20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="2">
+        <v>12</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I20" s="2">
         <v>32</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="L20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="32" t="s">
+      <c r="M20" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="M20" s="61" t="s">
+      <c r="N20" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="N20" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="O20" s="51" t="s">
-        <v>356</v>
-      </c>
-      <c r="P20" s="8"/>
-    </row>
-    <row r="21" spans="1:16" ht="90">
+      <c r="O20" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="P20" s="51" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q20" s="8"/>
+    </row>
+    <row r="21" spans="1:17" ht="90">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3140,36 +3212,39 @@
       <c r="F21" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="2">
+        <v>13</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="2">
         <v>37</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="L21" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="L21" s="32" t="s">
+      <c r="M21" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="M21" s="61" t="s">
+      <c r="N21" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="N21" s="66" t="s">
+      <c r="O21" s="66" t="s">
         <v>344</v>
       </c>
-      <c r="O21" s="66" t="s">
-        <v>357</v>
-      </c>
-      <c r="P21" s="8"/>
-    </row>
-    <row r="22" spans="1:16" ht="90">
+      <c r="P21" s="66" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q21" s="8"/>
+    </row>
+    <row r="22" spans="1:17" ht="90">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3188,36 +3263,39 @@
       <c r="F22" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="2">
+        <v>10</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I22" s="2">
         <v>1462</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="L22" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="L22" s="8" t="s">
+      <c r="M22" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="M22" s="61" t="s">
+      <c r="N22" s="61" t="s">
         <v>314</v>
       </c>
-      <c r="N22" s="66" t="s">
+      <c r="O22" s="66" t="s">
         <v>343</v>
       </c>
-      <c r="O22" s="66" t="s">
+      <c r="P22" s="66" t="s">
         <v>322</v>
       </c>
-      <c r="P22" s="8"/>
-    </row>
-    <row r="23" spans="1:16" ht="60">
+      <c r="Q22" s="8"/>
+    </row>
+    <row r="23" spans="1:17" ht="60">
       <c r="A23" s="16">
         <v>22</v>
       </c>
@@ -3234,36 +3312,39 @@
       <c r="F23" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="G23" s="53" t="s">
+      <c r="G23" s="52">
+        <v>21</v>
+      </c>
+      <c r="H23" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="16">
+      <c r="I23" s="16">
         <v>146</v>
       </c>
-      <c r="I23" s="56" t="s">
+      <c r="J23" s="56" t="s">
         <v>281</v>
       </c>
-      <c r="J23" s="52" t="s">
+      <c r="K23" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="K23" s="54" t="s">
+      <c r="L23" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="L23" s="54" t="s">
+      <c r="M23" s="54" t="s">
         <v>282</v>
       </c>
-      <c r="M23" s="70" t="s">
+      <c r="N23" s="70" t="s">
         <v>314</v>
       </c>
-      <c r="N23" s="70" t="s">
+      <c r="O23" s="70" t="s">
         <v>343</v>
       </c>
-      <c r="O23" s="66" t="s">
-        <v>358</v>
-      </c>
-      <c r="P23" s="25"/>
-    </row>
-    <row r="24" spans="1:16" ht="90">
+      <c r="P23" s="66" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q23" s="25"/>
+    </row>
+    <row r="24" spans="1:17" ht="90">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3282,36 +3363,39 @@
       <c r="F24" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="1">
+        <v>5</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <v>92</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="K24" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K24" s="14" t="s">
+      <c r="L24" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L24" s="14" t="s">
+      <c r="M24" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="M24" s="61" t="s">
+      <c r="N24" s="61" t="s">
         <v>314</v>
       </c>
-      <c r="N24" s="66" t="s">
+      <c r="O24" s="66" t="s">
         <v>343</v>
       </c>
-      <c r="O24" s="66" t="s">
-        <v>359</v>
-      </c>
-      <c r="P24" s="14"/>
-    </row>
-    <row r="25" spans="1:16" ht="165">
+      <c r="P24" s="66" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q24" s="14"/>
+    </row>
+    <row r="25" spans="1:17" ht="165">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3330,36 +3414,39 @@
       <c r="F25" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="1">
+        <v>12</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="1">
         <v>50</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J25" s="15" t="s">
+      <c r="K25" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="L25" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L25" s="34" t="s">
+      <c r="M25" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="M25" s="61" t="s">
+      <c r="N25" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="N25" s="66" t="s">
+      <c r="O25" s="66" t="s">
         <v>344</v>
       </c>
-      <c r="O25" s="61" t="s">
+      <c r="P25" s="61" t="s">
         <v>323</v>
       </c>
-      <c r="P25" s="12"/>
-    </row>
-    <row r="26" spans="1:16" ht="180">
+      <c r="Q25" s="12"/>
+    </row>
+    <row r="26" spans="1:17" ht="180">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3379,35 +3466,38 @@
         <v>103</v>
       </c>
       <c r="G26" s="1">
+        <v>26</v>
+      </c>
+      <c r="H26" s="1">
         <v>3</v>
       </c>
-      <c r="H26" s="1">
+      <c r="I26" s="1">
         <v>55</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J26" s="17" t="s">
+      <c r="K26" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="L26" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L26" s="34" t="s">
+      <c r="M26" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="M26" s="61" t="s">
+      <c r="N26" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="N26" s="66" t="s">
+      <c r="O26" s="66" t="s">
         <v>344</v>
       </c>
-      <c r="O26" s="61" t="s">
+      <c r="P26" s="61" t="s">
         <v>324</v>
       </c>
-      <c r="P26" s="12"/>
-    </row>
-    <row r="27" spans="1:16" ht="180">
+      <c r="Q26" s="12"/>
+    </row>
+    <row r="27" spans="1:17" ht="180">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3426,36 +3516,39 @@
       <c r="F27" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="1">
+        <v>9</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H27" s="1">
+      <c r="I27" s="1">
         <v>242</v>
       </c>
-      <c r="I27" s="21" t="s">
+      <c r="J27" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="J27" s="22" t="s">
+      <c r="K27" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="K27" s="18" t="s">
+      <c r="L27" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L27" s="35" t="s">
+      <c r="M27" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="M27" s="61" t="s">
+      <c r="N27" s="61" t="s">
         <v>314</v>
       </c>
-      <c r="N27" s="66" t="s">
+      <c r="O27" s="66" t="s">
         <v>343</v>
       </c>
-      <c r="O27" s="61" t="s">
+      <c r="P27" s="61" t="s">
         <v>322</v>
       </c>
-      <c r="P27" s="30"/>
-    </row>
-    <row r="28" spans="1:16" ht="105">
+      <c r="Q27" s="30"/>
+    </row>
+    <row r="28" spans="1:17" ht="105">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3474,36 +3567,39 @@
       <c r="F28" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="1">
+        <v>4</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="1">
+      <c r="I28" s="1">
         <v>101</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J28" s="23" t="s">
+      <c r="K28" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="L28" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L28" s="34" t="s">
+      <c r="M28" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="M28" s="61" t="s">
+      <c r="N28" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="N28" s="66" t="s">
+      <c r="O28" s="66" t="s">
         <v>344</v>
       </c>
-      <c r="O28" s="66" t="s">
+      <c r="P28" s="66" t="s">
         <v>323</v>
       </c>
-      <c r="P28" s="12"/>
-    </row>
-    <row r="29" spans="1:16" ht="150">
+      <c r="Q28" s="12"/>
+    </row>
+    <row r="29" spans="1:17" ht="150">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3522,36 +3618,39 @@
       <c r="F29" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="1">
+        <v>10</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="1">
+      <c r="I29" s="1">
         <v>120</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="J29" s="17" t="s">
+      <c r="K29" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="L29" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="12" t="s">
+      <c r="M29" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="M29" s="66" t="s">
+      <c r="N29" s="66" t="s">
         <v>325</v>
       </c>
-      <c r="N29" s="66" t="s">
-        <v>360</v>
-      </c>
-      <c r="O29" s="66" t="s">
-        <v>361</v>
-      </c>
-      <c r="P29" s="12"/>
-    </row>
-    <row r="30" spans="1:16" ht="210">
+      <c r="O29" s="72" t="s">
+        <v>373</v>
+      </c>
+      <c r="P29" s="66" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q29" s="12"/>
+    </row>
+    <row r="30" spans="1:17" ht="210">
       <c r="A30" s="16">
         <v>29</v>
       </c>
@@ -3570,36 +3669,39 @@
       <c r="F30" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="52">
+        <v>18</v>
+      </c>
+      <c r="H30" s="1">
         <v>3</v>
       </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
         <v>460</v>
       </c>
-      <c r="I30" s="53" t="s">
+      <c r="J30" s="53" t="s">
         <v>285</v>
       </c>
-      <c r="J30" s="52" t="s">
+      <c r="K30" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="K30" s="55" t="s">
+      <c r="L30" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="L30" s="54" t="s">
+      <c r="M30" s="54" t="s">
         <v>286</v>
       </c>
-      <c r="M30" s="63" t="s">
+      <c r="N30" s="63" t="s">
         <v>326</v>
       </c>
-      <c r="N30" s="70" t="s">
-        <v>346</v>
-      </c>
-      <c r="O30" s="61" t="s">
+      <c r="O30" s="70" t="s">
+        <v>345</v>
+      </c>
+      <c r="P30" s="61" t="s">
         <v>322</v>
       </c>
-      <c r="P30" s="25"/>
-    </row>
-    <row r="31" spans="1:16" ht="165">
+      <c r="Q30" s="25"/>
+    </row>
+    <row r="31" spans="1:17" ht="165">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3618,36 +3720,39 @@
       <c r="F31" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="1">
+        <v>13</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="1">
+      <c r="I31" s="1">
         <v>75</v>
       </c>
-      <c r="I31" s="29" t="s">
+      <c r="J31" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="J31" s="24" t="s">
+      <c r="K31" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="L31" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="L31" s="12" t="s">
+      <c r="M31" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="M31" s="61" t="s">
+      <c r="N31" s="61" t="s">
         <v>314</v>
       </c>
-      <c r="N31" s="66" t="s">
+      <c r="O31" s="66" t="s">
         <v>343</v>
       </c>
-      <c r="O31" s="66" t="s">
-        <v>354</v>
-      </c>
-      <c r="P31" s="12"/>
-    </row>
-    <row r="32" spans="1:16" ht="105">
+      <c r="P31" s="66" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q31" s="12"/>
+    </row>
+    <row r="32" spans="1:17" ht="105">
       <c r="A32" s="16">
         <v>31</v>
       </c>
@@ -3664,36 +3769,39 @@
       <c r="F32" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="G32" s="53" t="s">
+      <c r="G32" s="52">
+        <v>5</v>
+      </c>
+      <c r="H32" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="H32" s="16">
+      <c r="I32" s="16">
         <v>796</v>
       </c>
-      <c r="I32" s="53" t="s">
+      <c r="J32" s="53" t="s">
         <v>289</v>
       </c>
-      <c r="J32" s="52" t="s">
+      <c r="K32" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="K32" s="55" t="s">
+      <c r="L32" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="L32" s="54" t="s">
+      <c r="M32" s="54" t="s">
         <v>290</v>
       </c>
-      <c r="M32" s="66" t="s">
+      <c r="N32" s="66" t="s">
         <v>314</v>
       </c>
-      <c r="N32" s="66" t="s">
+      <c r="O32" s="66" t="s">
         <v>343</v>
       </c>
-      <c r="O32" s="66" t="s">
-        <v>362</v>
-      </c>
-      <c r="P32" s="25"/>
-    </row>
-    <row r="33" spans="1:16" ht="120">
+      <c r="P32" s="66" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q32" s="25"/>
+    </row>
+    <row r="33" spans="1:17" ht="120">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3712,36 +3820,39 @@
       <c r="F33" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="G33" s="38" t="s">
+      <c r="G33" s="37">
+        <v>5</v>
+      </c>
+      <c r="H33" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="H33" s="37">
+      <c r="I33" s="37">
         <v>107</v>
       </c>
-      <c r="I33" s="37" t="s">
+      <c r="J33" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="J33" s="37" t="s">
+      <c r="K33" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="K33" s="39" t="s">
+      <c r="L33" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="L33" s="39" t="s">
+      <c r="M33" s="39" t="s">
         <v>339</v>
       </c>
-      <c r="M33" s="66" t="s">
+      <c r="N33" s="66" t="s">
         <v>314</v>
       </c>
-      <c r="N33" s="66" t="s">
+      <c r="O33" s="66" t="s">
         <v>343</v>
       </c>
-      <c r="O33" s="66" t="s">
-        <v>363</v>
-      </c>
-      <c r="P33" s="25"/>
-    </row>
-    <row r="34" spans="1:16" ht="120">
+      <c r="P33" s="66" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q33" s="25"/>
+    </row>
+    <row r="34" spans="1:17" ht="120">
       <c r="A34" s="16">
         <v>33</v>
       </c>
@@ -3758,36 +3869,39 @@
       <c r="F34" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="G34" s="29" t="s">
+      <c r="G34" s="28">
+        <v>8</v>
+      </c>
+      <c r="H34" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="H34" s="16">
+      <c r="I34" s="16">
         <v>154</v>
       </c>
-      <c r="I34" s="40" t="s">
+      <c r="J34" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="J34" s="29" t="s">
+      <c r="K34" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="K34" s="27" t="s">
+      <c r="L34" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="L34" s="36" t="s">
+      <c r="M34" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="M34" s="66" t="s">
+      <c r="N34" s="66" t="s">
         <v>327</v>
       </c>
-      <c r="N34" s="66" t="s">
+      <c r="O34" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="O34" s="66" t="s">
-        <v>364</v>
-      </c>
-      <c r="P34" s="25"/>
-    </row>
-    <row r="35" spans="1:16" ht="90">
+      <c r="P34" s="66" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q34" s="25"/>
+    </row>
+    <row r="35" spans="1:17" ht="90">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3806,36 +3920,39 @@
       <c r="F35" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="G35" s="29" t="s">
+      <c r="G35" s="28">
+        <v>17</v>
+      </c>
+      <c r="H35" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="H35" s="16">
+      <c r="I35" s="16">
         <v>4556</v>
       </c>
-      <c r="I35" s="29" t="s">
+      <c r="J35" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="J35" s="29" t="s">
+      <c r="K35" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="K35" s="27" t="s">
+      <c r="L35" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="L35" s="36" t="s">
+      <c r="M35" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="M35" s="61" t="s">
+      <c r="N35" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="N35" s="66" t="s">
+      <c r="O35" s="66" t="s">
         <v>344</v>
       </c>
-      <c r="O35" s="70" t="s">
-        <v>358</v>
-      </c>
-      <c r="P35" s="25"/>
-    </row>
-    <row r="36" spans="1:16" ht="105">
+      <c r="P35" s="70" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q35" s="25"/>
+    </row>
+    <row r="36" spans="1:17" ht="105">
       <c r="A36" s="16">
         <v>35</v>
       </c>
@@ -3854,36 +3971,39 @@
       <c r="F36" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="G36" s="29" t="s">
+      <c r="G36" s="28">
+        <v>9</v>
+      </c>
+      <c r="H36" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="H36" s="16">
+      <c r="I36" s="16">
         <v>91</v>
       </c>
-      <c r="I36" s="29" t="s">
+      <c r="J36" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="J36" s="29" t="s">
+      <c r="K36" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="K36" s="27" t="s">
+      <c r="L36" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="L36" s="36" t="s">
+      <c r="M36" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="M36" s="61" t="s">
+      <c r="N36" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="N36" s="66" t="s">
+      <c r="O36" s="66" t="s">
         <v>344</v>
       </c>
-      <c r="O36" s="66" t="s">
-        <v>358</v>
-      </c>
-      <c r="P36" s="25"/>
-    </row>
-    <row r="37" spans="1:16" ht="165">
+      <c r="P36" s="66" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q36" s="25"/>
+    </row>
+    <row r="37" spans="1:17" ht="165">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3902,36 +4022,39 @@
       <c r="F37" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="16">
+        <v>10</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H37" s="16">
+      <c r="I37" s="16">
         <v>114</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="J37" s="41" t="s">
+      <c r="K37" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="K37" s="12" t="s">
+      <c r="L37" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="L37" s="34" t="s">
+      <c r="M37" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="M37" s="63" t="s">
+      <c r="N37" s="63" t="s">
         <v>328</v>
       </c>
-      <c r="N37" s="70" t="s">
-        <v>346</v>
-      </c>
-      <c r="O37" s="66" t="s">
+      <c r="O37" s="70" t="s">
+        <v>345</v>
+      </c>
+      <c r="P37" s="66" t="s">
         <v>324</v>
       </c>
-      <c r="P37" s="25"/>
-    </row>
-    <row r="38" spans="1:16" ht="120">
+      <c r="Q37" s="25"/>
+    </row>
+    <row r="38" spans="1:17" ht="120">
       <c r="A38" s="16">
         <v>37</v>
       </c>
@@ -3951,35 +4074,38 @@
         <v>103</v>
       </c>
       <c r="G38" s="16">
+        <v>28</v>
+      </c>
+      <c r="H38" s="16">
         <v>4</v>
       </c>
-      <c r="H38" s="16">
+      <c r="I38" s="16">
         <v>602</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="J38" s="41" t="s">
+      <c r="K38" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="K38" s="12" t="s">
+      <c r="L38" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L38" s="34" t="s">
+      <c r="M38" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="M38" s="61" t="s">
+      <c r="N38" s="61" t="s">
         <v>329</v>
       </c>
-      <c r="N38" s="66" t="s">
+      <c r="O38" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="O38" s="66" t="s">
-        <v>365</v>
-      </c>
-      <c r="P38" s="25"/>
-    </row>
-    <row r="39" spans="1:16" ht="120">
+      <c r="P38" s="66" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q38" s="25"/>
+    </row>
+    <row r="39" spans="1:17" ht="120">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3998,36 +4124,39 @@
       <c r="F39" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="16">
+        <v>16</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H39" s="16">
+      <c r="I39" s="16">
         <v>2139</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="J39" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="J39" s="41" t="s">
+      <c r="K39" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="K39" s="12" t="s">
+      <c r="L39" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L39" s="34" t="s">
+      <c r="M39" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="M39" s="66" t="s">
-        <v>366</v>
-      </c>
       <c r="N39" s="66" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="O39" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="P39" s="66" t="s">
         <v>322</v>
       </c>
-      <c r="P39" s="25"/>
-    </row>
-    <row r="40" spans="1:16" ht="105">
+      <c r="Q39" s="25"/>
+    </row>
+    <row r="40" spans="1:17" ht="105">
       <c r="A40" s="16">
         <v>39</v>
       </c>
@@ -4046,36 +4175,39 @@
       <c r="F40" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="16">
+        <v>19</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H40" s="16">
+      <c r="I40" s="16">
         <v>470</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="J40" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="J40" s="41" t="s">
+      <c r="K40" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="K40" s="12" t="s">
+      <c r="L40" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L40" s="34" t="s">
+      <c r="M40" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="M40" s="63" t="s">
+      <c r="N40" s="63" t="s">
         <v>330</v>
       </c>
-      <c r="N40" s="70" t="s">
-        <v>346</v>
-      </c>
-      <c r="O40" s="66" t="s">
-        <v>367</v>
-      </c>
-      <c r="P40" s="25"/>
-    </row>
-    <row r="41" spans="1:16" ht="285">
+      <c r="O40" s="70" t="s">
+        <v>345</v>
+      </c>
+      <c r="P40" s="66" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q40" s="25"/>
+    </row>
+    <row r="41" spans="1:17" ht="285">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -4094,36 +4226,39 @@
       <c r="F41" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="16">
+        <v>5</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H41" s="16">
+      <c r="I41" s="16">
         <v>99</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="J41" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="J41" s="41" t="s">
+      <c r="K41" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="K41" s="12" t="s">
+      <c r="L41" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L41" s="34" t="s">
+      <c r="M41" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="M41" s="61" t="s">
+      <c r="N41" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="N41" s="66" t="s">
+      <c r="O41" s="66" t="s">
         <v>344</v>
       </c>
-      <c r="O41" s="66" t="s">
+      <c r="P41" s="66" t="s">
         <v>323</v>
       </c>
-      <c r="P41" s="25"/>
-    </row>
-    <row r="42" spans="1:16" ht="165">
+      <c r="Q41" s="25"/>
+    </row>
+    <row r="42" spans="1:17" ht="165">
       <c r="A42" s="16">
         <v>41</v>
       </c>
@@ -4142,36 +4277,39 @@
       <c r="F42" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="G42" s="41" t="s">
+      <c r="G42" s="42">
+        <v>8</v>
+      </c>
+      <c r="H42" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H42" s="16">
+      <c r="I42" s="16">
         <v>235</v>
       </c>
-      <c r="I42" s="41" t="s">
+      <c r="J42" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="J42" s="41" t="s">
+      <c r="K42" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="K42" s="43" t="s">
+      <c r="L42" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="L42" s="44" t="s">
+      <c r="M42" s="44" t="s">
         <v>235</v>
       </c>
-      <c r="M42" s="66" t="s">
+      <c r="N42" s="66" t="s">
         <v>314</v>
       </c>
-      <c r="N42" s="66" t="s">
+      <c r="O42" s="66" t="s">
         <v>343</v>
       </c>
-      <c r="O42" s="61" t="s">
+      <c r="P42" s="61" t="s">
         <v>323</v>
       </c>
-      <c r="P42" s="25"/>
-    </row>
-    <row r="43" spans="1:16" ht="195">
+      <c r="Q42" s="25"/>
+    </row>
+    <row r="43" spans="1:17" ht="195">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -4190,36 +4328,39 @@
       <c r="F43" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="G43" s="41" t="s">
+      <c r="G43" s="42">
+        <v>6</v>
+      </c>
+      <c r="H43" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H43" s="16">
+      <c r="I43" s="16">
         <v>103</v>
       </c>
-      <c r="I43" s="41" t="s">
+      <c r="J43" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="J43" s="41" t="s">
+      <c r="K43" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="K43" s="43" t="s">
+      <c r="L43" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="L43" s="44" t="s">
+      <c r="M43" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="M43" s="70" t="s">
+      <c r="N43" s="70" t="s">
         <v>315</v>
       </c>
-      <c r="N43" s="70" t="s">
+      <c r="O43" s="70" t="s">
         <v>344</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>323</v>
       </c>
-      <c r="P43" s="25"/>
-    </row>
-    <row r="44" spans="1:16" ht="165">
+      <c r="Q43" s="25"/>
+    </row>
+    <row r="44" spans="1:17" ht="165">
       <c r="A44" s="16">
         <v>43</v>
       </c>
@@ -4238,36 +4379,39 @@
       <c r="F44" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="G44" s="41" t="s">
+      <c r="G44" s="42">
+        <v>36</v>
+      </c>
+      <c r="H44" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H44" s="16">
+      <c r="I44" s="16">
         <v>823</v>
       </c>
-      <c r="I44" s="41" t="s">
+      <c r="J44" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="J44" s="41" t="s">
+      <c r="K44" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="K44" s="43" t="s">
+      <c r="L44" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="L44" s="44" t="s">
+      <c r="M44" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="M44" s="66" t="s">
-        <v>368</v>
-      </c>
       <c r="N44" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="O44" s="70" t="s">
-        <v>358</v>
-      </c>
-      <c r="P44" s="25"/>
-    </row>
-    <row r="45" spans="1:16" ht="120">
+        <v>366</v>
+      </c>
+      <c r="O44" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="P44" s="70" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q44" s="25"/>
+    </row>
+    <row r="45" spans="1:17" ht="120">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4286,36 +4430,39 @@
       <c r="F45" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="1">
+        <v>8</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H45" s="16">
+      <c r="I45" s="16">
         <v>127</v>
       </c>
-      <c r="I45" s="11" t="s">
+      <c r="J45" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="J45" s="45" t="s">
+      <c r="K45" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="K45" s="12" t="s">
+      <c r="L45" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L45" s="34" t="s">
+      <c r="M45" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="M45" s="61" t="s">
+      <c r="N45" s="61" t="s">
         <v>314</v>
       </c>
-      <c r="N45" s="66" t="s">
+      <c r="O45" s="66" t="s">
         <v>343</v>
       </c>
-      <c r="O45" s="61" t="s">
+      <c r="P45" s="61" t="s">
         <v>323</v>
       </c>
-      <c r="P45" s="25"/>
-    </row>
-    <row r="46" spans="1:16" ht="135">
+      <c r="Q45" s="25"/>
+    </row>
+    <row r="46" spans="1:17" ht="135">
       <c r="A46" s="16">
         <v>45</v>
       </c>
@@ -4334,36 +4481,39 @@
       <c r="F46" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="16">
+        <v>38</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H46" s="16">
+      <c r="I46" s="16">
         <v>64</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="J46" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="J46" s="45" t="s">
+      <c r="K46" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="K46" s="12" t="s">
+      <c r="L46" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="L46" s="34" t="s">
+      <c r="M46" s="34" t="s">
         <v>257</v>
       </c>
-      <c r="M46" s="61" t="s">
+      <c r="N46" s="61" t="s">
         <v>332</v>
       </c>
-      <c r="N46" s="66" t="s">
+      <c r="O46" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="O46" s="66" t="s">
-        <v>369</v>
-      </c>
-      <c r="P46" s="25"/>
-    </row>
-    <row r="47" spans="1:16" ht="180">
+      <c r="P46" s="66" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q46" s="25"/>
+    </row>
+    <row r="47" spans="1:17" ht="180">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4380,36 +4530,39 @@
       <c r="F47" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="16">
+        <v>9</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H47" s="16">
+      <c r="I47" s="16">
         <v>70</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="J47" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="J47" s="46" t="s">
+      <c r="K47" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="K47" s="12" t="s">
+      <c r="L47" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L47" s="34" t="s">
+      <c r="M47" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="M47" s="61" t="s">
+      <c r="N47" s="61" t="s">
         <v>314</v>
       </c>
-      <c r="N47" s="66" t="s">
+      <c r="O47" s="66" t="s">
         <v>343</v>
       </c>
-      <c r="O47" s="61" t="s">
+      <c r="P47" s="61" t="s">
         <v>333</v>
       </c>
-      <c r="P47" s="25"/>
-    </row>
-    <row r="48" spans="1:16" ht="195">
+      <c r="Q47" s="25"/>
+    </row>
+    <row r="48" spans="1:17" ht="195">
       <c r="A48" s="16">
         <v>47</v>
       </c>
@@ -4428,36 +4581,39 @@
       <c r="F48" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" s="16">
+        <v>17</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H48" s="16">
+      <c r="I48" s="16">
         <v>252</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="J48" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="J48" s="46" t="s">
+      <c r="K48" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="K48" s="12" t="s">
+      <c r="L48" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L48" s="12" t="s">
+      <c r="M48" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="M48" s="61" t="s">
+      <c r="N48" s="61" t="s">
         <v>314</v>
       </c>
-      <c r="N48" s="66" t="s">
+      <c r="O48" s="66" t="s">
         <v>343</v>
       </c>
-      <c r="O48" s="66" t="s">
+      <c r="P48" s="66" t="s">
         <v>334</v>
       </c>
-      <c r="P48" s="25"/>
-    </row>
-    <row r="49" spans="1:16" ht="150">
+      <c r="Q48" s="25"/>
+    </row>
+    <row r="49" spans="1:17" ht="150">
       <c r="A49" s="16">
         <v>48</v>
       </c>
@@ -4474,36 +4630,39 @@
       <c r="F49" s="58" t="s">
         <v>297</v>
       </c>
-      <c r="G49" s="58" t="s">
+      <c r="G49" s="58">
+        <v>21</v>
+      </c>
+      <c r="H49" s="58" t="s">
         <v>295</v>
       </c>
-      <c r="H49" s="16">
+      <c r="I49" s="16">
         <v>117</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="J49" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="J49" s="58" t="s">
+      <c r="K49" s="58" t="s">
         <v>294</v>
       </c>
-      <c r="K49" s="59" t="s">
+      <c r="L49" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="L49" s="60" t="s">
+      <c r="M49" s="60" t="s">
         <v>296</v>
       </c>
-      <c r="M49" s="61" t="s">
+      <c r="N49" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="N49" s="66" t="s">
+      <c r="O49" s="66" t="s">
         <v>344</v>
       </c>
-      <c r="O49" s="70" t="s">
-        <v>370</v>
-      </c>
-      <c r="P49" s="25"/>
-    </row>
-    <row r="50" spans="1:16" ht="165">
+      <c r="P49" s="70" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q49" s="25"/>
+    </row>
+    <row r="50" spans="1:17" ht="165">
       <c r="A50" s="16">
         <v>49</v>
       </c>
@@ -4522,36 +4681,39 @@
       <c r="F50" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" s="16">
+        <v>26</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H50" s="16">
+      <c r="I50" s="16">
         <v>74</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="J50" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="J50" s="47" t="s">
+      <c r="K50" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="K50" s="12" t="s">
+      <c r="L50" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L50" s="12" t="s">
+      <c r="M50" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="M50" s="63" t="s">
+      <c r="N50" s="63" t="s">
         <v>336</v>
       </c>
-      <c r="N50" s="70" t="s">
-        <v>346</v>
-      </c>
-      <c r="O50" s="62" t="s">
+      <c r="O50" s="70" t="s">
+        <v>345</v>
+      </c>
+      <c r="P50" s="62" t="s">
         <v>335</v>
       </c>
-      <c r="P50" s="25"/>
-    </row>
-    <row r="51" spans="1:16" ht="105">
+      <c r="Q50" s="25"/>
+    </row>
+    <row r="51" spans="1:17" ht="105">
       <c r="A51" s="16">
         <v>50</v>
       </c>
@@ -4570,34 +4732,37 @@
       <c r="F51" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="G51" s="58" t="s">
+      <c r="G51" s="57">
+        <v>9</v>
+      </c>
+      <c r="H51" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="H51" s="16">
+      <c r="I51" s="16">
         <v>128</v>
       </c>
-      <c r="I51" s="58" t="s">
+      <c r="J51" s="58" t="s">
         <v>300</v>
       </c>
-      <c r="J51" s="58" t="s">
+      <c r="K51" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="K51" s="59" t="s">
+      <c r="L51" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="L51" s="60" t="s">
+      <c r="M51" s="60" t="s">
         <v>301</v>
       </c>
-      <c r="M51" s="70" t="s">
-        <v>372</v>
-      </c>
       <c r="N51" s="70" t="s">
+        <v>370</v>
+      </c>
+      <c r="O51" s="70" t="s">
         <v>342</v>
       </c>
-      <c r="O51" s="66" t="s">
-        <v>371</v>
-      </c>
-      <c r="P51" s="25"/>
+      <c r="P51" s="66" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q51" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10921"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephshao/Desktop/UMICH/RCT_Reseach/cleaned_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19E8C86-BF26-4F22-9471-39748B14D2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BD7A34-3B64-3744-AFE6-5723500F52D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="376">
   <si>
     <t>NCT02491333</t>
   </si>
@@ -1208,6 +1208,9 @@
     <t>Randomization Scheme</t>
   </si>
   <si>
+    <t>Scientific Area</t>
+  </si>
+  <si>
     <t>Nephrology</t>
   </si>
   <si>
@@ -1220,7 +1223,13 @@
     <t>simple randomization</t>
   </si>
   <si>
+    <t>Reproductive Endocrinology</t>
+  </si>
+  <si>
     <t>blocked randomization</t>
+  </si>
+  <si>
+    <t>Diabetes / Cardiovascular Disease</t>
   </si>
   <si>
     <t>biased coin</t>
@@ -1230,64 +1239,157 @@
  stratified by sibling status</t>
   </si>
   <si>
+    <t>Infectious Diseases / COVID-19</t>
+  </si>
+  <si>
+    <t>Obstetrics / Maternal Health</t>
+  </si>
+  <si>
+    <t>Cognitive Neuroscience / Education</t>
+  </si>
+  <si>
     <t>blocked randomization,
 stratified by center</t>
   </si>
   <si>
+    <t>Anaesthesiology / Airway Management</t>
+  </si>
+  <si>
     <t>centralized randomization,
 stratified by center</t>
   </si>
   <si>
+    <t>Cardiology / Heart Failure</t>
+  </si>
+  <si>
+    <t>Oncology</t>
+  </si>
+  <si>
     <t>Obstetrics</t>
   </si>
   <si>
+    <t>Pulmonary Rehabilitation / COVID-19 Recovery</t>
+  </si>
+  <si>
+    <t>Pediatric Rehabilitation / Cerebral Palsy</t>
+  </si>
+  <si>
     <t>blocked randomization, stratified by hospital</t>
   </si>
   <si>
     <t>HIV</t>
   </si>
   <si>
+    <t>Transplant Surgery</t>
+  </si>
+  <si>
+    <t>Psychiatry</t>
+  </si>
+  <si>
+    <t>Cardiology</t>
+  </si>
+  <si>
+    <t>Diabetes</t>
+  </si>
+  <si>
+    <t>Musculoskeletal Rehabilitation</t>
+  </si>
+  <si>
+    <t>Central web-based randomization, minimization algorithm adjusting for prognostic factors.</t>
+  </si>
+  <si>
+    <t>Critical Care / Hematology</t>
+  </si>
+  <si>
     <t>Anesthesiology</t>
   </si>
   <si>
     <t>Neurology</t>
   </si>
   <si>
+    <t>Neurosurgery / Anesthesiology</t>
+  </si>
+  <si>
+    <t>Cardiovascular Medicine</t>
+  </si>
+  <si>
     <t>cluster randomization</t>
   </si>
   <si>
     <t>blocked randomization, stratified by site and ART status</t>
   </si>
   <si>
+    <t>stratified by age and cancer stage</t>
+  </si>
+  <si>
+    <t>blocked randomization, stratified by sex</t>
+  </si>
+  <si>
+    <t>Psychology</t>
+  </si>
+  <si>
     <t>stratified by disease group</t>
+  </si>
+  <si>
+    <t>Global Health / Neonatology / Infectious Diseases</t>
+  </si>
+  <si>
+    <t>Maternal Health / Obstetrics</t>
   </si>
   <si>
     <t>Blocked randomization,
  stratified by site</t>
   </si>
   <si>
+    <t>Gastroenterology / Endoscopy</t>
+  </si>
+  <si>
     <t>stratified by center</t>
   </si>
   <si>
+    <t>stratified by prior antiretroviral exposure</t>
+  </si>
+  <si>
+    <t>Addiction Medicine / Primary Care</t>
+  </si>
+  <si>
     <t>blocked randomization, stratified by primary substance (alcohol vs drugs)</t>
   </si>
   <si>
+    <t>blocked randomization, stratified by center</t>
+  </si>
+  <si>
+    <t>Maternal &amp; Fetal Health</t>
+  </si>
+  <si>
     <t>Endocrinology</t>
   </si>
   <si>
+    <t>Obstetrics / Dentistry</t>
+  </si>
+  <si>
     <t>stratified by store and sex</t>
   </si>
   <si>
+    <t>Public Health / Nutrition Economics</t>
+  </si>
+  <si>
     <t>Medical Education</t>
   </si>
   <si>
     <t>Pediatrics</t>
   </si>
   <si>
+    <t>Wildlife Conservation / Veterinary Medicine</t>
+  </si>
+  <si>
     <t>Neonatology</t>
   </si>
   <si>
     <t>blocked randomization, stratified by gestational age</t>
+  </si>
+  <si>
+    <t>Immunology / Rare Diseases</t>
   </si>
   <si>
     <t xml:space="preserve">Composite Binary </t>
@@ -1306,114 +1408,14 @@
 Time in care: Continuous proportion</t>
   </si>
   <si>
-    <t>Randomization Scheme(High Level)</t>
-  </si>
-  <si>
-    <t>Stratified</t>
-  </si>
-  <si>
-    <t>Simple</t>
-  </si>
-  <si>
-    <t>Block</t>
-  </si>
-  <si>
-    <t>Stratified Block</t>
-  </si>
-  <si>
-    <t>Cardiovascular Disease</t>
-  </si>
-  <si>
-    <t>Neuropsychology</t>
-  </si>
-  <si>
-    <t>Simple randomization</t>
-  </si>
-  <si>
-    <t>Pulmonology</t>
-  </si>
-  <si>
-    <t>Publishing Methodology</t>
-  </si>
-  <si>
-    <t>Rehabilitation</t>
-  </si>
-  <si>
-    <t>Pediatric Rehabilitation</t>
-  </si>
-  <si>
-    <t>Mental Health</t>
-  </si>
-  <si>
-    <t>COVID-19</t>
-  </si>
-  <si>
-    <t>Surgery/Transplantation</t>
-  </si>
-  <si>
-    <t>Type 2 Diabetes</t>
-  </si>
-  <si>
-    <t>Maternal and Child Health</t>
-  </si>
-  <si>
-    <t>Critical Care</t>
-  </si>
-  <si>
-    <t>Hypertension</t>
-  </si>
-  <si>
-    <t>Vaccinology</t>
-  </si>
-  <si>
-    <t>Tuberculosis</t>
-  </si>
-  <si>
-    <t>Research Ethics</t>
-  </si>
-  <si>
-    <t>Gastroenterology</t>
-  </si>
-  <si>
-    <t>stratified by prior antiretroviral exposure, block</t>
-  </si>
-  <si>
-    <t>Addiction Medicine</t>
-  </si>
-  <si>
-    <t>blocked randomization, stratify by center</t>
-  </si>
-  <si>
-    <t>Nutrition</t>
-  </si>
-  <si>
-    <t>Wildlife Conservation</t>
-  </si>
-  <si>
-    <t>Immunology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-stratified by inherit</t>
-  </si>
-  <si>
-    <t>Research Area</t>
-  </si>
-  <si>
-    <t>Biased Coin</t>
-  </si>
-  <si>
-    <t>Stratified Rerandomization</t>
-  </si>
-  <si>
-    <t>No_Covariates</t>
+    <t>PublicationYear</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1662,7 +1664,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1852,18 +1854,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2140,36 +2130,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="49" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="11" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="26" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5" style="49" customWidth="1"/>
+    <col min="4" max="5" width="16.1640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="11" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" style="26" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31" style="26" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="37" style="50" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="52.85546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="43.140625" style="49" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="52.83203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43.1640625" style="49" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="48.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.1640625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" customHeight="1">
+    <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
@@ -2182,14 +2171,14 @@
       <c r="D1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>374</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>31</v>
@@ -2213,16 +2202,13 @@
         <v>310</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q1" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="75">
+    <row r="2" spans="1:16" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2235,14 +2221,14 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F2" s="2">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="G2" s="2">
-        <v>24</v>
       </c>
       <c r="H2" s="2">
         <v>3</v>
@@ -2263,17 +2249,14 @@
         <v>131</v>
       </c>
       <c r="N2" s="61" t="s">
-        <v>313</v>
-      </c>
-      <c r="O2" s="66" t="s">
-        <v>342</v>
-      </c>
-      <c r="P2" s="66" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q2" s="8"/>
-    </row>
-    <row r="3" spans="1:17" ht="90">
+        <v>314</v>
+      </c>
+      <c r="O2" s="61" t="s">
+        <v>316</v>
+      </c>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:16" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2286,14 +2269,14 @@
       <c r="D3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="20">
+        <v>2021</v>
+      </c>
+      <c r="F3" s="2">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="G3" s="3">
-        <v>8</v>
       </c>
       <c r="H3" s="2">
         <v>3</v>
@@ -2314,17 +2297,14 @@
         <v>133</v>
       </c>
       <c r="N3" s="61" t="s">
-        <v>314</v>
-      </c>
-      <c r="O3" s="66" t="s">
-        <v>343</v>
-      </c>
-      <c r="P3" s="67" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q3" s="9"/>
-    </row>
-    <row r="4" spans="1:17" ht="180">
+        <v>315</v>
+      </c>
+      <c r="O3" s="62" t="s">
+        <v>321</v>
+      </c>
+      <c r="P3" s="9"/>
+    </row>
+    <row r="4" spans="1:16" ht="160" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2337,14 +2317,14 @@
       <c r="D4" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F4" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="G4" s="3">
-        <v>25</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>35</v>
@@ -2362,20 +2342,17 @@
         <v>21</v>
       </c>
       <c r="M4" s="33" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="N4" s="61" t="s">
-        <v>314</v>
-      </c>
-      <c r="O4" s="66" t="s">
-        <v>343</v>
-      </c>
-      <c r="P4" s="68" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q4" s="25"/>
-    </row>
-    <row r="5" spans="1:17" ht="135">
+        <v>315</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="P4" s="25"/>
+    </row>
+    <row r="5" spans="1:16" ht="128" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2388,14 +2365,14 @@
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F5" s="2">
         <v>2</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="G5" s="3">
-        <v>13</v>
       </c>
       <c r="H5" s="2">
         <v>2</v>
@@ -2416,17 +2393,14 @@
         <v>140</v>
       </c>
       <c r="N5" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="O5" s="66" t="s">
-        <v>344</v>
-      </c>
-      <c r="P5" s="68" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q5" s="25"/>
-    </row>
-    <row r="6" spans="1:17" ht="195">
+        <v>317</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="P5" s="25"/>
+    </row>
+    <row r="6" spans="1:16" ht="192" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2436,17 +2410,17 @@
       <c r="C6" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F6" s="2">
         <v>2</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="G6" s="3">
-        <v>42</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>35</v>
@@ -2458,7 +2432,7 @@
         <v>144</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>21</v>
@@ -2466,18 +2440,13 @@
       <c r="M6" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="N6" s="51" t="s">
-        <v>314</v>
-      </c>
-      <c r="O6" s="51" t="s">
-        <v>343</v>
-      </c>
-      <c r="P6" s="68" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q6" s="25"/>
-    </row>
-    <row r="7" spans="1:17" ht="120">
+      <c r="N6" s="51"/>
+      <c r="O6" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="P6" s="25"/>
+    </row>
+    <row r="7" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2490,14 +2459,14 @@
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F7" s="2">
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="G7" s="3">
-        <v>21</v>
       </c>
       <c r="H7" s="2">
         <v>4</v>
@@ -2518,17 +2487,14 @@
         <v>147</v>
       </c>
       <c r="N7" s="61" t="s">
-        <v>316</v>
-      </c>
-      <c r="O7" s="72" t="s">
-        <v>372</v>
-      </c>
-      <c r="P7" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q7" s="9"/>
-    </row>
-    <row r="8" spans="1:17" ht="135">
+        <v>319</v>
+      </c>
+      <c r="O7" s="61" t="s">
+        <v>318</v>
+      </c>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" ht="128" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2538,17 +2504,17 @@
       <c r="C8" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F8" s="2">
         <v>2</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="G8" s="3">
-        <v>21</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>35</v>
@@ -2569,17 +2535,14 @@
         <v>182</v>
       </c>
       <c r="N8" s="64" t="s">
-        <v>317</v>
-      </c>
-      <c r="O8" s="69" t="s">
-        <v>345</v>
-      </c>
-      <c r="P8" s="67" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q8" s="9"/>
-    </row>
-    <row r="9" spans="1:17" ht="90">
+        <v>320</v>
+      </c>
+      <c r="O8" s="62" t="s">
+        <v>323</v>
+      </c>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16" ht="80" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2592,14 +2555,14 @@
       <c r="D9" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F9" s="2">
         <v>2</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="G9" s="2">
-        <v>3</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>35</v>
@@ -2620,19 +2583,16 @@
         <v>152</v>
       </c>
       <c r="N9" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="O9" s="66" t="s">
-        <v>344</v>
-      </c>
-      <c r="P9" s="66" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q9" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="O9" s="61" t="s">
+        <v>321</v>
+      </c>
+      <c r="P9" s="9" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="120">
+    <row r="10" spans="1:16" ht="128" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2645,14 +2605,14 @@
       <c r="D10" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F10" s="2">
         <v>2</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="G10" s="2">
-        <v>8</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>35</v>
@@ -2673,19 +2633,16 @@
         <v>163</v>
       </c>
       <c r="N10" s="63" t="s">
-        <v>318</v>
-      </c>
-      <c r="O10" s="70" t="s">
-        <v>345</v>
-      </c>
-      <c r="P10" s="66" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q10" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="O10" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="P10" s="9" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="270">
+    <row r="11" spans="1:16" ht="272" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2698,14 +2655,14 @@
       <c r="D11" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F11" s="2">
         <v>2</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="G11" s="2">
-        <v>14</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>35</v>
@@ -2726,17 +2683,14 @@
         <v>169</v>
       </c>
       <c r="N11" s="63" t="s">
-        <v>319</v>
-      </c>
-      <c r="O11" s="70" t="s">
-        <v>345</v>
-      </c>
-      <c r="P11" s="66" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q11" s="8"/>
-    </row>
-    <row r="12" spans="1:17" ht="135">
+        <v>326</v>
+      </c>
+      <c r="O11" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="1:16" ht="128" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2749,14 +2703,14 @@
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F12" s="2">
         <v>2</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="G12" s="2">
-        <v>14</v>
       </c>
       <c r="H12" s="2">
         <v>2</v>
@@ -2776,18 +2730,15 @@
       <c r="M12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="66" t="s">
-        <v>348</v>
-      </c>
-      <c r="O12" s="66" t="s">
-        <v>343</v>
-      </c>
-      <c r="P12" s="66" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q12" s="8"/>
-    </row>
-    <row r="13" spans="1:17" ht="75">
+      <c r="N12" s="61" t="s">
+        <v>317</v>
+      </c>
+      <c r="O12" s="61" t="s">
+        <v>327</v>
+      </c>
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="1:16" ht="80" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -2798,14 +2749,14 @@
       <c r="D13" s="53" t="s">
         <v>277</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="53">
+        <v>2023</v>
+      </c>
+      <c r="F13" s="16">
         <v>2</v>
       </c>
-      <c r="F13" s="52" t="s">
+      <c r="G13" s="52" t="s">
         <v>275</v>
-      </c>
-      <c r="G13" s="52">
-        <v>4</v>
       </c>
       <c r="H13" s="53" t="s">
         <v>35</v>
@@ -2825,18 +2776,15 @@
       <c r="M13" s="54" t="s">
         <v>278</v>
       </c>
-      <c r="N13" s="66" t="s">
+      <c r="N13" s="61" t="s">
         <v>314</v>
       </c>
-      <c r="O13" s="66" t="s">
-        <v>343</v>
-      </c>
-      <c r="P13" s="66" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q13" s="9"/>
-    </row>
-    <row r="14" spans="1:17" ht="90">
+      <c r="O13" s="61" t="s">
+        <v>328</v>
+      </c>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2849,14 +2797,14 @@
       <c r="D14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F14" s="2">
         <v>2</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="G14" s="2">
-        <v>5</v>
       </c>
       <c r="H14" s="2">
         <v>4</v>
@@ -2877,17 +2825,14 @@
         <v>22</v>
       </c>
       <c r="N14" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="O14" s="66" t="s">
-        <v>344</v>
-      </c>
-      <c r="P14" s="65" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q14" s="9"/>
-    </row>
-    <row r="15" spans="1:17" ht="195">
+        <v>317</v>
+      </c>
+      <c r="O14" s="65" t="s">
+        <v>329</v>
+      </c>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" ht="160" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2900,14 +2845,14 @@
       <c r="D15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F15" s="2">
         <v>2</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="G15" s="2">
-        <v>24</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>35</v>
@@ -2928,17 +2873,14 @@
         <v>40</v>
       </c>
       <c r="N15" s="61" t="s">
-        <v>321</v>
-      </c>
-      <c r="O15" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="P15" s="70" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q15" s="8"/>
-    </row>
-    <row r="16" spans="1:17" ht="120">
+        <v>332</v>
+      </c>
+      <c r="O15" s="62" t="s">
+        <v>330</v>
+      </c>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="1:16" ht="128" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2951,14 +2893,14 @@
       <c r="D16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
+        <v>2025</v>
+      </c>
+      <c r="F16" s="2">
         <v>2</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="G16" s="3">
-        <v>17</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>35</v>
@@ -2979,17 +2921,14 @@
         <v>48</v>
       </c>
       <c r="N16" s="61" t="s">
-        <v>314</v>
-      </c>
-      <c r="O16" s="66" t="s">
-        <v>343</v>
-      </c>
-      <c r="P16" s="71" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q16" s="9"/>
-    </row>
-    <row r="17" spans="1:17" ht="60">
+        <v>315</v>
+      </c>
+      <c r="O16" s="65" t="s">
+        <v>331</v>
+      </c>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2999,17 +2938,17 @@
       <c r="C17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
+        <v>2013</v>
+      </c>
+      <c r="F17" s="2">
         <v>2</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="G17" s="2">
-        <v>11</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>35</v>
@@ -3030,17 +2969,14 @@
         <v>54</v>
       </c>
       <c r="N17" s="61" t="s">
-        <v>314</v>
-      </c>
-      <c r="O17" s="66" t="s">
-        <v>343</v>
-      </c>
-      <c r="P17" s="66" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q17" s="8"/>
-    </row>
-    <row r="18" spans="1:17" ht="120">
+        <v>315</v>
+      </c>
+      <c r="O17" s="61" t="s">
+        <v>335</v>
+      </c>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:16" ht="128" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3054,13 +2990,13 @@
         <v>57</v>
       </c>
       <c r="E18" s="2">
+        <v>2023</v>
+      </c>
+      <c r="F18" s="2">
         <v>4</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="G18" s="2">
-        <v>10</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>35</v>
@@ -3081,17 +3017,14 @@
         <v>60</v>
       </c>
       <c r="N18" s="61" t="s">
-        <v>314</v>
-      </c>
-      <c r="O18" s="66" t="s">
-        <v>343</v>
-      </c>
-      <c r="P18" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q18" s="8"/>
-    </row>
-    <row r="19" spans="1:17" ht="180">
+        <v>315</v>
+      </c>
+      <c r="O18" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="1:16" ht="160" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3104,14 +3037,14 @@
       <c r="D19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F19" s="2">
         <v>2</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G19" s="2">
-        <v>17</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>35</v>
@@ -3123,7 +3056,7 @@
         <v>65</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="L19" s="8" t="s">
         <v>21</v>
@@ -3132,17 +3065,14 @@
         <v>66</v>
       </c>
       <c r="N19" s="61" t="s">
-        <v>313</v>
-      </c>
-      <c r="O19" s="66" t="s">
-        <v>342</v>
-      </c>
-      <c r="P19" s="61" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q19" s="8"/>
-    </row>
-    <row r="20" spans="1:17" ht="135">
+        <v>314</v>
+      </c>
+      <c r="O19" s="61" t="s">
+        <v>333</v>
+      </c>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="1:16" ht="128" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3155,14 +3085,14 @@
       <c r="D20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
+        <v>2015</v>
+      </c>
+      <c r="F20" s="2">
         <v>2</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="G20" s="2">
-        <v>12</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>35</v>
@@ -3183,17 +3113,14 @@
         <v>72</v>
       </c>
       <c r="N20" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="O20" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="P20" s="51" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q20" s="8"/>
-    </row>
-    <row r="21" spans="1:17" ht="90">
+        <v>317</v>
+      </c>
+      <c r="O20" s="51" t="s">
+        <v>334</v>
+      </c>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3206,14 +3133,14 @@
       <c r="D21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F21" s="2">
         <v>2</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="G21" s="2">
-        <v>13</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>35</v>
@@ -3234,17 +3161,14 @@
         <v>76</v>
       </c>
       <c r="N21" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="O21" s="66" t="s">
-        <v>344</v>
-      </c>
-      <c r="P21" s="66" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q21" s="8"/>
-    </row>
-    <row r="22" spans="1:17" ht="90">
+        <v>317</v>
+      </c>
+      <c r="O21" s="61" t="s">
+        <v>337</v>
+      </c>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3257,14 +3181,14 @@
       <c r="D22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F22" s="2">
         <v>3</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="G22" s="2">
-        <v>10</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>35</v>
@@ -3285,17 +3209,14 @@
         <v>86</v>
       </c>
       <c r="N22" s="61" t="s">
-        <v>314</v>
-      </c>
-      <c r="O22" s="66" t="s">
-        <v>343</v>
-      </c>
-      <c r="P22" s="66" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q22" s="8"/>
-    </row>
-    <row r="23" spans="1:17" ht="60">
+        <v>315</v>
+      </c>
+      <c r="O22" s="61" t="s">
+        <v>338</v>
+      </c>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>22</v>
       </c>
@@ -3303,17 +3224,17 @@
       <c r="C23" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E23" s="1">
+        <v>2015</v>
+      </c>
+      <c r="F23" s="1">
         <v>2</v>
       </c>
-      <c r="F23" s="52" t="s">
+      <c r="G23" s="52" t="s">
         <v>186</v>
-      </c>
-      <c r="G23" s="52">
-        <v>21</v>
       </c>
       <c r="H23" s="53" t="s">
         <v>35</v>
@@ -3333,18 +3254,15 @@
       <c r="M23" s="54" t="s">
         <v>282</v>
       </c>
-      <c r="N23" s="70" t="s">
-        <v>314</v>
-      </c>
-      <c r="O23" s="70" t="s">
-        <v>343</v>
-      </c>
-      <c r="P23" s="66" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q23" s="25"/>
-    </row>
-    <row r="24" spans="1:17" ht="90">
+      <c r="N23" s="63" t="s">
+        <v>339</v>
+      </c>
+      <c r="O23" s="61" t="s">
+        <v>313</v>
+      </c>
+      <c r="P23" s="25"/>
+    </row>
+    <row r="24" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3358,13 +3276,13 @@
         <v>89</v>
       </c>
       <c r="E24" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F24" s="1">
         <v>2</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="G24" s="1">
-        <v>5</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>35</v>
@@ -3385,17 +3303,14 @@
         <v>92</v>
       </c>
       <c r="N24" s="61" t="s">
-        <v>314</v>
-      </c>
-      <c r="O24" s="66" t="s">
-        <v>343</v>
-      </c>
-      <c r="P24" s="66" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q24" s="14"/>
-    </row>
-    <row r="25" spans="1:17" ht="165">
+        <v>315</v>
+      </c>
+      <c r="O24" s="61" t="s">
+        <v>340</v>
+      </c>
+      <c r="P24" s="14"/>
+    </row>
+    <row r="25" spans="1:16" ht="144" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3409,13 +3324,13 @@
         <v>99</v>
       </c>
       <c r="E25" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F25" s="1">
         <v>2</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="G25" s="1">
-        <v>12</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>35</v>
@@ -3436,17 +3351,14 @@
         <v>98</v>
       </c>
       <c r="N25" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="O25" s="66" t="s">
-        <v>344</v>
-      </c>
-      <c r="P25" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q25" s="12"/>
-    </row>
-    <row r="26" spans="1:17" ht="180">
+        <v>317</v>
+      </c>
+      <c r="O25" s="61" t="s">
+        <v>341</v>
+      </c>
+      <c r="P25" s="12"/>
+    </row>
+    <row r="26" spans="1:16" ht="176" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3459,14 +3371,14 @@
       <c r="D26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F26" s="16">
         <v>2</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="G26" s="1">
-        <v>26</v>
       </c>
       <c r="H26" s="1">
         <v>3</v>
@@ -3487,17 +3399,14 @@
         <v>106</v>
       </c>
       <c r="N26" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="O26" s="66" t="s">
-        <v>344</v>
-      </c>
-      <c r="P26" s="61" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q26" s="12"/>
-    </row>
-    <row r="27" spans="1:17" ht="180">
+        <v>317</v>
+      </c>
+      <c r="O26" s="61" t="s">
+        <v>342</v>
+      </c>
+      <c r="P26" s="12"/>
+    </row>
+    <row r="27" spans="1:16" ht="176" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3510,14 +3419,14 @@
       <c r="D27" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="17">
+        <v>2017</v>
+      </c>
+      <c r="F27" s="1">
         <v>2</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="G27" s="1">
-        <v>9</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>35</v>
@@ -3538,17 +3447,14 @@
         <v>111</v>
       </c>
       <c r="N27" s="61" t="s">
-        <v>314</v>
-      </c>
-      <c r="O27" s="66" t="s">
-        <v>343</v>
-      </c>
-      <c r="P27" s="61" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q27" s="30"/>
-    </row>
-    <row r="28" spans="1:17" ht="105">
+        <v>315</v>
+      </c>
+      <c r="O27" s="61" t="s">
+        <v>333</v>
+      </c>
+      <c r="P27" s="30"/>
+    </row>
+    <row r="28" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3562,13 +3468,13 @@
         <v>114</v>
       </c>
       <c r="E28" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F28" s="1">
         <v>2</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="G28" s="1">
-        <v>4</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>35</v>
@@ -3589,17 +3495,14 @@
         <v>117</v>
       </c>
       <c r="N28" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="O28" s="66" t="s">
-        <v>344</v>
-      </c>
-      <c r="P28" s="66" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q28" s="12"/>
-    </row>
-    <row r="29" spans="1:17" ht="150">
+        <v>317</v>
+      </c>
+      <c r="O28" s="61" t="s">
+        <v>343</v>
+      </c>
+      <c r="P28" s="12"/>
+    </row>
+    <row r="29" spans="1:16" ht="128" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3613,13 +3516,13 @@
         <v>118</v>
       </c>
       <c r="E29" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F29" s="1">
         <v>2</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="G29" s="1">
-        <v>10</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>35</v>
@@ -3639,18 +3542,15 @@
       <c r="M29" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="N29" s="66" t="s">
-        <v>325</v>
-      </c>
-      <c r="O29" s="72" t="s">
-        <v>373</v>
-      </c>
-      <c r="P29" s="66" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q29" s="12"/>
-    </row>
-    <row r="30" spans="1:17" ht="210">
+      <c r="N29" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="O29" s="61" t="s">
+        <v>344</v>
+      </c>
+      <c r="P29" s="12"/>
+    </row>
+    <row r="30" spans="1:16" ht="192" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>29</v>
       </c>
@@ -3663,14 +3563,14 @@
       <c r="D30" s="53" t="s">
         <v>287</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="53">
+        <v>2018</v>
+      </c>
+      <c r="F30" s="16">
         <v>2</v>
       </c>
-      <c r="F30" s="52" t="s">
+      <c r="G30" s="52" t="s">
         <v>103</v>
-      </c>
-      <c r="G30" s="52">
-        <v>18</v>
       </c>
       <c r="H30" s="1">
         <v>3</v>
@@ -3691,17 +3591,14 @@
         <v>286</v>
       </c>
       <c r="N30" s="63" t="s">
-        <v>326</v>
-      </c>
-      <c r="O30" s="70" t="s">
-        <v>345</v>
-      </c>
-      <c r="P30" s="61" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q30" s="25"/>
-    </row>
-    <row r="31" spans="1:17" ht="165">
+        <v>346</v>
+      </c>
+      <c r="O30" s="61" t="s">
+        <v>333</v>
+      </c>
+      <c r="P30" s="25"/>
+    </row>
+    <row r="31" spans="1:16" ht="144" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3715,13 +3612,13 @@
         <v>125</v>
       </c>
       <c r="E31" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F31" s="1">
         <v>3</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="G31" s="1">
-        <v>13</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>35</v>
@@ -3742,17 +3639,14 @@
         <v>129</v>
       </c>
       <c r="N31" s="61" t="s">
-        <v>314</v>
-      </c>
-      <c r="O31" s="66" t="s">
-        <v>343</v>
-      </c>
-      <c r="P31" s="66" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q31" s="12"/>
-    </row>
-    <row r="32" spans="1:17" ht="105">
+        <v>315</v>
+      </c>
+      <c r="O31" s="61" t="s">
+        <v>335</v>
+      </c>
+      <c r="P31" s="12"/>
+    </row>
+    <row r="32" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>31</v>
       </c>
@@ -3763,14 +3657,14 @@
       <c r="D32" s="53" t="s">
         <v>287</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="53">
+        <v>2019</v>
+      </c>
+      <c r="F32" s="16">
         <v>2</v>
       </c>
-      <c r="F32" s="52" t="s">
+      <c r="G32" s="52" t="s">
         <v>103</v>
-      </c>
-      <c r="G32" s="52">
-        <v>5</v>
       </c>
       <c r="H32" s="53" t="s">
         <v>35</v>
@@ -3790,18 +3684,15 @@
       <c r="M32" s="54" t="s">
         <v>290</v>
       </c>
-      <c r="N32" s="66" t="s">
-        <v>314</v>
-      </c>
-      <c r="O32" s="66" t="s">
-        <v>343</v>
-      </c>
-      <c r="P32" s="66" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q32" s="25"/>
-    </row>
-    <row r="33" spans="1:17" ht="120">
+      <c r="N32" s="61" t="s">
+        <v>347</v>
+      </c>
+      <c r="O32" s="61" t="s">
+        <v>328</v>
+      </c>
+      <c r="P32" s="25"/>
+    </row>
+    <row r="33" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3811,17 +3702,17 @@
       <c r="C33" s="39" t="s">
         <v>303</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E33" s="37">
+      <c r="E33" s="1">
+        <v>1948</v>
+      </c>
+      <c r="F33" s="37">
         <v>2</v>
       </c>
-      <c r="F33" s="37" t="s">
+      <c r="G33" s="37" t="s">
         <v>186</v>
-      </c>
-      <c r="G33" s="37">
-        <v>5</v>
       </c>
       <c r="H33" s="38" t="s">
         <v>35</v>
@@ -3839,20 +3730,17 @@
         <v>10</v>
       </c>
       <c r="M33" s="39" t="s">
-        <v>339</v>
-      </c>
-      <c r="N33" s="66" t="s">
-        <v>314</v>
-      </c>
-      <c r="O33" s="66" t="s">
-        <v>343</v>
-      </c>
-      <c r="P33" s="66" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q33" s="25"/>
-    </row>
-    <row r="34" spans="1:17" ht="120">
+        <v>373</v>
+      </c>
+      <c r="N33" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="O33" s="61" t="s">
+        <v>335</v>
+      </c>
+      <c r="P33" s="25"/>
+    </row>
+    <row r="34" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>33</v>
       </c>
@@ -3864,13 +3752,13 @@
         <v>190</v>
       </c>
       <c r="E34" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F34" s="1">
         <v>2</v>
       </c>
-      <c r="F34" s="28" t="s">
+      <c r="G34" s="28" t="s">
         <v>186</v>
-      </c>
-      <c r="G34" s="28">
-        <v>8</v>
       </c>
       <c r="H34" s="29" t="s">
         <v>35</v>
@@ -3890,18 +3778,15 @@
       <c r="M34" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="N34" s="66" t="s">
-        <v>327</v>
-      </c>
-      <c r="O34" s="66" t="s">
-        <v>342</v>
-      </c>
-      <c r="P34" s="66" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q34" s="25"/>
-    </row>
-    <row r="35" spans="1:17" ht="90">
+      <c r="N34" s="61" t="s">
+        <v>350</v>
+      </c>
+      <c r="O34" s="61" t="s">
+        <v>349</v>
+      </c>
+      <c r="P34" s="25"/>
+    </row>
+    <row r="35" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3915,13 +3800,13 @@
         <v>193</v>
       </c>
       <c r="E35" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F35" s="1">
         <v>2</v>
       </c>
-      <c r="F35" s="28" t="s">
+      <c r="G35" s="28" t="s">
         <v>161</v>
-      </c>
-      <c r="G35" s="28">
-        <v>17</v>
       </c>
       <c r="H35" s="29" t="s">
         <v>35</v>
@@ -3942,17 +3827,14 @@
         <v>195</v>
       </c>
       <c r="N35" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="O35" s="66" t="s">
-        <v>344</v>
-      </c>
-      <c r="P35" s="70" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q35" s="25"/>
-    </row>
-    <row r="36" spans="1:17" ht="105">
+        <v>317</v>
+      </c>
+      <c r="O35" s="61" t="s">
+        <v>351</v>
+      </c>
+      <c r="P35" s="25"/>
+    </row>
+    <row r="36" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
         <v>35</v>
       </c>
@@ -3965,14 +3847,14 @@
       <c r="D36" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="29">
+        <v>2016</v>
+      </c>
+      <c r="F36" s="1">
         <v>2</v>
       </c>
-      <c r="F36" s="28" t="s">
+      <c r="G36" s="28" t="s">
         <v>186</v>
-      </c>
-      <c r="G36" s="28">
-        <v>9</v>
       </c>
       <c r="H36" s="29" t="s">
         <v>35</v>
@@ -3993,17 +3875,14 @@
         <v>200</v>
       </c>
       <c r="N36" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="O36" s="66" t="s">
-        <v>344</v>
-      </c>
-      <c r="P36" s="66" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q36" s="25"/>
-    </row>
-    <row r="37" spans="1:17" ht="165">
+        <v>317</v>
+      </c>
+      <c r="O36" s="61" t="s">
+        <v>352</v>
+      </c>
+      <c r="P36" s="25"/>
+    </row>
+    <row r="37" spans="1:16" ht="160" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -4013,17 +3892,17 @@
       <c r="C37" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="1" t="s">
         <v>203</v>
       </c>
       <c r="E37" s="1">
+        <v>2025</v>
+      </c>
+      <c r="F37" s="1">
         <v>3</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="G37" s="16" t="s">
         <v>204</v>
-      </c>
-      <c r="G37" s="16">
-        <v>10</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>35</v>
@@ -4044,17 +3923,14 @@
         <v>207</v>
       </c>
       <c r="N37" s="63" t="s">
-        <v>328</v>
-      </c>
-      <c r="O37" s="70" t="s">
-        <v>345</v>
-      </c>
-      <c r="P37" s="66" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q37" s="25"/>
-    </row>
-    <row r="38" spans="1:17" ht="120">
+        <v>353</v>
+      </c>
+      <c r="O37" s="61" t="s">
+        <v>342</v>
+      </c>
+      <c r="P37" s="25"/>
+    </row>
+    <row r="38" spans="1:16" ht="128" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
         <v>37</v>
       </c>
@@ -4068,13 +3944,13 @@
         <v>222</v>
       </c>
       <c r="E38" s="1">
+        <v>2012</v>
+      </c>
+      <c r="F38" s="1">
         <v>2</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="G38" s="16" t="s">
         <v>103</v>
-      </c>
-      <c r="G38" s="16">
-        <v>28</v>
       </c>
       <c r="H38" s="16">
         <v>4</v>
@@ -4095,17 +3971,14 @@
         <v>224</v>
       </c>
       <c r="N38" s="61" t="s">
-        <v>329</v>
-      </c>
-      <c r="O38" s="66" t="s">
-        <v>342</v>
-      </c>
-      <c r="P38" s="66" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q38" s="25"/>
-    </row>
-    <row r="39" spans="1:17" ht="120">
+        <v>355</v>
+      </c>
+      <c r="O38" s="61" t="s">
+        <v>354</v>
+      </c>
+      <c r="P38" s="25"/>
+    </row>
+    <row r="39" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -4119,13 +3992,13 @@
         <v>212</v>
       </c>
       <c r="E39" s="1">
+        <v>1996</v>
+      </c>
+      <c r="F39" s="1">
         <v>4</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="G39" s="16" t="s">
         <v>213</v>
-      </c>
-      <c r="G39" s="16">
-        <v>16</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>35</v>
@@ -4145,18 +4018,15 @@
       <c r="M39" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="N39" s="66" t="s">
-        <v>364</v>
-      </c>
-      <c r="O39" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="P39" s="66" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q39" s="25"/>
-    </row>
-    <row r="40" spans="1:17" ht="105">
+      <c r="N39" s="61" t="s">
+        <v>356</v>
+      </c>
+      <c r="O39" s="61" t="s">
+        <v>333</v>
+      </c>
+      <c r="P39" s="25"/>
+    </row>
+    <row r="40" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
         <v>39</v>
       </c>
@@ -4170,13 +4040,13 @@
         <v>218</v>
       </c>
       <c r="E40" s="1">
+        <v>2003</v>
+      </c>
+      <c r="F40" s="1">
         <v>2</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="G40" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="G40" s="16">
-        <v>19</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>35</v>
@@ -4197,17 +4067,14 @@
         <v>221</v>
       </c>
       <c r="N40" s="63" t="s">
-        <v>330</v>
-      </c>
-      <c r="O40" s="70" t="s">
-        <v>345</v>
-      </c>
-      <c r="P40" s="66" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q40" s="25"/>
-    </row>
-    <row r="41" spans="1:17" ht="285">
+        <v>358</v>
+      </c>
+      <c r="O40" s="61" t="s">
+        <v>357</v>
+      </c>
+      <c r="P40" s="25"/>
+    </row>
+    <row r="41" spans="1:16" ht="256" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -4221,13 +4088,13 @@
         <v>226</v>
       </c>
       <c r="E41" s="1">
+        <v>2011</v>
+      </c>
+      <c r="F41" s="1">
         <v>2</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="G41" s="16" t="s">
         <v>227</v>
-      </c>
-      <c r="G41" s="16">
-        <v>5</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>35</v>
@@ -4248,17 +4115,14 @@
         <v>229</v>
       </c>
       <c r="N41" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="O41" s="66" t="s">
-        <v>344</v>
-      </c>
-      <c r="P41" s="66" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q41" s="25"/>
-    </row>
-    <row r="42" spans="1:17" ht="165">
+        <v>317</v>
+      </c>
+      <c r="O41" s="61" t="s">
+        <v>341</v>
+      </c>
+      <c r="P41" s="25"/>
+    </row>
+    <row r="42" spans="1:16" ht="160" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
         <v>41</v>
       </c>
@@ -4271,14 +4135,14 @@
       <c r="D42" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="41">
+        <v>2013</v>
+      </c>
+      <c r="F42" s="1">
         <v>2</v>
       </c>
-      <c r="F42" s="42" t="s">
+      <c r="G42" s="42" t="s">
         <v>230</v>
-      </c>
-      <c r="G42" s="42">
-        <v>8</v>
       </c>
       <c r="H42" s="41" t="s">
         <v>35</v>
@@ -4298,18 +4162,15 @@
       <c r="M42" s="44" t="s">
         <v>235</v>
       </c>
-      <c r="N42" s="66" t="s">
-        <v>314</v>
-      </c>
-      <c r="O42" s="66" t="s">
-        <v>343</v>
-      </c>
-      <c r="P42" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q42" s="25"/>
-    </row>
-    <row r="43" spans="1:17" ht="195">
+      <c r="N42" s="61" t="s">
+        <v>359</v>
+      </c>
+      <c r="O42" s="61" t="s">
+        <v>360</v>
+      </c>
+      <c r="P42" s="25"/>
+    </row>
+    <row r="43" spans="1:16" ht="176" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -4322,14 +4183,14 @@
       <c r="D43" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="41">
+        <v>2011</v>
+      </c>
+      <c r="F43" s="1">
         <v>2</v>
       </c>
-      <c r="F43" s="42" t="s">
+      <c r="G43" s="42" t="s">
         <v>240</v>
-      </c>
-      <c r="G43" s="42">
-        <v>6</v>
       </c>
       <c r="H43" s="41" t="s">
         <v>35</v>
@@ -4349,18 +4210,15 @@
       <c r="M43" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="N43" s="70" t="s">
-        <v>315</v>
-      </c>
-      <c r="O43" s="70" t="s">
-        <v>344</v>
-      </c>
-      <c r="P43" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q43" s="25"/>
-    </row>
-    <row r="44" spans="1:17" ht="165">
+      <c r="N43" s="63" t="s">
+        <v>324</v>
+      </c>
+      <c r="O43" s="61" t="s">
+        <v>361</v>
+      </c>
+      <c r="P43" s="25"/>
+    </row>
+    <row r="44" spans="1:16" ht="160" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
         <v>43</v>
       </c>
@@ -4373,14 +4231,14 @@
       <c r="D44" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="41">
+        <v>2006</v>
+      </c>
+      <c r="F44" s="1">
         <v>2</v>
       </c>
-      <c r="F44" s="42" t="s">
+      <c r="G44" s="42" t="s">
         <v>186</v>
-      </c>
-      <c r="G44" s="42">
-        <v>36</v>
       </c>
       <c r="H44" s="41" t="s">
         <v>35</v>
@@ -4400,18 +4258,15 @@
       <c r="M44" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="N44" s="66" t="s">
-        <v>366</v>
-      </c>
-      <c r="O44" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="P44" s="70" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q44" s="25"/>
-    </row>
-    <row r="45" spans="1:17" ht="120">
+      <c r="N44" s="61" t="s">
+        <v>317</v>
+      </c>
+      <c r="O44" s="61" t="s">
+        <v>362</v>
+      </c>
+      <c r="P44" s="25"/>
+    </row>
+    <row r="45" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4425,13 +4280,13 @@
         <v>251</v>
       </c>
       <c r="E45" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F45" s="1">
         <v>2</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="G45" s="1">
-        <v>8</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>35</v>
@@ -4452,17 +4307,14 @@
         <v>250</v>
       </c>
       <c r="N45" s="61" t="s">
-        <v>314</v>
-      </c>
-      <c r="O45" s="66" t="s">
-        <v>343</v>
-      </c>
-      <c r="P45" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q45" s="25"/>
-    </row>
-    <row r="46" spans="1:17" ht="135">
+        <v>315</v>
+      </c>
+      <c r="O45" s="61" t="s">
+        <v>341</v>
+      </c>
+      <c r="P45" s="25"/>
+    </row>
+    <row r="46" spans="1:16" ht="128" x14ac:dyDescent="0.2">
       <c r="A46" s="16">
         <v>45</v>
       </c>
@@ -4476,13 +4328,13 @@
         <v>260</v>
       </c>
       <c r="E46" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F46" s="1">
         <v>3</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="G46" s="16" t="s">
         <v>253</v>
-      </c>
-      <c r="G46" s="16">
-        <v>38</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>35</v>
@@ -4503,17 +4355,14 @@
         <v>257</v>
       </c>
       <c r="N46" s="61" t="s">
-        <v>332</v>
-      </c>
-      <c r="O46" s="66" t="s">
-        <v>342</v>
-      </c>
-      <c r="P46" s="66" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q46" s="25"/>
-    </row>
-    <row r="47" spans="1:17" ht="180">
+        <v>363</v>
+      </c>
+      <c r="O46" s="61" t="s">
+        <v>364</v>
+      </c>
+      <c r="P46" s="25"/>
+    </row>
+    <row r="47" spans="1:16" ht="192" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4525,13 +4374,13 @@
         <v>259</v>
       </c>
       <c r="E47" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F47" s="1">
         <v>2</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="G47" s="16" t="s">
         <v>186</v>
-      </c>
-      <c r="G47" s="16">
-        <v>9</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>35</v>
@@ -4552,17 +4401,14 @@
         <v>262</v>
       </c>
       <c r="N47" s="61" t="s">
-        <v>314</v>
-      </c>
-      <c r="O47" s="66" t="s">
-        <v>343</v>
-      </c>
-      <c r="P47" s="61" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q47" s="25"/>
-    </row>
-    <row r="48" spans="1:17" ht="195">
+        <v>315</v>
+      </c>
+      <c r="O47" s="61" t="s">
+        <v>365</v>
+      </c>
+      <c r="P47" s="25"/>
+    </row>
+    <row r="48" spans="1:16" ht="192" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
         <v>47</v>
       </c>
@@ -4576,13 +4422,13 @@
         <v>266</v>
       </c>
       <c r="E48" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F48" s="1">
         <v>2</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="G48" s="16" t="s">
         <v>263</v>
-      </c>
-      <c r="G48" s="16">
-        <v>17</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>35</v>
@@ -4603,17 +4449,14 @@
         <v>268</v>
       </c>
       <c r="N48" s="61" t="s">
-        <v>314</v>
-      </c>
-      <c r="O48" s="66" t="s">
-        <v>343</v>
-      </c>
-      <c r="P48" s="66" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q48" s="25"/>
-    </row>
-    <row r="49" spans="1:17" ht="150">
+        <v>315</v>
+      </c>
+      <c r="O48" s="61" t="s">
+        <v>366</v>
+      </c>
+      <c r="P48" s="25"/>
+    </row>
+    <row r="49" spans="1:16" ht="144" x14ac:dyDescent="0.2">
       <c r="A49" s="16">
         <v>48</v>
       </c>
@@ -4624,14 +4467,14 @@
       <c r="D49" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E49" s="1">
+        <v>2015</v>
+      </c>
+      <c r="F49" s="16">
         <v>2</v>
       </c>
-      <c r="F49" s="58" t="s">
+      <c r="G49" s="58" t="s">
         <v>297</v>
-      </c>
-      <c r="G49" s="58">
-        <v>21</v>
       </c>
       <c r="H49" s="58" t="s">
         <v>295</v>
@@ -4652,17 +4495,14 @@
         <v>296</v>
       </c>
       <c r="N49" s="61" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O49" s="66" t="s">
-        <v>344</v>
-      </c>
-      <c r="P49" s="70" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q49" s="25"/>
-    </row>
-    <row r="50" spans="1:17" ht="165">
+        <v>367</v>
+      </c>
+      <c r="P49" s="25"/>
+    </row>
+    <row r="50" spans="1:16" ht="160" x14ac:dyDescent="0.2">
       <c r="A50" s="16">
         <v>49</v>
       </c>
@@ -4676,13 +4516,13 @@
         <v>271</v>
       </c>
       <c r="E50" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F50" s="1">
         <v>2</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="G50" s="16" t="s">
         <v>186</v>
-      </c>
-      <c r="G50" s="16">
-        <v>26</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>35</v>
@@ -4703,17 +4543,14 @@
         <v>273</v>
       </c>
       <c r="N50" s="63" t="s">
-        <v>336</v>
-      </c>
-      <c r="O50" s="70" t="s">
-        <v>345</v>
-      </c>
-      <c r="P50" s="62" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q50" s="25"/>
-    </row>
-    <row r="51" spans="1:17" ht="105">
+        <v>369</v>
+      </c>
+      <c r="O50" s="62" t="s">
+        <v>368</v>
+      </c>
+      <c r="P50" s="25"/>
+    </row>
+    <row r="51" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A51" s="16">
         <v>50</v>
       </c>
@@ -4726,14 +4563,14 @@
       <c r="D51" s="58" t="s">
         <v>299</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E51" s="58">
+        <v>1991</v>
+      </c>
+      <c r="F51" s="16">
         <v>2</v>
       </c>
-      <c r="F51" s="57" t="s">
+      <c r="G51" s="57" t="s">
         <v>103</v>
-      </c>
-      <c r="G51" s="57">
-        <v>9</v>
       </c>
       <c r="H51" s="58" t="s">
         <v>35</v>
@@ -4753,16 +4590,13 @@
       <c r="M51" s="60" t="s">
         <v>301</v>
       </c>
-      <c r="N51" s="70" t="s">
+      <c r="N51" s="63" t="s">
+        <v>324</v>
+      </c>
+      <c r="O51" s="61" t="s">
         <v>370</v>
       </c>
-      <c r="O51" s="70" t="s">
-        <v>342</v>
-      </c>
-      <c r="P51" s="66" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q51" s="25"/>
+      <c r="P51" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephshao/Desktop/UMICH/RCT_Reseach/cleaned_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BD7A34-3B64-3744-AFE6-5723500F52D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A29EE6-8E31-4083-A7F8-BCCC8B5FD865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="376">
   <si>
     <t>NCT02491333</t>
   </si>
@@ -1181,18 +1181,6 @@
 Binary/count outcomes: χ² or Fisher’s exact tests for proportions; comparisons of infection counts (likely Poisson or similar, though not specified)</t>
   </si>
   <si>
-    <t>https://doi.org/10.1136/bmj.2.4582.769</t>
-  </si>
-  <si>
-    <t>Streptomycin Treatment of Pulmonary Tuberculosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Radiological change at 6 months (5-level ordinal scale from “considerable improvement” to “considerable deterioration”)</t>
-  </si>
-  <si>
-    <t>Categorical</t>
-  </si>
-  <si>
     <t>cgd</t>
   </si>
   <si>
@@ -1202,15 +1190,9 @@
     <t>laryngoscope</t>
   </si>
   <si>
-    <t>strep_tb</t>
-  </si>
-  <si>
     <t>Randomization Scheme</t>
   </si>
   <si>
-    <t>Scientific Area</t>
-  </si>
-  <si>
     <t>Nephrology</t>
   </si>
   <si>
@@ -1223,13 +1205,7 @@
     <t>simple randomization</t>
   </si>
   <si>
-    <t>Reproductive Endocrinology</t>
-  </si>
-  <si>
     <t>blocked randomization</t>
-  </si>
-  <si>
-    <t>Diabetes / Cardiovascular Disease</t>
   </si>
   <si>
     <t>biased coin</t>
@@ -1239,157 +1215,64 @@
  stratified by sibling status</t>
   </si>
   <si>
-    <t>Infectious Diseases / COVID-19</t>
-  </si>
-  <si>
-    <t>Obstetrics / Maternal Health</t>
-  </si>
-  <si>
-    <t>Cognitive Neuroscience / Education</t>
-  </si>
-  <si>
     <t>blocked randomization,
 stratified by center</t>
   </si>
   <si>
-    <t>Anaesthesiology / Airway Management</t>
-  </si>
-  <si>
     <t>centralized randomization,
 stratified by center</t>
   </si>
   <si>
-    <t>Cardiology / Heart Failure</t>
-  </si>
-  <si>
-    <t>Oncology</t>
-  </si>
-  <si>
     <t>Obstetrics</t>
   </si>
   <si>
-    <t>Pulmonary Rehabilitation / COVID-19 Recovery</t>
-  </si>
-  <si>
-    <t>Pediatric Rehabilitation / Cerebral Palsy</t>
-  </si>
-  <si>
     <t>blocked randomization, stratified by hospital</t>
   </si>
   <si>
     <t>HIV</t>
   </si>
   <si>
-    <t>Transplant Surgery</t>
-  </si>
-  <si>
-    <t>Psychiatry</t>
-  </si>
-  <si>
-    <t>Cardiology</t>
-  </si>
-  <si>
-    <t>Diabetes</t>
-  </si>
-  <si>
-    <t>Musculoskeletal Rehabilitation</t>
-  </si>
-  <si>
-    <t>Central web-based randomization, minimization algorithm adjusting for prognostic factors.</t>
-  </si>
-  <si>
-    <t>Critical Care / Hematology</t>
-  </si>
-  <si>
     <t>Anesthesiology</t>
   </si>
   <si>
     <t>Neurology</t>
   </si>
   <si>
-    <t>Neurosurgery / Anesthesiology</t>
-  </si>
-  <si>
-    <t>Cardiovascular Medicine</t>
-  </si>
-  <si>
     <t>cluster randomization</t>
   </si>
   <si>
     <t>blocked randomization, stratified by site and ART status</t>
   </si>
   <si>
-    <t>stratified by age and cancer stage</t>
-  </si>
-  <si>
-    <t>blocked randomization, stratified by sex</t>
-  </si>
-  <si>
-    <t>Psychology</t>
-  </si>
-  <si>
     <t>stratified by disease group</t>
-  </si>
-  <si>
-    <t>Global Health / Neonatology / Infectious Diseases</t>
-  </si>
-  <si>
-    <t>Maternal Health / Obstetrics</t>
   </si>
   <si>
     <t>Blocked randomization,
  stratified by site</t>
   </si>
   <si>
-    <t>Gastroenterology / Endoscopy</t>
-  </si>
-  <si>
     <t>stratified by center</t>
   </si>
   <si>
-    <t>stratified by prior antiretroviral exposure</t>
-  </si>
-  <si>
-    <t>Addiction Medicine / Primary Care</t>
-  </si>
-  <si>
     <t>blocked randomization, stratified by primary substance (alcohol vs drugs)</t>
   </si>
   <si>
-    <t>blocked randomization, stratified by center</t>
-  </si>
-  <si>
-    <t>Maternal &amp; Fetal Health</t>
-  </si>
-  <si>
     <t>Endocrinology</t>
   </si>
   <si>
-    <t>Obstetrics / Dentistry</t>
-  </si>
-  <si>
     <t>stratified by store and sex</t>
   </si>
   <si>
-    <t>Public Health / Nutrition Economics</t>
-  </si>
-  <si>
     <t>Medical Education</t>
   </si>
   <si>
     <t>Pediatrics</t>
   </si>
   <si>
-    <t>Wildlife Conservation / Veterinary Medicine</t>
-  </si>
-  <si>
     <t>Neonatology</t>
   </si>
   <si>
     <t>blocked randomization, stratified by gestational age</t>
-  </si>
-  <si>
-    <t>Immunology / Rare Diseases</t>
   </si>
   <si>
     <t xml:space="preserve">Composite Binary </t>
@@ -1400,27 +1283,157 @@
 Continuous/process measures: Van Elteren test (stratified); Kaplan–Meier curves and log-rank tests for site-specific Time-to-event analyses</t>
   </si>
   <si>
-    <t>Primary outcome: Chi-square tests, analysis of variance for comparing proportions between groups
-Secondary outcomes: Log-rank tests for Time-to-event analyses, t-tests for continuous variables, chi-square tests for categorical variables</t>
-  </si>
-  <si>
     <t>Time to disengagement: Time-to-event
 Time in care: Continuous proportion</t>
   </si>
   <si>
+    <t>Randomization Scheme(High Level)</t>
+  </si>
+  <si>
+    <t>Stratified</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Covariate Adaptive</t>
+  </si>
+  <si>
+    <t>Stratified Block</t>
+  </si>
+  <si>
+    <t>Cardiovascular Disease</t>
+  </si>
+  <si>
+    <t>Neuropsychology</t>
+  </si>
+  <si>
+    <t>Simple randomization</t>
+  </si>
+  <si>
+    <t>Pulmonology</t>
+  </si>
+  <si>
+    <t>Publishing Methodology</t>
+  </si>
+  <si>
+    <t>Rehabilitation</t>
+  </si>
+  <si>
+    <t>Pediatric Rehabilitation</t>
+  </si>
+  <si>
+    <t>Mental Health</t>
+  </si>
+  <si>
+    <t>COVID-19</t>
+  </si>
+  <si>
+    <t>Surgery/Transplantation</t>
+  </si>
+  <si>
+    <t>Type 2 Diabetes</t>
+  </si>
+  <si>
+    <t>Maternal and Child Health</t>
+  </si>
+  <si>
+    <t>Critical Care</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>Hypertension</t>
+  </si>
+  <si>
+    <t>Vaccinology</t>
+  </si>
+  <si>
+    <t>Research Ethics</t>
+  </si>
+  <si>
+    <t>Gastroenterology</t>
+  </si>
+  <si>
+    <t>stratified by prior antiretroviral exposure, block</t>
+  </si>
+  <si>
+    <t>Addiction Medicine</t>
+  </si>
+  <si>
+    <t>blocked randomization, stratify by center</t>
+  </si>
+  <si>
+    <t>Nutrition</t>
+  </si>
+  <si>
+    <t>Wildlife Conservation</t>
+  </si>
+  <si>
+    <t>Immunology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+stratified by inherit</t>
+  </si>
+  <si>
+    <t>Research Area</t>
+  </si>
+  <si>
     <t>PublicationYear</t>
+  </si>
+  <si>
+    <t>ACTRN12617001136392</t>
+  </si>
+  <si>
+    <t>Nasal ventilation and rapid maxillary expansion
+(RME): a randomized trial</t>
+  </si>
+  <si>
+    <t>doi:10.1093/ejo/cjab001</t>
+  </si>
+  <si>
+    <t>Hyrax</t>
+  </si>
+  <si>
+    <t>pressure, velocity</t>
+  </si>
+  <si>
+    <t>Partially, 
+No statistically significant differences among groups in nasal pressure or velocity (P = 0.17, P = 0.08).
+However, Hybrid-Hyrax showed a trend of greater improvement and was statistically superior to Hyrax in adjusted regressions for maximum velocity (P = 0.03) and nasal obstruction resolution (P = 0.04).</t>
+  </si>
+  <si>
+    <t>Linear regression (with transformed outcomes) for continuous variables
+Fisher’s exact test for categorical variables (e.g., obstruction resolution)
+Adjusted multivariable regression controlling for confounders
+Multivariable regularized logistic regression (penalized) for predicting nasal obstruction resolution</t>
+  </si>
+  <si>
+    <t>Orthodontics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1660,163 +1673,173 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1824,40 +1847,53 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{DB6F5F88-69E3-4DCE-9400-6BF9FBA41B34}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{18521552-F15D-43B2-A43F-391B29971A31}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2130,35 +2166,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.5" style="49" customWidth="1"/>
-    <col min="4" max="5" width="16.1640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="47" customWidth="1"/>
+    <col min="4" max="5" width="16.140625" style="11" customWidth="1"/>
     <col min="6" max="6" width="11" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="26" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31" style="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37" style="50" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="52.83203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="43.1640625" style="49" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="48.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37" style="48" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="52.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43.140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.140625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="18" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
@@ -2172,7 +2208,7 @@
         <v>29</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>30</v>
@@ -2199,16 +2235,19 @@
         <v>34</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="80" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="75">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2248,15 +2287,18 @@
       <c r="M2" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="N2" s="61" t="s">
-        <v>314</v>
-      </c>
-      <c r="O2" s="61" t="s">
-        <v>316</v>
-      </c>
-      <c r="P2" s="8"/>
-    </row>
-    <row r="3" spans="1:16" ht="80" x14ac:dyDescent="0.2">
+      <c r="N2" s="59" t="s">
+        <v>308</v>
+      </c>
+      <c r="O2" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="P2" s="64" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="1:17" ht="90">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2269,7 +2311,7 @@
       <c r="D3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="70">
         <v>2021</v>
       </c>
       <c r="F3" s="2">
@@ -2296,15 +2338,18 @@
       <c r="M3" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="N3" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="O3" s="62" t="s">
-        <v>321</v>
-      </c>
-      <c r="P3" s="9"/>
-    </row>
-    <row r="4" spans="1:16" ht="160" x14ac:dyDescent="0.2">
+      <c r="N3" s="59" t="s">
+        <v>309</v>
+      </c>
+      <c r="O3" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="P3" s="65" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="4" spans="1:17" ht="180">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2342,17 +2387,20 @@
         <v>21</v>
       </c>
       <c r="M4" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="N4" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="P4" s="25"/>
-    </row>
-    <row r="5" spans="1:16" ht="128" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+      <c r="N4" s="59" t="s">
+        <v>309</v>
+      </c>
+      <c r="O4" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="P4" s="66" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q4" s="25"/>
+    </row>
+    <row r="5" spans="1:17" ht="135">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2392,15 +2440,18 @@
       <c r="M5" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="N5" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="P5" s="25"/>
-    </row>
-    <row r="6" spans="1:16" ht="192" x14ac:dyDescent="0.2">
+      <c r="N5" s="59" t="s">
+        <v>310</v>
+      </c>
+      <c r="O5" s="64" t="s">
+        <v>338</v>
+      </c>
+      <c r="P5" s="66" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q5" s="25"/>
+    </row>
+    <row r="6" spans="1:17" ht="195">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2410,7 +2461,7 @@
       <c r="C6" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="11" t="s">
         <v>143</v>
       </c>
       <c r="E6" s="1">
@@ -2432,7 +2483,7 @@
         <v>144</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>21</v>
@@ -2440,13 +2491,18 @@
       <c r="M6" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="N6" s="51"/>
-      <c r="O6" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="P6" s="25"/>
-    </row>
-    <row r="7" spans="1:16" ht="96" x14ac:dyDescent="0.2">
+      <c r="N6" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="O6" s="49" t="s">
+        <v>337</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q6" s="25"/>
+    </row>
+    <row r="7" spans="1:17" ht="120">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2486,15 +2542,18 @@
       <c r="M7" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="N7" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="O7" s="61" t="s">
-        <v>318</v>
-      </c>
-      <c r="P7" s="9"/>
-    </row>
-    <row r="8" spans="1:16" ht="128" x14ac:dyDescent="0.2">
+      <c r="N7" s="59" t="s">
+        <v>311</v>
+      </c>
+      <c r="O7" s="64" t="s">
+        <v>339</v>
+      </c>
+      <c r="P7" s="64" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" ht="135">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2504,7 +2563,7 @@
       <c r="C8" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="11" t="s">
         <v>179</v>
       </c>
       <c r="E8" s="1">
@@ -2534,15 +2593,18 @@
       <c r="M8" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="N8" s="64" t="s">
-        <v>320</v>
-      </c>
-      <c r="O8" s="62" t="s">
-        <v>323</v>
-      </c>
-      <c r="P8" s="9"/>
-    </row>
-    <row r="9" spans="1:16" ht="80" x14ac:dyDescent="0.2">
+      <c r="N8" s="62" t="s">
+        <v>312</v>
+      </c>
+      <c r="O8" s="67" t="s">
+        <v>340</v>
+      </c>
+      <c r="P8" s="65" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" ht="90">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2582,17 +2644,20 @@
       <c r="M9" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="N9" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="O9" s="61" t="s">
-        <v>321</v>
-      </c>
-      <c r="P9" s="9" t="s">
+      <c r="N9" s="59" t="s">
+        <v>310</v>
+      </c>
+      <c r="O9" s="64" t="s">
+        <v>338</v>
+      </c>
+      <c r="P9" s="64" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q9" s="9" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="128" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="120">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2632,17 +2697,20 @@
       <c r="M10" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="N10" s="63" t="s">
-        <v>324</v>
-      </c>
-      <c r="O10" s="61" t="s">
-        <v>322</v>
-      </c>
-      <c r="P10" s="9" t="s">
+      <c r="N10" s="61" t="s">
+        <v>313</v>
+      </c>
+      <c r="O10" s="68" t="s">
+        <v>340</v>
+      </c>
+      <c r="P10" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q10" s="9" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="272" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="270">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2682,15 +2750,18 @@
       <c r="M11" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="N11" s="63" t="s">
-        <v>326</v>
-      </c>
-      <c r="O11" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="P11" s="8"/>
-    </row>
-    <row r="12" spans="1:16" ht="128" x14ac:dyDescent="0.2">
+      <c r="N11" s="61" t="s">
+        <v>314</v>
+      </c>
+      <c r="O11" s="68" t="s">
+        <v>340</v>
+      </c>
+      <c r="P11" s="64" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q11" s="8"/>
+    </row>
+    <row r="12" spans="1:17" ht="135">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2730,35 +2801,38 @@
       <c r="M12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="O12" s="61" t="s">
-        <v>327</v>
-      </c>
-      <c r="P12" s="8"/>
-    </row>
-    <row r="13" spans="1:16" ht="80" x14ac:dyDescent="0.2">
+      <c r="N12" s="64" t="s">
+        <v>343</v>
+      </c>
+      <c r="O12" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="P12" s="64" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q12" s="8"/>
+    </row>
+    <row r="13" spans="1:17" ht="75">
       <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="54" t="s">
+      <c r="B13" s="49"/>
+      <c r="C13" s="52" t="s">
         <v>276</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="51" t="s">
         <v>277</v>
       </c>
-      <c r="E13" s="53">
+      <c r="E13" s="70">
         <v>2023</v>
       </c>
       <c r="F13" s="16">
         <v>2</v>
       </c>
-      <c r="G13" s="52" t="s">
+      <c r="G13" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="H13" s="53" t="s">
+      <c r="H13" s="51" t="s">
         <v>35</v>
       </c>
       <c r="I13" s="16">
@@ -2767,24 +2841,27 @@
       <c r="J13" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="K13" s="52" t="s">
+      <c r="K13" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="L13" s="55" t="s">
+      <c r="L13" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="54" t="s">
+      <c r="M13" s="52" t="s">
         <v>278</v>
       </c>
-      <c r="N13" s="61" t="s">
-        <v>314</v>
-      </c>
-      <c r="O13" s="61" t="s">
-        <v>328</v>
-      </c>
-      <c r="P13" s="9"/>
-    </row>
-    <row r="14" spans="1:16" ht="64" x14ac:dyDescent="0.2">
+      <c r="N13" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="O13" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="P13" s="64" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14" spans="1:17" ht="90">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2824,15 +2901,18 @@
       <c r="M14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="O14" s="65" t="s">
-        <v>329</v>
-      </c>
-      <c r="P14" s="9"/>
-    </row>
-    <row r="15" spans="1:16" ht="160" x14ac:dyDescent="0.2">
+      <c r="N14" s="59" t="s">
+        <v>310</v>
+      </c>
+      <c r="O14" s="64" t="s">
+        <v>338</v>
+      </c>
+      <c r="P14" s="63" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q14" s="9"/>
+    </row>
+    <row r="15" spans="1:17" ht="195">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2872,15 +2952,18 @@
       <c r="M15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N15" s="61" t="s">
-        <v>332</v>
-      </c>
-      <c r="O15" s="62" t="s">
-        <v>330</v>
-      </c>
-      <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" ht="128" x14ac:dyDescent="0.2">
+      <c r="N15" s="59" t="s">
+        <v>316</v>
+      </c>
+      <c r="O15" s="64" t="s">
+        <v>340</v>
+      </c>
+      <c r="P15" s="68" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q15" s="8"/>
+    </row>
+    <row r="16" spans="1:17" ht="120">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2920,15 +3003,18 @@
       <c r="M16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="N16" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="O16" s="65" t="s">
-        <v>331</v>
-      </c>
-      <c r="P16" s="9"/>
-    </row>
-    <row r="17" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+      <c r="N16" s="59" t="s">
+        <v>309</v>
+      </c>
+      <c r="O16" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="P16" s="69" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="1:17" ht="60">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2938,7 +3024,7 @@
       <c r="C17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="11" t="s">
         <v>52</v>
       </c>
       <c r="E17" s="1">
@@ -2968,15 +3054,18 @@
       <c r="M17" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="N17" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="O17" s="61" t="s">
-        <v>335</v>
-      </c>
-      <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="1:16" ht="128" x14ac:dyDescent="0.2">
+      <c r="N17" s="59" t="s">
+        <v>309</v>
+      </c>
+      <c r="O17" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="P17" s="64" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q17" s="8"/>
+    </row>
+    <row r="18" spans="1:17" ht="120">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3016,15 +3105,18 @@
       <c r="M18" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="N18" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="O18" s="61" t="s">
-        <v>336</v>
-      </c>
-      <c r="P18" s="8"/>
-    </row>
-    <row r="19" spans="1:16" ht="160" x14ac:dyDescent="0.2">
+      <c r="N18" s="59" t="s">
+        <v>309</v>
+      </c>
+      <c r="O18" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="P18" s="64" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q18" s="8"/>
+    </row>
+    <row r="19" spans="1:17" ht="180">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3056,7 +3148,7 @@
         <v>65</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>374</v>
+        <v>334</v>
       </c>
       <c r="L19" s="8" t="s">
         <v>21</v>
@@ -3064,15 +3156,18 @@
       <c r="M19" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="N19" s="61" t="s">
-        <v>314</v>
-      </c>
-      <c r="O19" s="61" t="s">
-        <v>333</v>
-      </c>
-      <c r="P19" s="8"/>
-    </row>
-    <row r="20" spans="1:16" ht="128" x14ac:dyDescent="0.2">
+      <c r="N19" s="59" t="s">
+        <v>308</v>
+      </c>
+      <c r="O19" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="P19" s="59" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q19" s="8"/>
+    </row>
+    <row r="20" spans="1:17" ht="135">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3112,15 +3207,18 @@
       <c r="M20" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="N20" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="O20" s="51" t="s">
-        <v>334</v>
-      </c>
-      <c r="P20" s="8"/>
-    </row>
-    <row r="21" spans="1:16" ht="96" x14ac:dyDescent="0.2">
+      <c r="N20" s="59" t="s">
+        <v>310</v>
+      </c>
+      <c r="O20" s="64" t="s">
+        <v>340</v>
+      </c>
+      <c r="P20" s="49" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q20" s="8"/>
+    </row>
+    <row r="21" spans="1:17" ht="90">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3160,15 +3258,18 @@
       <c r="M21" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="N21" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="O21" s="61" t="s">
-        <v>337</v>
-      </c>
-      <c r="P21" s="8"/>
-    </row>
-    <row r="22" spans="1:16" ht="96" x14ac:dyDescent="0.2">
+      <c r="N21" s="59" t="s">
+        <v>310</v>
+      </c>
+      <c r="O21" s="64" t="s">
+        <v>338</v>
+      </c>
+      <c r="P21" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q21" s="8"/>
+    </row>
+    <row r="22" spans="1:17" ht="90">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3208,23 +3309,26 @@
       <c r="M22" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="N22" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="O22" s="61" t="s">
-        <v>338</v>
-      </c>
-      <c r="P22" s="8"/>
-    </row>
-    <row r="23" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+      <c r="N22" s="59" t="s">
+        <v>309</v>
+      </c>
+      <c r="O22" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="P22" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q22" s="8"/>
+    </row>
+    <row r="23" spans="1:17" ht="60">
       <c r="A23" s="16">
         <v>22</v>
       </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="54" t="s">
+      <c r="B23" s="50"/>
+      <c r="C23" s="52" t="s">
         <v>279</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="11" t="s">
         <v>280</v>
       </c>
       <c r="E23" s="1">
@@ -3233,36 +3337,39 @@
       <c r="F23" s="1">
         <v>2</v>
       </c>
-      <c r="G23" s="52" t="s">
+      <c r="G23" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="H23" s="53" t="s">
+      <c r="H23" s="51" t="s">
         <v>35</v>
       </c>
       <c r="I23" s="16">
         <v>146</v>
       </c>
-      <c r="J23" s="56" t="s">
+      <c r="J23" s="54" t="s">
         <v>281</v>
       </c>
-      <c r="K23" s="52" t="s">
+      <c r="K23" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="L23" s="54" t="s">
+      <c r="L23" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="M23" s="54" t="s">
+      <c r="M23" s="52" t="s">
         <v>282</v>
       </c>
-      <c r="N23" s="63" t="s">
-        <v>339</v>
-      </c>
-      <c r="O23" s="61" t="s">
-        <v>313</v>
-      </c>
-      <c r="P23" s="25"/>
-    </row>
-    <row r="24" spans="1:16" ht="96" x14ac:dyDescent="0.2">
+      <c r="N23" s="68" t="s">
+        <v>309</v>
+      </c>
+      <c r="O23" s="68" t="s">
+        <v>337</v>
+      </c>
+      <c r="P23" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q23" s="25"/>
+    </row>
+    <row r="24" spans="1:17" ht="90">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3302,15 +3409,18 @@
       <c r="M24" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="N24" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="O24" s="61" t="s">
-        <v>340</v>
-      </c>
-      <c r="P24" s="14"/>
-    </row>
-    <row r="25" spans="1:16" ht="144" x14ac:dyDescent="0.2">
+      <c r="N24" s="59" t="s">
+        <v>309</v>
+      </c>
+      <c r="O24" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="P24" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q24" s="14"/>
+    </row>
+    <row r="25" spans="1:17" ht="165">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3350,15 +3460,18 @@
       <c r="M25" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="N25" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="O25" s="61" t="s">
-        <v>341</v>
-      </c>
-      <c r="P25" s="12"/>
-    </row>
-    <row r="26" spans="1:16" ht="176" x14ac:dyDescent="0.2">
+      <c r="N25" s="59" t="s">
+        <v>310</v>
+      </c>
+      <c r="O25" s="64" t="s">
+        <v>338</v>
+      </c>
+      <c r="P25" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q25" s="12"/>
+    </row>
+    <row r="26" spans="1:17" ht="180">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3398,15 +3511,18 @@
       <c r="M26" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="N26" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="O26" s="61" t="s">
-        <v>342</v>
-      </c>
-      <c r="P26" s="12"/>
-    </row>
-    <row r="27" spans="1:16" ht="176" x14ac:dyDescent="0.2">
+      <c r="N26" s="59" t="s">
+        <v>310</v>
+      </c>
+      <c r="O26" s="64" t="s">
+        <v>338</v>
+      </c>
+      <c r="P26" s="59" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q26" s="12"/>
+    </row>
+    <row r="27" spans="1:17" ht="180">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3419,7 +3535,7 @@
       <c r="D27" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="70">
         <v>2017</v>
       </c>
       <c r="F27" s="1">
@@ -3446,15 +3562,18 @@
       <c r="M27" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="N27" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="O27" s="61" t="s">
-        <v>333</v>
-      </c>
-      <c r="P27" s="30"/>
-    </row>
-    <row r="28" spans="1:16" ht="96" x14ac:dyDescent="0.2">
+      <c r="N27" s="59" t="s">
+        <v>309</v>
+      </c>
+      <c r="O27" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="P27" s="59" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q27" s="30"/>
+    </row>
+    <row r="28" spans="1:17" ht="105">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3494,15 +3613,18 @@
       <c r="M28" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="N28" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="O28" s="61" t="s">
-        <v>343</v>
-      </c>
-      <c r="P28" s="12"/>
-    </row>
-    <row r="29" spans="1:16" ht="128" x14ac:dyDescent="0.2">
+      <c r="N28" s="59" t="s">
+        <v>310</v>
+      </c>
+      <c r="O28" s="64" t="s">
+        <v>338</v>
+      </c>
+      <c r="P28" s="64" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q28" s="12"/>
+    </row>
+    <row r="29" spans="1:17" ht="150">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3542,34 +3664,37 @@
       <c r="M29" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="N29" s="61" t="s">
-        <v>345</v>
-      </c>
-      <c r="O29" s="61" t="s">
-        <v>344</v>
-      </c>
-      <c r="P29" s="12"/>
-    </row>
-    <row r="30" spans="1:16" ht="192" x14ac:dyDescent="0.2">
+      <c r="N29" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="O29" s="64" t="s">
+        <v>354</v>
+      </c>
+      <c r="P29" s="64" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q29" s="12"/>
+    </row>
+    <row r="30" spans="1:17" ht="210">
       <c r="A30" s="16">
         <v>29</v>
       </c>
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="50" t="s">
         <v>284</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="D30" s="53" t="s">
+      <c r="D30" s="51" t="s">
         <v>287</v>
       </c>
-      <c r="E30" s="53">
+      <c r="E30" s="70">
         <v>2018</v>
       </c>
       <c r="F30" s="16">
         <v>2</v>
       </c>
-      <c r="G30" s="52" t="s">
+      <c r="G30" s="50" t="s">
         <v>103</v>
       </c>
       <c r="H30" s="1">
@@ -3578,27 +3703,30 @@
       <c r="I30" s="1">
         <v>460</v>
       </c>
-      <c r="J30" s="53" t="s">
+      <c r="J30" s="51" t="s">
         <v>285</v>
       </c>
-      <c r="K30" s="52" t="s">
+      <c r="K30" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="L30" s="55" t="s">
+      <c r="L30" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="M30" s="54" t="s">
+      <c r="M30" s="52" t="s">
         <v>286</v>
       </c>
-      <c r="N30" s="63" t="s">
-        <v>346</v>
-      </c>
-      <c r="O30" s="61" t="s">
-        <v>333</v>
-      </c>
-      <c r="P30" s="25"/>
-    </row>
-    <row r="31" spans="1:16" ht="144" x14ac:dyDescent="0.2">
+      <c r="N30" s="61" t="s">
+        <v>321</v>
+      </c>
+      <c r="O30" s="68" t="s">
+        <v>340</v>
+      </c>
+      <c r="P30" s="59" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q30" s="25"/>
+    </row>
+    <row r="31" spans="1:17" ht="165">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3638,109 +3766,118 @@
       <c r="M31" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="N31" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="O31" s="61" t="s">
-        <v>335</v>
-      </c>
-      <c r="P31" s="12"/>
-    </row>
-    <row r="32" spans="1:16" ht="112" x14ac:dyDescent="0.2">
+      <c r="N31" s="59" t="s">
+        <v>309</v>
+      </c>
+      <c r="O31" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="P31" s="64" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q31" s="12"/>
+    </row>
+    <row r="32" spans="1:17" ht="105">
       <c r="A32" s="16">
         <v>31</v>
       </c>
-      <c r="B32" s="51"/>
-      <c r="C32" s="54" t="s">
+      <c r="B32" s="49"/>
+      <c r="C32" s="52" t="s">
         <v>288</v>
       </c>
-      <c r="D32" s="53" t="s">
+      <c r="D32" s="51" t="s">
         <v>287</v>
       </c>
-      <c r="E32" s="53">
+      <c r="E32" s="70">
         <v>2019</v>
       </c>
       <c r="F32" s="16">
         <v>2</v>
       </c>
-      <c r="G32" s="52" t="s">
+      <c r="G32" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="H32" s="53" t="s">
+      <c r="H32" s="51" t="s">
         <v>35</v>
       </c>
       <c r="I32" s="16">
         <v>796</v>
       </c>
-      <c r="J32" s="53" t="s">
+      <c r="J32" s="51" t="s">
         <v>289</v>
       </c>
-      <c r="K32" s="52" t="s">
+      <c r="K32" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="L32" s="55" t="s">
+      <c r="L32" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="M32" s="54" t="s">
+      <c r="M32" s="52" t="s">
         <v>290</v>
       </c>
-      <c r="N32" s="61" t="s">
-        <v>347</v>
-      </c>
-      <c r="O32" s="61" t="s">
-        <v>328</v>
-      </c>
-      <c r="P32" s="25"/>
-    </row>
-    <row r="33" spans="1:16" ht="96" x14ac:dyDescent="0.2">
+      <c r="N32" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="O32" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="P32" s="72" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q32" s="25"/>
+    </row>
+    <row r="33" spans="1:17" ht="180">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="73" t="s">
+        <v>368</v>
+      </c>
+      <c r="C33" s="74" t="s">
+        <v>369</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F33" s="37">
+        <v>3</v>
+      </c>
+      <c r="G33" s="73" t="s">
+        <v>371</v>
+      </c>
+      <c r="H33" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33" s="37">
+        <v>57</v>
+      </c>
+      <c r="J33" s="73" t="s">
+        <v>372</v>
+      </c>
+      <c r="K33" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="L33" s="74" t="s">
+        <v>373</v>
+      </c>
+      <c r="M33" s="74" t="s">
+        <v>374</v>
+      </c>
+      <c r="N33" s="72" t="s">
         <v>309</v>
       </c>
-      <c r="C33" s="39" t="s">
-        <v>303</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1948</v>
-      </c>
-      <c r="F33" s="37">
-        <v>2</v>
-      </c>
-      <c r="G33" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="H33" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="I33" s="37">
-        <v>107</v>
-      </c>
-      <c r="J33" s="37" t="s">
-        <v>304</v>
-      </c>
-      <c r="K33" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="L33" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="M33" s="39" t="s">
-        <v>373</v>
-      </c>
-      <c r="N33" s="61" t="s">
-        <v>348</v>
-      </c>
-      <c r="O33" s="61" t="s">
-        <v>335</v>
-      </c>
-      <c r="P33" s="25"/>
-    </row>
-    <row r="34" spans="1:16" ht="112" x14ac:dyDescent="0.2">
+      <c r="O33" s="72" t="s">
+        <v>337</v>
+      </c>
+      <c r="P33" s="72" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q33" s="25"/>
+    </row>
+    <row r="34" spans="1:17" ht="120">
       <c r="A34" s="16">
         <v>33</v>
       </c>
@@ -3766,7 +3903,7 @@
       <c r="I34" s="16">
         <v>154</v>
       </c>
-      <c r="J34" s="40" t="s">
+      <c r="J34" s="38" t="s">
         <v>187</v>
       </c>
       <c r="K34" s="29" t="s">
@@ -3778,15 +3915,18 @@
       <c r="M34" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="N34" s="61" t="s">
-        <v>350</v>
-      </c>
-      <c r="O34" s="61" t="s">
-        <v>349</v>
-      </c>
-      <c r="P34" s="25"/>
-    </row>
-    <row r="35" spans="1:16" ht="96" x14ac:dyDescent="0.2">
+      <c r="N34" s="64" t="s">
+        <v>322</v>
+      </c>
+      <c r="O34" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="P34" s="64" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q34" s="25"/>
+    </row>
+    <row r="35" spans="1:17" ht="90">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3826,15 +3966,18 @@
       <c r="M35" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="N35" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="O35" s="61" t="s">
-        <v>351</v>
-      </c>
-      <c r="P35" s="25"/>
-    </row>
-    <row r="36" spans="1:16" ht="96" x14ac:dyDescent="0.2">
+      <c r="N35" s="59" t="s">
+        <v>310</v>
+      </c>
+      <c r="O35" s="64" t="s">
+        <v>338</v>
+      </c>
+      <c r="P35" s="68" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q35" s="25"/>
+    </row>
+    <row r="36" spans="1:17" ht="105">
       <c r="A36" s="16">
         <v>35</v>
       </c>
@@ -3847,7 +3990,7 @@
       <c r="D36" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="E36" s="29">
+      <c r="E36" s="70">
         <v>2016</v>
       </c>
       <c r="F36" s="1">
@@ -3874,15 +4017,18 @@
       <c r="M36" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="N36" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="O36" s="61" t="s">
+      <c r="N36" s="59" t="s">
+        <v>310</v>
+      </c>
+      <c r="O36" s="64" t="s">
+        <v>338</v>
+      </c>
+      <c r="P36" s="64" t="s">
         <v>352</v>
       </c>
-      <c r="P36" s="25"/>
-    </row>
-    <row r="37" spans="1:16" ht="160" x14ac:dyDescent="0.2">
+      <c r="Q36" s="25"/>
+    </row>
+    <row r="37" spans="1:17" ht="165">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3892,7 +4038,7 @@
       <c r="C37" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="11" t="s">
         <v>203</v>
       </c>
       <c r="E37" s="1">
@@ -3913,7 +4059,7 @@
       <c r="J37" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="K37" s="41" t="s">
+      <c r="K37" s="39" t="s">
         <v>37</v>
       </c>
       <c r="L37" s="12" t="s">
@@ -3922,15 +4068,18 @@
       <c r="M37" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="N37" s="63" t="s">
-        <v>353</v>
-      </c>
-      <c r="O37" s="61" t="s">
-        <v>342</v>
-      </c>
-      <c r="P37" s="25"/>
-    </row>
-    <row r="38" spans="1:16" ht="128" x14ac:dyDescent="0.2">
+      <c r="N37" s="61" t="s">
+        <v>323</v>
+      </c>
+      <c r="O37" s="68" t="s">
+        <v>340</v>
+      </c>
+      <c r="P37" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q37" s="25"/>
+    </row>
+    <row r="38" spans="1:17" ht="120">
       <c r="A38" s="16">
         <v>37</v>
       </c>
@@ -3961,7 +4110,7 @@
       <c r="J38" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K38" s="41" t="s">
+      <c r="K38" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L38" s="12" t="s">
@@ -3970,15 +4119,18 @@
       <c r="M38" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="N38" s="61" t="s">
-        <v>355</v>
-      </c>
-      <c r="O38" s="61" t="s">
-        <v>354</v>
-      </c>
-      <c r="P38" s="25"/>
-    </row>
-    <row r="39" spans="1:16" ht="112" x14ac:dyDescent="0.2">
+      <c r="N38" s="59" t="s">
+        <v>324</v>
+      </c>
+      <c r="O38" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="P38" s="64" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q38" s="25"/>
+    </row>
+    <row r="39" spans="1:17" ht="120">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -4009,7 +4161,7 @@
       <c r="J39" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="K39" s="41" t="s">
+      <c r="K39" s="39" t="s">
         <v>9</v>
       </c>
       <c r="L39" s="12" t="s">
@@ -4018,15 +4170,18 @@
       <c r="M39" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="N39" s="61" t="s">
-        <v>356</v>
-      </c>
-      <c r="O39" s="61" t="s">
-        <v>333</v>
-      </c>
-      <c r="P39" s="25"/>
-    </row>
-    <row r="40" spans="1:16" ht="96" x14ac:dyDescent="0.2">
+      <c r="N39" s="64" t="s">
+        <v>359</v>
+      </c>
+      <c r="O39" s="64" t="s">
+        <v>340</v>
+      </c>
+      <c r="P39" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q39" s="25"/>
+    </row>
+    <row r="40" spans="1:17" ht="105">
       <c r="A40" s="16">
         <v>39</v>
       </c>
@@ -4057,7 +4212,7 @@
       <c r="J40" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="K40" s="41" t="s">
+      <c r="K40" s="39" t="s">
         <v>9</v>
       </c>
       <c r="L40" s="12" t="s">
@@ -4066,20 +4221,23 @@
       <c r="M40" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="N40" s="63" t="s">
-        <v>358</v>
-      </c>
-      <c r="O40" s="61" t="s">
-        <v>357</v>
-      </c>
-      <c r="P40" s="25"/>
-    </row>
-    <row r="41" spans="1:16" ht="256" x14ac:dyDescent="0.2">
+      <c r="N40" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="O40" s="68" t="s">
+        <v>340</v>
+      </c>
+      <c r="P40" s="64" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q40" s="25"/>
+    </row>
+    <row r="41" spans="1:17" ht="285">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>225</v>
@@ -4105,7 +4263,7 @@
       <c r="J41" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="K41" s="41" t="s">
+      <c r="K41" s="39" t="s">
         <v>9</v>
       </c>
       <c r="L41" s="12" t="s">
@@ -4114,159 +4272,171 @@
       <c r="M41" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="N41" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="O41" s="61" t="s">
-        <v>341</v>
-      </c>
-      <c r="P41" s="25"/>
-    </row>
-    <row r="42" spans="1:16" ht="160" x14ac:dyDescent="0.2">
+      <c r="N41" s="59" t="s">
+        <v>310</v>
+      </c>
+      <c r="O41" s="64" t="s">
+        <v>338</v>
+      </c>
+      <c r="P41" s="64" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q41" s="25"/>
+    </row>
+    <row r="42" spans="1:17" ht="165">
       <c r="A42" s="16">
         <v>41</v>
       </c>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="C42" s="43" t="s">
+      <c r="C42" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="D42" s="41" t="s">
+      <c r="D42" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="E42" s="41">
+      <c r="E42" s="70">
         <v>2013</v>
       </c>
       <c r="F42" s="1">
         <v>2</v>
       </c>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="H42" s="41" t="s">
+      <c r="H42" s="39" t="s">
         <v>35</v>
       </c>
       <c r="I42" s="16">
         <v>235</v>
       </c>
-      <c r="J42" s="41" t="s">
+      <c r="J42" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="K42" s="41" t="s">
+      <c r="K42" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="L42" s="43" t="s">
+      <c r="L42" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="M42" s="44" t="s">
+      <c r="M42" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="N42" s="61" t="s">
-        <v>359</v>
-      </c>
-      <c r="O42" s="61" t="s">
-        <v>360</v>
-      </c>
-      <c r="P42" s="25"/>
-    </row>
-    <row r="43" spans="1:16" ht="176" x14ac:dyDescent="0.2">
+      <c r="N42" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="O42" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="P42" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q42" s="25"/>
+    </row>
+    <row r="43" spans="1:17" ht="195">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C43" s="43" t="s">
+        <v>303</v>
+      </c>
+      <c r="C43" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="D43" s="41" t="s">
+      <c r="D43" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="E43" s="41">
+      <c r="E43" s="70">
         <v>2011</v>
       </c>
       <c r="F43" s="1">
         <v>2</v>
       </c>
-      <c r="G43" s="42" t="s">
+      <c r="G43" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="H43" s="41" t="s">
+      <c r="H43" s="39" t="s">
         <v>35</v>
       </c>
       <c r="I43" s="16">
         <v>103</v>
       </c>
-      <c r="J43" s="41" t="s">
+      <c r="J43" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="K43" s="41" t="s">
+      <c r="K43" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="L43" s="43" t="s">
+      <c r="L43" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="M43" s="44" t="s">
+      <c r="M43" s="42" t="s">
         <v>239</v>
       </c>
-      <c r="N43" s="63" t="s">
-        <v>324</v>
-      </c>
-      <c r="O43" s="61" t="s">
-        <v>361</v>
-      </c>
-      <c r="P43" s="25"/>
-    </row>
-    <row r="44" spans="1:16" ht="160" x14ac:dyDescent="0.2">
+      <c r="N43" s="68" t="s">
+        <v>310</v>
+      </c>
+      <c r="O43" s="68" t="s">
+        <v>338</v>
+      </c>
+      <c r="P43" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q43" s="25"/>
+    </row>
+    <row r="44" spans="1:17" ht="165">
       <c r="A44" s="16">
         <v>43</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="C44" s="43" t="s">
+      <c r="C44" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="D44" s="41" t="s">
+      <c r="D44" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="E44" s="41">
+      <c r="E44" s="70">
         <v>2006</v>
       </c>
       <c r="F44" s="1">
         <v>2</v>
       </c>
-      <c r="G44" s="42" t="s">
+      <c r="G44" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="H44" s="41" t="s">
+      <c r="H44" s="39" t="s">
         <v>35</v>
       </c>
       <c r="I44" s="16">
         <v>823</v>
       </c>
-      <c r="J44" s="41" t="s">
+      <c r="J44" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="K44" s="41" t="s">
+      <c r="K44" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="L44" s="43" t="s">
+      <c r="L44" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="M44" s="44" t="s">
+      <c r="M44" s="42" t="s">
         <v>245</v>
       </c>
-      <c r="N44" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="O44" s="61" t="s">
-        <v>362</v>
-      </c>
-      <c r="P44" s="25"/>
-    </row>
-    <row r="45" spans="1:16" ht="112" x14ac:dyDescent="0.2">
+      <c r="N44" s="64" t="s">
+        <v>361</v>
+      </c>
+      <c r="O44" s="64" t="s">
+        <v>340</v>
+      </c>
+      <c r="P44" s="68" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q44" s="25"/>
+    </row>
+    <row r="45" spans="1:17" ht="120">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4297,7 +4467,7 @@
       <c r="J45" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="K45" s="45" t="s">
+      <c r="K45" s="43" t="s">
         <v>97</v>
       </c>
       <c r="L45" s="12" t="s">
@@ -4306,15 +4476,18 @@
       <c r="M45" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="N45" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="O45" s="61" t="s">
-        <v>341</v>
-      </c>
-      <c r="P45" s="25"/>
-    </row>
-    <row r="46" spans="1:16" ht="128" x14ac:dyDescent="0.2">
+      <c r="N45" s="59" t="s">
+        <v>309</v>
+      </c>
+      <c r="O45" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="P45" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q45" s="25"/>
+    </row>
+    <row r="46" spans="1:17" ht="135">
       <c r="A46" s="16">
         <v>45</v>
       </c>
@@ -4345,7 +4518,7 @@
       <c r="J46" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="K46" s="45" t="s">
+      <c r="K46" s="43" t="s">
         <v>37</v>
       </c>
       <c r="L46" s="12" t="s">
@@ -4354,15 +4527,18 @@
       <c r="M46" s="34" t="s">
         <v>257</v>
       </c>
-      <c r="N46" s="61" t="s">
-        <v>363</v>
-      </c>
-      <c r="O46" s="61" t="s">
-        <v>364</v>
-      </c>
-      <c r="P46" s="25"/>
-    </row>
-    <row r="47" spans="1:16" ht="192" x14ac:dyDescent="0.2">
+      <c r="N46" s="59" t="s">
+        <v>327</v>
+      </c>
+      <c r="O46" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="P46" s="64" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q46" s="25"/>
+    </row>
+    <row r="47" spans="1:17" ht="180">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4391,7 +4567,7 @@
       <c r="J47" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="K47" s="46" t="s">
+      <c r="K47" s="44" t="s">
         <v>37</v>
       </c>
       <c r="L47" s="12" t="s">
@@ -4400,15 +4576,18 @@
       <c r="M47" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="N47" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="O47" s="61" t="s">
-        <v>365</v>
-      </c>
-      <c r="P47" s="25"/>
-    </row>
-    <row r="48" spans="1:16" ht="192" x14ac:dyDescent="0.2">
+      <c r="N47" s="59" t="s">
+        <v>309</v>
+      </c>
+      <c r="O47" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="P47" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q47" s="25"/>
+    </row>
+    <row r="48" spans="1:17" ht="195">
       <c r="A48" s="16">
         <v>47</v>
       </c>
@@ -4439,7 +4618,7 @@
       <c r="J48" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="K48" s="46" t="s">
+      <c r="K48" s="44" t="s">
         <v>97</v>
       </c>
       <c r="L48" s="12" t="s">
@@ -4448,19 +4627,22 @@
       <c r="M48" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="N48" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="O48" s="61" t="s">
-        <v>366</v>
-      </c>
-      <c r="P48" s="25"/>
-    </row>
-    <row r="49" spans="1:16" ht="144" x14ac:dyDescent="0.2">
+      <c r="N48" s="59" t="s">
+        <v>309</v>
+      </c>
+      <c r="O48" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="P48" s="64" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q48" s="25"/>
+    </row>
+    <row r="49" spans="1:17" ht="150">
       <c r="A49" s="16">
         <v>48</v>
       </c>
-      <c r="B49" s="51"/>
+      <c r="B49" s="49"/>
       <c r="C49" s="12" t="s">
         <v>291</v>
       </c>
@@ -4473,10 +4655,10 @@
       <c r="F49" s="16">
         <v>2</v>
       </c>
-      <c r="G49" s="58" t="s">
+      <c r="G49" s="56" t="s">
         <v>297</v>
       </c>
-      <c r="H49" s="58" t="s">
+      <c r="H49" s="56" t="s">
         <v>295</v>
       </c>
       <c r="I49" s="16">
@@ -4485,24 +4667,27 @@
       <c r="J49" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="K49" s="58" t="s">
+      <c r="K49" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="L49" s="59" t="s">
+      <c r="L49" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="M49" s="60" t="s">
+      <c r="M49" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="N49" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="O49" s="66" t="s">
-        <v>367</v>
-      </c>
-      <c r="P49" s="25"/>
-    </row>
-    <row r="50" spans="1:16" ht="160" x14ac:dyDescent="0.2">
+      <c r="N49" s="59" t="s">
+        <v>310</v>
+      </c>
+      <c r="O49" s="64" t="s">
+        <v>338</v>
+      </c>
+      <c r="P49" s="68" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q49" s="25"/>
+    </row>
+    <row r="50" spans="1:17" ht="165">
       <c r="A50" s="16">
         <v>49</v>
       </c>
@@ -4533,7 +4718,7 @@
       <c r="J50" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="K50" s="47" t="s">
+      <c r="K50" s="45" t="s">
         <v>37</v>
       </c>
       <c r="L50" s="12" t="s">
@@ -4542,61 +4727,67 @@
       <c r="M50" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="N50" s="63" t="s">
-        <v>369</v>
-      </c>
-      <c r="O50" s="62" t="s">
-        <v>368</v>
-      </c>
-      <c r="P50" s="25"/>
-    </row>
-    <row r="51" spans="1:16" ht="96" x14ac:dyDescent="0.2">
+      <c r="N50" s="61" t="s">
+        <v>331</v>
+      </c>
+      <c r="O50" s="68" t="s">
+        <v>340</v>
+      </c>
+      <c r="P50" s="60" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q50" s="25"/>
+    </row>
+    <row r="51" spans="1:17" ht="105">
       <c r="A51" s="16">
         <v>50</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="C51" s="60" t="s">
+        <v>302</v>
+      </c>
+      <c r="C51" s="58" t="s">
         <v>298</v>
       </c>
-      <c r="D51" s="58" t="s">
+      <c r="D51" s="56" t="s">
         <v>299</v>
       </c>
-      <c r="E51" s="58">
+      <c r="E51" s="70">
         <v>1991</v>
       </c>
       <c r="F51" s="16">
         <v>2</v>
       </c>
-      <c r="G51" s="57" t="s">
+      <c r="G51" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="H51" s="58" t="s">
+      <c r="H51" s="56" t="s">
         <v>35</v>
       </c>
       <c r="I51" s="16">
         <v>128</v>
       </c>
-      <c r="J51" s="58" t="s">
+      <c r="J51" s="56" t="s">
         <v>300</v>
       </c>
-      <c r="K51" s="58" t="s">
+      <c r="K51" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="L51" s="59" t="s">
+      <c r="L51" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="M51" s="60" t="s">
+      <c r="M51" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="N51" s="63" t="s">
-        <v>324</v>
-      </c>
-      <c r="O51" s="61" t="s">
-        <v>370</v>
-      </c>
-      <c r="P51" s="25"/>
+      <c r="N51" s="68" t="s">
+        <v>365</v>
+      </c>
+      <c r="O51" s="68" t="s">
+        <v>336</v>
+      </c>
+      <c r="P51" s="64" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q51" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A29EE6-8E31-4083-A7F8-BCCC8B5FD865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E260BD-B6F0-4E7D-BC8A-F4E65BC90361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1299,9 +1299,6 @@
     <t>Block</t>
   </si>
   <si>
-    <t>Covariate Adaptive</t>
-  </si>
-  <si>
     <t>Stratified Block</t>
   </si>
   <si>
@@ -1342,9 +1339,6 @@
   </si>
   <si>
     <t>Critical Care</t>
-  </si>
-  <si>
-    <t>Cluster</t>
   </si>
   <si>
     <t>Hypertension</t>
@@ -1415,18 +1409,31 @@
   </si>
   <si>
     <t>Orthodontics</t>
+  </si>
+  <si>
+    <t>Biased Coin</t>
+  </si>
+  <si>
+    <t>Stratified Rerandomization</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1675,156 +1682,171 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1832,63 +1854,49 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2169,10 +2177,10 @@
   <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P33" sqref="P33"/>
+      <selection pane="bottomRight" activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2208,7 +2216,7 @@
         <v>29</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>30</v>
@@ -2241,7 +2249,7 @@
         <v>335</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>174</v>
@@ -2345,7 +2353,7 @@
         <v>337</v>
       </c>
       <c r="P3" s="65" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q3" s="9"/>
     </row>
@@ -2545,11 +2553,11 @@
       <c r="N7" s="59" t="s">
         <v>311</v>
       </c>
-      <c r="O7" s="64" t="s">
-        <v>339</v>
+      <c r="O7" s="76" t="s">
+        <v>374</v>
       </c>
       <c r="P7" s="64" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q7" s="9"/>
     </row>
@@ -2597,10 +2605,10 @@
         <v>312</v>
       </c>
       <c r="O8" s="67" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P8" s="65" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Q8" s="9"/>
     </row>
@@ -2651,7 +2659,7 @@
         <v>338</v>
       </c>
       <c r="P9" s="64" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q9" s="9" t="s">
         <v>175</v>
@@ -2701,7 +2709,7 @@
         <v>313</v>
       </c>
       <c r="O10" s="68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P10" s="64" t="s">
         <v>315</v>
@@ -2754,7 +2762,7 @@
         <v>314</v>
       </c>
       <c r="O11" s="68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P11" s="64" t="s">
         <v>318</v>
@@ -2802,13 +2810,13 @@
         <v>17</v>
       </c>
       <c r="N12" s="64" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O12" s="64" t="s">
         <v>337</v>
       </c>
       <c r="P12" s="64" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q12" s="8"/>
     </row>
@@ -2857,7 +2865,7 @@
         <v>337</v>
       </c>
       <c r="P13" s="64" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q13" s="9"/>
     </row>
@@ -2956,10 +2964,10 @@
         <v>316</v>
       </c>
       <c r="O15" s="64" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P15" s="68" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q15" s="8"/>
     </row>
@@ -3010,7 +3018,7 @@
         <v>337</v>
       </c>
       <c r="P16" s="69" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q16" s="9"/>
     </row>
@@ -3061,7 +3069,7 @@
         <v>337</v>
       </c>
       <c r="P17" s="64" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q17" s="8"/>
     </row>
@@ -3112,7 +3120,7 @@
         <v>337</v>
       </c>
       <c r="P18" s="64" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q18" s="8"/>
     </row>
@@ -3211,10 +3219,10 @@
         <v>310</v>
       </c>
       <c r="O20" s="64" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P20" s="49" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q20" s="8"/>
     </row>
@@ -3265,7 +3273,7 @@
         <v>338</v>
       </c>
       <c r="P21" s="64" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q21" s="8"/>
     </row>
@@ -3365,7 +3373,7 @@
         <v>337</v>
       </c>
       <c r="P23" s="64" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q23" s="25"/>
     </row>
@@ -3416,7 +3424,7 @@
         <v>337</v>
       </c>
       <c r="P24" s="64" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q24" s="14"/>
     </row>
@@ -3667,11 +3675,11 @@
       <c r="N29" s="64" t="s">
         <v>320</v>
       </c>
-      <c r="O29" s="64" t="s">
-        <v>354</v>
+      <c r="O29" s="76" t="s">
+        <v>375</v>
       </c>
       <c r="P29" s="64" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="Q29" s="12"/>
     </row>
@@ -3719,7 +3727,7 @@
         <v>321</v>
       </c>
       <c r="O30" s="68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P30" s="59" t="s">
         <v>317</v>
@@ -3773,7 +3781,7 @@
         <v>337</v>
       </c>
       <c r="P31" s="64" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q31" s="12"/>
     </row>
@@ -3822,7 +3830,7 @@
         <v>337</v>
       </c>
       <c r="P32" s="72" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="Q32" s="25"/>
     </row>
@@ -3831,13 +3839,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="73" t="s">
+        <v>366</v>
+      </c>
+      <c r="C33" s="74" t="s">
+        <v>367</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>368</v>
-      </c>
-      <c r="C33" s="74" t="s">
-        <v>369</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>370</v>
       </c>
       <c r="E33" s="1">
         <v>2021</v>
@@ -3846,7 +3854,7 @@
         <v>3</v>
       </c>
       <c r="G33" s="73" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H33" s="75" t="s">
         <v>35</v>
@@ -3855,16 +3863,16 @@
         <v>57</v>
       </c>
       <c r="J33" s="73" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K33" s="73" t="s">
         <v>37</v>
       </c>
       <c r="L33" s="74" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M33" s="74" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N33" s="72" t="s">
         <v>309</v>
@@ -3873,7 +3881,7 @@
         <v>337</v>
       </c>
       <c r="P33" s="72" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="Q33" s="25"/>
     </row>
@@ -3922,7 +3930,7 @@
         <v>336</v>
       </c>
       <c r="P34" s="64" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Q34" s="25"/>
     </row>
@@ -3973,7 +3981,7 @@
         <v>338</v>
       </c>
       <c r="P35" s="68" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q35" s="25"/>
     </row>
@@ -4024,7 +4032,7 @@
         <v>338</v>
       </c>
       <c r="P36" s="64" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q36" s="25"/>
     </row>
@@ -4072,7 +4080,7 @@
         <v>323</v>
       </c>
       <c r="O37" s="68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P37" s="64" t="s">
         <v>319</v>
@@ -4126,7 +4134,7 @@
         <v>336</v>
       </c>
       <c r="P38" s="64" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="Q38" s="25"/>
     </row>
@@ -4171,10 +4179,10 @@
         <v>215</v>
       </c>
       <c r="N39" s="64" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="O39" s="64" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P39" s="64" t="s">
         <v>317</v>
@@ -4225,10 +4233,10 @@
         <v>325</v>
       </c>
       <c r="O40" s="68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P40" s="64" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q40" s="25"/>
     </row>
@@ -4426,13 +4434,13 @@
         <v>245</v>
       </c>
       <c r="N44" s="64" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="O44" s="64" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P44" s="68" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q44" s="25"/>
     </row>
@@ -4534,7 +4542,7 @@
         <v>336</v>
       </c>
       <c r="P46" s="64" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="Q46" s="25"/>
     </row>
@@ -4683,7 +4691,7 @@
         <v>338</v>
       </c>
       <c r="P49" s="68" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="Q49" s="25"/>
     </row>
@@ -4731,7 +4739,7 @@
         <v>331</v>
       </c>
       <c r="O50" s="68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P50" s="60" t="s">
         <v>330</v>
@@ -4779,13 +4787,13 @@
         <v>301</v>
       </c>
       <c r="N51" s="68" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="O51" s="68" t="s">
         <v>336</v>
       </c>
       <c r="P51" s="64" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="Q51" s="25"/>
     </row>

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E260BD-B6F0-4E7D-BC8A-F4E65BC90361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5377FA5-95E1-47C2-A1D3-AD48EFE401C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="374">
   <si>
     <t>NCT02491333</t>
   </si>
@@ -1141,33 +1141,6 @@
 Bootstrap (10 000 resamples) for CIs. </t>
   </si>
   <si>
-    <t>Ear Mite Removal in the Santa Catalina
-Island Fox (Urocyon littoralis catalinae):
-Controlling Risk Factors for Cancer
-Development</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1371/journal.pone.0144271</t>
-  </si>
-  <si>
-    <t>Ear mite prevalence and intensity of infection</t>
-  </si>
-  <si>
-    <t>Prevalence: Binary 
-intensity of infection: Continuous</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Not Applicable</t>
-  </si>
-  <si>
-    <t>Between-group: Pearson’s chi-square and McNemar’s chi-square for prevalence; Mann–Whitney U for intensity and pathology; Spearman’s rank for score/count correlation
-Within-group: Friedman test for longitudinal changes
-Baseline balance: Yates-corrected chi-square, t-tests, and Mann–Whitney U as appropriate</t>
-  </si>
-  <si>
-    <t>Untreated</t>
-  </si>
-  <si>
     <t>A controlled trial of interferon gamma to prevent infection in chronic granulomatous disease</t>
   </si>
   <si>
@@ -1363,9 +1336,6 @@
   </si>
   <si>
     <t>Nutrition</t>
-  </si>
-  <si>
-    <t>Wildlife Conservation</t>
   </si>
   <si>
     <t>Immunology</t>
@@ -1415,18 +1385,49 @@
   </si>
   <si>
     <t>Stratified Rerandomization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCT01781780 </t>
+  </si>
+  <si>
+    <t>The effectiveness of breakfast recommendations on weight loss:
+a randomized controlled trial</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3945/ajcn.114.089573</t>
+  </si>
+  <si>
+    <t>Weight change from baseline to 16 weeks</t>
+  </si>
+  <si>
+    <t>Primary analysis:
+Ordinary least squares linear regression, adjusted for baseline covariates.
+Type II ANOVA for between-group comparisons.
+Multiple imputation for missing data (via MICE package in R).
+Secondary analyses:
+Compliance-adjusted regression using self-reported adherence.</t>
+  </si>
+  <si>
+    <t>Stratified block by eating status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1682,156 +1683,171 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1839,64 +1855,62 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2177,10 +2191,10 @@
   <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O29" sqref="O29"/>
+      <selection pane="bottomRight" activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2216,7 +2230,7 @@
         <v>29</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>30</v>
@@ -2243,13 +2257,13 @@
         <v>34</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>174</v>
@@ -2296,13 +2310,13 @@
         <v>131</v>
       </c>
       <c r="N2" s="59" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="O2" s="64" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="P2" s="64" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="Q2" s="8"/>
     </row>
@@ -2347,13 +2361,13 @@
         <v>133</v>
       </c>
       <c r="N3" s="59" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="O3" s="64" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="P3" s="65" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="Q3" s="9"/>
     </row>
@@ -2395,16 +2409,16 @@
         <v>21</v>
       </c>
       <c r="M4" s="33" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="N4" s="59" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="O4" s="64" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="P4" s="66" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="Q4" s="25"/>
     </row>
@@ -2449,13 +2463,13 @@
         <v>140</v>
       </c>
       <c r="N5" s="59" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="O5" s="64" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="P5" s="66" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="25"/>
     </row>
@@ -2491,7 +2505,7 @@
         <v>144</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>21</v>
@@ -2500,13 +2514,13 @@
         <v>145</v>
       </c>
       <c r="N6" s="49" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="O6" s="49" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="P6" s="66" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="Q6" s="25"/>
     </row>
@@ -2551,13 +2565,13 @@
         <v>147</v>
       </c>
       <c r="N7" s="59" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="O7" s="76" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="P7" s="64" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="Q7" s="9"/>
     </row>
@@ -2602,13 +2616,13 @@
         <v>182</v>
       </c>
       <c r="N8" s="62" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="O8" s="67" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="P8" s="65" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="Q8" s="9"/>
     </row>
@@ -2653,13 +2667,13 @@
         <v>152</v>
       </c>
       <c r="N9" s="59" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="O9" s="64" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="P9" s="64" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="Q9" s="9" t="s">
         <v>175</v>
@@ -2706,13 +2720,13 @@
         <v>163</v>
       </c>
       <c r="N10" s="61" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="O10" s="68" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="P10" s="64" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="Q10" s="9" t="s">
         <v>176</v>
@@ -2759,13 +2773,13 @@
         <v>169</v>
       </c>
       <c r="N11" s="61" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="O11" s="68" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="P11" s="64" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="Q11" s="8"/>
     </row>
@@ -2810,13 +2824,13 @@
         <v>17</v>
       </c>
       <c r="N12" s="64" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="O12" s="64" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="P12" s="64" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="Q12" s="8"/>
     </row>
@@ -2859,13 +2873,13 @@
         <v>278</v>
       </c>
       <c r="N13" s="64" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="O13" s="64" t="s">
+        <v>330</v>
+      </c>
+      <c r="P13" s="64" t="s">
         <v>337</v>
-      </c>
-      <c r="P13" s="64" t="s">
-        <v>344</v>
       </c>
       <c r="Q13" s="9"/>
     </row>
@@ -2910,13 +2924,13 @@
         <v>22</v>
       </c>
       <c r="N14" s="59" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="O14" s="64" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="P14" s="63" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="Q14" s="9"/>
     </row>
@@ -2961,13 +2975,13 @@
         <v>40</v>
       </c>
       <c r="N15" s="59" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="O15" s="64" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="P15" s="68" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="Q15" s="8"/>
     </row>
@@ -3012,13 +3026,13 @@
         <v>48</v>
       </c>
       <c r="N16" s="59" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="O16" s="64" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="P16" s="69" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="Q16" s="9"/>
     </row>
@@ -3063,13 +3077,13 @@
         <v>54</v>
       </c>
       <c r="N17" s="59" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="O17" s="64" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="P17" s="64" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="Q17" s="8"/>
     </row>
@@ -3114,13 +3128,13 @@
         <v>60</v>
       </c>
       <c r="N18" s="59" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="O18" s="64" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="P18" s="64" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="Q18" s="8"/>
     </row>
@@ -3156,7 +3170,7 @@
         <v>65</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="L19" s="8" t="s">
         <v>21</v>
@@ -3165,13 +3179,13 @@
         <v>66</v>
       </c>
       <c r="N19" s="59" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="O19" s="64" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="P19" s="59" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="Q19" s="8"/>
     </row>
@@ -3216,13 +3230,13 @@
         <v>72</v>
       </c>
       <c r="N20" s="59" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="O20" s="64" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="P20" s="49" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="Q20" s="8"/>
     </row>
@@ -3267,13 +3281,13 @@
         <v>76</v>
       </c>
       <c r="N21" s="59" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="O21" s="64" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="P21" s="64" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="Q21" s="8"/>
     </row>
@@ -3318,13 +3332,13 @@
         <v>86</v>
       </c>
       <c r="N22" s="59" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="O22" s="64" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="P22" s="64" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="Q22" s="8"/>
     </row>
@@ -3367,13 +3381,13 @@
         <v>282</v>
       </c>
       <c r="N23" s="68" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="O23" s="68" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="P23" s="64" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="Q23" s="25"/>
     </row>
@@ -3418,13 +3432,13 @@
         <v>92</v>
       </c>
       <c r="N24" s="59" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="O24" s="64" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="P24" s="64" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="Q24" s="14"/>
     </row>
@@ -3469,13 +3483,13 @@
         <v>98</v>
       </c>
       <c r="N25" s="59" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="O25" s="64" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="P25" s="59" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="Q25" s="12"/>
     </row>
@@ -3520,13 +3534,13 @@
         <v>106</v>
       </c>
       <c r="N26" s="59" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="O26" s="64" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="P26" s="59" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="Q26" s="12"/>
     </row>
@@ -3571,13 +3585,13 @@
         <v>111</v>
       </c>
       <c r="N27" s="59" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="O27" s="64" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="P27" s="59" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="Q27" s="30"/>
     </row>
@@ -3622,13 +3636,13 @@
         <v>117</v>
       </c>
       <c r="N28" s="59" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="O28" s="64" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="P28" s="64" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="Q28" s="12"/>
     </row>
@@ -3673,13 +3687,13 @@
         <v>122</v>
       </c>
       <c r="N29" s="64" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="O29" s="76" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="P29" s="64" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="Q29" s="12"/>
     </row>
@@ -3724,13 +3738,13 @@
         <v>286</v>
       </c>
       <c r="N30" s="61" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="O30" s="68" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="P30" s="59" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="Q30" s="25"/>
     </row>
@@ -3775,13 +3789,13 @@
         <v>129</v>
       </c>
       <c r="N31" s="59" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="O31" s="64" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="P31" s="64" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="Q31" s="12"/>
     </row>
@@ -3824,13 +3838,13 @@
         <v>290</v>
       </c>
       <c r="N32" s="64" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="O32" s="64" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="P32" s="72" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="Q32" s="25"/>
     </row>
@@ -3839,13 +3853,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="73" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C33" s="74" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E33" s="1">
         <v>2021</v>
@@ -3854,7 +3868,7 @@
         <v>3</v>
       </c>
       <c r="G33" s="73" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H33" s="75" t="s">
         <v>35</v>
@@ -3863,25 +3877,25 @@
         <v>57</v>
       </c>
       <c r="J33" s="73" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="K33" s="73" t="s">
         <v>37</v>
       </c>
       <c r="L33" s="74" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="M33" s="74" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="N33" s="72" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="O33" s="72" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="P33" s="72" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="Q33" s="25"/>
     </row>
@@ -3924,13 +3938,13 @@
         <v>188</v>
       </c>
       <c r="N34" s="64" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="O34" s="64" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="P34" s="64" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="Q34" s="25"/>
     </row>
@@ -3975,13 +3989,13 @@
         <v>195</v>
       </c>
       <c r="N35" s="59" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="O35" s="64" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="P35" s="68" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="Q35" s="25"/>
     </row>
@@ -4026,13 +4040,13 @@
         <v>200</v>
       </c>
       <c r="N36" s="59" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="O36" s="64" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="P36" s="64" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="Q36" s="25"/>
     </row>
@@ -4077,13 +4091,13 @@
         <v>207</v>
       </c>
       <c r="N37" s="61" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="O37" s="68" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="P37" s="64" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="Q37" s="25"/>
     </row>
@@ -4128,13 +4142,13 @@
         <v>224</v>
       </c>
       <c r="N38" s="59" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="O38" s="64" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="P38" s="64" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="Q38" s="25"/>
     </row>
@@ -4179,13 +4193,13 @@
         <v>215</v>
       </c>
       <c r="N39" s="64" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="O39" s="64" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="P39" s="64" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="Q39" s="25"/>
     </row>
@@ -4230,13 +4244,13 @@
         <v>221</v>
       </c>
       <c r="N40" s="61" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="O40" s="68" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="P40" s="64" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="Q40" s="25"/>
     </row>
@@ -4245,7 +4259,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>225</v>
@@ -4281,13 +4295,13 @@
         <v>229</v>
       </c>
       <c r="N41" s="59" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="O41" s="64" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="P41" s="64" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="Q41" s="25"/>
     </row>
@@ -4332,13 +4346,13 @@
         <v>235</v>
       </c>
       <c r="N42" s="64" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="O42" s="64" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="P42" s="59" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="Q42" s="25"/>
     </row>
@@ -4347,7 +4361,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C43" s="41" t="s">
         <v>236</v>
@@ -4383,13 +4397,13 @@
         <v>239</v>
       </c>
       <c r="N43" s="68" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="O43" s="68" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="P43" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="Q43" s="25"/>
     </row>
@@ -4434,13 +4448,13 @@
         <v>245</v>
       </c>
       <c r="N44" s="64" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="O44" s="64" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="P44" s="68" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="Q44" s="25"/>
     </row>
@@ -4485,13 +4499,13 @@
         <v>250</v>
       </c>
       <c r="N45" s="59" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="O45" s="64" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="P45" s="59" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="Q45" s="25"/>
     </row>
@@ -4536,13 +4550,13 @@
         <v>257</v>
       </c>
       <c r="N46" s="59" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="O46" s="64" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="P46" s="64" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="Q46" s="25"/>
     </row>
@@ -4585,13 +4599,13 @@
         <v>262</v>
       </c>
       <c r="N47" s="59" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="O47" s="64" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="P47" s="59" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="Q47" s="25"/>
     </row>
@@ -4636,62 +4650,64 @@
         <v>268</v>
       </c>
       <c r="N48" s="59" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="O48" s="64" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="P48" s="64" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="Q48" s="25"/>
     </row>
-    <row r="49" spans="1:17" ht="150">
+    <row r="49" spans="1:17" ht="225">
       <c r="A49" s="16">
         <v>48</v>
       </c>
-      <c r="B49" s="49"/>
+      <c r="B49" s="16" t="s">
+        <v>368</v>
+      </c>
       <c r="C49" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>292</v>
+        <v>369</v>
+      </c>
+      <c r="D49" s="77" t="s">
+        <v>370</v>
       </c>
       <c r="E49" s="1">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F49" s="16">
-        <v>2</v>
-      </c>
-      <c r="G49" s="56" t="s">
-        <v>297</v>
-      </c>
-      <c r="H49" s="56" t="s">
-        <v>295</v>
+        <v>3</v>
+      </c>
+      <c r="G49" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="H49" s="78" t="s">
+        <v>35</v>
       </c>
       <c r="I49" s="16">
-        <v>117</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="K49" s="56" t="s">
-        <v>294</v>
-      </c>
-      <c r="L49" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="M49" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="N49" s="59" t="s">
-        <v>310</v>
-      </c>
-      <c r="O49" s="64" t="s">
-        <v>338</v>
-      </c>
-      <c r="P49" s="68" t="s">
-        <v>361</v>
+        <v>255</v>
+      </c>
+      <c r="J49" s="78" t="s">
+        <v>371</v>
+      </c>
+      <c r="K49" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="L49" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="M49" s="79" t="s">
+        <v>372</v>
+      </c>
+      <c r="N49" s="80" t="s">
+        <v>373</v>
+      </c>
+      <c r="O49" s="80" t="s">
+        <v>332</v>
+      </c>
+      <c r="P49" s="81" t="s">
+        <v>353</v>
       </c>
       <c r="Q49" s="25"/>
     </row>
@@ -4736,13 +4752,13 @@
         <v>273</v>
       </c>
       <c r="N50" s="61" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="O50" s="68" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="P50" s="60" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="Q50" s="25"/>
     </row>
@@ -4751,13 +4767,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C51" s="58" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D51" s="56" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E51" s="70">
         <v>1991</v>
@@ -4775,7 +4791,7 @@
         <v>128</v>
       </c>
       <c r="J51" s="56" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="K51" s="56" t="s">
         <v>9</v>
@@ -4784,16 +4800,16 @@
         <v>10</v>
       </c>
       <c r="M51" s="58" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="N51" s="68" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="O51" s="68" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="P51" s="64" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="Q51" s="25"/>
     </row>

--- a/cleaned_data/meta_data.xlsx
+++ b/cleaned_data/meta_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5377FA5-95E1-47C2-A1D3-AD48EFE401C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0CFF14-CDE5-4BD3-9CB7-DAFC37E6E368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="15810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="374">
   <si>
     <t>NCT02491333</t>
   </si>
@@ -1056,23 +1056,6 @@
 Cox proportional hazards model for time to full oral feeding</t>
   </si>
   <si>
-    <t>Mean reviewer rating per manuscript on a 4-point scale (1 = weak to 4 = excellent)</t>
-  </si>
-  <si>
-    <t>SingleBlind</t>
-  </si>
-  <si>
-    <t>Double-blind peer review affects reviewer ratings and editor
-decisions at an ecology journal</t>
-  </si>
-  <si>
-    <t>10.1111/1365-2435.14259</t>
-  </si>
-  <si>
-    <t>• Linear mixed models (SAS Proc Mixed) for reviewer scores
-• Logistic regressions (SAS Proc Glimmix) for binary editor decisions, with author-country random effect and the covariates above.</t>
-  </si>
-  <si>
     <t>Development and First Phase Evaluation of a
 Maternity Leave Educational Tool for
 Pregnant, Working Women in California</t>
@@ -1287,9 +1270,6 @@
     <t>Pulmonology</t>
   </si>
   <si>
-    <t>Publishing Methodology</t>
-  </si>
-  <si>
     <t>Rehabilitation</t>
   </si>
   <si>
@@ -1410,17 +1390,48 @@
   <si>
     <t>Stratified block by eating status</t>
   </si>
+  <si>
+    <t>Stratified by site and hba1c category</t>
+  </si>
+  <si>
+    <t>NCT03718832</t>
+  </si>
+  <si>
+    <t>Effect of an Intensive Food-as-Medicine Program
+on Health and Health Care Use</t>
+  </si>
+  <si>
+    <t>doi:10.1001/jamainternmed.2023.6670</t>
+  </si>
+  <si>
+    <t>Hemoglobin A1c (HbA1c) level at 6 months from enrollment</t>
+  </si>
+  <si>
+    <t>Primary and secondary outcomes:
+Mixed-effects models (longitudinal models) for laboratory test results and health care use outcomes
+Linear regression models for program engagement and survey outcomes at 6 and 12 months
+Models included heteroskedasticity-robust, participant-clustered standard errors
+Multiple imputation for missing baseline measures (except HbA1c, which was complete)
+Inverse covariance weighting for creating index scores from multiple survey measures</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1683,156 +1694,171 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1840,76 +1866,71 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2191,29 +2212,29 @@
   <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P49" sqref="P49"/>
+      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="47" customWidth="1"/>
-    <col min="4" max="5" width="16.140625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.453125" style="47" customWidth="1"/>
+    <col min="4" max="5" width="16.1796875" style="11" customWidth="1"/>
     <col min="6" max="6" width="11" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.81640625" style="26" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31" style="26" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="37" style="48" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="52.85546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="43.140625" style="47" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="52.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43.1796875" style="47" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="48.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.1796875" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
@@ -2230,7 +2251,7 @@
         <v>29</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>30</v>
@@ -2257,19 +2278,19 @@
         <v>34</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="75">
+    <row r="2" spans="1:17" ht="72.5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2310,17 +2331,17 @@
         <v>131</v>
       </c>
       <c r="N2" s="59" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="O2" s="64" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="P2" s="64" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:17" ht="90">
+    <row r="3" spans="1:17" ht="87">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2361,17 +2382,17 @@
         <v>133</v>
       </c>
       <c r="N3" s="59" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="O3" s="64" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P3" s="65" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="Q3" s="9"/>
     </row>
-    <row r="4" spans="1:17" ht="180">
+    <row r="4" spans="1:17" ht="159.5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2409,20 +2430,20 @@
         <v>21</v>
       </c>
       <c r="M4" s="33" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="N4" s="59" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="O4" s="64" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P4" s="66" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="Q4" s="25"/>
     </row>
-    <row r="5" spans="1:17" ht="135">
+    <row r="5" spans="1:17" ht="130.5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2463,17 +2484,17 @@
         <v>140</v>
       </c>
       <c r="N5" s="59" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="O5" s="64" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="P5" s="66" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="Q5" s="25"/>
     </row>
-    <row r="6" spans="1:17" ht="195">
+    <row r="6" spans="1:17" ht="174">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2505,7 +2526,7 @@
         <v>144</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>21</v>
@@ -2514,17 +2535,17 @@
         <v>145</v>
       </c>
       <c r="N6" s="49" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="O6" s="49" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P6" s="66" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="Q6" s="25"/>
     </row>
-    <row r="7" spans="1:17" ht="120">
+    <row r="7" spans="1:17" ht="101.5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2565,17 +2586,17 @@
         <v>147</v>
       </c>
       <c r="N7" s="59" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="O7" s="76" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="P7" s="64" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="Q7" s="9"/>
     </row>
-    <row r="8" spans="1:17" ht="135">
+    <row r="8" spans="1:17" ht="130.5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2616,17 +2637,17 @@
         <v>182</v>
       </c>
       <c r="N8" s="62" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="O8" s="67" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="P8" s="65" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="Q8" s="9"/>
     </row>
-    <row r="9" spans="1:17" ht="90">
+    <row r="9" spans="1:17" ht="87">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2667,19 +2688,19 @@
         <v>152</v>
       </c>
       <c r="N9" s="59" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="O9" s="64" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="P9" s="64" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="Q9" s="9" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="120">
+    <row r="10" spans="1:17" ht="116">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2720,19 +2741,19 @@
         <v>163</v>
       </c>
       <c r="N10" s="61" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="O10" s="68" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="P10" s="64" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="Q10" s="9" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="270">
+    <row r="11" spans="1:17" ht="261">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2773,17 +2794,17 @@
         <v>169</v>
       </c>
       <c r="N11" s="61" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="O11" s="68" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="P11" s="64" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="Q11" s="8"/>
     </row>
-    <row r="12" spans="1:17" ht="135">
+    <row r="12" spans="1:17" ht="116">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2824,66 +2845,68 @@
         <v>17</v>
       </c>
       <c r="N12" s="64" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="O12" s="64" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P12" s="64" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="Q12" s="8"/>
     </row>
-    <row r="13" spans="1:17" ht="75">
+    <row r="13" spans="1:17" ht="203">
       <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="52" t="s">
-        <v>276</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>277</v>
+      <c r="B13" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="C13" s="82" t="s">
+        <v>370</v>
+      </c>
+      <c r="D13" s="83" t="s">
+        <v>371</v>
       </c>
       <c r="E13" s="70">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F13" s="16">
         <v>2</v>
       </c>
-      <c r="G13" s="50" t="s">
-        <v>275</v>
-      </c>
-      <c r="H13" s="51" t="s">
+      <c r="G13" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="83" t="s">
         <v>35</v>
       </c>
       <c r="I13" s="16">
-        <v>3739</v>
+        <v>349</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="K13" s="50" t="s">
+        <v>372</v>
+      </c>
+      <c r="K13" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="L13" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13" s="52" t="s">
-        <v>278</v>
-      </c>
-      <c r="N13" s="64" t="s">
-        <v>302</v>
-      </c>
-      <c r="O13" s="64" t="s">
-        <v>330</v>
-      </c>
-      <c r="P13" s="64" t="s">
-        <v>337</v>
+      <c r="L13" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="82" t="s">
+        <v>373</v>
+      </c>
+      <c r="N13" s="81" t="s">
+        <v>368</v>
+      </c>
+      <c r="O13" s="81" t="s">
+        <v>324</v>
+      </c>
+      <c r="P13" s="81" t="s">
+        <v>347</v>
       </c>
       <c r="Q13" s="9"/>
     </row>
-    <row r="14" spans="1:17" ht="90">
+    <row r="14" spans="1:17" ht="72.5">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2924,17 +2947,17 @@
         <v>22</v>
       </c>
       <c r="N14" s="59" t="s">
+        <v>298</v>
+      </c>
+      <c r="O14" s="64" t="s">
+        <v>326</v>
+      </c>
+      <c r="P14" s="63" t="s">
         <v>303</v>
       </c>
-      <c r="O14" s="64" t="s">
-        <v>331</v>
-      </c>
-      <c r="P14" s="63" t="s">
-        <v>308</v>
-      </c>
       <c r="Q14" s="9"/>
     </row>
-    <row r="15" spans="1:17" ht="195">
+    <row r="15" spans="1:17" ht="174">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2975,17 +2998,17 @@
         <v>40</v>
       </c>
       <c r="N15" s="59" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="O15" s="64" t="s">
+        <v>327</v>
+      </c>
+      <c r="P15" s="68" t="s">
         <v>332</v>
       </c>
-      <c r="P15" s="68" t="s">
-        <v>338</v>
-      </c>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" spans="1:17" ht="120">
+    <row r="16" spans="1:17" ht="116">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3026,17 +3049,17 @@
         <v>48</v>
       </c>
       <c r="N16" s="59" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="O16" s="64" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P16" s="69" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="Q16" s="9"/>
     </row>
-    <row r="17" spans="1:17" ht="60">
+    <row r="17" spans="1:17" ht="43.5">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3077,17 +3100,17 @@
         <v>54</v>
       </c>
       <c r="N17" s="59" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="O17" s="64" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P17" s="64" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="Q17" s="8"/>
     </row>
-    <row r="18" spans="1:17" ht="120">
+    <row r="18" spans="1:17" ht="116">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3128,17 +3151,17 @@
         <v>60</v>
       </c>
       <c r="N18" s="59" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="O18" s="64" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P18" s="64" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="1:17" ht="180">
+    <row r="19" spans="1:17" ht="145">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3170,7 +3193,7 @@
         <v>65</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="L19" s="8" t="s">
         <v>21</v>
@@ -3179,17 +3202,17 @@
         <v>66</v>
       </c>
       <c r="N19" s="59" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="O19" s="64" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="P19" s="59" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" spans="1:17" ht="135">
+    <row r="20" spans="1:17" ht="116">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3230,17 +3253,17 @@
         <v>72</v>
       </c>
       <c r="N20" s="59" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="O20" s="64" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="P20" s="49" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="1:17" ht="90">
+    <row r="21" spans="1:17" ht="87">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3281,17 +3304,17 @@
         <v>76</v>
       </c>
       <c r="N21" s="59" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="O21" s="64" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="P21" s="64" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="Q21" s="8"/>
     </row>
-    <row r="22" spans="1:17" ht="90">
+    <row r="22" spans="1:17" ht="87">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3332,26 +3355,26 @@
         <v>86</v>
       </c>
       <c r="N22" s="59" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="O22" s="64" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P22" s="64" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="1:17" ht="60">
+    <row r="23" spans="1:17" ht="43.5">
       <c r="A23" s="16">
         <v>22</v>
       </c>
       <c r="B23" s="50"/>
       <c r="C23" s="52" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E23" s="1">
         <v>2015</v>
@@ -3369,7 +3392,7 @@
         <v>146</v>
       </c>
       <c r="J23" s="54" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="K23" s="50" t="s">
         <v>97</v>
@@ -3378,20 +3401,20 @@
         <v>21</v>
       </c>
       <c r="M23" s="52" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="N23" s="68" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="O23" s="68" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P23" s="64" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="Q23" s="25"/>
     </row>
-    <row r="24" spans="1:17" ht="90">
+    <row r="24" spans="1:17" ht="87">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3432,17 +3455,17 @@
         <v>92</v>
       </c>
       <c r="N24" s="59" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="O24" s="64" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P24" s="64" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="Q24" s="14"/>
     </row>
-    <row r="25" spans="1:17" ht="165">
+    <row r="25" spans="1:17" ht="145">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3483,17 +3506,17 @@
         <v>98</v>
       </c>
       <c r="N25" s="59" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="O25" s="64" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="P25" s="59" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="Q25" s="12"/>
     </row>
-    <row r="26" spans="1:17" ht="180">
+    <row r="26" spans="1:17" ht="159.5">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3534,17 +3557,17 @@
         <v>106</v>
       </c>
       <c r="N26" s="59" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="O26" s="64" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="P26" s="59" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="Q26" s="12"/>
     </row>
-    <row r="27" spans="1:17" ht="180">
+    <row r="27" spans="1:17" ht="159.5">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3585,17 +3608,17 @@
         <v>111</v>
       </c>
       <c r="N27" s="59" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="O27" s="64" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P27" s="59" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="Q27" s="30"/>
     </row>
-    <row r="28" spans="1:17" ht="105">
+    <row r="28" spans="1:17" ht="87">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3636,17 +3659,17 @@
         <v>117</v>
       </c>
       <c r="N28" s="59" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="O28" s="64" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="P28" s="64" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="Q28" s="12"/>
     </row>
-    <row r="29" spans="1:17" ht="150">
+    <row r="29" spans="1:17" ht="130.5">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3687,28 +3710,28 @@
         <v>122</v>
       </c>
       <c r="N29" s="64" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="O29" s="76" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="P29" s="64" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="Q29" s="12"/>
     </row>
-    <row r="30" spans="1:17" ht="210">
+    <row r="30" spans="1:17" ht="188.5">
       <c r="A30" s="16">
         <v>29</v>
       </c>
       <c r="B30" s="50" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D30" s="51" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E30" s="70">
         <v>2018</v>
@@ -3726,7 +3749,7 @@
         <v>460</v>
       </c>
       <c r="J30" s="51" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="K30" s="50" t="s">
         <v>9</v>
@@ -3735,20 +3758,20 @@
         <v>21</v>
       </c>
       <c r="M30" s="52" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="N30" s="61" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="O30" s="68" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="P30" s="59" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="Q30" s="25"/>
     </row>
-    <row r="31" spans="1:17" ht="165">
+    <row r="31" spans="1:17" ht="159.5">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3789,26 +3812,26 @@
         <v>129</v>
       </c>
       <c r="N31" s="59" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="O31" s="64" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P31" s="64" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="Q31" s="12"/>
     </row>
-    <row r="32" spans="1:17" ht="105">
+    <row r="32" spans="1:17" ht="101.5">
       <c r="A32" s="16">
         <v>31</v>
       </c>
       <c r="B32" s="49"/>
       <c r="C32" s="52" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D32" s="51" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E32" s="70">
         <v>2019</v>
@@ -3826,7 +3849,7 @@
         <v>796</v>
       </c>
       <c r="J32" s="51" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="K32" s="50" t="s">
         <v>9</v>
@@ -3835,31 +3858,31 @@
         <v>10</v>
       </c>
       <c r="M32" s="52" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="N32" s="64" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="O32" s="64" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P32" s="72" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="Q32" s="25"/>
     </row>
-    <row r="33" spans="1:17" ht="180">
+    <row r="33" spans="1:17" ht="174">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="73" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C33" s="74" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E33" s="1">
         <v>2021</v>
@@ -3868,7 +3891,7 @@
         <v>3</v>
       </c>
       <c r="G33" s="73" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="H33" s="75" t="s">
         <v>35</v>
@@ -3877,29 +3900,29 @@
         <v>57</v>
       </c>
       <c r="J33" s="73" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="K33" s="73" t="s">
         <v>37</v>
       </c>
       <c r="L33" s="74" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="M33" s="74" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="N33" s="72" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="O33" s="72" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P33" s="72" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="Q33" s="25"/>
     </row>
-    <row r="34" spans="1:17" ht="120">
+    <row r="34" spans="1:17" ht="116">
       <c r="A34" s="16">
         <v>33</v>
       </c>
@@ -3938,17 +3961,17 @@
         <v>188</v>
       </c>
       <c r="N34" s="64" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="O34" s="64" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="P34" s="64" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="Q34" s="25"/>
     </row>
-    <row r="35" spans="1:17" ht="90">
+    <row r="35" spans="1:17" ht="87">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3989,17 +4012,17 @@
         <v>195</v>
       </c>
       <c r="N35" s="59" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="O35" s="64" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="P35" s="68" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="Q35" s="25"/>
     </row>
-    <row r="36" spans="1:17" ht="105">
+    <row r="36" spans="1:17" ht="87">
       <c r="A36" s="16">
         <v>35</v>
       </c>
@@ -4040,17 +4063,17 @@
         <v>200</v>
       </c>
       <c r="N36" s="59" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="O36" s="64" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="P36" s="64" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="Q36" s="25"/>
     </row>
-    <row r="37" spans="1:17" ht="165">
+    <row r="37" spans="1:17" ht="145">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -4091,17 +4114,17 @@
         <v>207</v>
       </c>
       <c r="N37" s="61" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="O37" s="68" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="P37" s="64" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="Q37" s="25"/>
     </row>
-    <row r="38" spans="1:17" ht="120">
+    <row r="38" spans="1:17" ht="116">
       <c r="A38" s="16">
         <v>37</v>
       </c>
@@ -4142,17 +4165,17 @@
         <v>224</v>
       </c>
       <c r="N38" s="59" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="O38" s="64" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="P38" s="64" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="Q38" s="25"/>
     </row>
-    <row r="39" spans="1:17" ht="120">
+    <row r="39" spans="1:17" ht="116">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -4193,17 +4216,17 @@
         <v>215</v>
       </c>
       <c r="N39" s="64" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="O39" s="64" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="P39" s="64" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="Q39" s="25"/>
     </row>
-    <row r="40" spans="1:17" ht="105">
+    <row r="40" spans="1:17" ht="101.5">
       <c r="A40" s="16">
         <v>39</v>
       </c>
@@ -4244,22 +4267,22 @@
         <v>221</v>
       </c>
       <c r="N40" s="61" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="O40" s="68" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="P40" s="64" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="Q40" s="25"/>
     </row>
-    <row r="41" spans="1:17" ht="285">
+    <row r="41" spans="1:17" ht="246.5">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>225</v>
@@ -4295,17 +4318,17 @@
         <v>229</v>
       </c>
       <c r="N41" s="59" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="O41" s="64" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="P41" s="64" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="Q41" s="25"/>
     </row>
-    <row r="42" spans="1:17" ht="165">
+    <row r="42" spans="1:17" ht="145">
       <c r="A42" s="16">
         <v>41</v>
       </c>
@@ -4346,22 +4369,22 @@
         <v>235</v>
       </c>
       <c r="N42" s="64" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="O42" s="64" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P42" s="59" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="Q42" s="25"/>
     </row>
-    <row r="43" spans="1:17" ht="195">
+    <row r="43" spans="1:17" ht="174">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C43" s="41" t="s">
         <v>236</v>
@@ -4397,17 +4420,17 @@
         <v>239</v>
       </c>
       <c r="N43" s="68" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="O43" s="68" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="P43" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="Q43" s="25"/>
     </row>
-    <row r="44" spans="1:17" ht="165">
+    <row r="44" spans="1:17" ht="159.5">
       <c r="A44" s="16">
         <v>43</v>
       </c>
@@ -4448,17 +4471,17 @@
         <v>245</v>
       </c>
       <c r="N44" s="64" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="O44" s="64" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="P44" s="68" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="Q44" s="25"/>
     </row>
-    <row r="45" spans="1:17" ht="120">
+    <row r="45" spans="1:17" ht="116">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4499,17 +4522,17 @@
         <v>250</v>
       </c>
       <c r="N45" s="59" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="O45" s="64" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P45" s="59" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="Q45" s="25"/>
     </row>
-    <row r="46" spans="1:17" ht="135">
+    <row r="46" spans="1:17" ht="116">
       <c r="A46" s="16">
         <v>45</v>
       </c>
@@ -4550,17 +4573,17 @@
         <v>257</v>
       </c>
       <c r="N46" s="59" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="O46" s="64" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="P46" s="64" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="Q46" s="25"/>
     </row>
-    <row r="47" spans="1:17" ht="180">
+    <row r="47" spans="1:17" ht="174">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4599,17 +4622,17 @@
         <v>262</v>
       </c>
       <c r="N47" s="59" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="O47" s="64" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P47" s="59" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="Q47" s="25"/>
     </row>
-    <row r="48" spans="1:17" ht="195">
+    <row r="48" spans="1:17" ht="174">
       <c r="A48" s="16">
         <v>47</v>
       </c>
@@ -4650,28 +4673,28 @@
         <v>268</v>
       </c>
       <c r="N48" s="59" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="O48" s="64" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P48" s="64" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="Q48" s="25"/>
     </row>
-    <row r="49" spans="1:17" ht="225">
+    <row r="49" spans="1:17" ht="203">
       <c r="A49" s="16">
         <v>48</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="D49" s="77" t="s">
-        <v>370</v>
+        <v>363</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>364</v>
       </c>
       <c r="E49" s="1">
         <v>2014</v>
@@ -4679,39 +4702,39 @@
       <c r="F49" s="16">
         <v>3</v>
       </c>
-      <c r="G49" s="78" t="s">
+      <c r="G49" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="H49" s="78" t="s">
+      <c r="H49" s="77" t="s">
         <v>35</v>
       </c>
       <c r="I49" s="16">
         <v>255</v>
       </c>
-      <c r="J49" s="78" t="s">
-        <v>371</v>
-      </c>
-      <c r="K49" s="78" t="s">
+      <c r="J49" s="77" t="s">
+        <v>365</v>
+      </c>
+      <c r="K49" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="L49" s="79" t="s">
+      <c r="L49" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="M49" s="79" t="s">
-        <v>372</v>
-      </c>
-      <c r="N49" s="80" t="s">
-        <v>373</v>
-      </c>
-      <c r="O49" s="80" t="s">
-        <v>332</v>
-      </c>
-      <c r="P49" s="81" t="s">
-        <v>353</v>
+      <c r="M49" s="78" t="s">
+        <v>366</v>
+      </c>
+      <c r="N49" s="79" t="s">
+        <v>367</v>
+      </c>
+      <c r="O49" s="79" t="s">
+        <v>327</v>
+      </c>
+      <c r="P49" s="80" t="s">
+        <v>347</v>
       </c>
       <c r="Q49" s="25"/>
     </row>
-    <row r="50" spans="1:17" ht="165">
+    <row r="50" spans="1:17" ht="145">
       <c r="A50" s="16">
         <v>49</v>
       </c>
@@ -4752,28 +4775,28 @@
         <v>273</v>
       </c>
       <c r="N50" s="61" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="O50" s="68" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="P50" s="60" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="Q50" s="25"/>
     </row>
-    <row r="51" spans="1:17" ht="105">
+    <row r="51" spans="1:17" ht="87">
       <c r="A51" s="16">
         <v>50</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C51" s="58" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D51" s="56" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E51" s="70">
         <v>1991</v>
@@ -4791,7 +4814,7 @@
         <v>128</v>
       </c>
       <c r="J51" s="56" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="K51" s="56" t="s">
         <v>9</v>
@@ -4800,16 +4823,16 @@
         <v>10</v>
       </c>
       <c r="M51" s="58" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="N51" s="68" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="O51" s="68" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="P51" s="64" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="Q51" s="25"/>
     </row>
